--- a/data.xlsx
+++ b/data.xlsx
@@ -8272,10 +8272,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון1"/>
-  <dimension ref="A1:H903"/>
+  <dimension ref="A1:H902"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A876" workbookViewId="0">
-      <selection activeCell="C909" sqref="C909"/>
+      <selection activeCell="A902" sqref="A902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28050,9 +28050,6 @@
       <c r="G902" s="2" t="s">
         <v>2544</v>
       </c>
-    </row>
-    <row r="903" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C903" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A3:G902">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8275,7 +8275,7 @@
   <dimension ref="A1:H902"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A876" workbookViewId="0">
-      <selection activeCell="A902" sqref="A902"/>
+      <selection activeCell="A903" sqref="A903:XFD903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9088,10 +9088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון1"/>
-  <dimension ref="A1:H1007"/>
+  <dimension ref="A1:H1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A968" workbookViewId="0">
-      <selection sqref="A1:A1006"/>
+    <sheetView tabSelected="1" topLeftCell="A974" workbookViewId="0">
+      <selection activeCell="A1006" sqref="A1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31222,9 +31222,6 @@
       <c r="G1006" s="5" t="s">
         <v>2443</v>
       </c>
-    </row>
-    <row r="1007" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1007" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A3:H1002">

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5690" uniqueCount="2872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5738" uniqueCount="2892">
   <si>
     <t>200apps</t>
   </si>
@@ -8630,6 +8630,66 @@
   </si>
   <si>
     <t>https://www.radview.com/company/careers/</t>
+  </si>
+  <si>
+    <t>renovai</t>
+  </si>
+  <si>
+    <t>https://www.renovai.com/company/careers/?utm_source=techmap&amp;utm_medium=map&amp;utm_campaign=card&amp;utm_term=careers</t>
+  </si>
+  <si>
+    <t>Rep AI</t>
+  </si>
+  <si>
+    <t>https://www.hellorep.ai/careers</t>
+  </si>
+  <si>
+    <t>Revuze</t>
+  </si>
+  <si>
+    <t>https://www.revuze.it/about-revuze/career/#careers_sec</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/revuze/jobs/</t>
+  </si>
+  <si>
+    <t>Rhino Health</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/rhinohealth/jobs/</t>
+  </si>
+  <si>
+    <t>Riverbed Technology</t>
+  </si>
+  <si>
+    <t>https://emea-apj-riverbed.icims.com/jobs/search?ss=1&amp;searchLocation=13269--Hod+Hasharon</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/riverbed-technology/jobs/</t>
+  </si>
+  <si>
+    <t>Second Nature</t>
+  </si>
+  <si>
+    <t>https://secondnature.ai/careers/?_gl=1*e3j18v*_up*MQ..*_ga*ODc5NTQ1Mzk3LjE3MTk0MzEzNDU.*_ga_19W8QGMK2W*MTcxOTQzMTM0NC4xLjAuMTcxOTQzMTM0NC4wLjAuMA..</t>
+  </si>
+  <si>
+    <t>SeeCares</t>
+  </si>
+  <si>
+    <t>https://seecares.com/career.html</t>
+  </si>
+  <si>
+    <t>SeismicAI</t>
+  </si>
+  <si>
+    <t>https://seismicai.com/careers/</t>
+  </si>
+  <si>
+    <t>Serenus.AI</t>
+  </si>
+  <si>
+    <t>https://serenusai.com/careers?utm_source=techmap&amp;utm_medium=map&amp;utm_campaign=card&amp;utm_term=careers</t>
   </si>
 </sst>
 </file>
@@ -9088,10 +9148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון1"/>
-  <dimension ref="A1:H1006"/>
+  <dimension ref="A1:H1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A974" workbookViewId="0">
-      <selection activeCell="A1006" sqref="A1006"/>
+    <sheetView tabSelected="1" topLeftCell="A977" workbookViewId="0">
+      <selection activeCell="B1017" sqref="B1017"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26138,16 +26198,13 @@
         <v>779</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C779" s="8" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D779" s="8" t="s">
-        <v>1606</v>
+        <v>2872</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>2873</v>
       </c>
       <c r="E779" s="5" t="s">
-        <v>2265</v>
+        <v>2401</v>
       </c>
       <c r="F779" s="5" t="s">
         <v>2427</v>
@@ -26161,19 +26218,19 @@
         <v>780</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C780" s="8" t="s">
-        <v>1608</v>
+        <v>2874</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>2875</v>
       </c>
       <c r="E780" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F780" s="5" t="s">
-        <v>2451</v>
+        <v>2427</v>
       </c>
       <c r="G780" s="5" t="s">
-        <v>2454</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="781" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26181,22 +26238,22 @@
         <v>781</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="C781" s="8" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="D781" s="8" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="E781" s="5" t="s">
-        <v>2276</v>
+        <v>2265</v>
       </c>
       <c r="F781" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G781" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="782" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26204,19 +26261,22 @@
         <v>782</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1612</v>
+        <v>2876</v>
       </c>
       <c r="C782" s="8" t="s">
-        <v>1613</v>
+        <v>2877</v>
+      </c>
+      <c r="D782" s="8" t="s">
+        <v>2878</v>
       </c>
       <c r="E782" s="5" t="s">
-        <v>2384</v>
+        <v>2265</v>
       </c>
       <c r="F782" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G782" s="5" t="s">
-        <v>2443</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="783" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26224,22 +26284,19 @@
         <v>783</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="C783" s="8" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D783" s="8" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="E783" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F783" s="5" t="s">
-        <v>2427</v>
+        <v>2451</v>
       </c>
       <c r="G783" s="5" t="s">
-        <v>2443</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="784" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26247,13 +26304,13 @@
         <v>784</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C784" s="8" t="s">
-        <v>1618</v>
+        <v>2879</v>
+      </c>
+      <c r="C784" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D784" s="8" t="s">
-        <v>1619</v>
+        <v>2880</v>
       </c>
       <c r="E784" s="5" t="s">
         <v>2265</v>
@@ -26262,7 +26319,7 @@
         <v>2427</v>
       </c>
       <c r="G784" s="5" t="s">
-        <v>2443</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="785" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26270,22 +26327,22 @@
         <v>785</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
       <c r="C785" s="8" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
       <c r="D785" s="8" t="s">
-        <v>1622</v>
+        <v>1611</v>
       </c>
       <c r="E785" s="5" t="s">
-        <v>2265</v>
+        <v>2276</v>
       </c>
       <c r="F785" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G785" s="5" t="s">
-        <v>2482</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="786" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26293,22 +26350,19 @@
         <v>786</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1623</v>
+        <v>1612</v>
       </c>
       <c r="C786" s="8" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D786" s="8" t="s">
-        <v>1625</v>
+        <v>1613</v>
       </c>
       <c r="E786" s="5" t="s">
-        <v>2291</v>
+        <v>2384</v>
       </c>
       <c r="F786" s="5" t="s">
-        <v>2409</v>
+        <v>2427</v>
       </c>
       <c r="G786" s="5" t="s">
-        <v>2478</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="787" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26316,10 +26370,13 @@
         <v>787</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1626</v>
+        <v>1614</v>
       </c>
       <c r="C787" s="8" t="s">
-        <v>1627</v>
+        <v>1615</v>
+      </c>
+      <c r="D787" s="8" t="s">
+        <v>1616</v>
       </c>
       <c r="E787" s="5" t="s">
         <v>2265</v>
@@ -26328,7 +26385,7 @@
         <v>2427</v>
       </c>
       <c r="G787" s="5" t="s">
-        <v>2482</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="788" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26336,16 +26393,22 @@
         <v>788</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1628</v>
+        <v>2881</v>
       </c>
       <c r="C788" s="8" t="s">
-        <v>1629</v>
+        <v>2882</v>
+      </c>
+      <c r="D788" s="8" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E788" s="5" t="s">
+        <v>2265</v>
       </c>
       <c r="F788" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G788" s="5" t="s">
-        <v>2443</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="789" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26353,13 +26416,16 @@
         <v>789</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1630</v>
+        <v>1617</v>
       </c>
       <c r="C789" s="8" t="s">
-        <v>1631</v>
+        <v>1618</v>
+      </c>
+      <c r="D789" s="8" t="s">
+        <v>1619</v>
       </c>
       <c r="E789" s="5" t="s">
-        <v>2302</v>
+        <v>2265</v>
       </c>
       <c r="F789" s="5" t="s">
         <v>2427</v>
@@ -26373,22 +26439,22 @@
         <v>790</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1632</v>
+        <v>1620</v>
       </c>
       <c r="C790" s="8" t="s">
-        <v>1633</v>
+        <v>1621</v>
       </c>
       <c r="D790" s="8" t="s">
-        <v>2499</v>
+        <v>1622</v>
       </c>
       <c r="E790" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="F790" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G790" s="5" t="s">
-        <v>2461</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="791" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26396,22 +26462,22 @@
         <v>791</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1634</v>
+        <v>1623</v>
       </c>
       <c r="C791" s="8" t="s">
-        <v>1635</v>
+        <v>1624</v>
       </c>
       <c r="D791" s="8" t="s">
-        <v>1636</v>
+        <v>1625</v>
       </c>
       <c r="E791" s="5" t="s">
-        <v>2274</v>
+        <v>2291</v>
       </c>
       <c r="F791" s="5" t="s">
-        <v>2427</v>
+        <v>2409</v>
       </c>
       <c r="G791" s="5" t="s">
-        <v>2443</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="792" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26419,22 +26485,19 @@
         <v>792</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C792" s="4" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D792" s="8" t="s">
-        <v>1638</v>
+        <v>1626</v>
+      </c>
+      <c r="C792" s="8" t="s">
+        <v>1627</v>
       </c>
       <c r="E792" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F792" s="5" t="s">
-        <v>2441</v>
+        <v>2427</v>
       </c>
       <c r="G792" s="5" t="s">
-        <v>2442</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="793" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26442,16 +26505,10 @@
         <v>793</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="C793" s="8" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D793" s="8" t="s">
-        <v>1641</v>
-      </c>
-      <c r="E793" s="5" t="s">
-        <v>2265</v>
+        <v>1629</v>
       </c>
       <c r="F793" s="5" t="s">
         <v>2427</v>
@@ -26465,16 +26522,13 @@
         <v>794</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1642</v>
+        <v>1630</v>
       </c>
       <c r="C794" s="8" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D794" s="8" t="s">
-        <v>1644</v>
+        <v>1631</v>
       </c>
       <c r="E794" s="5" t="s">
-        <v>2274</v>
+        <v>2302</v>
       </c>
       <c r="F794" s="5" t="s">
         <v>2427</v>
@@ -26488,19 +26542,22 @@
         <v>795</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1645</v>
+        <v>1632</v>
       </c>
       <c r="C795" s="8" t="s">
-        <v>1646</v>
+        <v>1633</v>
+      </c>
+      <c r="D795" s="8" t="s">
+        <v>2499</v>
       </c>
       <c r="E795" s="5" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="F795" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G795" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="796" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26508,19 +26565,22 @@
         <v>796</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1647</v>
+        <v>1634</v>
       </c>
       <c r="C796" s="8" t="s">
-        <v>1648</v>
+        <v>1635</v>
+      </c>
+      <c r="D796" s="8" t="s">
+        <v>1636</v>
       </c>
       <c r="E796" s="5" t="s">
-        <v>2282</v>
+        <v>2274</v>
       </c>
       <c r="F796" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G796" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="797" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26528,22 +26588,22 @@
         <v>797</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C797" s="8" t="s">
-        <v>1650</v>
+        <v>1637</v>
+      </c>
+      <c r="C797" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D797" s="8" t="s">
-        <v>1651</v>
+        <v>1638</v>
       </c>
       <c r="E797" s="5" t="s">
-        <v>2282</v>
+        <v>2270</v>
       </c>
       <c r="F797" s="5" t="s">
-        <v>2427</v>
+        <v>2441</v>
       </c>
       <c r="G797" s="5" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="798" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26551,22 +26611,22 @@
         <v>798</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1652</v>
+        <v>1639</v>
       </c>
       <c r="C798" s="8" t="s">
-        <v>1653</v>
+        <v>1640</v>
       </c>
       <c r="D798" s="8" t="s">
-        <v>2406</v>
+        <v>1641</v>
       </c>
       <c r="E798" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F798" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G798" s="5" t="s">
-        <v>2481</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="799" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26574,22 +26634,22 @@
         <v>799</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1654</v>
+        <v>1642</v>
       </c>
       <c r="C799" s="8" t="s">
-        <v>1655</v>
+        <v>1643</v>
       </c>
       <c r="D799" s="8" t="s">
-        <v>1656</v>
+        <v>1644</v>
       </c>
       <c r="E799" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F799" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G799" s="5" t="s">
-        <v>2464</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="800" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26597,19 +26657,19 @@
         <v>800</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="C800" s="8" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="E800" s="5" t="s">
-        <v>2407</v>
+        <v>2265</v>
       </c>
       <c r="F800" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G800" s="5" t="s">
-        <v>2463</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="801" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26617,22 +26677,19 @@
         <v>801</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1659</v>
+        <v>1647</v>
       </c>
       <c r="C801" s="8" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D801" s="8" t="s">
-        <v>1661</v>
+        <v>1648</v>
       </c>
       <c r="E801" s="5" t="s">
-        <v>2265</v>
+        <v>2282</v>
       </c>
       <c r="F801" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G801" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="802" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26640,22 +26697,22 @@
         <v>802</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>2155</v>
+        <v>1649</v>
       </c>
       <c r="C802" s="8" t="s">
-        <v>2156</v>
+        <v>1650</v>
       </c>
       <c r="D802" s="8" t="s">
-        <v>2157</v>
+        <v>1651</v>
       </c>
       <c r="E802" s="5" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="F802" s="5" t="s">
-        <v>2445</v>
+        <v>2427</v>
       </c>
       <c r="G802" s="5" t="s">
-        <v>2471</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="803" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26663,22 +26720,22 @@
         <v>803</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>2624</v>
+        <v>1652</v>
       </c>
       <c r="C803" s="8" t="s">
-        <v>2625</v>
+        <v>1653</v>
       </c>
       <c r="D803" s="8" t="s">
-        <v>2626</v>
+        <v>2406</v>
       </c>
       <c r="E803" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F803" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G803" s="5" t="s">
-        <v>2443</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="804" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26686,19 +26743,22 @@
         <v>804</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="C804" s="8" t="s">
-        <v>1663</v>
+        <v>1655</v>
+      </c>
+      <c r="D804" s="8" t="s">
+        <v>1656</v>
       </c>
       <c r="E804" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F804" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G804" s="5" t="s">
-        <v>2481</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="805" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26706,22 +26766,19 @@
         <v>805</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="C805" s="8" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D805" s="8" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="E805" s="5" t="s">
-        <v>2265</v>
+        <v>2407</v>
       </c>
       <c r="F805" s="5" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="G805" s="5" t="s">
-        <v>2446</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="806" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26729,10 +26786,13 @@
         <v>806</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="C806" s="8" t="s">
-        <v>1668</v>
+        <v>1660</v>
+      </c>
+      <c r="D806" s="8" t="s">
+        <v>1661</v>
       </c>
       <c r="E806" s="5" t="s">
         <v>2265</v>
@@ -26749,22 +26809,22 @@
         <v>807</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1669</v>
+        <v>2155</v>
       </c>
       <c r="C807" s="8" t="s">
-        <v>1670</v>
+        <v>2156</v>
       </c>
       <c r="D807" s="8" t="s">
-        <v>1671</v>
+        <v>2157</v>
       </c>
       <c r="E807" s="5" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="F807" s="5" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="G807" s="5" t="s">
-        <v>2481</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="808" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26772,19 +26832,22 @@
         <v>808</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1672</v>
+        <v>2624</v>
       </c>
       <c r="C808" s="8" t="s">
-        <v>1673</v>
+        <v>2625</v>
+      </c>
+      <c r="D808" s="8" t="s">
+        <v>2626</v>
       </c>
       <c r="E808" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F808" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G808" s="5" t="s">
-        <v>2477</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="809" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26792,19 +26855,19 @@
         <v>809</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1674</v>
+        <v>1662</v>
       </c>
       <c r="C809" s="8" t="s">
-        <v>1675</v>
+        <v>1663</v>
       </c>
       <c r="E809" s="5" t="s">
-        <v>2292</v>
+        <v>2265</v>
       </c>
       <c r="F809" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G809" s="5" t="s">
-        <v>2443</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="810" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26812,22 +26875,22 @@
         <v>810</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1676</v>
+        <v>1664</v>
       </c>
       <c r="C810" s="8" t="s">
-        <v>1677</v>
+        <v>1665</v>
       </c>
       <c r="D810" s="8" t="s">
-        <v>1678</v>
+        <v>1666</v>
       </c>
       <c r="E810" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F810" s="5" t="s">
-        <v>2427</v>
+        <v>2445</v>
       </c>
       <c r="G810" s="5" t="s">
-        <v>2443</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="811" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26835,22 +26898,19 @@
         <v>811</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1679</v>
+        <v>2884</v>
       </c>
       <c r="C811" s="8" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D811" s="8" t="s">
-        <v>1681</v>
+        <v>2885</v>
       </c>
       <c r="E811" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F811" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G811" s="5" t="s">
-        <v>2453</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="812" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26858,13 +26918,13 @@
         <v>812</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1682</v>
+        <v>1667</v>
       </c>
       <c r="C812" s="8" t="s">
-        <v>1683</v>
+        <v>1668</v>
       </c>
       <c r="E812" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F812" s="5" t="s">
         <v>2427</v>
@@ -26878,16 +26938,13 @@
         <v>813</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1684</v>
+        <v>2886</v>
       </c>
       <c r="C813" s="8" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D813" s="8" t="s">
-        <v>1686</v>
+        <v>2887</v>
       </c>
       <c r="E813" s="5" t="s">
-        <v>2274</v>
+        <v>2322</v>
       </c>
       <c r="F813" s="5" t="s">
         <v>2427</v>
@@ -26901,22 +26958,22 @@
         <v>814</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1687</v>
+        <v>1669</v>
       </c>
       <c r="C814" s="8" t="s">
-        <v>1688</v>
+        <v>1670</v>
       </c>
       <c r="D814" s="8" t="s">
-        <v>1689</v>
+        <v>1671</v>
       </c>
       <c r="E814" s="5" t="s">
-        <v>2274</v>
+        <v>2279</v>
       </c>
       <c r="F814" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G814" s="5" t="s">
-        <v>2443</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="815" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26924,22 +26981,19 @@
         <v>815</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1690</v>
+        <v>1672</v>
       </c>
       <c r="C815" s="8" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D815" s="8" t="s">
-        <v>1692</v>
+        <v>1673</v>
       </c>
       <c r="E815" s="5" t="s">
-        <v>2330</v>
+        <v>2265</v>
       </c>
       <c r="F815" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G815" s="5" t="s">
-        <v>2443</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="816" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26947,13 +27001,13 @@
         <v>816</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1693</v>
+        <v>1674</v>
       </c>
       <c r="C816" s="8" t="s">
-        <v>1694</v>
+        <v>1675</v>
       </c>
       <c r="E816" s="5" t="s">
-        <v>2274</v>
+        <v>2292</v>
       </c>
       <c r="F816" s="5" t="s">
         <v>2427</v>
@@ -26967,22 +27021,22 @@
         <v>817</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1695</v>
+        <v>1676</v>
       </c>
       <c r="C817" s="8" t="s">
-        <v>1696</v>
+        <v>1677</v>
       </c>
       <c r="D817" s="8" t="s">
-        <v>1697</v>
+        <v>1678</v>
       </c>
       <c r="E817" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F817" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G817" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="818" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26990,22 +27044,19 @@
         <v>818</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C818" s="4" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D818" s="8" t="s">
-        <v>1699</v>
+        <v>2888</v>
+      </c>
+      <c r="C818" s="8" t="s">
+        <v>2889</v>
       </c>
       <c r="E818" s="5" t="s">
-        <v>2379</v>
+        <v>2265</v>
       </c>
       <c r="F818" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G818" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="819" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27013,19 +27064,22 @@
         <v>819</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1700</v>
+        <v>1679</v>
       </c>
       <c r="C819" s="8" t="s">
-        <v>1701</v>
+        <v>1680</v>
+      </c>
+      <c r="D819" s="8" t="s">
+        <v>1681</v>
       </c>
       <c r="E819" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F819" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G819" s="5" t="s">
-        <v>2443</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="820" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27033,22 +27087,19 @@
         <v>820</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>2246</v>
+        <v>1682</v>
       </c>
       <c r="C820" s="8" t="s">
-        <v>2247</v>
-      </c>
-      <c r="D820" s="8" t="s">
-        <v>2248</v>
+        <v>1683</v>
       </c>
       <c r="E820" s="5" t="s">
-        <v>2267</v>
+        <v>2279</v>
       </c>
       <c r="F820" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G820" s="5" t="s">
-        <v>2477</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="821" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27056,22 +27107,22 @@
         <v>821</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>2670</v>
-      </c>
-      <c r="C821" s="1" t="s">
-        <v>2669</v>
+        <v>1684</v>
+      </c>
+      <c r="C821" s="8" t="s">
+        <v>1685</v>
       </c>
       <c r="D821" s="8" t="s">
-        <v>2671</v>
+        <v>1686</v>
       </c>
       <c r="E821" s="5" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="F821" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G821" s="5" t="s">
-        <v>2482</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="822" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27079,22 +27130,22 @@
         <v>822</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C822" s="4" t="s">
-        <v>2196</v>
+        <v>1687</v>
+      </c>
+      <c r="C822" s="8" t="s">
+        <v>1688</v>
       </c>
       <c r="D822" s="8" t="s">
-        <v>1703</v>
+        <v>1689</v>
       </c>
       <c r="E822" s="5" t="s">
-        <v>2267</v>
+        <v>2274</v>
       </c>
       <c r="F822" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G822" s="5" t="s">
-        <v>2482</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="823" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27102,22 +27153,22 @@
         <v>823</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>2324</v>
+        <v>1690</v>
       </c>
       <c r="C823" s="8" t="s">
-        <v>672</v>
+        <v>1691</v>
       </c>
       <c r="D823" s="8" t="s">
-        <v>673</v>
+        <v>1692</v>
       </c>
       <c r="E823" s="5" t="s">
-        <v>2267</v>
+        <v>2330</v>
       </c>
       <c r="F823" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G823" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="824" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27125,16 +27176,13 @@
         <v>824</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
       <c r="C824" s="8" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D824" s="8" t="s">
-        <v>1706</v>
+        <v>1694</v>
       </c>
       <c r="E824" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F824" s="5" t="s">
         <v>2427</v>
@@ -27148,22 +27196,19 @@
         <v>825</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>1707</v>
+        <v>2890</v>
       </c>
       <c r="C825" s="8" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D825" s="8" t="s">
-        <v>1709</v>
+        <v>2891</v>
       </c>
       <c r="E825" s="5" t="s">
-        <v>2401</v>
+        <v>2272</v>
       </c>
       <c r="F825" s="5" t="s">
-        <v>2451</v>
+        <v>2427</v>
       </c>
       <c r="G825" s="5" t="s">
-        <v>2460</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="826" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27171,22 +27216,22 @@
         <v>826</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1710</v>
+        <v>1695</v>
       </c>
       <c r="C826" s="8" t="s">
-        <v>1711</v>
+        <v>1696</v>
       </c>
       <c r="D826" s="8" t="s">
-        <v>1712</v>
+        <v>1697</v>
       </c>
       <c r="E826" s="5" t="s">
-        <v>2379</v>
+        <v>2265</v>
       </c>
       <c r="F826" s="5" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
       <c r="G826" s="5" t="s">
-        <v>2305</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="827" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27194,19 +27239,22 @@
         <v>827</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C827" s="8" t="s">
-        <v>1714</v>
+        <v>1698</v>
+      </c>
+      <c r="C827" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D827" s="8" t="s">
+        <v>1699</v>
       </c>
       <c r="E827" s="5" t="s">
-        <v>2265</v>
+        <v>2379</v>
       </c>
       <c r="F827" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G827" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="828" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27214,13 +27262,10 @@
         <v>828</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C828" s="4" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D828" s="8" t="s">
-        <v>1716</v>
+        <v>1700</v>
+      </c>
+      <c r="C828" s="8" t="s">
+        <v>1701</v>
       </c>
       <c r="E828" s="5" t="s">
         <v>2265</v>
@@ -27237,22 +27282,22 @@
         <v>829</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C829" s="4" t="s">
-        <v>2196</v>
+        <v>2246</v>
+      </c>
+      <c r="C829" s="8" t="s">
+        <v>2247</v>
       </c>
       <c r="D829" s="8" t="s">
-        <v>1718</v>
+        <v>2248</v>
       </c>
       <c r="E829" s="5" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="F829" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G829" s="5" t="s">
-        <v>2443</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="830" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27260,16 +27305,22 @@
         <v>830</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C830" s="8" t="s">
-        <v>1720</v>
+        <v>2670</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D830" s="8" t="s">
+        <v>2671</v>
       </c>
       <c r="E830" s="5" t="s">
-        <v>2270</v>
+        <v>2278</v>
       </c>
       <c r="F830" s="5" t="s">
-        <v>2305</v>
+        <v>2427</v>
+      </c>
+      <c r="G830" s="5" t="s">
+        <v>2482</v>
       </c>
     </row>
     <row r="831" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27277,22 +27328,22 @@
         <v>831</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>2213</v>
-      </c>
-      <c r="C831" s="8" t="s">
-        <v>2214</v>
+        <v>1702</v>
+      </c>
+      <c r="C831" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D831" s="8" t="s">
-        <v>2215</v>
+        <v>1703</v>
       </c>
       <c r="E831" s="5" t="s">
-        <v>2278</v>
+        <v>2267</v>
       </c>
       <c r="F831" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G831" s="5" t="s">
-        <v>2443</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="832" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27300,22 +27351,22 @@
         <v>832</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>2341</v>
+        <v>2324</v>
       </c>
       <c r="C832" s="8" t="s">
-        <v>2342</v>
+        <v>672</v>
       </c>
       <c r="D832" s="8" t="s">
-        <v>2343</v>
+        <v>673</v>
       </c>
       <c r="E832" s="5" t="s">
-        <v>2274</v>
+        <v>2267</v>
       </c>
       <c r="F832" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G832" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="833" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27323,16 +27374,16 @@
         <v>833</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1721</v>
+        <v>1704</v>
       </c>
       <c r="C833" s="8" t="s">
-        <v>1722</v>
+        <v>1705</v>
       </c>
       <c r="D833" s="8" t="s">
-        <v>1723</v>
+        <v>1706</v>
       </c>
       <c r="E833" s="5" t="s">
-        <v>2408</v>
+        <v>2265</v>
       </c>
       <c r="F833" s="5" t="s">
         <v>2427</v>
@@ -27346,22 +27397,22 @@
         <v>834</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1724</v>
+        <v>1707</v>
       </c>
       <c r="C834" s="8" t="s">
-        <v>1725</v>
+        <v>1708</v>
       </c>
       <c r="D834" s="8" t="s">
-        <v>1726</v>
+        <v>1709</v>
       </c>
       <c r="E834" s="5" t="s">
-        <v>2279</v>
+        <v>2401</v>
       </c>
       <c r="F834" s="5" t="s">
-        <v>2427</v>
+        <v>2451</v>
       </c>
       <c r="G834" s="5" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="835" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27369,22 +27420,22 @@
         <v>835</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1727</v>
+        <v>1710</v>
       </c>
       <c r="C835" s="8" t="s">
-        <v>1728</v>
+        <v>1711</v>
       </c>
       <c r="D835" s="8" t="s">
-        <v>1729</v>
+        <v>1712</v>
       </c>
       <c r="E835" s="5" t="s">
-        <v>2283</v>
+        <v>2379</v>
       </c>
       <c r="F835" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G835" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="836" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27392,13 +27443,10 @@
         <v>836</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1730</v>
+        <v>1713</v>
       </c>
       <c r="C836" s="8" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D836" s="8" t="s">
-        <v>1732</v>
+        <v>1714</v>
       </c>
       <c r="E836" s="5" t="s">
         <v>2265</v>
@@ -27415,22 +27463,22 @@
         <v>837</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C837" s="8" t="s">
-        <v>1734</v>
+        <v>1715</v>
+      </c>
+      <c r="C837" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D837" s="8" t="s">
-        <v>1735</v>
+        <v>1716</v>
       </c>
       <c r="E837" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F837" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G837" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="838" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27438,22 +27486,22 @@
         <v>838</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>2158</v>
+        <v>1717</v>
       </c>
       <c r="C838" s="4" t="s">
         <v>2196</v>
       </c>
       <c r="D838" s="8" t="s">
-        <v>2159</v>
+        <v>1718</v>
       </c>
       <c r="E838" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F838" s="5" t="s">
-        <v>2445</v>
+        <v>2427</v>
       </c>
       <c r="G838" s="5" t="s">
-        <v>2495</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="839" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27461,22 +27509,16 @@
         <v>839</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1736</v>
+        <v>1719</v>
       </c>
       <c r="C839" s="8" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D839" s="8" t="s">
-        <v>1738</v>
+        <v>1720</v>
       </c>
       <c r="E839" s="5" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="F839" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G839" s="5" t="s">
-        <v>2461</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="840" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27484,19 +27526,22 @@
         <v>840</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>2262</v>
+        <v>2213</v>
       </c>
       <c r="C840" s="8" t="s">
-        <v>2263</v>
+        <v>2214</v>
       </c>
       <c r="D840" s="8" t="s">
-        <v>2264</v>
+        <v>2215</v>
       </c>
       <c r="E840" s="5" t="s">
-        <v>2265</v>
+        <v>2278</v>
       </c>
       <c r="F840" s="5" t="s">
-        <v>2305</v>
+        <v>2427</v>
+      </c>
+      <c r="G840" s="5" t="s">
+        <v>2443</v>
       </c>
     </row>
     <row r="841" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27504,22 +27549,22 @@
         <v>841</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1739</v>
+        <v>2341</v>
       </c>
       <c r="C841" s="8" t="s">
-        <v>1740</v>
+        <v>2342</v>
       </c>
       <c r="D841" s="8" t="s">
-        <v>1741</v>
+        <v>2343</v>
       </c>
       <c r="E841" s="5" t="s">
-        <v>2318</v>
+        <v>2274</v>
       </c>
       <c r="F841" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G841" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="842" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27527,22 +27572,22 @@
         <v>842</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C842" s="4" t="s">
-        <v>2196</v>
+        <v>1721</v>
+      </c>
+      <c r="C842" s="8" t="s">
+        <v>1722</v>
       </c>
       <c r="D842" s="8" t="s">
-        <v>1743</v>
+        <v>1723</v>
       </c>
       <c r="E842" s="5" t="s">
-        <v>2284</v>
+        <v>2408</v>
       </c>
       <c r="F842" s="5" t="s">
-        <v>2441</v>
+        <v>2427</v>
       </c>
       <c r="G842" s="5" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="843" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27550,16 +27595,22 @@
         <v>843</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1744</v>
+        <v>1724</v>
       </c>
       <c r="C843" s="8" t="s">
-        <v>1745</v>
+        <v>1725</v>
+      </c>
+      <c r="D843" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E843" s="5" t="s">
+        <v>2279</v>
       </c>
       <c r="F843" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G843" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="844" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27567,13 +27618,22 @@
         <v>844</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1746</v>
+        <v>1727</v>
       </c>
       <c r="C844" s="8" t="s">
-        <v>1747</v>
+        <v>1728</v>
+      </c>
+      <c r="D844" s="8" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E844" s="5" t="s">
+        <v>2283</v>
       </c>
       <c r="F844" s="5" t="s">
-        <v>2409</v>
+        <v>2427</v>
+      </c>
+      <c r="G844" s="5" t="s">
+        <v>2443</v>
       </c>
     </row>
     <row r="845" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27581,13 +27641,16 @@
         <v>845</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1748</v>
+        <v>1730</v>
       </c>
       <c r="C845" s="8" t="s">
-        <v>1749</v>
+        <v>1731</v>
+      </c>
+      <c r="D845" s="8" t="s">
+        <v>1732</v>
       </c>
       <c r="E845" s="5" t="s">
-        <v>2410</v>
+        <v>2265</v>
       </c>
       <c r="F845" s="5" t="s">
         <v>2427</v>
@@ -27601,19 +27664,22 @@
         <v>846</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1750</v>
+        <v>1733</v>
       </c>
       <c r="C846" s="8" t="s">
-        <v>1751</v>
+        <v>1734</v>
+      </c>
+      <c r="D846" s="8" t="s">
+        <v>1735</v>
       </c>
       <c r="E846" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F846" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G846" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="847" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27621,22 +27687,22 @@
         <v>847</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C847" s="8" t="s">
-        <v>1753</v>
+        <v>2158</v>
+      </c>
+      <c r="C847" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D847" s="8" t="s">
-        <v>1754</v>
+        <v>2159</v>
       </c>
       <c r="E847" s="5" t="s">
-        <v>2281</v>
+        <v>2265</v>
       </c>
       <c r="F847" s="5" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="G847" s="5" t="s">
-        <v>2463</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="848" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27644,148 +27710,133 @@
         <v>848</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1755</v>
+        <v>1736</v>
       </c>
       <c r="C848" s="8" t="s">
-        <v>1756</v>
+        <v>1737</v>
       </c>
       <c r="D848" s="8" t="s">
-        <v>1757</v>
+        <v>1738</v>
       </c>
       <c r="E848" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F848" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G848" s="5" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="849" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2">
         <v>849</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1758</v>
+        <v>2262</v>
       </c>
       <c r="C849" s="8" t="s">
-        <v>1759</v>
+        <v>2263</v>
+      </c>
+      <c r="D849" s="8" t="s">
+        <v>2264</v>
       </c>
       <c r="E849" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F849" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G849" s="5" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="850" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2">
         <v>850</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>2613</v>
+        <v>1739</v>
       </c>
       <c r="C850" s="8" t="s">
-        <v>2612</v>
+        <v>1740</v>
       </c>
       <c r="D850" s="8" t="s">
-        <v>2614</v>
+        <v>1741</v>
       </c>
       <c r="E850" s="5" t="s">
-        <v>2274</v>
+        <v>2318</v>
       </c>
       <c r="F850" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G850" s="5" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="851" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2">
         <v>851</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C851" s="8" t="s">
-        <v>1761</v>
+        <v>1742</v>
+      </c>
+      <c r="C851" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D851" s="8" t="s">
-        <v>1762</v>
+        <v>1743</v>
       </c>
       <c r="E851" s="5" t="s">
-        <v>2265</v>
+        <v>2284</v>
       </c>
       <c r="F851" s="5" t="s">
-        <v>2305</v>
+        <v>2441</v>
       </c>
       <c r="G851" s="5" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="852" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2">
         <v>852</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>2160</v>
+        <v>1744</v>
       </c>
       <c r="C852" s="8" t="s">
-        <v>2161</v>
-      </c>
-      <c r="E852" s="5" t="s">
-        <v>2279</v>
+        <v>1745</v>
       </c>
       <c r="F852" s="5" t="s">
-        <v>2445</v>
+        <v>2427</v>
       </c>
       <c r="G852" s="5" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="853" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2">
         <v>853</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1763</v>
+        <v>1746</v>
       </c>
       <c r="C853" s="8" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D853" s="8" t="s">
-        <v>1765</v>
-      </c>
-      <c r="E853" s="5" t="s">
-        <v>2265</v>
+        <v>1747</v>
       </c>
       <c r="F853" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G853" s="5" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="854" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2">
         <v>854</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>1766</v>
+        <v>1748</v>
       </c>
       <c r="C854" s="8" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D854" s="8" t="s">
-        <v>2411</v>
+        <v>1749</v>
       </c>
       <c r="E854" s="5" t="s">
-        <v>2279</v>
+        <v>2410</v>
       </c>
       <c r="F854" s="5" t="s">
         <v>2427</v>
@@ -27794,18 +27845,18 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="855" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2">
         <v>855</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1768</v>
+        <v>1750</v>
       </c>
       <c r="C855" s="8" t="s">
-        <v>1769</v>
+        <v>1751</v>
       </c>
       <c r="E855" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F855" s="5" t="s">
         <v>2427</v>
@@ -27814,41 +27865,41 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="856" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2">
         <v>856</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1770</v>
+        <v>1752</v>
       </c>
       <c r="C856" s="8" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="D856" s="8" t="s">
-        <v>1772</v>
+        <v>1754</v>
       </c>
       <c r="E856" s="5" t="s">
-        <v>2265</v>
+        <v>2281</v>
       </c>
       <c r="F856" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G856" s="5" t="s">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="857" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2">
         <v>857</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="C857" s="8" t="s">
-        <v>1774</v>
+        <v>1756</v>
       </c>
       <c r="D857" s="8" t="s">
-        <v>1775</v>
+        <v>1757</v>
       </c>
       <c r="E857" s="5" t="s">
         <v>2265</v>
@@ -27860,44 +27911,41 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="858" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2">
         <v>858</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>1776</v>
+        <v>1758</v>
       </c>
       <c r="C858" s="8" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D858" s="8" t="s">
-        <v>1778</v>
+        <v>1759</v>
       </c>
       <c r="E858" s="5" t="s">
-        <v>2338</v>
+        <v>2265</v>
       </c>
       <c r="F858" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G858" s="5" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="859" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2">
         <v>859</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1779</v>
+        <v>2613</v>
       </c>
       <c r="C859" s="8" t="s">
-        <v>1780</v>
+        <v>2612</v>
       </c>
       <c r="D859" s="8" t="s">
-        <v>2412</v>
+        <v>2614</v>
       </c>
       <c r="E859" s="5" t="s">
-        <v>2413</v>
+        <v>2274</v>
       </c>
       <c r="F859" s="5" t="s">
         <v>2427</v>
@@ -27906,64 +27954,64 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="860" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2">
         <v>860</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1781</v>
+        <v>1760</v>
       </c>
       <c r="C860" s="8" t="s">
-        <v>1782</v>
+        <v>1761</v>
+      </c>
+      <c r="D860" s="8" t="s">
+        <v>1762</v>
       </c>
       <c r="E860" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F860" s="5" t="s">
-        <v>2427</v>
+        <v>2305</v>
       </c>
       <c r="G860" s="5" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="861" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2">
         <v>861</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1783</v>
+        <v>2160</v>
       </c>
       <c r="C861" s="8" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D861" s="8" t="s">
-        <v>1785</v>
+        <v>2161</v>
       </c>
       <c r="E861" s="5" t="s">
-        <v>2274</v>
+        <v>2279</v>
       </c>
       <c r="F861" s="5" t="s">
-        <v>2427</v>
+        <v>2445</v>
       </c>
       <c r="G861" s="5" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="862" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2">
         <v>862</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1786</v>
+        <v>1763</v>
       </c>
       <c r="C862" s="8" t="s">
-        <v>1787</v>
+        <v>1764</v>
       </c>
       <c r="D862" s="8" t="s">
-        <v>1788</v>
+        <v>1765</v>
       </c>
       <c r="E862" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F862" s="5" t="s">
         <v>2427</v>
@@ -27971,137 +28019,134 @@
       <c r="G862" s="5" t="s">
         <v>2443</v>
       </c>
-      <c r="H862" s="5"/>
-    </row>
-    <row r="863" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="863" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2">
         <v>863</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1789</v>
+        <v>1766</v>
       </c>
       <c r="C863" s="8" t="s">
-        <v>1790</v>
+        <v>1767</v>
       </c>
       <c r="D863" s="8" t="s">
-        <v>1791</v>
+        <v>2411</v>
       </c>
       <c r="E863" s="5" t="s">
-        <v>2270</v>
+        <v>2279</v>
       </c>
       <c r="F863" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G863" s="5" t="s">
-        <v>2455</v>
-      </c>
-      <c r="H863" s="5"/>
-    </row>
-    <row r="864" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2">
         <v>864</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1792</v>
+        <v>1768</v>
       </c>
       <c r="C864" s="8" t="s">
-        <v>1793</v>
+        <v>1769</v>
       </c>
       <c r="E864" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F864" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G864" s="5" t="s">
-        <v>2483</v>
-      </c>
-      <c r="H864" s="5"/>
+        <v>2443</v>
+      </c>
     </row>
     <row r="865" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2">
         <v>865</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1794</v>
+        <v>1770</v>
       </c>
       <c r="C865" s="8" t="s">
-        <v>1795</v>
+        <v>1771</v>
       </c>
       <c r="D865" s="8" t="s">
-        <v>1796</v>
+        <v>1772</v>
       </c>
       <c r="E865" s="5" t="s">
-        <v>2284</v>
+        <v>2265</v>
       </c>
       <c r="F865" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G865" s="5" t="s">
-        <v>2485</v>
-      </c>
-      <c r="H865" s="5"/>
+        <v>2482</v>
+      </c>
     </row>
     <row r="866" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2">
         <v>866</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1797</v>
+        <v>1773</v>
       </c>
       <c r="C866" s="8" t="s">
-        <v>1798</v>
+        <v>1774</v>
       </c>
       <c r="D866" s="8" t="s">
-        <v>1799</v>
+        <v>1775</v>
       </c>
       <c r="E866" s="5" t="s">
-        <v>2405</v>
+        <v>2265</v>
       </c>
       <c r="F866" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G866" s="5" t="s">
-        <v>2455</v>
-      </c>
-      <c r="H866" s="5"/>
+        <v>2477</v>
+      </c>
     </row>
     <row r="867" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2">
         <v>867</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>2162</v>
+        <v>1776</v>
       </c>
       <c r="C867" s="8" t="s">
-        <v>2163</v>
+        <v>1777</v>
+      </c>
+      <c r="D867" s="8" t="s">
+        <v>1778</v>
       </c>
       <c r="E867" s="5" t="s">
-        <v>2270</v>
+        <v>2338</v>
       </c>
       <c r="F867" s="5" t="s">
-        <v>2441</v>
+        <v>2427</v>
       </c>
       <c r="G867" s="5" t="s">
-        <v>2442</v>
-      </c>
-      <c r="H867" s="5"/>
+        <v>2443</v>
+      </c>
     </row>
     <row r="868" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2">
         <v>868</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>2164</v>
+        <v>1779</v>
       </c>
       <c r="C868" s="8" t="s">
-        <v>2165</v>
+        <v>1780</v>
       </c>
       <c r="D868" s="8" t="s">
-        <v>2166</v>
+        <v>2412</v>
       </c>
       <c r="E868" s="5" t="s">
-        <v>2270</v>
+        <v>2413</v>
       </c>
       <c r="F868" s="5" t="s">
         <v>2427</v>
@@ -28109,44 +28154,39 @@
       <c r="G868" s="5" t="s">
         <v>2443</v>
       </c>
-      <c r="H868" s="5"/>
     </row>
     <row r="869" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2">
         <v>869</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1800</v>
+        <v>1781</v>
       </c>
       <c r="C869" s="8" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D869" s="8" t="s">
-        <v>1802</v>
+        <v>1782</v>
       </c>
       <c r="E869" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F869" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G869" s="5" t="s">
-        <v>2496</v>
-      </c>
-      <c r="H869" s="5"/>
+        <v>2443</v>
+      </c>
     </row>
     <row r="870" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2">
         <v>870</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1803</v>
+        <v>1783</v>
       </c>
       <c r="C870" s="8" t="s">
-        <v>1804</v>
+        <v>1784</v>
       </c>
       <c r="D870" s="8" t="s">
-        <v>2414</v>
+        <v>1785</v>
       </c>
       <c r="E870" s="5" t="s">
         <v>2274</v>
@@ -28155,25 +28195,24 @@
         <v>2427</v>
       </c>
       <c r="G870" s="5" t="s">
-        <v>2482</v>
-      </c>
-      <c r="H870" s="5"/>
+        <v>2443</v>
+      </c>
     </row>
     <row r="871" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2">
         <v>871</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>2167</v>
+        <v>1786</v>
       </c>
       <c r="C871" s="8" t="s">
-        <v>2168</v>
+        <v>1787</v>
       </c>
       <c r="D871" s="8" t="s">
-        <v>2169</v>
+        <v>1788</v>
       </c>
       <c r="E871" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F871" s="5" t="s">
         <v>2427</v>
@@ -28188,22 +28227,22 @@
         <v>872</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>2259</v>
+        <v>1789</v>
       </c>
       <c r="C872" s="8" t="s">
-        <v>2260</v>
+        <v>1790</v>
       </c>
       <c r="D872" s="8" t="s">
-        <v>2261</v>
+        <v>1791</v>
       </c>
       <c r="E872" s="5" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="F872" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G872" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
       <c r="H872" s="5"/>
     </row>
@@ -28212,19 +28251,19 @@
         <v>873</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1805</v>
+        <v>1792</v>
       </c>
       <c r="C873" s="8" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
       <c r="E873" s="5" t="s">
-        <v>2270</v>
+        <v>2279</v>
       </c>
       <c r="F873" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G873" s="5" t="s">
-        <v>2455</v>
+        <v>2483</v>
       </c>
       <c r="H873" s="5"/>
     </row>
@@ -28233,22 +28272,22 @@
         <v>874</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1807</v>
+        <v>1794</v>
       </c>
       <c r="C874" s="8" t="s">
-        <v>1808</v>
+        <v>1795</v>
       </c>
       <c r="D874" s="8" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
       <c r="E874" s="5" t="s">
-        <v>2265</v>
+        <v>2284</v>
       </c>
       <c r="F874" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G874" s="5" t="s">
-        <v>2461</v>
+        <v>2485</v>
       </c>
       <c r="H874" s="5"/>
     </row>
@@ -28257,22 +28296,22 @@
         <v>875</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1810</v>
+        <v>1797</v>
       </c>
       <c r="C875" s="8" t="s">
-        <v>1811</v>
+        <v>1798</v>
       </c>
       <c r="D875" s="8" t="s">
-        <v>1812</v>
+        <v>1799</v>
       </c>
       <c r="E875" s="5" t="s">
-        <v>2265</v>
+        <v>2405</v>
       </c>
       <c r="F875" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G875" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
       <c r="H875" s="5"/>
     </row>
@@ -28281,39 +28320,37 @@
         <v>876</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1813</v>
+        <v>2162</v>
       </c>
       <c r="C876" s="8" t="s">
-        <v>2542</v>
-      </c>
-      <c r="D876" s="8" t="s">
-        <v>1814</v>
+        <v>2163</v>
       </c>
       <c r="E876" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F876" s="5" t="s">
-        <v>2427</v>
+        <v>2441</v>
       </c>
       <c r="G876" s="5" t="s">
-        <v>2443</v>
-      </c>
+        <v>2442</v>
+      </c>
+      <c r="H876" s="5"/>
     </row>
     <row r="877" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2">
         <v>877</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1815</v>
+        <v>2164</v>
       </c>
       <c r="C877" s="8" t="s">
-        <v>1816</v>
+        <v>2165</v>
       </c>
       <c r="D877" s="8" t="s">
-        <v>2415</v>
+        <v>2166</v>
       </c>
       <c r="E877" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F877" s="5" t="s">
         <v>2427</v>
@@ -28321,19 +28358,20 @@
       <c r="G877" s="5" t="s">
         <v>2443</v>
       </c>
+      <c r="H877" s="5"/>
     </row>
     <row r="878" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2">
         <v>878</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1817</v>
+        <v>1800</v>
       </c>
       <c r="C878" s="8" t="s">
-        <v>1818</v>
+        <v>1801</v>
       </c>
       <c r="D878" s="8" t="s">
-        <v>1819</v>
+        <v>1802</v>
       </c>
       <c r="E878" s="5" t="s">
         <v>2265</v>
@@ -28342,44 +28380,46 @@
         <v>2444</v>
       </c>
       <c r="G878" s="5" t="s">
-        <v>2491</v>
-      </c>
+        <v>2496</v>
+      </c>
+      <c r="H878" s="5"/>
     </row>
     <row r="879" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2">
         <v>879</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>2200</v>
+        <v>1803</v>
       </c>
       <c r="C879" s="8" t="s">
-        <v>2201</v>
+        <v>1804</v>
       </c>
       <c r="D879" s="8" t="s">
-        <v>2202</v>
+        <v>2414</v>
       </c>
       <c r="E879" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F879" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G879" s="5" t="s">
-        <v>2443</v>
-      </c>
+        <v>2482</v>
+      </c>
+      <c r="H879" s="5"/>
     </row>
     <row r="880" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2">
         <v>880</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1820</v>
+        <v>2167</v>
       </c>
       <c r="C880" s="8" t="s">
-        <v>1821</v>
+        <v>2168</v>
       </c>
       <c r="D880" s="8" t="s">
-        <v>1822</v>
+        <v>2169</v>
       </c>
       <c r="E880" s="5" t="s">
         <v>2265</v>
@@ -28390,22 +28430,23 @@
       <c r="G880" s="5" t="s">
         <v>2443</v>
       </c>
-    </row>
-    <row r="881" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H880" s="5"/>
+    </row>
+    <row r="881" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2">
         <v>881</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>2187</v>
+        <v>2259</v>
       </c>
       <c r="C881" s="8" t="s">
-        <v>2188</v>
+        <v>2260</v>
       </c>
       <c r="D881" s="8" t="s">
-        <v>2189</v>
+        <v>2261</v>
       </c>
       <c r="E881" s="5" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="F881" s="5" t="s">
         <v>2427</v>
@@ -28413,88 +28454,92 @@
       <c r="G881" s="5" t="s">
         <v>2443</v>
       </c>
-    </row>
-    <row r="882" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H881" s="5"/>
+    </row>
+    <row r="882" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2">
         <v>882</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1823</v>
+        <v>1805</v>
       </c>
       <c r="C882" s="8" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D882" s="8" t="s">
-        <v>1825</v>
+        <v>1806</v>
       </c>
       <c r="E882" s="5" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="F882" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G882" s="5" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="883" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2455</v>
+      </c>
+      <c r="H882" s="5"/>
+    </row>
+    <row r="883" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2">
         <v>883</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1826</v>
+        <v>1807</v>
       </c>
       <c r="C883" s="8" t="s">
-        <v>1827</v>
+        <v>1808</v>
       </c>
       <c r="D883" s="8" t="s">
-        <v>1828</v>
+        <v>1809</v>
       </c>
       <c r="E883" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F883" s="5" t="s">
-        <v>2409</v>
+        <v>2427</v>
       </c>
       <c r="G883" s="5" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="884" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2461</v>
+      </c>
+      <c r="H883" s="5"/>
+    </row>
+    <row r="884" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2">
         <v>884</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1829</v>
+        <v>1810</v>
       </c>
       <c r="C884" s="8" t="s">
-        <v>1830</v>
+        <v>1811</v>
+      </c>
+      <c r="D884" s="8" t="s">
+        <v>1812</v>
       </c>
       <c r="E884" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F884" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G884" s="5" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="885" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2443</v>
+      </c>
+      <c r="H884" s="5"/>
+    </row>
+    <row r="885" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2">
         <v>885</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1831</v>
+        <v>1813</v>
       </c>
       <c r="C885" s="8" t="s">
-        <v>1832</v>
+        <v>2542</v>
       </c>
       <c r="D885" s="8" t="s">
-        <v>1833</v>
+        <v>1814</v>
       </c>
       <c r="E885" s="5" t="s">
-        <v>2294</v>
+        <v>2265</v>
       </c>
       <c r="F885" s="5" t="s">
         <v>2427</v>
@@ -28503,18 +28548,18 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="886" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2">
         <v>886</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1834</v>
+        <v>1815</v>
       </c>
       <c r="C886" s="8" t="s">
-        <v>1835</v>
+        <v>1816</v>
       </c>
       <c r="D886" s="8" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E886" s="5" t="s">
         <v>2265</v>
@@ -28526,67 +28571,67 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2">
         <v>887</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1836</v>
+        <v>1817</v>
       </c>
       <c r="C887" s="8" t="s">
-        <v>1837</v>
+        <v>1818</v>
       </c>
       <c r="D887" s="8" t="s">
-        <v>1838</v>
+        <v>1819</v>
       </c>
       <c r="E887" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F887" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G887" s="5" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="888" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2">
         <v>888</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>2686</v>
-      </c>
-      <c r="C888" s="4" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D888" s="1" t="s">
-        <v>2687</v>
+        <v>2200</v>
+      </c>
+      <c r="C888" s="8" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D888" s="8" t="s">
+        <v>2202</v>
       </c>
       <c r="E888" s="5" t="s">
-        <v>2308</v>
+        <v>2265</v>
       </c>
       <c r="F888" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G888" s="5" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="889" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2">
         <v>889</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1839</v>
+        <v>1820</v>
       </c>
       <c r="C889" s="8" t="s">
-        <v>1840</v>
+        <v>1821</v>
       </c>
       <c r="D889" s="8" t="s">
-        <v>1841</v>
+        <v>1822</v>
       </c>
       <c r="E889" s="5" t="s">
-        <v>2417</v>
+        <v>2265</v>
       </c>
       <c r="F889" s="5" t="s">
         <v>2427</v>
@@ -28595,21 +28640,21 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2">
         <v>890</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1842</v>
+        <v>2187</v>
       </c>
       <c r="C890" s="8" t="s">
-        <v>1843</v>
+        <v>2188</v>
       </c>
       <c r="D890" s="8" t="s">
-        <v>1844</v>
+        <v>2189</v>
       </c>
       <c r="E890" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F890" s="5" t="s">
         <v>2427</v>
@@ -28618,139 +28663,139 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2">
         <v>891</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>2180</v>
+        <v>1823</v>
       </c>
       <c r="C891" s="8" t="s">
-        <v>2181</v>
+        <v>1824</v>
       </c>
       <c r="D891" s="8" t="s">
-        <v>2182</v>
+        <v>1825</v>
       </c>
       <c r="E891" s="5" t="s">
-        <v>2311</v>
+        <v>2272</v>
       </c>
       <c r="F891" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G891" s="5" t="s">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="892" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2">
         <v>892</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>1845</v>
+        <v>1826</v>
       </c>
       <c r="C892" s="8" t="s">
-        <v>1846</v>
+        <v>1827</v>
       </c>
       <c r="D892" s="8" t="s">
-        <v>1847</v>
+        <v>1828</v>
       </c>
       <c r="E892" s="5" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="F892" s="5" t="s">
-        <v>2427</v>
+        <v>2409</v>
       </c>
       <c r="G892" s="5" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="893" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2">
         <v>893</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1848</v>
+        <v>1829</v>
       </c>
       <c r="C893" s="8" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D893" s="8" t="s">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="E893" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F893" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G893" s="5" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="894" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2">
         <v>894</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1851</v>
+        <v>1831</v>
       </c>
       <c r="C894" s="8" t="s">
-        <v>1852</v>
+        <v>1832</v>
       </c>
       <c r="D894" s="8" t="s">
-        <v>1853</v>
+        <v>1833</v>
       </c>
       <c r="E894" s="5" t="s">
-        <v>2265</v>
+        <v>2294</v>
       </c>
       <c r="F894" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G894" s="5" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="895" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2">
         <v>895</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1854</v>
+        <v>1834</v>
       </c>
       <c r="C895" s="8" t="s">
-        <v>1855</v>
+        <v>1835</v>
+      </c>
+      <c r="D895" s="8" t="s">
+        <v>2416</v>
       </c>
       <c r="E895" s="5" t="s">
-        <v>2308</v>
+        <v>2265</v>
       </c>
       <c r="F895" s="5" t="s">
-        <v>2445</v>
+        <v>2427</v>
       </c>
       <c r="G895" s="5" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="896" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2">
         <v>896</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>1856</v>
+        <v>1836</v>
       </c>
       <c r="C896" s="8" t="s">
-        <v>1857</v>
+        <v>1837</v>
       </c>
       <c r="D896" s="8" t="s">
-        <v>2418</v>
+        <v>1838</v>
       </c>
       <c r="E896" s="5" t="s">
-        <v>2327</v>
+        <v>2279</v>
       </c>
       <c r="F896" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G896" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="897" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28758,22 +28803,22 @@
         <v>897</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C897" s="8" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D897" s="8" t="s">
-        <v>1860</v>
+        <v>2686</v>
+      </c>
+      <c r="C897" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>2687</v>
       </c>
       <c r="E897" s="5" t="s">
-        <v>2265</v>
+        <v>2308</v>
       </c>
       <c r="F897" s="5" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="G897" s="5" t="s">
-        <v>2463</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="898" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28781,16 +28826,16 @@
         <v>898</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C898" s="4" t="s">
-        <v>2196</v>
+        <v>1839</v>
+      </c>
+      <c r="C898" s="8" t="s">
+        <v>1840</v>
       </c>
       <c r="D898" s="8" t="s">
-        <v>1862</v>
+        <v>1841</v>
       </c>
       <c r="E898" s="5" t="s">
-        <v>2266</v>
+        <v>2417</v>
       </c>
       <c r="F898" s="5" t="s">
         <v>2427</v>
@@ -28804,13 +28849,13 @@
         <v>899</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1863</v>
+        <v>1842</v>
       </c>
       <c r="C899" s="8" t="s">
-        <v>1864</v>
+        <v>1843</v>
       </c>
       <c r="D899" s="8" t="s">
-        <v>1865</v>
+        <v>1844</v>
       </c>
       <c r="E899" s="5" t="s">
         <v>2265</v>
@@ -28827,22 +28872,22 @@
         <v>900</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1866</v>
+        <v>2180</v>
       </c>
       <c r="C900" s="8" t="s">
-        <v>1867</v>
+        <v>2181</v>
       </c>
       <c r="D900" s="8" t="s">
-        <v>1868</v>
+        <v>2182</v>
       </c>
       <c r="E900" s="5" t="s">
-        <v>2265</v>
+        <v>2311</v>
       </c>
       <c r="F900" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G900" s="5" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="901" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28850,22 +28895,22 @@
         <v>901</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C901" s="4" t="s">
-        <v>2196</v>
+        <v>1845</v>
+      </c>
+      <c r="C901" s="8" t="s">
+        <v>1846</v>
       </c>
       <c r="D901" s="8" t="s">
-        <v>1870</v>
+        <v>1847</v>
       </c>
       <c r="E901" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F901" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G901" s="5" t="s">
-        <v>2463</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="902" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28873,22 +28918,22 @@
         <v>902</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1871</v>
+        <v>1848</v>
       </c>
       <c r="C902" s="8" t="s">
-        <v>1872</v>
+        <v>1849</v>
       </c>
       <c r="D902" s="8" t="s">
-        <v>1873</v>
+        <v>1850</v>
       </c>
       <c r="E902" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F902" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G902" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="903" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28896,16 +28941,16 @@
         <v>903</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C903" s="19" t="s">
-        <v>1875</v>
+        <v>1851</v>
+      </c>
+      <c r="C903" s="8" t="s">
+        <v>1852</v>
       </c>
       <c r="D903" s="8" t="s">
-        <v>1876</v>
+        <v>1853</v>
       </c>
       <c r="E903" s="5" t="s">
-        <v>2419</v>
+        <v>2265</v>
       </c>
       <c r="F903" s="5" t="s">
         <v>2440</v>
@@ -28919,22 +28964,19 @@
         <v>904</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C904" s="4" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D904" s="8" t="s">
-        <v>1878</v>
+        <v>1854</v>
+      </c>
+      <c r="C904" s="8" t="s">
+        <v>1855</v>
       </c>
       <c r="E904" s="5" t="s">
-        <v>2276</v>
+        <v>2308</v>
       </c>
       <c r="F904" s="5" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="G904" s="5" t="s">
-        <v>2481</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="905" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28942,22 +28984,22 @@
         <v>905</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1879</v>
+        <v>1856</v>
       </c>
       <c r="C905" s="8" t="s">
-        <v>1880</v>
+        <v>1857</v>
       </c>
       <c r="D905" s="8" t="s">
-        <v>1881</v>
+        <v>2418</v>
       </c>
       <c r="E905" s="5" t="s">
-        <v>2265</v>
+        <v>2327</v>
       </c>
       <c r="F905" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G905" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="906" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28965,22 +29007,22 @@
         <v>906</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1882</v>
+        <v>1858</v>
       </c>
       <c r="C906" s="8" t="s">
-        <v>1883</v>
+        <v>1859</v>
       </c>
       <c r="D906" s="8" t="s">
-        <v>1884</v>
+        <v>1860</v>
       </c>
       <c r="E906" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F906" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G906" s="5" t="s">
-        <v>2443</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="907" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28988,16 +29030,16 @@
         <v>907</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C907" s="8" t="s">
-        <v>1886</v>
+        <v>1861</v>
+      </c>
+      <c r="C907" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D907" s="8" t="s">
-        <v>1887</v>
+        <v>1862</v>
       </c>
       <c r="E907" s="5" t="s">
-        <v>2274</v>
+        <v>2266</v>
       </c>
       <c r="F907" s="5" t="s">
         <v>2427</v>
@@ -29011,19 +29053,22 @@
         <v>908</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>2858</v>
+        <v>1863</v>
       </c>
       <c r="C908" s="8" t="s">
-        <v>2859</v>
+        <v>1864</v>
+      </c>
+      <c r="D908" s="8" t="s">
+        <v>1865</v>
       </c>
       <c r="E908" s="5" t="s">
-        <v>2611</v>
+        <v>2265</v>
       </c>
       <c r="F908" s="5" t="s">
-        <v>2451</v>
+        <v>2427</v>
       </c>
       <c r="G908" s="5" t="s">
-        <v>2454</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="909" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29031,22 +29076,22 @@
         <v>909</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1888</v>
+        <v>1866</v>
       </c>
       <c r="C909" s="8" t="s">
-        <v>1889</v>
+        <v>1867</v>
       </c>
       <c r="D909" s="8" t="s">
-        <v>1890</v>
+        <v>1868</v>
       </c>
       <c r="E909" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F909" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G909" s="5" t="s">
-        <v>2443</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="910" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29054,22 +29099,22 @@
         <v>910</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1891</v>
-      </c>
-      <c r="C910" s="8" t="s">
-        <v>1892</v>
+        <v>1869</v>
+      </c>
+      <c r="C910" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D910" s="8" t="s">
-        <v>1893</v>
+        <v>1870</v>
       </c>
       <c r="E910" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F910" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G910" s="5" t="s">
-        <v>2443</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="911" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29077,13 +29122,13 @@
         <v>911</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1894</v>
+        <v>1871</v>
       </c>
       <c r="C911" s="8" t="s">
-        <v>1895</v>
+        <v>1872</v>
       </c>
       <c r="D911" s="8" t="s">
-        <v>1896</v>
+        <v>1873</v>
       </c>
       <c r="E911" s="5" t="s">
         <v>2265</v>
@@ -29100,22 +29145,22 @@
         <v>912</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>2197</v>
-      </c>
-      <c r="C912" s="8" t="s">
-        <v>2198</v>
+        <v>1874</v>
+      </c>
+      <c r="C912" s="19" t="s">
+        <v>1875</v>
       </c>
       <c r="D912" s="8" t="s">
-        <v>2199</v>
+        <v>1876</v>
       </c>
       <c r="E912" s="5" t="s">
-        <v>2279</v>
+        <v>2419</v>
       </c>
       <c r="F912" s="5" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="G912" s="5" t="s">
-        <v>2481</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="913" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29123,19 +29168,22 @@
         <v>913</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>2170</v>
-      </c>
-      <c r="C913" s="8" t="s">
-        <v>2171</v>
+        <v>1877</v>
+      </c>
+      <c r="C913" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D913" s="8" t="s">
+        <v>1878</v>
       </c>
       <c r="E913" s="5" t="s">
-        <v>2265</v>
+        <v>2276</v>
       </c>
       <c r="F913" s="5" t="s">
-        <v>2409</v>
+        <v>2444</v>
       </c>
       <c r="G913" s="5" t="s">
-        <v>2448</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="914" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29143,19 +29191,22 @@
         <v>914</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>1898</v>
+        <v>1879</v>
       </c>
       <c r="C914" s="8" t="s">
-        <v>1899</v>
+        <v>1880</v>
+      </c>
+      <c r="D914" s="8" t="s">
+        <v>1881</v>
       </c>
       <c r="E914" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F914" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G914" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="915" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29163,16 +29214,16 @@
         <v>915</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>1900</v>
+        <v>1882</v>
       </c>
       <c r="C915" s="8" t="s">
-        <v>1901</v>
+        <v>1883</v>
       </c>
       <c r="D915" s="8" t="s">
-        <v>1902</v>
+        <v>1884</v>
       </c>
       <c r="E915" s="5" t="s">
-        <v>2397</v>
+        <v>2265</v>
       </c>
       <c r="F915" s="5" t="s">
         <v>2427</v>
@@ -29186,22 +29237,22 @@
         <v>916</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>2232</v>
+        <v>1885</v>
       </c>
       <c r="C916" s="8" t="s">
-        <v>2233</v>
+        <v>1886</v>
       </c>
       <c r="D916" s="8" t="s">
-        <v>2234</v>
+        <v>1887</v>
       </c>
       <c r="E916" s="5" t="s">
-        <v>2268</v>
+        <v>2274</v>
       </c>
       <c r="F916" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G916" s="5" t="s">
-        <v>2481</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="917" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29209,22 +29260,19 @@
         <v>917</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1903</v>
+        <v>2858</v>
       </c>
       <c r="C917" s="8" t="s">
-        <v>1904</v>
-      </c>
-      <c r="D917" s="8" t="s">
-        <v>1905</v>
+        <v>2859</v>
       </c>
       <c r="E917" s="5" t="s">
-        <v>2323</v>
+        <v>2611</v>
       </c>
       <c r="F917" s="5" t="s">
-        <v>2427</v>
+        <v>2451</v>
       </c>
       <c r="G917" s="5" t="s">
-        <v>2480</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="918" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29232,16 +29280,16 @@
         <v>918</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>1906</v>
+        <v>1888</v>
       </c>
       <c r="C918" s="8" t="s">
-        <v>1907</v>
+        <v>1889</v>
       </c>
       <c r="D918" s="8" t="s">
-        <v>1908</v>
+        <v>1890</v>
       </c>
       <c r="E918" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F918" s="5" t="s">
         <v>2427</v>
@@ -29255,22 +29303,22 @@
         <v>919</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>2630</v>
-      </c>
-      <c r="C919" s="4" t="s">
-        <v>2196</v>
+        <v>1891</v>
+      </c>
+      <c r="C919" s="8" t="s">
+        <v>1892</v>
       </c>
       <c r="D919" s="8" t="s">
-        <v>2631</v>
+        <v>1893</v>
       </c>
       <c r="E919" s="5" t="s">
-        <v>2336</v>
+        <v>2265</v>
       </c>
       <c r="F919" s="5" t="s">
-        <v>2441</v>
+        <v>2427</v>
       </c>
       <c r="G919" s="5" t="s">
-        <v>2632</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="920" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29278,19 +29326,22 @@
         <v>920</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1909</v>
+        <v>1894</v>
       </c>
       <c r="C920" s="8" t="s">
-        <v>1910</v>
+        <v>1895</v>
+      </c>
+      <c r="D920" s="8" t="s">
+        <v>1896</v>
       </c>
       <c r="E920" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F920" s="5" t="s">
-        <v>2310</v>
+        <v>2427</v>
       </c>
       <c r="G920" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="921" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29298,22 +29349,22 @@
         <v>921</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>1911</v>
-      </c>
-      <c r="C921" s="14" t="s">
-        <v>2196</v>
+        <v>2197</v>
+      </c>
+      <c r="C921" s="8" t="s">
+        <v>2198</v>
       </c>
       <c r="D921" s="8" t="s">
-        <v>1912</v>
+        <v>2199</v>
       </c>
       <c r="E921" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F921" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G921" s="5" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="922" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29321,19 +29372,19 @@
         <v>922</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>1913</v>
+        <v>2170</v>
       </c>
       <c r="C922" s="8" t="s">
-        <v>1914</v>
+        <v>2171</v>
       </c>
       <c r="E922" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F922" s="5" t="s">
-        <v>2427</v>
+        <v>2409</v>
       </c>
       <c r="G922" s="5" t="s">
-        <v>2443</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="923" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29341,22 +29392,19 @@
         <v>923</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>2688</v>
-      </c>
-      <c r="C923" s="1" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D923" s="8" t="s">
-        <v>2690</v>
+        <v>1898</v>
+      </c>
+      <c r="C923" s="8" t="s">
+        <v>1899</v>
       </c>
       <c r="E923" s="5" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="F923" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G923" s="5" t="s">
-        <v>2477</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="924" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29364,19 +29412,22 @@
         <v>924</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>1915</v>
+        <v>1900</v>
       </c>
       <c r="C924" s="8" t="s">
-        <v>1916</v>
+        <v>1901</v>
       </c>
       <c r="D924" s="8" t="s">
-        <v>1917</v>
+        <v>1902</v>
       </c>
       <c r="E924" s="5" t="s">
-        <v>2270</v>
+        <v>2397</v>
       </c>
       <c r="F924" s="5" t="s">
         <v>2427</v>
+      </c>
+      <c r="G924" s="5" t="s">
+        <v>2443</v>
       </c>
     </row>
     <row r="925" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29384,22 +29435,22 @@
         <v>925</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>2597</v>
+        <v>2232</v>
       </c>
       <c r="C925" s="8" t="s">
-        <v>2598</v>
+        <v>2233</v>
       </c>
       <c r="D925" s="8" t="s">
-        <v>2599</v>
+        <v>2234</v>
       </c>
       <c r="E925" s="5" t="s">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="F925" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G925" s="5" t="s">
-        <v>2443</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="926" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29407,22 +29458,22 @@
         <v>926</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>1918</v>
+        <v>1903</v>
       </c>
       <c r="C926" s="8" t="s">
-        <v>2249</v>
+        <v>1904</v>
       </c>
       <c r="D926" s="8" t="s">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="E926" s="5" t="s">
-        <v>2265</v>
+        <v>2323</v>
       </c>
       <c r="F926" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G926" s="5" t="s">
-        <v>2443</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="927" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29430,16 +29481,16 @@
         <v>927</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>2252</v>
+        <v>1906</v>
       </c>
       <c r="C927" s="8" t="s">
-        <v>2253</v>
+        <v>1907</v>
       </c>
       <c r="D927" s="8" t="s">
-        <v>2254</v>
+        <v>1908</v>
       </c>
       <c r="E927" s="5" t="s">
-        <v>2267</v>
+        <v>2274</v>
       </c>
       <c r="F927" s="5" t="s">
         <v>2427</v>
@@ -29453,22 +29504,22 @@
         <v>928</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C928" s="8" t="s">
-        <v>1921</v>
+        <v>2630</v>
+      </c>
+      <c r="C928" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D928" s="8" t="s">
-        <v>2420</v>
+        <v>2631</v>
       </c>
       <c r="E928" s="5" t="s">
-        <v>2265</v>
+        <v>2336</v>
       </c>
       <c r="F928" s="5" t="s">
-        <v>2427</v>
+        <v>2441</v>
       </c>
       <c r="G928" s="5" t="s">
-        <v>2443</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="929" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29476,22 +29527,19 @@
         <v>929</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>1922</v>
+        <v>1909</v>
       </c>
       <c r="C929" s="8" t="s">
-        <v>1923</v>
-      </c>
-      <c r="D929" s="8" t="s">
-        <v>1924</v>
+        <v>1910</v>
       </c>
       <c r="E929" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F929" s="5" t="s">
-        <v>2427</v>
+        <v>2310</v>
       </c>
       <c r="G929" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="930" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29499,22 +29547,22 @@
         <v>930</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>1925</v>
-      </c>
-      <c r="C930" s="8" t="s">
-        <v>1926</v>
+        <v>1911</v>
+      </c>
+      <c r="C930" s="14" t="s">
+        <v>2196</v>
       </c>
       <c r="D930" s="8" t="s">
-        <v>1927</v>
+        <v>1912</v>
       </c>
       <c r="E930" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F930" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G930" s="5" t="s">
-        <v>2461</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="931" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29522,19 +29570,19 @@
         <v>931</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>1928</v>
+        <v>1913</v>
       </c>
       <c r="C931" s="8" t="s">
-        <v>1929</v>
+        <v>1914</v>
       </c>
       <c r="E931" s="5" t="s">
-        <v>2308</v>
+        <v>2265</v>
       </c>
       <c r="F931" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G931" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="932" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29542,22 +29590,22 @@
         <v>932</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>2622</v>
-      </c>
-      <c r="C932" s="4" t="s">
-        <v>2196</v>
+        <v>2688</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>2689</v>
       </c>
       <c r="D932" s="8" t="s">
-        <v>2623</v>
+        <v>2690</v>
       </c>
       <c r="E932" s="5" t="s">
-        <v>2265</v>
+        <v>2275</v>
       </c>
       <c r="F932" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G932" s="5" t="s">
-        <v>2443</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="933" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29565,22 +29613,19 @@
         <v>933</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C933" s="10" t="s">
-        <v>1931</v>
+        <v>1915</v>
+      </c>
+      <c r="C933" s="8" t="s">
+        <v>1916</v>
       </c>
       <c r="D933" s="8" t="s">
-        <v>1932</v>
+        <v>1917</v>
       </c>
       <c r="E933" s="5" t="s">
-        <v>2281</v>
+        <v>2270</v>
       </c>
       <c r="F933" s="5" t="s">
-        <v>2444</v>
-      </c>
-      <c r="G933" s="5" t="s">
-        <v>2463</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="934" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29588,22 +29633,22 @@
         <v>934</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>1933</v>
-      </c>
-      <c r="C934" s="10" t="s">
-        <v>1934</v>
+        <v>2597</v>
+      </c>
+      <c r="C934" s="8" t="s">
+        <v>2598</v>
       </c>
       <c r="D934" s="8" t="s">
-        <v>1935</v>
+        <v>2599</v>
       </c>
       <c r="E934" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F934" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G934" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="935" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29611,22 +29656,22 @@
         <v>935</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C935" s="10" t="s">
-        <v>1937</v>
+        <v>1918</v>
+      </c>
+      <c r="C935" s="8" t="s">
+        <v>2249</v>
       </c>
       <c r="D935" s="8" t="s">
-        <v>1938</v>
+        <v>1919</v>
       </c>
       <c r="E935" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F935" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G935" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="936" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29634,22 +29679,22 @@
         <v>936</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C936" s="10" t="s">
-        <v>1940</v>
+        <v>2252</v>
+      </c>
+      <c r="C936" s="8" t="s">
+        <v>2253</v>
       </c>
       <c r="D936" s="8" t="s">
-        <v>1941</v>
+        <v>2254</v>
       </c>
       <c r="E936" s="5" t="s">
-        <v>2281</v>
+        <v>2267</v>
       </c>
       <c r="F936" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G936" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="937" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29657,13 +29702,13 @@
         <v>937</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C937" s="10" t="s">
-        <v>1943</v>
+        <v>1920</v>
+      </c>
+      <c r="C937" s="8" t="s">
+        <v>1921</v>
       </c>
       <c r="D937" s="8" t="s">
-        <v>1944</v>
+        <v>2420</v>
       </c>
       <c r="E937" s="5" t="s">
         <v>2265</v>
@@ -29680,16 +29725,16 @@
         <v>938</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>1945</v>
-      </c>
-      <c r="C938" s="10" t="s">
-        <v>1946</v>
+        <v>1922</v>
+      </c>
+      <c r="C938" s="8" t="s">
+        <v>1923</v>
       </c>
       <c r="D938" s="8" t="s">
-        <v>1947</v>
+        <v>1924</v>
       </c>
       <c r="E938" s="5" t="s">
-        <v>2275</v>
+        <v>2265</v>
       </c>
       <c r="F938" s="5" t="s">
         <v>2427</v>
@@ -29703,22 +29748,22 @@
         <v>939</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C939" s="10" t="s">
-        <v>1949</v>
+        <v>1925</v>
+      </c>
+      <c r="C939" s="8" t="s">
+        <v>1926</v>
       </c>
       <c r="D939" s="8" t="s">
-        <v>1950</v>
+        <v>1927</v>
       </c>
       <c r="E939" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F939" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G939" s="5" t="s">
-        <v>2468</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="940" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29726,19 +29771,19 @@
         <v>940</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C940" s="10" t="s">
-        <v>1952</v>
+        <v>1928</v>
+      </c>
+      <c r="C940" s="8" t="s">
+        <v>1929</v>
       </c>
       <c r="E940" s="5" t="s">
-        <v>2298</v>
+        <v>2308</v>
       </c>
       <c r="F940" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G940" s="5" t="s">
-        <v>2461</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="941" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29746,13 +29791,13 @@
         <v>941</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>1953</v>
-      </c>
-      <c r="C941" s="14" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C941" s="4" t="s">
         <v>2196</v>
       </c>
       <c r="D941" s="8" t="s">
-        <v>1954</v>
+        <v>2623</v>
       </c>
       <c r="E941" s="5" t="s">
         <v>2265</v>
@@ -29769,22 +29814,22 @@
         <v>942</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>2604</v>
-      </c>
-      <c r="C942" s="4" t="s">
-        <v>2196</v>
+        <v>1930</v>
+      </c>
+      <c r="C942" s="10" t="s">
+        <v>1931</v>
       </c>
       <c r="D942" s="8" t="s">
-        <v>2605</v>
+        <v>1932</v>
       </c>
       <c r="E942" s="5" t="s">
-        <v>2265</v>
+        <v>2281</v>
       </c>
       <c r="F942" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G942" s="5" t="s">
-        <v>2443</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="943" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29792,22 +29837,22 @@
         <v>943</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>1955</v>
+        <v>1933</v>
       </c>
       <c r="C943" s="10" t="s">
-        <v>1956</v>
+        <v>1934</v>
       </c>
       <c r="D943" s="8" t="s">
-        <v>1957</v>
+        <v>1935</v>
       </c>
       <c r="E943" s="5" t="s">
-        <v>2421</v>
+        <v>2265</v>
       </c>
       <c r="F943" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G943" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="944" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29815,22 +29860,22 @@
         <v>944</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>1958</v>
+        <v>1936</v>
       </c>
       <c r="C944" s="10" t="s">
-        <v>1959</v>
+        <v>1937</v>
       </c>
       <c r="D944" s="8" t="s">
-        <v>1960</v>
+        <v>1938</v>
       </c>
       <c r="E944" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F944" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G944" s="5" t="s">
-        <v>2461</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="945" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29838,22 +29883,22 @@
         <v>945</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>1961</v>
+        <v>1939</v>
       </c>
       <c r="C945" s="10" t="s">
-        <v>1962</v>
+        <v>1940</v>
       </c>
       <c r="D945" s="8" t="s">
-        <v>2422</v>
+        <v>1941</v>
       </c>
       <c r="E945" s="5" t="s">
-        <v>2265</v>
+        <v>2281</v>
       </c>
       <c r="F945" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G945" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="946" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29861,13 +29906,13 @@
         <v>946</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>1963</v>
+        <v>1942</v>
       </c>
       <c r="C946" s="10" t="s">
-        <v>1964</v>
+        <v>1943</v>
       </c>
       <c r="D946" s="8" t="s">
-        <v>1965</v>
+        <v>1944</v>
       </c>
       <c r="E946" s="5" t="s">
         <v>2265</v>
@@ -29876,7 +29921,7 @@
         <v>2427</v>
       </c>
       <c r="G946" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="947" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29884,16 +29929,16 @@
         <v>947</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>1966</v>
+        <v>1945</v>
       </c>
       <c r="C947" s="10" t="s">
-        <v>1967</v>
+        <v>1946</v>
       </c>
       <c r="D947" s="8" t="s">
-        <v>1968</v>
+        <v>1947</v>
       </c>
       <c r="E947" s="5" t="s">
-        <v>2265</v>
+        <v>2275</v>
       </c>
       <c r="F947" s="5" t="s">
         <v>2427</v>
@@ -29907,13 +29952,13 @@
         <v>948</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>1969</v>
+        <v>1948</v>
       </c>
       <c r="C948" s="10" t="s">
-        <v>1970</v>
+        <v>1949</v>
       </c>
       <c r="D948" s="8" t="s">
-        <v>1971</v>
+        <v>1950</v>
       </c>
       <c r="E948" s="5" t="s">
         <v>2265</v>
@@ -29922,7 +29967,7 @@
         <v>2427</v>
       </c>
       <c r="G948" s="5" t="s">
-        <v>2443</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="949" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29930,22 +29975,19 @@
         <v>949</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>1972</v>
+        <v>1951</v>
       </c>
       <c r="C949" s="10" t="s">
-        <v>1973</v>
-      </c>
-      <c r="D949" s="8" t="s">
-        <v>1974</v>
+        <v>1952</v>
       </c>
       <c r="E949" s="5" t="s">
-        <v>2276</v>
+        <v>2298</v>
       </c>
       <c r="F949" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G949" s="5" t="s">
-        <v>2481</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="950" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29953,13 +29995,13 @@
         <v>950</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C950" s="10" t="s">
-        <v>1976</v>
+        <v>1953</v>
+      </c>
+      <c r="C950" s="14" t="s">
+        <v>2196</v>
       </c>
       <c r="D950" s="8" t="s">
-        <v>1977</v>
+        <v>1954</v>
       </c>
       <c r="E950" s="5" t="s">
         <v>2265</v>
@@ -29968,7 +30010,7 @@
         <v>2427</v>
       </c>
       <c r="G950" s="5" t="s">
-        <v>2482</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="951" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29976,16 +30018,16 @@
         <v>951</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C951" s="10" t="s">
-        <v>1979</v>
+        <v>2604</v>
+      </c>
+      <c r="C951" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D951" s="8" t="s">
-        <v>1980</v>
+        <v>2605</v>
       </c>
       <c r="E951" s="5" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="F951" s="5" t="s">
         <v>2427</v>
@@ -29999,22 +30041,22 @@
         <v>952</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>1981</v>
-      </c>
-      <c r="C952" s="4" t="s">
-        <v>2196</v>
+        <v>1955</v>
+      </c>
+      <c r="C952" s="10" t="s">
+        <v>1956</v>
       </c>
       <c r="D952" s="8" t="s">
-        <v>1982</v>
+        <v>1957</v>
       </c>
       <c r="E952" s="5" t="s">
-        <v>2279</v>
+        <v>2421</v>
       </c>
       <c r="F952" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G952" s="5" t="s">
-        <v>2477</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="953" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30022,13 +30064,13 @@
         <v>953</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>1983</v>
-      </c>
-      <c r="C953" s="8" t="s">
-        <v>1984</v>
+        <v>1958</v>
+      </c>
+      <c r="C953" s="10" t="s">
+        <v>1959</v>
       </c>
       <c r="D953" s="8" t="s">
-        <v>1985</v>
+        <v>1960</v>
       </c>
       <c r="E953" s="5" t="s">
         <v>2265</v>
@@ -30037,7 +30079,7 @@
         <v>2427</v>
       </c>
       <c r="G953" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="954" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30045,13 +30087,13 @@
         <v>954</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>1986</v>
+        <v>1961</v>
       </c>
       <c r="C954" s="10" t="s">
-        <v>1987</v>
+        <v>1962</v>
       </c>
       <c r="D954" s="8" t="s">
-        <v>1988</v>
+        <v>2422</v>
       </c>
       <c r="E954" s="5" t="s">
         <v>2265</v>
@@ -30068,13 +30110,13 @@
         <v>955</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>1989</v>
-      </c>
-      <c r="C955" s="4" t="s">
-        <v>2196</v>
+        <v>1963</v>
+      </c>
+      <c r="C955" s="10" t="s">
+        <v>1964</v>
       </c>
       <c r="D955" s="8" t="s">
-        <v>1990</v>
+        <v>1965</v>
       </c>
       <c r="E955" s="5" t="s">
         <v>2265</v>
@@ -30083,7 +30125,7 @@
         <v>2427</v>
       </c>
       <c r="G955" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="956" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30091,22 +30133,22 @@
         <v>956</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>1991</v>
+        <v>1966</v>
       </c>
       <c r="C956" s="10" t="s">
-        <v>1992</v>
+        <v>1967</v>
       </c>
       <c r="D956" s="8" t="s">
-        <v>1993</v>
+        <v>1968</v>
       </c>
       <c r="E956" s="5" t="s">
-        <v>2308</v>
+        <v>2265</v>
       </c>
       <c r="F956" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G956" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="957" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30114,16 +30156,16 @@
         <v>957</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>1994</v>
-      </c>
-      <c r="C957" s="4" t="s">
-        <v>2196</v>
+        <v>1969</v>
+      </c>
+      <c r="C957" s="10" t="s">
+        <v>1970</v>
       </c>
       <c r="D957" s="8" t="s">
-        <v>1995</v>
+        <v>1971</v>
       </c>
       <c r="E957" s="5" t="s">
-        <v>2283</v>
+        <v>2265</v>
       </c>
       <c r="F957" s="5" t="s">
         <v>2427</v>
@@ -30137,22 +30179,22 @@
         <v>958</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1996</v>
-      </c>
-      <c r="C958" s="8" t="s">
-        <v>1997</v>
+        <v>1972</v>
+      </c>
+      <c r="C958" s="10" t="s">
+        <v>1973</v>
       </c>
       <c r="D958" s="8" t="s">
-        <v>1998</v>
+        <v>1974</v>
       </c>
       <c r="E958" s="5" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="F958" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G958" s="5" t="s">
-        <v>2443</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="959" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30160,22 +30202,22 @@
         <v>959</v>
       </c>
       <c r="B959" s="2" t="s">
-        <v>1999</v>
-      </c>
-      <c r="C959" s="8" t="s">
-        <v>2000</v>
+        <v>1975</v>
+      </c>
+      <c r="C959" s="10" t="s">
+        <v>1976</v>
       </c>
       <c r="D959" s="8" t="s">
-        <v>2001</v>
+        <v>1977</v>
       </c>
       <c r="E959" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F959" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G959" s="5" t="s">
-        <v>2443</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="960" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30183,22 +30225,22 @@
         <v>960</v>
       </c>
       <c r="B960" s="2" t="s">
-        <v>2002</v>
-      </c>
-      <c r="C960" s="8" t="s">
-        <v>2003</v>
+        <v>1978</v>
+      </c>
+      <c r="C960" s="10" t="s">
+        <v>1979</v>
       </c>
       <c r="D960" s="8" t="s">
-        <v>2004</v>
+        <v>1980</v>
       </c>
       <c r="E960" s="5" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="F960" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G960" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="961" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30206,22 +30248,22 @@
         <v>961</v>
       </c>
       <c r="B961" s="2" t="s">
-        <v>2005</v>
-      </c>
-      <c r="C961" s="8" t="s">
-        <v>2006</v>
+        <v>1981</v>
+      </c>
+      <c r="C961" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D961" s="8" t="s">
-        <v>2007</v>
+        <v>1982</v>
       </c>
       <c r="E961" s="5" t="s">
         <v>2279</v>
       </c>
       <c r="F961" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G961" s="5" t="s">
-        <v>2443</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="962" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30229,16 +30271,16 @@
         <v>962</v>
       </c>
       <c r="B962" s="2" t="s">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="C962" s="8" t="s">
-        <v>2009</v>
+        <v>1984</v>
       </c>
       <c r="D962" s="8" t="s">
-        <v>2010</v>
+        <v>1985</v>
       </c>
       <c r="E962" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F962" s="5" t="s">
         <v>2427</v>
@@ -30252,13 +30294,13 @@
         <v>963</v>
       </c>
       <c r="B963" s="2" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C963" s="8" t="s">
-        <v>2012</v>
+        <v>1986</v>
+      </c>
+      <c r="C963" s="10" t="s">
+        <v>1987</v>
       </c>
       <c r="D963" s="8" t="s">
-        <v>2013</v>
+        <v>1988</v>
       </c>
       <c r="E963" s="5" t="s">
         <v>2265</v>
@@ -30275,22 +30317,22 @@
         <v>964</v>
       </c>
       <c r="B964" s="2" t="s">
-        <v>2014</v>
-      </c>
-      <c r="C964" s="8" t="s">
-        <v>2016</v>
+        <v>1989</v>
+      </c>
+      <c r="C964" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D964" s="8" t="s">
-        <v>2015</v>
+        <v>1990</v>
       </c>
       <c r="E964" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F964" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G964" s="5" t="s">
-        <v>2477</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="965" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30298,22 +30340,22 @@
         <v>965</v>
       </c>
       <c r="B965" s="2" t="s">
-        <v>2017</v>
-      </c>
-      <c r="C965" s="8" t="s">
-        <v>2018</v>
+        <v>1991</v>
+      </c>
+      <c r="C965" s="10" t="s">
+        <v>1992</v>
       </c>
       <c r="D965" s="8" t="s">
-        <v>2019</v>
+        <v>1993</v>
       </c>
       <c r="E965" s="5" t="s">
-        <v>2274</v>
+        <v>2308</v>
       </c>
       <c r="F965" s="5" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="G965" s="5" t="s">
-        <v>2486</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="966" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30321,22 +30363,22 @@
         <v>966</v>
       </c>
       <c r="B966" s="2" t="s">
-        <v>2020</v>
-      </c>
-      <c r="C966" s="8" t="s">
-        <v>2021</v>
+        <v>1994</v>
+      </c>
+      <c r="C966" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D966" s="8" t="s">
-        <v>2022</v>
+        <v>1995</v>
       </c>
       <c r="E966" s="5" t="s">
-        <v>2267</v>
+        <v>2283</v>
       </c>
       <c r="F966" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G966" s="5" t="s">
-        <v>2466</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="967" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30344,19 +30386,22 @@
         <v>967</v>
       </c>
       <c r="B967" s="2" t="s">
-        <v>2023</v>
+        <v>1996</v>
       </c>
       <c r="C967" s="8" t="s">
-        <v>2024</v>
+        <v>1997</v>
+      </c>
+      <c r="D967" s="8" t="s">
+        <v>1998</v>
       </c>
       <c r="E967" s="5" t="s">
-        <v>2268</v>
+        <v>2272</v>
       </c>
       <c r="F967" s="5" t="s">
-        <v>2451</v>
+        <v>2427</v>
       </c>
       <c r="G967" s="5" t="s">
-        <v>2460</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="968" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30364,22 +30409,22 @@
         <v>968</v>
       </c>
       <c r="B968" s="2" t="s">
-        <v>2025</v>
+        <v>1999</v>
       </c>
       <c r="C968" s="8" t="s">
-        <v>2026</v>
+        <v>2000</v>
       </c>
       <c r="D968" s="8" t="s">
-        <v>2027</v>
+        <v>2001</v>
       </c>
       <c r="E968" s="5" t="s">
-        <v>2276</v>
+        <v>2270</v>
       </c>
       <c r="F968" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G968" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="969" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30387,22 +30432,22 @@
         <v>969</v>
       </c>
       <c r="B969" s="2" t="s">
-        <v>2028</v>
+        <v>2002</v>
       </c>
       <c r="C969" s="8" t="s">
-        <v>2029</v>
+        <v>2003</v>
       </c>
       <c r="D969" s="8" t="s">
-        <v>2030</v>
+        <v>2004</v>
       </c>
       <c r="E969" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F969" s="5" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
       <c r="G969" s="5" t="s">
-        <v>2305</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="970" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30410,22 +30455,22 @@
         <v>970</v>
       </c>
       <c r="B970" s="2" t="s">
-        <v>2031</v>
+        <v>2005</v>
       </c>
       <c r="C970" s="8" t="s">
-        <v>2032</v>
+        <v>2006</v>
       </c>
       <c r="D970" s="8" t="s">
-        <v>2367</v>
+        <v>2007</v>
       </c>
       <c r="E970" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F970" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G970" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="971" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30433,22 +30478,22 @@
         <v>971</v>
       </c>
       <c r="B971" s="2" t="s">
-        <v>2033</v>
+        <v>2008</v>
       </c>
       <c r="C971" s="8" t="s">
-        <v>2034</v>
+        <v>2009</v>
       </c>
       <c r="D971" s="8" t="s">
-        <v>2035</v>
+        <v>2010</v>
       </c>
       <c r="E971" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F971" s="5" t="s">
-        <v>2409</v>
+        <v>2427</v>
       </c>
       <c r="G971" s="5" t="s">
-        <v>2449</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="972" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30456,13 +30501,13 @@
         <v>972</v>
       </c>
       <c r="B972" s="2" t="s">
-        <v>2036</v>
+        <v>2011</v>
       </c>
       <c r="C972" s="8" t="s">
-        <v>2037</v>
+        <v>2012</v>
       </c>
       <c r="D972" s="8" t="s">
-        <v>2038</v>
+        <v>2013</v>
       </c>
       <c r="E972" s="5" t="s">
         <v>2265</v>
@@ -30479,22 +30524,22 @@
         <v>973</v>
       </c>
       <c r="B973" s="2" t="s">
-        <v>2039</v>
+        <v>2014</v>
       </c>
       <c r="C973" s="8" t="s">
-        <v>2040</v>
+        <v>2016</v>
       </c>
       <c r="D973" s="8" t="s">
-        <v>2041</v>
+        <v>2015</v>
       </c>
       <c r="E973" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F973" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G973" s="5" t="s">
-        <v>2443</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="974" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30502,22 +30547,22 @@
         <v>974</v>
       </c>
       <c r="B974" s="2" t="s">
-        <v>2042</v>
+        <v>2017</v>
       </c>
       <c r="C974" s="8" t="s">
-        <v>2043</v>
+        <v>2018</v>
       </c>
       <c r="D974" s="8" t="s">
-        <v>2044</v>
+        <v>2019</v>
       </c>
       <c r="E974" s="5" t="s">
-        <v>2296</v>
+        <v>2274</v>
       </c>
       <c r="F974" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G974" s="5" t="s">
-        <v>2466</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="975" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30525,22 +30570,22 @@
         <v>975</v>
       </c>
       <c r="B975" s="2" t="s">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="C975" s="8" t="s">
-        <v>2046</v>
+        <v>2021</v>
       </c>
       <c r="D975" s="8" t="s">
-        <v>2047</v>
+        <v>2022</v>
       </c>
       <c r="E975" s="5" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="F975" s="5" t="s">
-        <v>2305</v>
+        <v>2444</v>
       </c>
       <c r="G975" s="5" t="s">
-        <v>2456</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="976" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30548,19 +30593,19 @@
         <v>976</v>
       </c>
       <c r="B976" s="2" t="s">
-        <v>2048</v>
+        <v>2023</v>
       </c>
       <c r="C976" s="8" t="s">
-        <v>2049</v>
-      </c>
-      <c r="D976" s="8" t="s">
-        <v>2050</v>
+        <v>2024</v>
       </c>
       <c r="E976" s="5" t="s">
-        <v>2279</v>
+        <v>2268</v>
       </c>
       <c r="F976" s="5" t="s">
-        <v>2440</v>
+        <v>2451</v>
+      </c>
+      <c r="G976" s="5" t="s">
+        <v>2460</v>
       </c>
     </row>
     <row r="977" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30568,22 +30613,22 @@
         <v>977</v>
       </c>
       <c r="B977" s="2" t="s">
-        <v>2051</v>
+        <v>2025</v>
       </c>
       <c r="C977" s="8" t="s">
-        <v>2052</v>
+        <v>2026</v>
       </c>
       <c r="D977" s="8" t="s">
-        <v>2053</v>
+        <v>2027</v>
       </c>
       <c r="E977" s="5" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="F977" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G977" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="978" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30591,22 +30636,22 @@
         <v>978</v>
       </c>
       <c r="B978" s="2" t="s">
-        <v>2054</v>
+        <v>2028</v>
       </c>
       <c r="C978" s="8" t="s">
-        <v>2055</v>
+        <v>2029</v>
       </c>
       <c r="D978" s="8" t="s">
-        <v>2056</v>
+        <v>2030</v>
       </c>
       <c r="E978" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F978" s="5" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="G978" s="5" t="s">
-        <v>2486</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="979" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30614,15 +30659,21 @@
         <v>979</v>
       </c>
       <c r="B979" s="2" t="s">
-        <v>2057</v>
+        <v>2031</v>
       </c>
       <c r="C979" s="8" t="s">
-        <v>2058</v>
+        <v>2032</v>
+      </c>
+      <c r="D979" s="8" t="s">
+        <v>2367</v>
       </c>
       <c r="E979" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F979" s="5" t="s">
+        <v>2440</v>
+      </c>
+      <c r="G979" s="5" t="s">
         <v>2305</v>
       </c>
     </row>
@@ -30631,22 +30682,22 @@
         <v>980</v>
       </c>
       <c r="B980" s="2" t="s">
-        <v>2059</v>
+        <v>2033</v>
       </c>
       <c r="C980" s="8" t="s">
-        <v>2060</v>
+        <v>2034</v>
       </c>
       <c r="D980" s="8" t="s">
-        <v>2061</v>
+        <v>2035</v>
       </c>
       <c r="E980" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F980" s="5" t="s">
-        <v>2427</v>
+        <v>2409</v>
       </c>
       <c r="G980" s="5" t="s">
-        <v>2443</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="981" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30654,22 +30705,22 @@
         <v>981</v>
       </c>
       <c r="B981" s="2" t="s">
-        <v>2062</v>
+        <v>2036</v>
       </c>
       <c r="C981" s="8" t="s">
-        <v>2063</v>
+        <v>2037</v>
       </c>
       <c r="D981" s="8" t="s">
-        <v>2064</v>
+        <v>2038</v>
       </c>
       <c r="E981" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="F981" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G981" s="5" t="s">
-        <v>2482</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="982" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30677,22 +30728,22 @@
         <v>982</v>
       </c>
       <c r="B982" s="2" t="s">
-        <v>2065</v>
+        <v>2039</v>
       </c>
       <c r="C982" s="8" t="s">
-        <v>2066</v>
+        <v>2040</v>
       </c>
       <c r="D982" s="8" t="s">
-        <v>2067</v>
+        <v>2041</v>
       </c>
       <c r="E982" s="5" t="s">
-        <v>2361</v>
+        <v>2279</v>
       </c>
       <c r="F982" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G982" s="5" t="s">
-        <v>2482</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="983" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30700,22 +30751,22 @@
         <v>983</v>
       </c>
       <c r="B983" s="2" t="s">
-        <v>2068</v>
+        <v>2042</v>
       </c>
       <c r="C983" s="8" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
       <c r="D983" s="8" t="s">
-        <v>2424</v>
+        <v>2044</v>
       </c>
       <c r="E983" s="5" t="s">
-        <v>2423</v>
+        <v>2296</v>
       </c>
       <c r="F983" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G983" s="5" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="984" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30723,22 +30774,22 @@
         <v>984</v>
       </c>
       <c r="B984" s="2" t="s">
-        <v>2070</v>
+        <v>2045</v>
       </c>
       <c r="C984" s="8" t="s">
-        <v>2071</v>
+        <v>2046</v>
       </c>
       <c r="D984" s="8" t="s">
-        <v>2072</v>
+        <v>2047</v>
       </c>
       <c r="E984" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F984" s="5" t="s">
-        <v>2427</v>
+        <v>2305</v>
       </c>
       <c r="G984" s="5" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="985" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30746,19 +30797,19 @@
         <v>985</v>
       </c>
       <c r="B985" s="2" t="s">
-        <v>2073</v>
+        <v>2048</v>
       </c>
       <c r="C985" s="8" t="s">
-        <v>2074</v>
+        <v>2049</v>
+      </c>
+      <c r="D985" s="8" t="s">
+        <v>2050</v>
       </c>
       <c r="E985" s="5" t="s">
-        <v>2313</v>
+        <v>2279</v>
       </c>
       <c r="F985" s="5" t="s">
-        <v>2445</v>
-      </c>
-      <c r="G985" s="5" t="s">
-        <v>2473</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="986" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30766,22 +30817,22 @@
         <v>986</v>
       </c>
       <c r="B986" s="2" t="s">
-        <v>2075</v>
+        <v>2051</v>
       </c>
       <c r="C986" s="8" t="s">
-        <v>2076</v>
+        <v>2052</v>
       </c>
       <c r="D986" s="8" t="s">
-        <v>2077</v>
+        <v>2053</v>
       </c>
       <c r="E986" s="5" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="F986" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G986" s="5" t="s">
-        <v>2459</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="987" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30789,22 +30840,22 @@
         <v>987</v>
       </c>
       <c r="B987" s="2" t="s">
-        <v>2078</v>
+        <v>2054</v>
       </c>
       <c r="C987" s="8" t="s">
-        <v>2079</v>
+        <v>2055</v>
       </c>
       <c r="D987" s="8" t="s">
-        <v>2080</v>
+        <v>2056</v>
       </c>
       <c r="E987" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F987" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G987" s="5" t="s">
-        <v>2482</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="988" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30812,19 +30863,16 @@
         <v>988</v>
       </c>
       <c r="B988" s="2" t="s">
-        <v>2081</v>
+        <v>2057</v>
       </c>
       <c r="C988" s="8" t="s">
-        <v>2082</v>
+        <v>2058</v>
       </c>
       <c r="E988" s="5" t="s">
-        <v>2296</v>
+        <v>2274</v>
       </c>
       <c r="F988" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G988" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="989" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30832,10 +30880,13 @@
         <v>989</v>
       </c>
       <c r="B989" s="2" t="s">
-        <v>2083</v>
+        <v>2059</v>
       </c>
       <c r="C989" s="8" t="s">
-        <v>2084</v>
+        <v>2060</v>
+      </c>
+      <c r="D989" s="8" t="s">
+        <v>2061</v>
       </c>
       <c r="E989" s="5" t="s">
         <v>2265</v>
@@ -30844,7 +30895,7 @@
         <v>2427</v>
       </c>
       <c r="G989" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="990" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30852,16 +30903,22 @@
         <v>990</v>
       </c>
       <c r="B990" s="2" t="s">
-        <v>2085</v>
+        <v>2062</v>
       </c>
       <c r="C990" s="8" t="s">
-        <v>2086</v>
+        <v>2063</v>
+      </c>
+      <c r="D990" s="8" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E990" s="5" t="s">
+        <v>2267</v>
       </c>
       <c r="F990" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G990" s="5" t="s">
-        <v>2305</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="991" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30869,22 +30926,22 @@
         <v>991</v>
       </c>
       <c r="B991" s="2" t="s">
-        <v>2087</v>
+        <v>2065</v>
       </c>
       <c r="C991" s="8" t="s">
-        <v>2088</v>
+        <v>2066</v>
       </c>
       <c r="D991" s="8" t="s">
-        <v>2089</v>
+        <v>2067</v>
       </c>
       <c r="E991" s="5" t="s">
-        <v>2270</v>
+        <v>2361</v>
       </c>
       <c r="F991" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G991" s="5" t="s">
-        <v>2466</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="992" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30892,22 +30949,22 @@
         <v>992</v>
       </c>
       <c r="B992" s="2" t="s">
-        <v>2090</v>
+        <v>2068</v>
       </c>
       <c r="C992" s="8" t="s">
-        <v>2091</v>
+        <v>2069</v>
       </c>
       <c r="D992" s="8" t="s">
-        <v>2092</v>
+        <v>2424</v>
       </c>
       <c r="E992" s="5" t="s">
-        <v>2265</v>
+        <v>2423</v>
       </c>
       <c r="F992" s="5" t="s">
-        <v>2310</v>
+        <v>2427</v>
       </c>
       <c r="G992" s="5" t="s">
-        <v>2305</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="993" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30915,19 +30972,22 @@
         <v>993</v>
       </c>
       <c r="B993" s="2" t="s">
-        <v>2093</v>
+        <v>2070</v>
       </c>
       <c r="C993" s="8" t="s">
-        <v>2094</v>
+        <v>2071</v>
+      </c>
+      <c r="D993" s="8" t="s">
+        <v>2072</v>
       </c>
       <c r="E993" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F993" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G993" s="5" t="s">
-        <v>2467</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="994" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30935,22 +30995,19 @@
         <v>994</v>
       </c>
       <c r="B994" s="2" t="s">
-        <v>2095</v>
+        <v>2073</v>
       </c>
       <c r="C994" s="8" t="s">
-        <v>2096</v>
-      </c>
-      <c r="D994" s="8" t="s">
-        <v>2097</v>
+        <v>2074</v>
       </c>
       <c r="E994" s="5" t="s">
-        <v>2270</v>
+        <v>2313</v>
       </c>
       <c r="F994" s="5" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="G994" s="5" t="s">
-        <v>2484</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="995" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30958,22 +31015,22 @@
         <v>995</v>
       </c>
       <c r="B995" s="2" t="s">
-        <v>2098</v>
+        <v>2075</v>
       </c>
       <c r="C995" s="8" t="s">
-        <v>2099</v>
+        <v>2076</v>
       </c>
       <c r="D995" s="8" t="s">
-        <v>2100</v>
+        <v>2077</v>
       </c>
       <c r="E995" s="5" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="F995" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G995" s="5" t="s">
-        <v>2443</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="996" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30981,22 +31038,22 @@
         <v>996</v>
       </c>
       <c r="B996" s="2" t="s">
-        <v>2101</v>
+        <v>2078</v>
       </c>
       <c r="C996" s="8" t="s">
-        <v>2102</v>
+        <v>2079</v>
       </c>
       <c r="D996" s="8" t="s">
-        <v>2103</v>
+        <v>2080</v>
       </c>
       <c r="E996" s="5" t="s">
         <v>2270</v>
       </c>
       <c r="F996" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G996" s="5" t="s">
-        <v>2455</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="997" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31004,22 +31061,19 @@
         <v>997</v>
       </c>
       <c r="B997" s="2" t="s">
-        <v>2104</v>
+        <v>2081</v>
       </c>
       <c r="C997" s="8" t="s">
-        <v>2105</v>
-      </c>
-      <c r="D997" s="8" t="s">
-        <v>2106</v>
+        <v>2082</v>
       </c>
       <c r="E997" s="5" t="s">
-        <v>2270</v>
+        <v>2296</v>
       </c>
       <c r="F997" s="5" t="s">
-        <v>2445</v>
+        <v>2427</v>
       </c>
       <c r="G997" s="5" t="s">
-        <v>2493</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="998" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31027,22 +31081,19 @@
         <v>998</v>
       </c>
       <c r="B998" s="2" t="s">
-        <v>2107</v>
+        <v>2083</v>
       </c>
       <c r="C998" s="8" t="s">
-        <v>2108</v>
-      </c>
-      <c r="D998" s="8" t="s">
-        <v>2109</v>
+        <v>2084</v>
       </c>
       <c r="E998" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F998" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G998" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="999" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31050,22 +31101,16 @@
         <v>999</v>
       </c>
       <c r="B999" s="2" t="s">
-        <v>2110</v>
+        <v>2085</v>
       </c>
       <c r="C999" s="8" t="s">
-        <v>2111</v>
-      </c>
-      <c r="D999" s="8" t="s">
-        <v>2112</v>
-      </c>
-      <c r="E999" s="5" t="s">
-        <v>2274</v>
+        <v>2086</v>
       </c>
       <c r="F999" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G999" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1000" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31073,22 +31118,22 @@
         <v>1000</v>
       </c>
       <c r="B1000" s="2" t="s">
-        <v>2113</v>
+        <v>2087</v>
       </c>
       <c r="C1000" s="8" t="s">
-        <v>2114</v>
+        <v>2088</v>
       </c>
       <c r="D1000" s="8" t="s">
-        <v>2115</v>
+        <v>2089</v>
       </c>
       <c r="E1000" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F1000" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G1000" s="5" t="s">
-        <v>2443</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1001" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31096,19 +31141,22 @@
         <v>1001</v>
       </c>
       <c r="B1001" s="2" t="s">
-        <v>2116</v>
+        <v>2090</v>
       </c>
       <c r="C1001" s="8" t="s">
-        <v>2117</v>
+        <v>2091</v>
+      </c>
+      <c r="D1001" s="8" t="s">
+        <v>2092</v>
       </c>
       <c r="E1001" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F1001" s="5" t="s">
-        <v>2427</v>
+        <v>2310</v>
       </c>
       <c r="G1001" s="5" t="s">
-        <v>2482</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1002" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31116,22 +31164,19 @@
         <v>1002</v>
       </c>
       <c r="B1002" s="2" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C1002" s="4" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D1002" s="8" t="s">
-        <v>2864</v>
+        <v>2093</v>
+      </c>
+      <c r="C1002" s="8" t="s">
+        <v>2094</v>
       </c>
       <c r="E1002" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F1002" s="5" t="s">
-        <v>2451</v>
+        <v>2444</v>
       </c>
       <c r="G1002" s="5" t="s">
-        <v>2460</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="1003" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31139,10 +31184,13 @@
         <v>1003</v>
       </c>
       <c r="B1003" s="2" t="s">
-        <v>2118</v>
+        <v>2095</v>
       </c>
       <c r="C1003" s="8" t="s">
-        <v>2119</v>
+        <v>2096</v>
+      </c>
+      <c r="D1003" s="8" t="s">
+        <v>2097</v>
       </c>
       <c r="E1003" s="5" t="s">
         <v>2270</v>
@@ -31159,16 +31207,16 @@
         <v>1004</v>
       </c>
       <c r="B1004" s="2" t="s">
-        <v>2120</v>
-      </c>
-      <c r="C1004" s="4" t="s">
-        <v>2196</v>
+        <v>2098</v>
+      </c>
+      <c r="C1004" s="8" t="s">
+        <v>2099</v>
       </c>
       <c r="D1004" s="8" t="s">
-        <v>2121</v>
+        <v>2100</v>
       </c>
       <c r="E1004" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F1004" s="5" t="s">
         <v>2427</v>
@@ -31182,22 +31230,22 @@
         <v>1005</v>
       </c>
       <c r="B1005" s="2" t="s">
-        <v>2122</v>
+        <v>2101</v>
       </c>
       <c r="C1005" s="8" t="s">
-        <v>2123</v>
+        <v>2102</v>
       </c>
       <c r="D1005" s="8" t="s">
-        <v>2124</v>
+        <v>2103</v>
       </c>
       <c r="E1005" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F1005" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G1005" s="5" t="s">
-        <v>2481</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1006" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31205,21 +31253,222 @@
         <v>1006</v>
       </c>
       <c r="B1006" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C1006" s="8" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D1006" s="8" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E1006" s="5" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F1006" s="5" t="s">
+        <v>2445</v>
+      </c>
+      <c r="G1006" s="5" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1007" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B1007" s="2" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C1007" s="8" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D1007" s="8" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E1007" s="5" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F1007" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="G1007" s="5" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1008" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B1008" s="2" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C1008" s="8" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D1008" s="8" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E1008" s="5" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F1008" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="G1008" s="5" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1009" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B1009" s="2" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C1009" s="8" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D1009" s="8" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E1009" s="5" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F1009" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="G1009" s="5" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1010" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C1010" s="8" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E1010" s="5" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F1010" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="G1010" s="5" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1011" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C1011" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D1011" s="8" t="s">
+        <v>2864</v>
+      </c>
+      <c r="E1011" s="5" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F1011" s="5" t="s">
+        <v>2451</v>
+      </c>
+      <c r="G1011" s="5" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1012" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C1012" s="8" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E1012" s="5" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F1012" s="5" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G1012" s="5" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1013" s="2">
+        <v>1013</v>
+      </c>
+      <c r="B1013" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C1013" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D1013" s="8" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E1013" s="5" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F1013" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="G1013" s="5" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1014" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C1014" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D1014" s="8" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E1014" s="5" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F1014" s="5" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G1014" s="5" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1015" s="2">
+        <v>1015</v>
+      </c>
+      <c r="B1015" s="2" t="s">
         <v>2425</v>
       </c>
-      <c r="C1006" s="8" t="s">
+      <c r="C1015" s="8" t="s">
         <v>2125</v>
       </c>
-      <c r="D1006" s="8" t="s">
+      <c r="D1015" s="8" t="s">
         <v>2426</v>
       </c>
-      <c r="E1006" s="5" t="s">
+      <c r="E1015" s="5" t="s">
         <v>2267</v>
       </c>
-      <c r="F1006" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G1006" s="5" t="s">
+      <c r="F1015" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="G1015" s="5" t="s">
         <v>2443</v>
       </c>
     </row>
@@ -31228,313 +31477,313 @@
     <sortCondition ref="B364"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C1006" r:id="rId1"/>
-    <hyperlink ref="C1005" r:id="rId2" location="jobs"/>
-    <hyperlink ref="D1005" r:id="rId3"/>
-    <hyperlink ref="D1004" r:id="rId4"/>
-    <hyperlink ref="C1003" r:id="rId5"/>
-    <hyperlink ref="C1001" r:id="rId6"/>
-    <hyperlink ref="C1000" r:id="rId7"/>
-    <hyperlink ref="D1000" r:id="rId8"/>
-    <hyperlink ref="C998" r:id="rId9"/>
-    <hyperlink ref="D998" r:id="rId10"/>
-    <hyperlink ref="C996" r:id="rId11"/>
-    <hyperlink ref="D996" r:id="rId12"/>
-    <hyperlink ref="C995" r:id="rId13"/>
-    <hyperlink ref="D995" r:id="rId14"/>
-    <hyperlink ref="D994" r:id="rId15"/>
-    <hyperlink ref="C994" r:id="rId16"/>
-    <hyperlink ref="C993" r:id="rId17"/>
-    <hyperlink ref="C992" r:id="rId18"/>
-    <hyperlink ref="D992" r:id="rId19"/>
-    <hyperlink ref="C991" r:id="rId20"/>
-    <hyperlink ref="D991" r:id="rId21"/>
-    <hyperlink ref="C990" r:id="rId22"/>
-    <hyperlink ref="C989" r:id="rId23" location="careers_about"/>
-    <hyperlink ref="C988" r:id="rId24"/>
-    <hyperlink ref="C987" r:id="rId25"/>
-    <hyperlink ref="D987" r:id="rId26"/>
-    <hyperlink ref="C986" r:id="rId27"/>
-    <hyperlink ref="D986" r:id="rId28"/>
-    <hyperlink ref="C985" r:id="rId29"/>
-    <hyperlink ref="C984" r:id="rId30"/>
-    <hyperlink ref="D984" r:id="rId31"/>
-    <hyperlink ref="C983" r:id="rId32"/>
-    <hyperlink ref="C982" r:id="rId33"/>
-    <hyperlink ref="D982" r:id="rId34"/>
-    <hyperlink ref="C981" r:id="rId35"/>
-    <hyperlink ref="D981" r:id="rId36"/>
-    <hyperlink ref="C980" r:id="rId37"/>
-    <hyperlink ref="D980" r:id="rId38"/>
-    <hyperlink ref="C979" r:id="rId39"/>
-    <hyperlink ref="C978" r:id="rId40"/>
-    <hyperlink ref="D978" r:id="rId41"/>
-    <hyperlink ref="C977" r:id="rId42"/>
-    <hyperlink ref="D977" r:id="rId43"/>
-    <hyperlink ref="D976" r:id="rId44"/>
-    <hyperlink ref="C974" r:id="rId45"/>
-    <hyperlink ref="D974" r:id="rId46"/>
-    <hyperlink ref="C973" r:id="rId47"/>
-    <hyperlink ref="D973" r:id="rId48"/>
-    <hyperlink ref="C972" r:id="rId49" location="career-position"/>
-    <hyperlink ref="D972" r:id="rId50"/>
-    <hyperlink ref="C971" r:id="rId51"/>
-    <hyperlink ref="D971" r:id="rId52"/>
-    <hyperlink ref="D975" r:id="rId53"/>
-    <hyperlink ref="C970" r:id="rId54"/>
-    <hyperlink ref="C969" r:id="rId55"/>
-    <hyperlink ref="D969" r:id="rId56"/>
-    <hyperlink ref="C968" r:id="rId57"/>
-    <hyperlink ref="D968" r:id="rId58"/>
-    <hyperlink ref="C966" r:id="rId59"/>
-    <hyperlink ref="D966" r:id="rId60"/>
-    <hyperlink ref="C965" r:id="rId61"/>
-    <hyperlink ref="D965" r:id="rId62"/>
-    <hyperlink ref="C964" r:id="rId63"/>
-    <hyperlink ref="C963" r:id="rId64"/>
-    <hyperlink ref="D963" r:id="rId65"/>
-    <hyperlink ref="C962" r:id="rId66"/>
-    <hyperlink ref="D962" r:id="rId67"/>
-    <hyperlink ref="C961" r:id="rId68" location="positions"/>
-    <hyperlink ref="D961" r:id="rId69"/>
-    <hyperlink ref="C960" r:id="rId70"/>
-    <hyperlink ref="D960" r:id="rId71"/>
-    <hyperlink ref="D959" r:id="rId72"/>
-    <hyperlink ref="C959" r:id="rId73"/>
-    <hyperlink ref="C958" r:id="rId74"/>
-    <hyperlink ref="D958" r:id="rId75"/>
-    <hyperlink ref="D957" r:id="rId76"/>
-    <hyperlink ref="C956" r:id="rId77"/>
-    <hyperlink ref="D956" r:id="rId78"/>
-    <hyperlink ref="D955" r:id="rId79"/>
-    <hyperlink ref="D954" r:id="rId80"/>
-    <hyperlink ref="C954" r:id="rId81"/>
-    <hyperlink ref="D953" r:id="rId82"/>
-    <hyperlink ref="C953" r:id="rId83" location="open-positions"/>
-    <hyperlink ref="D952" r:id="rId84"/>
-    <hyperlink ref="C951" r:id="rId85"/>
-    <hyperlink ref="D951" r:id="rId86"/>
-    <hyperlink ref="C950" r:id="rId87"/>
-    <hyperlink ref="D950" r:id="rId88"/>
-    <hyperlink ref="C948" r:id="rId89"/>
-    <hyperlink ref="D948" r:id="rId90"/>
-    <hyperlink ref="D947" r:id="rId91"/>
-    <hyperlink ref="C947" r:id="rId92"/>
-    <hyperlink ref="C946" r:id="rId93" location="careers-list"/>
-    <hyperlink ref="D946" r:id="rId94"/>
-    <hyperlink ref="C945" r:id="rId95"/>
-    <hyperlink ref="C944" r:id="rId96"/>
-    <hyperlink ref="D944" r:id="rId97"/>
-    <hyperlink ref="D943" r:id="rId98"/>
-    <hyperlink ref="C943" r:id="rId99"/>
-    <hyperlink ref="D941" r:id="rId100"/>
-    <hyperlink ref="C940" r:id="rId101"/>
-    <hyperlink ref="C939" r:id="rId102"/>
-    <hyperlink ref="D939" r:id="rId103"/>
-    <hyperlink ref="C938" r:id="rId104"/>
-    <hyperlink ref="D938" r:id="rId105"/>
-    <hyperlink ref="C937" r:id="rId106"/>
-    <hyperlink ref="D937" r:id="rId107"/>
-    <hyperlink ref="C936" r:id="rId108"/>
-    <hyperlink ref="D936" r:id="rId109"/>
-    <hyperlink ref="C935" r:id="rId110" location="open-positions"/>
-    <hyperlink ref="D935" r:id="rId111"/>
-    <hyperlink ref="C934" r:id="rId112"/>
-    <hyperlink ref="D934" r:id="rId113"/>
-    <hyperlink ref="C933" r:id="rId114"/>
-    <hyperlink ref="D933" r:id="rId115"/>
-    <hyperlink ref="C931" r:id="rId116"/>
-    <hyperlink ref="C930" r:id="rId117"/>
-    <hyperlink ref="D930" r:id="rId118"/>
-    <hyperlink ref="C929" r:id="rId119"/>
-    <hyperlink ref="D929" r:id="rId120"/>
-    <hyperlink ref="C928" r:id="rId121"/>
-    <hyperlink ref="D926" r:id="rId122"/>
-    <hyperlink ref="C924" r:id="rId123"/>
-    <hyperlink ref="D924" r:id="rId124"/>
-    <hyperlink ref="C922" r:id="rId125"/>
-    <hyperlink ref="D921" r:id="rId126"/>
-    <hyperlink ref="D918" r:id="rId127"/>
-    <hyperlink ref="D917" r:id="rId128"/>
-    <hyperlink ref="D915" r:id="rId129"/>
-    <hyperlink ref="C920" r:id="rId130"/>
-    <hyperlink ref="C918" r:id="rId131"/>
-    <hyperlink ref="C917" r:id="rId132"/>
-    <hyperlink ref="C915" r:id="rId133"/>
-    <hyperlink ref="C914" r:id="rId134"/>
-    <hyperlink ref="D911" r:id="rId135"/>
-    <hyperlink ref="C911" r:id="rId136"/>
-    <hyperlink ref="C910" r:id="rId137"/>
-    <hyperlink ref="D910" r:id="rId138"/>
-    <hyperlink ref="C909" r:id="rId139"/>
-    <hyperlink ref="D909" r:id="rId140"/>
-    <hyperlink ref="C907" r:id="rId141"/>
-    <hyperlink ref="D907" r:id="rId142"/>
-    <hyperlink ref="C906" r:id="rId143"/>
-    <hyperlink ref="D906" r:id="rId144"/>
-    <hyperlink ref="C905" r:id="rId145"/>
-    <hyperlink ref="D905" r:id="rId146"/>
-    <hyperlink ref="D904" r:id="rId147"/>
-    <hyperlink ref="C902" r:id="rId148" location="open-positions"/>
-    <hyperlink ref="D902" r:id="rId149"/>
-    <hyperlink ref="D901" r:id="rId150"/>
-    <hyperlink ref="C900" r:id="rId151" location="openings"/>
-    <hyperlink ref="D900" r:id="rId152"/>
-    <hyperlink ref="C899" r:id="rId153"/>
-    <hyperlink ref="D899" r:id="rId154"/>
-    <hyperlink ref="D898" r:id="rId155"/>
-    <hyperlink ref="C897" r:id="rId156"/>
-    <hyperlink ref="D897" r:id="rId157"/>
+    <hyperlink ref="C1015" r:id="rId1"/>
+    <hyperlink ref="C1014" r:id="rId2" location="jobs"/>
+    <hyperlink ref="D1014" r:id="rId3"/>
+    <hyperlink ref="D1013" r:id="rId4"/>
+    <hyperlink ref="C1012" r:id="rId5"/>
+    <hyperlink ref="C1010" r:id="rId6"/>
+    <hyperlink ref="C1009" r:id="rId7"/>
+    <hyperlink ref="D1009" r:id="rId8"/>
+    <hyperlink ref="C1007" r:id="rId9"/>
+    <hyperlink ref="D1007" r:id="rId10"/>
+    <hyperlink ref="C1005" r:id="rId11"/>
+    <hyperlink ref="D1005" r:id="rId12"/>
+    <hyperlink ref="C1004" r:id="rId13"/>
+    <hyperlink ref="D1004" r:id="rId14"/>
+    <hyperlink ref="D1003" r:id="rId15"/>
+    <hyperlink ref="C1003" r:id="rId16"/>
+    <hyperlink ref="C1002" r:id="rId17"/>
+    <hyperlink ref="C1001" r:id="rId18"/>
+    <hyperlink ref="D1001" r:id="rId19"/>
+    <hyperlink ref="C1000" r:id="rId20"/>
+    <hyperlink ref="D1000" r:id="rId21"/>
+    <hyperlink ref="C999" r:id="rId22"/>
+    <hyperlink ref="C998" r:id="rId23" location="careers_about"/>
+    <hyperlink ref="C997" r:id="rId24"/>
+    <hyperlink ref="C996" r:id="rId25"/>
+    <hyperlink ref="D996" r:id="rId26"/>
+    <hyperlink ref="C995" r:id="rId27"/>
+    <hyperlink ref="D995" r:id="rId28"/>
+    <hyperlink ref="C994" r:id="rId29"/>
+    <hyperlink ref="C993" r:id="rId30"/>
+    <hyperlink ref="D993" r:id="rId31"/>
+    <hyperlink ref="C992" r:id="rId32"/>
+    <hyperlink ref="C991" r:id="rId33"/>
+    <hyperlink ref="D991" r:id="rId34"/>
+    <hyperlink ref="C990" r:id="rId35"/>
+    <hyperlink ref="D990" r:id="rId36"/>
+    <hyperlink ref="C989" r:id="rId37"/>
+    <hyperlink ref="D989" r:id="rId38"/>
+    <hyperlink ref="C988" r:id="rId39"/>
+    <hyperlink ref="C987" r:id="rId40"/>
+    <hyperlink ref="D987" r:id="rId41"/>
+    <hyperlink ref="C986" r:id="rId42"/>
+    <hyperlink ref="D986" r:id="rId43"/>
+    <hyperlink ref="D985" r:id="rId44"/>
+    <hyperlink ref="C983" r:id="rId45"/>
+    <hyperlink ref="D983" r:id="rId46"/>
+    <hyperlink ref="C982" r:id="rId47"/>
+    <hyperlink ref="D982" r:id="rId48"/>
+    <hyperlink ref="C981" r:id="rId49" location="career-position"/>
+    <hyperlink ref="D981" r:id="rId50"/>
+    <hyperlink ref="C980" r:id="rId51"/>
+    <hyperlink ref="D980" r:id="rId52"/>
+    <hyperlink ref="D984" r:id="rId53"/>
+    <hyperlink ref="C979" r:id="rId54"/>
+    <hyperlink ref="C978" r:id="rId55"/>
+    <hyperlink ref="D978" r:id="rId56"/>
+    <hyperlink ref="C977" r:id="rId57"/>
+    <hyperlink ref="D977" r:id="rId58"/>
+    <hyperlink ref="C975" r:id="rId59"/>
+    <hyperlink ref="D975" r:id="rId60"/>
+    <hyperlink ref="C974" r:id="rId61"/>
+    <hyperlink ref="D974" r:id="rId62"/>
+    <hyperlink ref="C973" r:id="rId63"/>
+    <hyperlink ref="C972" r:id="rId64"/>
+    <hyperlink ref="D972" r:id="rId65"/>
+    <hyperlink ref="C971" r:id="rId66"/>
+    <hyperlink ref="D971" r:id="rId67"/>
+    <hyperlink ref="C970" r:id="rId68" location="positions"/>
+    <hyperlink ref="D970" r:id="rId69"/>
+    <hyperlink ref="C969" r:id="rId70"/>
+    <hyperlink ref="D969" r:id="rId71"/>
+    <hyperlink ref="D968" r:id="rId72"/>
+    <hyperlink ref="C968" r:id="rId73"/>
+    <hyperlink ref="C967" r:id="rId74"/>
+    <hyperlink ref="D967" r:id="rId75"/>
+    <hyperlink ref="D966" r:id="rId76"/>
+    <hyperlink ref="C965" r:id="rId77"/>
+    <hyperlink ref="D965" r:id="rId78"/>
+    <hyperlink ref="D964" r:id="rId79"/>
+    <hyperlink ref="D963" r:id="rId80"/>
+    <hyperlink ref="C963" r:id="rId81"/>
+    <hyperlink ref="D962" r:id="rId82"/>
+    <hyperlink ref="C962" r:id="rId83" location="open-positions"/>
+    <hyperlink ref="D961" r:id="rId84"/>
+    <hyperlink ref="C960" r:id="rId85"/>
+    <hyperlink ref="D960" r:id="rId86"/>
+    <hyperlink ref="C959" r:id="rId87"/>
+    <hyperlink ref="D959" r:id="rId88"/>
+    <hyperlink ref="C957" r:id="rId89"/>
+    <hyperlink ref="D957" r:id="rId90"/>
+    <hyperlink ref="D956" r:id="rId91"/>
+    <hyperlink ref="C956" r:id="rId92"/>
+    <hyperlink ref="C955" r:id="rId93" location="careers-list"/>
+    <hyperlink ref="D955" r:id="rId94"/>
+    <hyperlink ref="C954" r:id="rId95"/>
+    <hyperlink ref="C953" r:id="rId96"/>
+    <hyperlink ref="D953" r:id="rId97"/>
+    <hyperlink ref="D952" r:id="rId98"/>
+    <hyperlink ref="C952" r:id="rId99"/>
+    <hyperlink ref="D950" r:id="rId100"/>
+    <hyperlink ref="C949" r:id="rId101"/>
+    <hyperlink ref="C948" r:id="rId102"/>
+    <hyperlink ref="D948" r:id="rId103"/>
+    <hyperlink ref="C947" r:id="rId104"/>
+    <hyperlink ref="D947" r:id="rId105"/>
+    <hyperlink ref="C946" r:id="rId106"/>
+    <hyperlink ref="D946" r:id="rId107"/>
+    <hyperlink ref="C945" r:id="rId108"/>
+    <hyperlink ref="D945" r:id="rId109"/>
+    <hyperlink ref="C944" r:id="rId110" location="open-positions"/>
+    <hyperlink ref="D944" r:id="rId111"/>
+    <hyperlink ref="C943" r:id="rId112"/>
+    <hyperlink ref="D943" r:id="rId113"/>
+    <hyperlink ref="C942" r:id="rId114"/>
+    <hyperlink ref="D942" r:id="rId115"/>
+    <hyperlink ref="C940" r:id="rId116"/>
+    <hyperlink ref="C939" r:id="rId117"/>
+    <hyperlink ref="D939" r:id="rId118"/>
+    <hyperlink ref="C938" r:id="rId119"/>
+    <hyperlink ref="D938" r:id="rId120"/>
+    <hyperlink ref="C937" r:id="rId121"/>
+    <hyperlink ref="D935" r:id="rId122"/>
+    <hyperlink ref="C933" r:id="rId123"/>
+    <hyperlink ref="D933" r:id="rId124"/>
+    <hyperlink ref="C931" r:id="rId125"/>
+    <hyperlink ref="D930" r:id="rId126"/>
+    <hyperlink ref="D927" r:id="rId127"/>
+    <hyperlink ref="D926" r:id="rId128"/>
+    <hyperlink ref="D924" r:id="rId129"/>
+    <hyperlink ref="C929" r:id="rId130"/>
+    <hyperlink ref="C927" r:id="rId131"/>
+    <hyperlink ref="C926" r:id="rId132"/>
+    <hyperlink ref="C924" r:id="rId133"/>
+    <hyperlink ref="C923" r:id="rId134"/>
+    <hyperlink ref="D920" r:id="rId135"/>
+    <hyperlink ref="C920" r:id="rId136"/>
+    <hyperlink ref="C919" r:id="rId137"/>
+    <hyperlink ref="D919" r:id="rId138"/>
+    <hyperlink ref="C918" r:id="rId139"/>
+    <hyperlink ref="D918" r:id="rId140"/>
+    <hyperlink ref="C916" r:id="rId141"/>
+    <hyperlink ref="D916" r:id="rId142"/>
+    <hyperlink ref="C915" r:id="rId143"/>
+    <hyperlink ref="D915" r:id="rId144"/>
+    <hyperlink ref="C914" r:id="rId145"/>
+    <hyperlink ref="D914" r:id="rId146"/>
+    <hyperlink ref="D913" r:id="rId147"/>
+    <hyperlink ref="C911" r:id="rId148" location="open-positions"/>
+    <hyperlink ref="D911" r:id="rId149"/>
+    <hyperlink ref="D910" r:id="rId150"/>
+    <hyperlink ref="C909" r:id="rId151" location="openings"/>
+    <hyperlink ref="D909" r:id="rId152"/>
+    <hyperlink ref="C908" r:id="rId153"/>
+    <hyperlink ref="D908" r:id="rId154"/>
+    <hyperlink ref="D907" r:id="rId155"/>
+    <hyperlink ref="C906" r:id="rId156"/>
+    <hyperlink ref="D906" r:id="rId157"/>
     <hyperlink ref="C154" r:id="rId158"/>
     <hyperlink ref="D154" r:id="rId159"/>
-    <hyperlink ref="C895" r:id="rId160"/>
-    <hyperlink ref="C894" r:id="rId161"/>
-    <hyperlink ref="D894" r:id="rId162"/>
-    <hyperlink ref="C893" r:id="rId163"/>
-    <hyperlink ref="D893" r:id="rId164"/>
-    <hyperlink ref="C892" r:id="rId165"/>
-    <hyperlink ref="D892" r:id="rId166"/>
-    <hyperlink ref="C890" r:id="rId167"/>
-    <hyperlink ref="D890" r:id="rId168"/>
-    <hyperlink ref="C889" r:id="rId169"/>
-    <hyperlink ref="D889" r:id="rId170"/>
-    <hyperlink ref="C887" r:id="rId171" location="join"/>
-    <hyperlink ref="D887" r:id="rId172"/>
-    <hyperlink ref="C886" r:id="rId173"/>
-    <hyperlink ref="C885" r:id="rId174"/>
-    <hyperlink ref="D885" r:id="rId175"/>
-    <hyperlink ref="C884" r:id="rId176"/>
-    <hyperlink ref="C883" r:id="rId177"/>
-    <hyperlink ref="D883" r:id="rId178"/>
-    <hyperlink ref="C882" r:id="rId179"/>
-    <hyperlink ref="D882" r:id="rId180"/>
-    <hyperlink ref="C880" r:id="rId181"/>
-    <hyperlink ref="D880" r:id="rId182"/>
-    <hyperlink ref="C878" r:id="rId183"/>
-    <hyperlink ref="D878" r:id="rId184"/>
-    <hyperlink ref="C877" r:id="rId185"/>
-    <hyperlink ref="C876" r:id="rId186"/>
-    <hyperlink ref="D876" r:id="rId187"/>
-    <hyperlink ref="D875" r:id="rId188"/>
-    <hyperlink ref="C875" r:id="rId189"/>
-    <hyperlink ref="C874" r:id="rId190"/>
-    <hyperlink ref="D874" r:id="rId191"/>
-    <hyperlink ref="C873" r:id="rId192"/>
-    <hyperlink ref="C870" r:id="rId193" location="careers"/>
-    <hyperlink ref="D869" r:id="rId194"/>
-    <hyperlink ref="C869" r:id="rId195"/>
+    <hyperlink ref="C904" r:id="rId160"/>
+    <hyperlink ref="C903" r:id="rId161"/>
+    <hyperlink ref="D903" r:id="rId162"/>
+    <hyperlink ref="C902" r:id="rId163"/>
+    <hyperlink ref="D902" r:id="rId164"/>
+    <hyperlink ref="C901" r:id="rId165"/>
+    <hyperlink ref="D901" r:id="rId166"/>
+    <hyperlink ref="C899" r:id="rId167"/>
+    <hyperlink ref="D899" r:id="rId168"/>
+    <hyperlink ref="C898" r:id="rId169"/>
+    <hyperlink ref="D898" r:id="rId170"/>
+    <hyperlink ref="C896" r:id="rId171" location="join"/>
+    <hyperlink ref="D896" r:id="rId172"/>
+    <hyperlink ref="C895" r:id="rId173"/>
+    <hyperlink ref="C894" r:id="rId174"/>
+    <hyperlink ref="D894" r:id="rId175"/>
+    <hyperlink ref="C893" r:id="rId176"/>
+    <hyperlink ref="C892" r:id="rId177"/>
+    <hyperlink ref="D892" r:id="rId178"/>
+    <hyperlink ref="C891" r:id="rId179"/>
+    <hyperlink ref="D891" r:id="rId180"/>
+    <hyperlink ref="C889" r:id="rId181"/>
+    <hyperlink ref="D889" r:id="rId182"/>
+    <hyperlink ref="C887" r:id="rId183"/>
+    <hyperlink ref="D887" r:id="rId184"/>
+    <hyperlink ref="C886" r:id="rId185"/>
+    <hyperlink ref="C885" r:id="rId186"/>
+    <hyperlink ref="D885" r:id="rId187"/>
+    <hyperlink ref="D884" r:id="rId188"/>
+    <hyperlink ref="C884" r:id="rId189"/>
+    <hyperlink ref="C883" r:id="rId190"/>
+    <hyperlink ref="D883" r:id="rId191"/>
+    <hyperlink ref="C882" r:id="rId192"/>
+    <hyperlink ref="C879" r:id="rId193" location="careers"/>
+    <hyperlink ref="D878" r:id="rId194"/>
+    <hyperlink ref="C878" r:id="rId195"/>
     <hyperlink ref="C629" r:id="rId196"/>
-    <hyperlink ref="C866" r:id="rId197"/>
-    <hyperlink ref="D866" r:id="rId198"/>
-    <hyperlink ref="C865" r:id="rId199"/>
-    <hyperlink ref="D865" r:id="rId200"/>
-    <hyperlink ref="C864" r:id="rId201"/>
-    <hyperlink ref="C863" r:id="rId202"/>
-    <hyperlink ref="D863" r:id="rId203"/>
-    <hyperlink ref="C862" r:id="rId204"/>
-    <hyperlink ref="D862" r:id="rId205"/>
-    <hyperlink ref="C861" r:id="rId206"/>
-    <hyperlink ref="D861" r:id="rId207"/>
-    <hyperlink ref="C860" r:id="rId208"/>
-    <hyperlink ref="C859" r:id="rId209" location="career_opp_section"/>
-    <hyperlink ref="C857" r:id="rId210"/>
-    <hyperlink ref="D857" r:id="rId211"/>
-    <hyperlink ref="C856" r:id="rId212"/>
-    <hyperlink ref="D856" r:id="rId213"/>
-    <hyperlink ref="C855" r:id="rId214"/>
-    <hyperlink ref="C854" r:id="rId215"/>
-    <hyperlink ref="C853" r:id="rId216"/>
-    <hyperlink ref="D853" r:id="rId217"/>
-    <hyperlink ref="C851" r:id="rId218"/>
-    <hyperlink ref="D851" r:id="rId219"/>
-    <hyperlink ref="C849" r:id="rId220"/>
-    <hyperlink ref="C848" r:id="rId221"/>
-    <hyperlink ref="D848" r:id="rId222"/>
-    <hyperlink ref="C847" r:id="rId223"/>
-    <hyperlink ref="D847" r:id="rId224"/>
-    <hyperlink ref="C846" r:id="rId225"/>
-    <hyperlink ref="C845" r:id="rId226"/>
-    <hyperlink ref="C844" r:id="rId227"/>
-    <hyperlink ref="C843" r:id="rId228"/>
-    <hyperlink ref="D842" r:id="rId229"/>
-    <hyperlink ref="C841" r:id="rId230"/>
-    <hyperlink ref="D841" r:id="rId231"/>
-    <hyperlink ref="C839" r:id="rId232"/>
-    <hyperlink ref="D839" r:id="rId233"/>
-    <hyperlink ref="C837" r:id="rId234"/>
-    <hyperlink ref="D837" r:id="rId235"/>
-    <hyperlink ref="C836" r:id="rId236" location="job-positions-table"/>
-    <hyperlink ref="D836" r:id="rId237"/>
-    <hyperlink ref="D835" r:id="rId238"/>
-    <hyperlink ref="C834" r:id="rId239"/>
-    <hyperlink ref="D834" r:id="rId240"/>
-    <hyperlink ref="C833" r:id="rId241"/>
-    <hyperlink ref="D833" r:id="rId242"/>
-    <hyperlink ref="C830" r:id="rId243"/>
-    <hyperlink ref="D829" r:id="rId244"/>
-    <hyperlink ref="D828" r:id="rId245"/>
-    <hyperlink ref="C827" r:id="rId246"/>
-    <hyperlink ref="C826" r:id="rId247"/>
-    <hyperlink ref="D826" r:id="rId248"/>
-    <hyperlink ref="C825" r:id="rId249"/>
-    <hyperlink ref="D825" r:id="rId250"/>
-    <hyperlink ref="C824" r:id="rId251"/>
-    <hyperlink ref="D824" r:id="rId252"/>
-    <hyperlink ref="D822" r:id="rId253"/>
-    <hyperlink ref="C819" r:id="rId254"/>
-    <hyperlink ref="D818" r:id="rId255"/>
-    <hyperlink ref="C817" r:id="rId256"/>
-    <hyperlink ref="D817" r:id="rId257"/>
-    <hyperlink ref="C816" r:id="rId258" location="open_positions"/>
-    <hyperlink ref="C814" r:id="rId259" location="opening-title"/>
-    <hyperlink ref="D814" r:id="rId260"/>
-    <hyperlink ref="C813" r:id="rId261"/>
-    <hyperlink ref="D813" r:id="rId262"/>
-    <hyperlink ref="C812" r:id="rId263"/>
-    <hyperlink ref="C811" r:id="rId264" location="job-list"/>
-    <hyperlink ref="D811" r:id="rId265"/>
-    <hyperlink ref="D810" r:id="rId266"/>
-    <hyperlink ref="C810" r:id="rId267"/>
-    <hyperlink ref="C809" r:id="rId268"/>
-    <hyperlink ref="C808" r:id="rId269" location="s-careers"/>
-    <hyperlink ref="C807" r:id="rId270"/>
-    <hyperlink ref="D807" r:id="rId271"/>
-    <hyperlink ref="C806" r:id="rId272"/>
-    <hyperlink ref="C805" r:id="rId273"/>
-    <hyperlink ref="D805" r:id="rId274"/>
-    <hyperlink ref="C804" r:id="rId275"/>
-    <hyperlink ref="C801" r:id="rId276"/>
-    <hyperlink ref="D801" r:id="rId277"/>
-    <hyperlink ref="C800" r:id="rId278"/>
-    <hyperlink ref="C799" r:id="rId279"/>
-    <hyperlink ref="D799" r:id="rId280"/>
-    <hyperlink ref="C798" r:id="rId281"/>
-    <hyperlink ref="C797" r:id="rId282"/>
-    <hyperlink ref="D797" r:id="rId283"/>
-    <hyperlink ref="C796" r:id="rId284"/>
-    <hyperlink ref="C795" r:id="rId285"/>
-    <hyperlink ref="C794" r:id="rId286"/>
-    <hyperlink ref="D794" r:id="rId287"/>
-    <hyperlink ref="C793" r:id="rId288"/>
-    <hyperlink ref="D793" r:id="rId289"/>
-    <hyperlink ref="D792" r:id="rId290"/>
-    <hyperlink ref="D791" r:id="rId291"/>
-    <hyperlink ref="C791" r:id="rId292"/>
-    <hyperlink ref="C787" r:id="rId293"/>
-    <hyperlink ref="C786" r:id="rId294"/>
-    <hyperlink ref="D786" r:id="rId295"/>
-    <hyperlink ref="C785" r:id="rId296"/>
-    <hyperlink ref="D785" r:id="rId297"/>
-    <hyperlink ref="C784" r:id="rId298" location="open-positions"/>
-    <hyperlink ref="D784" r:id="rId299"/>
-    <hyperlink ref="C783" r:id="rId300"/>
-    <hyperlink ref="D783" r:id="rId301"/>
-    <hyperlink ref="C782" r:id="rId302"/>
-    <hyperlink ref="C781" r:id="rId303"/>
-    <hyperlink ref="D781" r:id="rId304"/>
-    <hyperlink ref="C780" r:id="rId305"/>
-    <hyperlink ref="C779" r:id="rId306" location="open-positions"/>
-    <hyperlink ref="D779" r:id="rId307"/>
+    <hyperlink ref="C875" r:id="rId197"/>
+    <hyperlink ref="D875" r:id="rId198"/>
+    <hyperlink ref="C874" r:id="rId199"/>
+    <hyperlink ref="D874" r:id="rId200"/>
+    <hyperlink ref="C873" r:id="rId201"/>
+    <hyperlink ref="C872" r:id="rId202"/>
+    <hyperlink ref="D872" r:id="rId203"/>
+    <hyperlink ref="C871" r:id="rId204"/>
+    <hyperlink ref="D871" r:id="rId205"/>
+    <hyperlink ref="C870" r:id="rId206"/>
+    <hyperlink ref="D870" r:id="rId207"/>
+    <hyperlink ref="C869" r:id="rId208"/>
+    <hyperlink ref="C868" r:id="rId209" location="career_opp_section"/>
+    <hyperlink ref="C866" r:id="rId210"/>
+    <hyperlink ref="D866" r:id="rId211"/>
+    <hyperlink ref="C865" r:id="rId212"/>
+    <hyperlink ref="D865" r:id="rId213"/>
+    <hyperlink ref="C864" r:id="rId214"/>
+    <hyperlink ref="C863" r:id="rId215"/>
+    <hyperlink ref="C862" r:id="rId216"/>
+    <hyperlink ref="D862" r:id="rId217"/>
+    <hyperlink ref="C860" r:id="rId218"/>
+    <hyperlink ref="D860" r:id="rId219"/>
+    <hyperlink ref="C858" r:id="rId220"/>
+    <hyperlink ref="C857" r:id="rId221"/>
+    <hyperlink ref="D857" r:id="rId222"/>
+    <hyperlink ref="C856" r:id="rId223"/>
+    <hyperlink ref="D856" r:id="rId224"/>
+    <hyperlink ref="C855" r:id="rId225"/>
+    <hyperlink ref="C854" r:id="rId226"/>
+    <hyperlink ref="C853" r:id="rId227"/>
+    <hyperlink ref="C852" r:id="rId228"/>
+    <hyperlink ref="D851" r:id="rId229"/>
+    <hyperlink ref="C850" r:id="rId230"/>
+    <hyperlink ref="D850" r:id="rId231"/>
+    <hyperlink ref="C848" r:id="rId232"/>
+    <hyperlink ref="D848" r:id="rId233"/>
+    <hyperlink ref="C846" r:id="rId234"/>
+    <hyperlink ref="D846" r:id="rId235"/>
+    <hyperlink ref="C845" r:id="rId236" location="job-positions-table"/>
+    <hyperlink ref="D845" r:id="rId237"/>
+    <hyperlink ref="D844" r:id="rId238"/>
+    <hyperlink ref="C843" r:id="rId239"/>
+    <hyperlink ref="D843" r:id="rId240"/>
+    <hyperlink ref="C842" r:id="rId241"/>
+    <hyperlink ref="D842" r:id="rId242"/>
+    <hyperlink ref="C839" r:id="rId243"/>
+    <hyperlink ref="D838" r:id="rId244"/>
+    <hyperlink ref="D837" r:id="rId245"/>
+    <hyperlink ref="C836" r:id="rId246"/>
+    <hyperlink ref="C835" r:id="rId247"/>
+    <hyperlink ref="D835" r:id="rId248"/>
+    <hyperlink ref="C834" r:id="rId249"/>
+    <hyperlink ref="D834" r:id="rId250"/>
+    <hyperlink ref="C833" r:id="rId251"/>
+    <hyperlink ref="D833" r:id="rId252"/>
+    <hyperlink ref="D831" r:id="rId253"/>
+    <hyperlink ref="C828" r:id="rId254"/>
+    <hyperlink ref="D827" r:id="rId255"/>
+    <hyperlink ref="C826" r:id="rId256"/>
+    <hyperlink ref="D826" r:id="rId257"/>
+    <hyperlink ref="C824" r:id="rId258" location="open_positions"/>
+    <hyperlink ref="C822" r:id="rId259" location="opening-title"/>
+    <hyperlink ref="D822" r:id="rId260"/>
+    <hyperlink ref="C821" r:id="rId261"/>
+    <hyperlink ref="D821" r:id="rId262"/>
+    <hyperlink ref="C820" r:id="rId263"/>
+    <hyperlink ref="C819" r:id="rId264" location="job-list"/>
+    <hyperlink ref="D819" r:id="rId265"/>
+    <hyperlink ref="D817" r:id="rId266"/>
+    <hyperlink ref="C817" r:id="rId267"/>
+    <hyperlink ref="C816" r:id="rId268"/>
+    <hyperlink ref="C815" r:id="rId269" location="s-careers"/>
+    <hyperlink ref="C814" r:id="rId270"/>
+    <hyperlink ref="D814" r:id="rId271"/>
+    <hyperlink ref="C812" r:id="rId272"/>
+    <hyperlink ref="C810" r:id="rId273"/>
+    <hyperlink ref="D810" r:id="rId274"/>
+    <hyperlink ref="C809" r:id="rId275"/>
+    <hyperlink ref="C806" r:id="rId276"/>
+    <hyperlink ref="D806" r:id="rId277"/>
+    <hyperlink ref="C805" r:id="rId278"/>
+    <hyperlink ref="C804" r:id="rId279"/>
+    <hyperlink ref="D804" r:id="rId280"/>
+    <hyperlink ref="C803" r:id="rId281"/>
+    <hyperlink ref="C802" r:id="rId282"/>
+    <hyperlink ref="D802" r:id="rId283"/>
+    <hyperlink ref="C801" r:id="rId284"/>
+    <hyperlink ref="C800" r:id="rId285"/>
+    <hyperlink ref="C799" r:id="rId286"/>
+    <hyperlink ref="D799" r:id="rId287"/>
+    <hyperlink ref="C798" r:id="rId288"/>
+    <hyperlink ref="D798" r:id="rId289"/>
+    <hyperlink ref="D797" r:id="rId290"/>
+    <hyperlink ref="D796" r:id="rId291"/>
+    <hyperlink ref="C796" r:id="rId292"/>
+    <hyperlink ref="C792" r:id="rId293"/>
+    <hyperlink ref="C791" r:id="rId294"/>
+    <hyperlink ref="D791" r:id="rId295"/>
+    <hyperlink ref="C790" r:id="rId296"/>
+    <hyperlink ref="D790" r:id="rId297"/>
+    <hyperlink ref="C789" r:id="rId298" location="open-positions"/>
+    <hyperlink ref="D789" r:id="rId299"/>
+    <hyperlink ref="C787" r:id="rId300"/>
+    <hyperlink ref="D787" r:id="rId301"/>
+    <hyperlink ref="C786" r:id="rId302"/>
+    <hyperlink ref="C785" r:id="rId303"/>
+    <hyperlink ref="D785" r:id="rId304"/>
+    <hyperlink ref="C783" r:id="rId305"/>
+    <hyperlink ref="C781" r:id="rId306" location="open-positions"/>
+    <hyperlink ref="D781" r:id="rId307"/>
     <hyperlink ref="D778" r:id="rId308"/>
     <hyperlink ref="C777" r:id="rId309"/>
     <hyperlink ref="D777" r:id="rId310"/>
@@ -31613,8 +31862,8 @@
     <hyperlink ref="C723" r:id="rId383"/>
     <hyperlink ref="C720" r:id="rId384"/>
     <hyperlink ref="D720" r:id="rId385"/>
-    <hyperlink ref="C858" r:id="rId386"/>
-    <hyperlink ref="D858" r:id="rId387"/>
+    <hyperlink ref="C867" r:id="rId386"/>
+    <hyperlink ref="D867" r:id="rId387"/>
     <hyperlink ref="C719" r:id="rId388" location="section-open-positions"/>
     <hyperlink ref="D719" r:id="rId389"/>
     <hyperlink ref="C718" r:id="rId390"/>
@@ -31675,8 +31924,8 @@
     <hyperlink ref="D679" r:id="rId445"/>
     <hyperlink ref="C678" r:id="rId446" location="c-position"/>
     <hyperlink ref="D678" r:id="rId447"/>
-    <hyperlink ref="D949" r:id="rId448"/>
-    <hyperlink ref="C949" r:id="rId449"/>
+    <hyperlink ref="D958" r:id="rId448"/>
+    <hyperlink ref="C958" r:id="rId449"/>
     <hyperlink ref="C677" r:id="rId450"/>
     <hyperlink ref="D677" r:id="rId451"/>
     <hyperlink ref="D676" r:id="rId452"/>
@@ -32089,8 +32338,8 @@
     <hyperlink ref="D344" r:id="rId859"/>
     <hyperlink ref="C343" r:id="rId860"/>
     <hyperlink ref="D343" r:id="rId861"/>
-    <hyperlink ref="C823" r:id="rId862"/>
-    <hyperlink ref="D823" r:id="rId863"/>
+    <hyperlink ref="C832" r:id="rId862"/>
+    <hyperlink ref="D832" r:id="rId863"/>
     <hyperlink ref="C340" r:id="rId864"/>
     <hyperlink ref="D340" r:id="rId865"/>
     <hyperlink ref="C338" r:id="rId866"/>
@@ -32224,8 +32473,8 @@
     <hyperlink ref="D224" r:id="rId994"/>
     <hyperlink ref="C223" r:id="rId995"/>
     <hyperlink ref="C222" r:id="rId996"/>
-    <hyperlink ref="C815" r:id="rId997"/>
-    <hyperlink ref="D815" r:id="rId998"/>
+    <hyperlink ref="C823" r:id="rId997"/>
+    <hyperlink ref="D823" r:id="rId998"/>
     <hyperlink ref="C220" r:id="rId999"/>
     <hyperlink ref="D220" r:id="rId1000"/>
     <hyperlink ref="C219" r:id="rId1001"/>
@@ -32289,7 +32538,7 @@
     <hyperlink ref="C177" r:id="rId1058"/>
     <hyperlink ref="C379" r:id="rId1059"/>
     <hyperlink ref="D379" r:id="rId1060"/>
-    <hyperlink ref="C790" r:id="rId1061"/>
+    <hyperlink ref="C795" r:id="rId1061"/>
     <hyperlink ref="C175" r:id="rId1062" location="job-openings"/>
     <hyperlink ref="D175" r:id="rId1063"/>
     <hyperlink ref="C173" r:id="rId1064"/>
@@ -32359,8 +32608,8 @@
     <hyperlink ref="D109" r:id="rId1127"/>
     <hyperlink ref="C108" r:id="rId1128"/>
     <hyperlink ref="D108" r:id="rId1129"/>
-    <hyperlink ref="C903" r:id="rId1130"/>
-    <hyperlink ref="D903" r:id="rId1131"/>
+    <hyperlink ref="C912" r:id="rId1130"/>
+    <hyperlink ref="D912" r:id="rId1131"/>
     <hyperlink ref="C357" display="https://www.comeet.com/jobs/autoleadstar/54.002/?token=452159A159A8A4CF61E3E229019EC26E21148&amp;company-uid=54.002&amp;company-name=AutoLeadStar&amp;color=177acd&amp;font-size=13px&amp;css-cache=false&amp;css-url=https%3A%2F%2Fwww.autoleadstar.com%2Fwp-content%2Fthemes%2Fautole"/>
     <hyperlink ref="D357" r:id="rId1132"/>
     <hyperlink ref="C104" r:id="rId1133"/>
@@ -32471,13 +32720,13 @@
     <hyperlink ref="D8" r:id="rId1238"/>
     <hyperlink ref="D7" r:id="rId1239"/>
     <hyperlink ref="D6" r:id="rId1240"/>
-    <hyperlink ref="C999" r:id="rId1241"/>
-    <hyperlink ref="D999" r:id="rId1242"/>
-    <hyperlink ref="C997" r:id="rId1243"/>
-    <hyperlink ref="D997" r:id="rId1244"/>
-    <hyperlink ref="C967" r:id="rId1245" location="new_job_s5"/>
-    <hyperlink ref="D896" r:id="rId1246"/>
-    <hyperlink ref="C896" r:id="rId1247"/>
+    <hyperlink ref="C1008" r:id="rId1241"/>
+    <hyperlink ref="D1008" r:id="rId1242"/>
+    <hyperlink ref="C1006" r:id="rId1243"/>
+    <hyperlink ref="D1006" r:id="rId1244"/>
+    <hyperlink ref="C976" r:id="rId1245" location="new_job_s5"/>
+    <hyperlink ref="D905" r:id="rId1246"/>
+    <hyperlink ref="C905" r:id="rId1247"/>
     <hyperlink ref="C25" r:id="rId1248"/>
     <hyperlink ref="D25" r:id="rId1249"/>
     <hyperlink ref="C89" r:id="rId1250"/>
@@ -32531,40 +32780,40 @@
     <hyperlink ref="C662" r:id="rId1298"/>
     <hyperlink ref="D662" r:id="rId1299"/>
     <hyperlink ref="D691" r:id="rId1300"/>
-    <hyperlink ref="C802" r:id="rId1301"/>
-    <hyperlink ref="D802" r:id="rId1302"/>
-    <hyperlink ref="D838" r:id="rId1303"/>
-    <hyperlink ref="C852" r:id="rId1304"/>
-    <hyperlink ref="C867" r:id="rId1305"/>
-    <hyperlink ref="C868" r:id="rId1306"/>
-    <hyperlink ref="D868" r:id="rId1307"/>
-    <hyperlink ref="C871" r:id="rId1308"/>
-    <hyperlink ref="D871" r:id="rId1309"/>
-    <hyperlink ref="C913" r:id="rId1310"/>
+    <hyperlink ref="C807" r:id="rId1301"/>
+    <hyperlink ref="D807" r:id="rId1302"/>
+    <hyperlink ref="D847" r:id="rId1303"/>
+    <hyperlink ref="C861" r:id="rId1304"/>
+    <hyperlink ref="C876" r:id="rId1305"/>
+    <hyperlink ref="C877" r:id="rId1306"/>
+    <hyperlink ref="D877" r:id="rId1307"/>
+    <hyperlink ref="C880" r:id="rId1308"/>
+    <hyperlink ref="D880" r:id="rId1309"/>
+    <hyperlink ref="C922" r:id="rId1310"/>
     <hyperlink ref="C300" r:id="rId1311"/>
     <hyperlink ref="D188" r:id="rId1312"/>
     <hyperlink ref="C772" r:id="rId1313"/>
     <hyperlink ref="D772" r:id="rId1314"/>
-    <hyperlink ref="C891" r:id="rId1315"/>
-    <hyperlink ref="D891" r:id="rId1316"/>
+    <hyperlink ref="C900" r:id="rId1315"/>
+    <hyperlink ref="D900" r:id="rId1316"/>
     <hyperlink ref="C637" r:id="rId1317"/>
     <hyperlink ref="D637" r:id="rId1318"/>
     <hyperlink ref="C188" r:id="rId1319"/>
-    <hyperlink ref="C881" r:id="rId1320"/>
-    <hyperlink ref="D881" r:id="rId1321"/>
+    <hyperlink ref="C890" r:id="rId1320"/>
+    <hyperlink ref="D890" r:id="rId1321"/>
     <hyperlink ref="C590" r:id="rId1322"/>
     <hyperlink ref="D590" r:id="rId1323"/>
-    <hyperlink ref="D964" r:id="rId1324"/>
+    <hyperlink ref="D973" r:id="rId1324"/>
     <hyperlink ref="D583" r:id="rId1325"/>
     <hyperlink ref="D416" r:id="rId1326"/>
     <hyperlink ref="D137" r:id="rId1327"/>
     <hyperlink ref="D115" r:id="rId1328"/>
     <hyperlink ref="C488" r:id="rId1329"/>
     <hyperlink ref="D488" r:id="rId1330"/>
-    <hyperlink ref="C912" r:id="rId1331"/>
-    <hyperlink ref="D912" r:id="rId1332"/>
-    <hyperlink ref="C879" r:id="rId1333"/>
-    <hyperlink ref="D879" r:id="rId1334"/>
+    <hyperlink ref="C921" r:id="rId1331"/>
+    <hyperlink ref="D921" r:id="rId1332"/>
+    <hyperlink ref="C888" r:id="rId1333"/>
+    <hyperlink ref="D888" r:id="rId1334"/>
     <hyperlink ref="C514" r:id="rId1335"/>
     <hyperlink ref="D514" r:id="rId1336"/>
     <hyperlink ref="D66" r:id="rId1337"/>
@@ -32584,8 +32833,8 @@
     <hyperlink ref="D405" r:id="rId1351"/>
     <hyperlink ref="C602" r:id="rId1352" location="collapse11_collapse"/>
     <hyperlink ref="D602" r:id="rId1353"/>
-    <hyperlink ref="C916" r:id="rId1354"/>
-    <hyperlink ref="D916" r:id="rId1355"/>
+    <hyperlink ref="C925" r:id="rId1354"/>
+    <hyperlink ref="D925" r:id="rId1355"/>
     <hyperlink ref="C170" r:id="rId1356"/>
     <hyperlink ref="D170" r:id="rId1357"/>
     <hyperlink ref="C210" r:id="rId1358"/>
@@ -32593,31 +32842,31 @@
     <hyperlink ref="C721" r:id="rId1360"/>
     <hyperlink ref="D721" r:id="rId1361"/>
     <hyperlink ref="D187" r:id="rId1362"/>
-    <hyperlink ref="C820" r:id="rId1363"/>
-    <hyperlink ref="D820" r:id="rId1364"/>
-    <hyperlink ref="C926" r:id="rId1365"/>
+    <hyperlink ref="C829" r:id="rId1363"/>
+    <hyperlink ref="D829" r:id="rId1364"/>
+    <hyperlink ref="C935" r:id="rId1365"/>
     <hyperlink ref="C619" r:id="rId1366"/>
     <hyperlink ref="D619" r:id="rId1367"/>
-    <hyperlink ref="C927" r:id="rId1368"/>
-    <hyperlink ref="D927" r:id="rId1369"/>
+    <hyperlink ref="C936" r:id="rId1368"/>
+    <hyperlink ref="D936" r:id="rId1369"/>
     <hyperlink ref="D668" r:id="rId1370"/>
     <hyperlink ref="D687" r:id="rId1371"/>
-    <hyperlink ref="C872" r:id="rId1372"/>
-    <hyperlink ref="D872" r:id="rId1373"/>
-    <hyperlink ref="C840" r:id="rId1374"/>
-    <hyperlink ref="D840" r:id="rId1375"/>
+    <hyperlink ref="C881" r:id="rId1372"/>
+    <hyperlink ref="D881" r:id="rId1373"/>
+    <hyperlink ref="C849" r:id="rId1374"/>
+    <hyperlink ref="D849" r:id="rId1375"/>
     <hyperlink ref="C301" r:id="rId1376" location="open-positions"/>
     <hyperlink ref="C424" r:id="rId1377"/>
-    <hyperlink ref="B832" r:id="rId1378" display="https://www.linkedin.com/company/silverfort/life?lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3BjjZ4XIVfTD29DDJ9tZth9Q%3D%3D"/>
-    <hyperlink ref="C832" r:id="rId1379"/>
-    <hyperlink ref="D832" r:id="rId1380"/>
+    <hyperlink ref="B841" r:id="rId1378" display="https://www.linkedin.com/company/silverfort/life?lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3BjjZ4XIVfTD29DDJ9tZth9Q%3D%3D"/>
+    <hyperlink ref="C841" r:id="rId1379"/>
+    <hyperlink ref="D841" r:id="rId1380"/>
     <hyperlink ref="D505" r:id="rId1381"/>
     <hyperlink ref="D523" r:id="rId1382"/>
     <hyperlink ref="D546" r:id="rId1383"/>
     <hyperlink ref="C560" r:id="rId1384"/>
     <hyperlink ref="C575" r:id="rId1385"/>
     <hyperlink ref="C581" r:id="rId1386"/>
-    <hyperlink ref="D970" r:id="rId1387"/>
+    <hyperlink ref="D979" r:id="rId1387"/>
     <hyperlink ref="D650" r:id="rId1388"/>
     <hyperlink ref="C650" r:id="rId1389"/>
     <hyperlink ref="C65" r:id="rId1390"/>
@@ -32640,20 +32889,20 @@
     <hyperlink ref="D753" r:id="rId1407"/>
     <hyperlink ref="C738" r:id="rId1408"/>
     <hyperlink ref="D774" r:id="rId1409"/>
-    <hyperlink ref="C788" r:id="rId1410"/>
-    <hyperlink ref="C789" r:id="rId1411"/>
-    <hyperlink ref="D798" r:id="rId1412"/>
-    <hyperlink ref="D831" r:id="rId1413"/>
-    <hyperlink ref="C831" r:id="rId1414"/>
-    <hyperlink ref="D859" r:id="rId1415"/>
-    <hyperlink ref="D870" r:id="rId1416"/>
-    <hyperlink ref="D877" r:id="rId1417"/>
-    <hyperlink ref="D886" r:id="rId1418"/>
-    <hyperlink ref="D928" r:id="rId1419"/>
-    <hyperlink ref="D945" r:id="rId1420"/>
-    <hyperlink ref="C975" r:id="rId1421"/>
-    <hyperlink ref="C976" r:id="rId1422"/>
-    <hyperlink ref="D983" r:id="rId1423"/>
+    <hyperlink ref="C793" r:id="rId1410"/>
+    <hyperlink ref="C794" r:id="rId1411"/>
+    <hyperlink ref="D803" r:id="rId1412"/>
+    <hyperlink ref="D840" r:id="rId1413"/>
+    <hyperlink ref="C840" r:id="rId1414"/>
+    <hyperlink ref="D868" r:id="rId1415"/>
+    <hyperlink ref="D879" r:id="rId1416"/>
+    <hyperlink ref="D886" r:id="rId1417"/>
+    <hyperlink ref="D895" r:id="rId1418"/>
+    <hyperlink ref="D937" r:id="rId1419"/>
+    <hyperlink ref="D954" r:id="rId1420"/>
+    <hyperlink ref="C984" r:id="rId1421"/>
+    <hyperlink ref="C985" r:id="rId1422"/>
+    <hyperlink ref="D992" r:id="rId1423"/>
     <hyperlink ref="D232" r:id="rId1424"/>
     <hyperlink ref="C232" r:id="rId1425" location="results"/>
     <hyperlink ref="D443" r:id="rId1426"/>
@@ -32662,25 +32911,25 @@
     <hyperlink ref="D506" r:id="rId1429"/>
     <hyperlink ref="D422" r:id="rId1430"/>
     <hyperlink ref="D722" r:id="rId1431"/>
-    <hyperlink ref="C925" r:id="rId1432" location="open-positions"/>
-    <hyperlink ref="D925" r:id="rId1433"/>
+    <hyperlink ref="C934" r:id="rId1432" location="open-positions"/>
+    <hyperlink ref="D934" r:id="rId1433"/>
     <hyperlink ref="D349" r:id="rId1434"/>
     <hyperlink ref="C349" r:id="rId1435"/>
-    <hyperlink ref="D942" r:id="rId1436"/>
+    <hyperlink ref="D951" r:id="rId1436"/>
     <hyperlink ref="C284" r:id="rId1437"/>
     <hyperlink ref="D284" r:id="rId1438"/>
     <hyperlink ref="D319" r:id="rId1439"/>
-    <hyperlink ref="C850" r:id="rId1440"/>
-    <hyperlink ref="D850" r:id="rId1441"/>
+    <hyperlink ref="C859" r:id="rId1440"/>
+    <hyperlink ref="D859" r:id="rId1441"/>
     <hyperlink ref="C730" r:id="rId1442" location="career-buttons"/>
     <hyperlink ref="C657" r:id="rId1443"/>
     <hyperlink ref="D657" r:id="rId1444"/>
-    <hyperlink ref="D932" r:id="rId1445"/>
-    <hyperlink ref="C803" r:id="rId1446"/>
-    <hyperlink ref="D803" r:id="rId1447"/>
+    <hyperlink ref="D941" r:id="rId1445"/>
+    <hyperlink ref="C808" r:id="rId1446"/>
+    <hyperlink ref="D808" r:id="rId1447"/>
     <hyperlink ref="C142" r:id="rId1448"/>
     <hyperlink ref="D142" r:id="rId1449"/>
-    <hyperlink ref="D919" r:id="rId1450"/>
+    <hyperlink ref="D928" r:id="rId1450"/>
     <hyperlink ref="C106" r:id="rId1451"/>
     <hyperlink ref="D457" r:id="rId1452"/>
     <hyperlink ref="D134" r:id="rId1453"/>
@@ -32696,7 +32945,7 @@
     <hyperlink ref="D501" r:id="rId1463"/>
     <hyperlink ref="C143" r:id="rId1464"/>
     <hyperlink ref="D143" r:id="rId1465"/>
-    <hyperlink ref="C821" r:id="rId1466"/>
+    <hyperlink ref="C830" r:id="rId1466"/>
     <hyperlink ref="C512" r:id="rId1467" location="positions"/>
     <hyperlink ref="D512" r:id="rId1468"/>
     <hyperlink ref="C10" r:id="rId1469"/>
@@ -32706,8 +32955,8 @@
     <hyperlink ref="D478" r:id="rId1473"/>
     <hyperlink ref="D360" r:id="rId1474"/>
     <hyperlink ref="C640" r:id="rId1475"/>
-    <hyperlink ref="D888" r:id="rId1476"/>
-    <hyperlink ref="C923" r:id="rId1477" location="openPositionSection"/>
+    <hyperlink ref="D897" r:id="rId1476"/>
+    <hyperlink ref="C932" r:id="rId1477" location="openPositionSection"/>
     <hyperlink ref="C3" r:id="rId1478"/>
     <hyperlink ref="D3" r:id="rId1479"/>
     <hyperlink ref="C15" r:id="rId1480"/>
@@ -32747,8 +32996,9 @@
     <hyperlink ref="C228" r:id="rId1514"/>
     <hyperlink ref="C446" r:id="rId1515"/>
     <hyperlink ref="C502" r:id="rId1516" location="careers"/>
+    <hyperlink ref="C779" r:id="rId1517"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1517"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1518"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5956" uniqueCount="2991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5962" uniqueCount="2994">
   <si>
     <t>200apps</t>
   </si>
@@ -8987,6 +8987,15 @@
   </si>
   <si>
     <t>https://www.linkedin.com/company/seperia-easynet-/jobs/</t>
+  </si>
+  <si>
+    <t>Semperis</t>
+  </si>
+  <si>
+    <t>https://www.semperis.com/careers/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/semperis/jobs/</t>
   </si>
 </sst>
 </file>
@@ -9445,10 +9454,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון1"/>
-  <dimension ref="A1:H1055"/>
+  <dimension ref="A1:H1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1020" workbookViewId="0">
-      <selection sqref="A1:A1055"/>
+    <sheetView tabSelected="1" topLeftCell="A1019" workbookViewId="0">
+      <selection activeCell="B1057" sqref="B1057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27750,13 +27759,13 @@
         <v>837</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1684</v>
+        <v>2991</v>
       </c>
       <c r="C837" s="8" t="s">
-        <v>1685</v>
+        <v>2992</v>
       </c>
       <c r="D837" s="8" t="s">
-        <v>1686</v>
+        <v>2993</v>
       </c>
       <c r="E837" s="5" t="s">
         <v>2274</v>
@@ -27773,13 +27782,13 @@
         <v>838</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="C838" s="8" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="D838" s="8" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="E838" s="5" t="s">
         <v>2274</v>
@@ -27796,16 +27805,16 @@
         <v>839</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="C839" s="8" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="D839" s="8" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="E839" s="5" t="s">
-        <v>2330</v>
+        <v>2274</v>
       </c>
       <c r="F839" s="5" t="s">
         <v>2427</v>
@@ -27819,22 +27828,22 @@
         <v>840</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>2988</v>
+        <v>1690</v>
       </c>
       <c r="C840" s="8" t="s">
-        <v>2989</v>
+        <v>1691</v>
       </c>
       <c r="D840" s="8" t="s">
-        <v>2990</v>
+        <v>1692</v>
       </c>
       <c r="E840" s="5" t="s">
-        <v>2279</v>
+        <v>2330</v>
       </c>
       <c r="F840" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G840" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="841" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27842,19 +27851,22 @@
         <v>841</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1693</v>
+        <v>2988</v>
       </c>
       <c r="C841" s="8" t="s">
-        <v>1694</v>
+        <v>2989</v>
+      </c>
+      <c r="D841" s="8" t="s">
+        <v>2990</v>
       </c>
       <c r="E841" s="5" t="s">
-        <v>2274</v>
+        <v>2279</v>
       </c>
       <c r="F841" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G841" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="842" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27862,13 +27874,13 @@
         <v>842</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>2890</v>
+        <v>1693</v>
       </c>
       <c r="C842" s="8" t="s">
-        <v>2891</v>
+        <v>1694</v>
       </c>
       <c r="E842" s="5" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="F842" s="5" t="s">
         <v>2427</v>
@@ -27882,22 +27894,19 @@
         <v>843</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1695</v>
+        <v>2890</v>
       </c>
       <c r="C843" s="8" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D843" s="8" t="s">
-        <v>1697</v>
+        <v>2891</v>
       </c>
       <c r="E843" s="5" t="s">
-        <v>2265</v>
+        <v>2272</v>
       </c>
       <c r="F843" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G843" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="844" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27905,16 +27914,16 @@
         <v>844</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C844" s="4" t="s">
-        <v>2196</v>
+        <v>1695</v>
+      </c>
+      <c r="C844" s="8" t="s">
+        <v>1696</v>
       </c>
       <c r="D844" s="8" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="E844" s="5" t="s">
-        <v>2379</v>
+        <v>2265</v>
       </c>
       <c r="F844" s="5" t="s">
         <v>2444</v>
@@ -27928,19 +27937,22 @@
         <v>845</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C845" s="8" t="s">
-        <v>1701</v>
+        <v>1698</v>
+      </c>
+      <c r="C845" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D845" s="8" t="s">
+        <v>1699</v>
       </c>
       <c r="E845" s="5" t="s">
-        <v>2265</v>
+        <v>2379</v>
       </c>
       <c r="F845" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G845" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="846" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27948,22 +27960,19 @@
         <v>846</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>2246</v>
+        <v>1700</v>
       </c>
       <c r="C846" s="8" t="s">
-        <v>2247</v>
-      </c>
-      <c r="D846" s="8" t="s">
-        <v>2248</v>
+        <v>1701</v>
       </c>
       <c r="E846" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="F846" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G846" s="5" t="s">
-        <v>2477</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="847" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27971,22 +27980,22 @@
         <v>847</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>2670</v>
-      </c>
-      <c r="C847" s="1" t="s">
-        <v>2669</v>
+        <v>2246</v>
+      </c>
+      <c r="C847" s="8" t="s">
+        <v>2247</v>
       </c>
       <c r="D847" s="8" t="s">
-        <v>2671</v>
+        <v>2248</v>
       </c>
       <c r="E847" s="5" t="s">
-        <v>2278</v>
+        <v>2267</v>
       </c>
       <c r="F847" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G847" s="5" t="s">
-        <v>2482</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="848" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27994,16 +28003,16 @@
         <v>848</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C848" s="4" t="s">
-        <v>2196</v>
+        <v>2670</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>2669</v>
       </c>
       <c r="D848" s="8" t="s">
-        <v>1703</v>
+        <v>2671</v>
       </c>
       <c r="E848" s="5" t="s">
-        <v>2267</v>
+        <v>2278</v>
       </c>
       <c r="F848" s="5" t="s">
         <v>2427</v>
@@ -28017,13 +28026,13 @@
         <v>849</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>2324</v>
-      </c>
-      <c r="C849" s="8" t="s">
-        <v>672</v>
+        <v>1702</v>
+      </c>
+      <c r="C849" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D849" s="8" t="s">
-        <v>673</v>
+        <v>1703</v>
       </c>
       <c r="E849" s="5" t="s">
         <v>2267</v>
@@ -28032,7 +28041,7 @@
         <v>2427</v>
       </c>
       <c r="G849" s="5" t="s">
-        <v>2461</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="850" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28040,22 +28049,22 @@
         <v>850</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1704</v>
+        <v>2324</v>
       </c>
       <c r="C850" s="8" t="s">
-        <v>1705</v>
+        <v>672</v>
       </c>
       <c r="D850" s="8" t="s">
-        <v>1706</v>
+        <v>673</v>
       </c>
       <c r="E850" s="5" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="F850" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G850" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="851" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28063,22 +28072,22 @@
         <v>851</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C851" s="8" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="D851" s="8" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="E851" s="5" t="s">
-        <v>2401</v>
+        <v>2265</v>
       </c>
       <c r="F851" s="5" t="s">
-        <v>2451</v>
+        <v>2427</v>
       </c>
       <c r="G851" s="5" t="s">
-        <v>2460</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="852" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28086,22 +28095,22 @@
         <v>852</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C852" s="8" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="D852" s="8" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="E852" s="5" t="s">
-        <v>2379</v>
+        <v>2401</v>
       </c>
       <c r="F852" s="5" t="s">
-        <v>2440</v>
+        <v>2451</v>
       </c>
       <c r="G852" s="5" t="s">
-        <v>2305</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="853" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28109,19 +28118,22 @@
         <v>853</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C853" s="8" t="s">
-        <v>1714</v>
+        <v>1711</v>
+      </c>
+      <c r="D853" s="8" t="s">
+        <v>1712</v>
       </c>
       <c r="E853" s="5" t="s">
-        <v>2265</v>
+        <v>2379</v>
       </c>
       <c r="F853" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G853" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="854" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28129,13 +28141,10 @@
         <v>854</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C854" s="4" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D854" s="8" t="s">
-        <v>1716</v>
+        <v>1713</v>
+      </c>
+      <c r="C854" s="8" t="s">
+        <v>1714</v>
       </c>
       <c r="E854" s="5" t="s">
         <v>2265</v>
@@ -28152,13 +28161,13 @@
         <v>855</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C855" s="4" t="s">
         <v>2196</v>
       </c>
       <c r="D855" s="8" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="E855" s="5" t="s">
         <v>2265</v>
@@ -28175,16 +28184,22 @@
         <v>856</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C856" s="8" t="s">
-        <v>1720</v>
+        <v>1717</v>
+      </c>
+      <c r="C856" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D856" s="8" t="s">
+        <v>1718</v>
       </c>
       <c r="E856" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F856" s="5" t="s">
-        <v>2305</v>
+        <v>2427</v>
+      </c>
+      <c r="G856" s="5" t="s">
+        <v>2443</v>
       </c>
     </row>
     <row r="857" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28192,22 +28207,16 @@
         <v>857</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>2213</v>
+        <v>1719</v>
       </c>
       <c r="C857" s="8" t="s">
-        <v>2214</v>
-      </c>
-      <c r="D857" s="8" t="s">
-        <v>2215</v>
+        <v>1720</v>
       </c>
       <c r="E857" s="5" t="s">
-        <v>2278</v>
+        <v>2270</v>
       </c>
       <c r="F857" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G857" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="858" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28215,16 +28224,16 @@
         <v>858</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>2341</v>
+        <v>2213</v>
       </c>
       <c r="C858" s="8" t="s">
-        <v>2342</v>
+        <v>2214</v>
       </c>
       <c r="D858" s="8" t="s">
-        <v>2343</v>
+        <v>2215</v>
       </c>
       <c r="E858" s="5" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
       <c r="F858" s="5" t="s">
         <v>2427</v>
@@ -28238,19 +28247,22 @@
         <v>859</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>2892</v>
+        <v>2341</v>
       </c>
       <c r="C859" s="8" t="s">
-        <v>2893</v>
+        <v>2342</v>
+      </c>
+      <c r="D859" s="8" t="s">
+        <v>2343</v>
       </c>
       <c r="E859" s="5" t="s">
-        <v>2303</v>
+        <v>2274</v>
       </c>
       <c r="F859" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G859" s="5" t="s">
-        <v>2466</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="860" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28258,22 +28270,19 @@
         <v>860</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1721</v>
+        <v>2892</v>
       </c>
       <c r="C860" s="8" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D860" s="8" t="s">
-        <v>1723</v>
+        <v>2893</v>
       </c>
       <c r="E860" s="5" t="s">
-        <v>2408</v>
+        <v>2303</v>
       </c>
       <c r="F860" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G860" s="5" t="s">
-        <v>2443</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="861" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28281,22 +28290,22 @@
         <v>861</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="C861" s="8" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="D861" s="8" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="E861" s="5" t="s">
-        <v>2279</v>
+        <v>2408</v>
       </c>
       <c r="F861" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G861" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="862" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28304,22 +28313,22 @@
         <v>862</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="C862" s="8" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="D862" s="8" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="E862" s="5" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="F862" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G862" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="863" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28327,16 +28336,16 @@
         <v>863</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="C863" s="8" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D863" s="8" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="E863" s="5" t="s">
-        <v>2265</v>
+        <v>2283</v>
       </c>
       <c r="F863" s="5" t="s">
         <v>2427</v>
@@ -28350,22 +28359,22 @@
         <v>864</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C864" s="8" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="D864" s="8" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="E864" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F864" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G864" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="865" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28373,22 +28382,22 @@
         <v>865</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>2158</v>
-      </c>
-      <c r="C865" s="4" t="s">
-        <v>2196</v>
+        <v>1733</v>
+      </c>
+      <c r="C865" s="8" t="s">
+        <v>1734</v>
       </c>
       <c r="D865" s="8" t="s">
-        <v>2159</v>
+        <v>1735</v>
       </c>
       <c r="E865" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F865" s="5" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
       <c r="G865" s="5" t="s">
-        <v>2495</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="866" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28396,22 +28405,22 @@
         <v>866</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C866" s="8" t="s">
-        <v>1737</v>
+        <v>2158</v>
+      </c>
+      <c r="C866" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D866" s="8" t="s">
-        <v>1738</v>
+        <v>2159</v>
       </c>
       <c r="E866" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F866" s="5" t="s">
-        <v>2427</v>
+        <v>2445</v>
       </c>
       <c r="G866" s="5" t="s">
-        <v>2461</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="867" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28419,19 +28428,22 @@
         <v>867</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>2894</v>
+        <v>1736</v>
       </c>
       <c r="C867" s="8" t="s">
-        <v>2895</v>
+        <v>1737</v>
+      </c>
+      <c r="D867" s="8" t="s">
+        <v>1738</v>
       </c>
       <c r="E867" s="5" t="s">
-        <v>2410</v>
+        <v>2274</v>
       </c>
       <c r="F867" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G867" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="868" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28439,19 +28451,19 @@
         <v>868</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>2262</v>
+        <v>2894</v>
       </c>
       <c r="C868" s="8" t="s">
-        <v>2263</v>
-      </c>
-      <c r="D868" s="8" t="s">
-        <v>2264</v>
+        <v>2895</v>
       </c>
       <c r="E868" s="5" t="s">
-        <v>2265</v>
+        <v>2410</v>
       </c>
       <c r="F868" s="5" t="s">
-        <v>2305</v>
+        <v>2427</v>
+      </c>
+      <c r="G868" s="5" t="s">
+        <v>2443</v>
       </c>
     </row>
     <row r="869" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28459,22 +28471,19 @@
         <v>869</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1739</v>
+        <v>2262</v>
       </c>
       <c r="C869" s="8" t="s">
-        <v>1740</v>
+        <v>2263</v>
       </c>
       <c r="D869" s="8" t="s">
-        <v>1741</v>
+        <v>2264</v>
       </c>
       <c r="E869" s="5" t="s">
-        <v>2318</v>
+        <v>2265</v>
       </c>
       <c r="F869" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G869" s="5" t="s">
-        <v>2461</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="870" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28482,22 +28491,22 @@
         <v>870</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C870" s="4" t="s">
-        <v>2196</v>
+        <v>1739</v>
+      </c>
+      <c r="C870" s="8" t="s">
+        <v>1740</v>
       </c>
       <c r="D870" s="8" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="E870" s="5" t="s">
-        <v>2284</v>
+        <v>2318</v>
       </c>
       <c r="F870" s="5" t="s">
-        <v>2441</v>
+        <v>2427</v>
       </c>
       <c r="G870" s="5" t="s">
-        <v>2442</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="871" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28505,16 +28514,22 @@
         <v>871</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C871" s="8" t="s">
-        <v>1745</v>
+        <v>1742</v>
+      </c>
+      <c r="C871" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D871" s="8" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E871" s="5" t="s">
+        <v>2284</v>
       </c>
       <c r="F871" s="5" t="s">
-        <v>2427</v>
+        <v>2441</v>
       </c>
       <c r="G871" s="5" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="872" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28522,13 +28537,16 @@
         <v>872</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C872" s="8" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="F872" s="5" t="s">
-        <v>2409</v>
+        <v>2427</v>
+      </c>
+      <c r="G872" s="5" t="s">
+        <v>2443</v>
       </c>
     </row>
     <row r="873" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28536,19 +28554,13 @@
         <v>873</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C873" s="8" t="s">
-        <v>1749</v>
-      </c>
-      <c r="E873" s="5" t="s">
-        <v>2410</v>
+        <v>1747</v>
       </c>
       <c r="F873" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G873" s="5" t="s">
-        <v>2443</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="874" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28556,13 +28568,13 @@
         <v>874</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C874" s="8" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="E874" s="5" t="s">
-        <v>2274</v>
+        <v>2410</v>
       </c>
       <c r="F874" s="5" t="s">
         <v>2427</v>
@@ -28576,22 +28588,19 @@
         <v>875</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="C875" s="8" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D875" s="8" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="E875" s="5" t="s">
-        <v>2281</v>
+        <v>2274</v>
       </c>
       <c r="F875" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G875" s="5" t="s">
-        <v>2463</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="876" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28599,19 +28608,22 @@
         <v>876</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>2896</v>
+        <v>1752</v>
       </c>
       <c r="C876" s="8" t="s">
-        <v>2897</v>
+        <v>1753</v>
+      </c>
+      <c r="D876" s="8" t="s">
+        <v>1754</v>
       </c>
       <c r="E876" s="5" t="s">
-        <v>2265</v>
+        <v>2281</v>
       </c>
       <c r="F876" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G876" s="5" t="s">
-        <v>2443</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="877" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28619,22 +28631,19 @@
         <v>877</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1755</v>
+        <v>2896</v>
       </c>
       <c r="C877" s="8" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D877" s="8" t="s">
-        <v>1757</v>
+        <v>2897</v>
       </c>
       <c r="E877" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F877" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G877" s="5" t="s">
-        <v>2477</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="878" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28642,19 +28651,22 @@
         <v>878</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="C878" s="8" t="s">
-        <v>1759</v>
+        <v>1756</v>
+      </c>
+      <c r="D878" s="8" t="s">
+        <v>1757</v>
       </c>
       <c r="E878" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F878" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G878" s="5" t="s">
-        <v>2461</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="879" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28662,22 +28674,19 @@
         <v>879</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>2898</v>
+        <v>1758</v>
       </c>
       <c r="C879" s="8" t="s">
-        <v>2899</v>
-      </c>
-      <c r="D879" s="8" t="s">
-        <v>2900</v>
+        <v>1759</v>
       </c>
       <c r="E879" s="5" t="s">
-        <v>2303</v>
+        <v>2265</v>
       </c>
       <c r="F879" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G879" s="5" t="s">
-        <v>2482</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="880" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28685,22 +28694,22 @@
         <v>880</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>2613</v>
+        <v>2898</v>
       </c>
       <c r="C880" s="8" t="s">
-        <v>2612</v>
+        <v>2899</v>
       </c>
       <c r="D880" s="8" t="s">
-        <v>2614</v>
+        <v>2900</v>
       </c>
       <c r="E880" s="5" t="s">
-        <v>2274</v>
+        <v>2303</v>
       </c>
       <c r="F880" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G880" s="5" t="s">
-        <v>2443</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="881" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28708,22 +28717,22 @@
         <v>881</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1760</v>
+        <v>2613</v>
       </c>
       <c r="C881" s="8" t="s">
-        <v>1761</v>
+        <v>2612</v>
       </c>
       <c r="D881" s="8" t="s">
-        <v>1762</v>
+        <v>2614</v>
       </c>
       <c r="E881" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F881" s="5" t="s">
-        <v>2305</v>
+        <v>2427</v>
       </c>
       <c r="G881" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="882" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28731,19 +28740,22 @@
         <v>882</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>2160</v>
+        <v>1760</v>
       </c>
       <c r="C882" s="8" t="s">
-        <v>2161</v>
+        <v>1761</v>
+      </c>
+      <c r="D882" s="8" t="s">
+        <v>1762</v>
       </c>
       <c r="E882" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F882" s="5" t="s">
-        <v>2445</v>
+        <v>2305</v>
       </c>
       <c r="G882" s="5" t="s">
-        <v>2471</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="883" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28751,22 +28763,19 @@
         <v>883</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1763</v>
+        <v>2160</v>
       </c>
       <c r="C883" s="8" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D883" s="8" t="s">
-        <v>1765</v>
+        <v>2161</v>
       </c>
       <c r="E883" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F883" s="5" t="s">
-        <v>2427</v>
+        <v>2445</v>
       </c>
       <c r="G883" s="5" t="s">
-        <v>2443</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="884" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28774,16 +28783,16 @@
         <v>884</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="C884" s="8" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="D884" s="8" t="s">
-        <v>2411</v>
+        <v>1765</v>
       </c>
       <c r="E884" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F884" s="5" t="s">
         <v>2427</v>
@@ -28797,13 +28806,16 @@
         <v>885</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="C885" s="8" t="s">
-        <v>1769</v>
+        <v>1767</v>
+      </c>
+      <c r="D885" s="8" t="s">
+        <v>2411</v>
       </c>
       <c r="E885" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F885" s="5" t="s">
         <v>2427</v>
@@ -28817,13 +28829,10 @@
         <v>886</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="C886" s="8" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D886" s="8" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="E886" s="5" t="s">
         <v>2265</v>
@@ -28832,7 +28841,7 @@
         <v>2427</v>
       </c>
       <c r="G886" s="5" t="s">
-        <v>2482</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="887" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28840,10 +28849,13 @@
         <v>887</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>2901</v>
+        <v>1770</v>
       </c>
       <c r="C887" s="8" t="s">
-        <v>2902</v>
+        <v>1771</v>
+      </c>
+      <c r="D887" s="8" t="s">
+        <v>1772</v>
       </c>
       <c r="E887" s="5" t="s">
         <v>2265</v>
@@ -28852,7 +28864,7 @@
         <v>2427</v>
       </c>
       <c r="G887" s="5" t="s">
-        <v>2461</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="888" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28860,22 +28872,19 @@
         <v>888</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1773</v>
+        <v>2901</v>
       </c>
       <c r="C888" s="8" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D888" s="8" t="s">
-        <v>1775</v>
+        <v>2902</v>
       </c>
       <c r="E888" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F888" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G888" s="5" t="s">
-        <v>2477</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="889" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28883,22 +28892,22 @@
         <v>889</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="C889" s="8" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D889" s="8" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="E889" s="5" t="s">
-        <v>2338</v>
+        <v>2265</v>
       </c>
       <c r="F889" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G889" s="5" t="s">
-        <v>2443</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="890" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28906,16 +28915,16 @@
         <v>890</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="C890" s="8" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="D890" s="8" t="s">
-        <v>2412</v>
+        <v>1778</v>
       </c>
       <c r="E890" s="5" t="s">
-        <v>2413</v>
+        <v>2338</v>
       </c>
       <c r="F890" s="5" t="s">
         <v>2427</v>
@@ -28929,13 +28938,16 @@
         <v>891</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="C891" s="8" t="s">
-        <v>1782</v>
+        <v>1780</v>
+      </c>
+      <c r="D891" s="8" t="s">
+        <v>2412</v>
       </c>
       <c r="E891" s="5" t="s">
-        <v>2265</v>
+        <v>2413</v>
       </c>
       <c r="F891" s="5" t="s">
         <v>2427</v>
@@ -28949,16 +28961,13 @@
         <v>892</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="C892" s="8" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D892" s="8" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="E892" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F892" s="5" t="s">
         <v>2427</v>
@@ -28972,16 +28981,16 @@
         <v>893</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="C893" s="8" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="D893" s="8" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="E893" s="5" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="F893" s="5" t="s">
         <v>2427</v>
@@ -28989,29 +28998,28 @@
       <c r="G893" s="5" t="s">
         <v>2443</v>
       </c>
-      <c r="H893" s="5"/>
     </row>
     <row r="894" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2">
         <v>894</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="C894" s="8" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="D894" s="8" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="E894" s="5" t="s">
-        <v>2270</v>
+        <v>2279</v>
       </c>
       <c r="F894" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G894" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
       <c r="H894" s="5"/>
     </row>
@@ -29020,19 +29028,22 @@
         <v>895</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="C895" s="8" t="s">
-        <v>1793</v>
+        <v>1790</v>
+      </c>
+      <c r="D895" s="8" t="s">
+        <v>1791</v>
       </c>
       <c r="E895" s="5" t="s">
-        <v>2279</v>
+        <v>2270</v>
       </c>
       <c r="F895" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G895" s="5" t="s">
-        <v>2483</v>
+        <v>2455</v>
       </c>
       <c r="H895" s="5"/>
     </row>
@@ -29041,10 +29052,10 @@
         <v>896</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>2903</v>
+        <v>1792</v>
       </c>
       <c r="C896" s="8" t="s">
-        <v>2904</v>
+        <v>1793</v>
       </c>
       <c r="E896" s="5" t="s">
         <v>2279</v>
@@ -29053,7 +29064,7 @@
         <v>2427</v>
       </c>
       <c r="G896" s="5" t="s">
-        <v>2443</v>
+        <v>2483</v>
       </c>
       <c r="H896" s="5"/>
     </row>
@@ -29062,22 +29073,19 @@
         <v>897</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1794</v>
+        <v>2903</v>
       </c>
       <c r="C897" s="8" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D897" s="8" t="s">
-        <v>1796</v>
+        <v>2904</v>
       </c>
       <c r="E897" s="5" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="F897" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G897" s="5" t="s">
-        <v>2485</v>
+        <v>2443</v>
       </c>
       <c r="H897" s="5"/>
     </row>
@@ -29086,22 +29094,22 @@
         <v>898</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="C898" s="8" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="D898" s="8" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="E898" s="5" t="s">
-        <v>2405</v>
+        <v>2284</v>
       </c>
       <c r="F898" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G898" s="5" t="s">
-        <v>2455</v>
+        <v>2485</v>
       </c>
       <c r="H898" s="5"/>
     </row>
@@ -29110,19 +29118,22 @@
         <v>899</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>2905</v>
+        <v>1797</v>
       </c>
       <c r="C899" s="8" t="s">
-        <v>2906</v>
+        <v>1798</v>
+      </c>
+      <c r="D899" s="8" t="s">
+        <v>1799</v>
       </c>
       <c r="E899" s="5" t="s">
-        <v>2279</v>
+        <v>2405</v>
       </c>
       <c r="F899" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G899" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
       <c r="H899" s="5"/>
     </row>
@@ -29131,19 +29142,19 @@
         <v>900</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>2162</v>
+        <v>2905</v>
       </c>
       <c r="C900" s="8" t="s">
-        <v>2163</v>
+        <v>2906</v>
       </c>
       <c r="E900" s="5" t="s">
-        <v>2270</v>
+        <v>2279</v>
       </c>
       <c r="F900" s="5" t="s">
-        <v>2441</v>
+        <v>2427</v>
       </c>
       <c r="G900" s="5" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="H900" s="5"/>
     </row>
@@ -29152,22 +29163,19 @@
         <v>901</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C901" s="8" t="s">
-        <v>2165</v>
-      </c>
-      <c r="D901" s="8" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="E901" s="5" t="s">
         <v>2270</v>
       </c>
       <c r="F901" s="5" t="s">
-        <v>2427</v>
+        <v>2441</v>
       </c>
       <c r="G901" s="5" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="H901" s="5"/>
     </row>
@@ -29176,22 +29184,22 @@
         <v>902</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1800</v>
+        <v>2164</v>
       </c>
       <c r="C902" s="8" t="s">
-        <v>1801</v>
+        <v>2165</v>
       </c>
       <c r="D902" s="8" t="s">
-        <v>1802</v>
+        <v>2166</v>
       </c>
       <c r="E902" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F902" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G902" s="5" t="s">
-        <v>2496</v>
+        <v>2443</v>
       </c>
       <c r="H902" s="5"/>
     </row>
@@ -29200,22 +29208,22 @@
         <v>903</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="C903" s="8" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="D903" s="8" t="s">
-        <v>2414</v>
+        <v>1802</v>
       </c>
       <c r="E903" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F903" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G903" s="5" t="s">
-        <v>2482</v>
+        <v>2496</v>
       </c>
       <c r="H903" s="5"/>
     </row>
@@ -29224,22 +29232,22 @@
         <v>904</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>2167</v>
+        <v>1803</v>
       </c>
       <c r="C904" s="8" t="s">
-        <v>2168</v>
+        <v>1804</v>
       </c>
       <c r="D904" s="8" t="s">
-        <v>2169</v>
+        <v>2414</v>
       </c>
       <c r="E904" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F904" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G904" s="5" t="s">
-        <v>2443</v>
+        <v>2482</v>
       </c>
       <c r="H904" s="5"/>
     </row>
@@ -29248,16 +29256,16 @@
         <v>905</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>2259</v>
+        <v>2167</v>
       </c>
       <c r="C905" s="8" t="s">
-        <v>2260</v>
+        <v>2168</v>
       </c>
       <c r="D905" s="8" t="s">
-        <v>2261</v>
+        <v>2169</v>
       </c>
       <c r="E905" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F905" s="5" t="s">
         <v>2427</v>
@@ -29272,19 +29280,22 @@
         <v>906</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1805</v>
+        <v>2259</v>
       </c>
       <c r="C906" s="8" t="s">
-        <v>1806</v>
+        <v>2260</v>
+      </c>
+      <c r="D906" s="8" t="s">
+        <v>2261</v>
       </c>
       <c r="E906" s="5" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="F906" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G906" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
       <c r="H906" s="5"/>
     </row>
@@ -29293,22 +29304,19 @@
         <v>907</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="C907" s="8" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D907" s="8" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="E907" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F907" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G907" s="5" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="H907" s="5"/>
     </row>
@@ -29317,13 +29325,13 @@
         <v>908</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="C908" s="8" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="D908" s="8" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="E908" s="5" t="s">
         <v>2265</v>
@@ -29332,7 +29340,7 @@
         <v>2427</v>
       </c>
       <c r="G908" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
       <c r="H908" s="5"/>
     </row>
@@ -29341,13 +29349,13 @@
         <v>909</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="C909" s="8" t="s">
-        <v>2542</v>
+        <v>1811</v>
       </c>
       <c r="D909" s="8" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="E909" s="5" t="s">
         <v>2265</v>
@@ -29358,19 +29366,20 @@
       <c r="G909" s="5" t="s">
         <v>2443</v>
       </c>
+      <c r="H909" s="5"/>
     </row>
     <row r="910" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2">
         <v>910</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>2907</v>
+        <v>1813</v>
       </c>
       <c r="C910" s="8" t="s">
-        <v>2908</v>
+        <v>2542</v>
       </c>
       <c r="D910" s="8" t="s">
-        <v>2909</v>
+        <v>1814</v>
       </c>
       <c r="E910" s="5" t="s">
         <v>2265</v>
@@ -29387,13 +29396,13 @@
         <v>911</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1815</v>
+        <v>2907</v>
       </c>
       <c r="C911" s="8" t="s">
-        <v>1816</v>
+        <v>2908</v>
       </c>
       <c r="D911" s="8" t="s">
-        <v>2415</v>
+        <v>2909</v>
       </c>
       <c r="E911" s="5" t="s">
         <v>2265</v>
@@ -29410,22 +29419,22 @@
         <v>912</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="C912" s="8" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="D912" s="8" t="s">
-        <v>1819</v>
+        <v>2415</v>
       </c>
       <c r="E912" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F912" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G912" s="5" t="s">
-        <v>2491</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="913" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29433,22 +29442,22 @@
         <v>913</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>2200</v>
+        <v>1817</v>
       </c>
       <c r="C913" s="8" t="s">
-        <v>2201</v>
+        <v>1818</v>
       </c>
       <c r="D913" s="8" t="s">
-        <v>2202</v>
+        <v>1819</v>
       </c>
       <c r="E913" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F913" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G913" s="5" t="s">
-        <v>2443</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="914" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29456,13 +29465,13 @@
         <v>914</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>1820</v>
+        <v>2200</v>
       </c>
       <c r="C914" s="8" t="s">
-        <v>1821</v>
+        <v>2201</v>
       </c>
       <c r="D914" s="8" t="s">
-        <v>1822</v>
+        <v>2202</v>
       </c>
       <c r="E914" s="5" t="s">
         <v>2265</v>
@@ -29479,16 +29488,16 @@
         <v>915</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>2187</v>
+        <v>1820</v>
       </c>
       <c r="C915" s="8" t="s">
-        <v>2188</v>
+        <v>1821</v>
       </c>
       <c r="D915" s="8" t="s">
-        <v>2189</v>
+        <v>1822</v>
       </c>
       <c r="E915" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F915" s="5" t="s">
         <v>2427</v>
@@ -29502,16 +29511,16 @@
         <v>916</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>1823</v>
+        <v>2187</v>
       </c>
       <c r="C916" s="8" t="s">
-        <v>1824</v>
+        <v>2188</v>
       </c>
       <c r="D916" s="8" t="s">
-        <v>1825</v>
+        <v>2189</v>
       </c>
       <c r="E916" s="5" t="s">
-        <v>2272</v>
+        <v>2279</v>
       </c>
       <c r="F916" s="5" t="s">
         <v>2427</v>
@@ -29525,19 +29534,22 @@
         <v>917</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>2910</v>
+        <v>1823</v>
       </c>
       <c r="C917" s="8" t="s">
-        <v>2911</v>
+        <v>1824</v>
+      </c>
+      <c r="D917" s="8" t="s">
+        <v>1825</v>
       </c>
       <c r="E917" s="5" t="s">
-        <v>2279</v>
+        <v>2272</v>
       </c>
       <c r="F917" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G917" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="918" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29545,22 +29557,19 @@
         <v>918</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>1826</v>
+        <v>2910</v>
       </c>
       <c r="C918" s="8" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D918" s="8" t="s">
-        <v>1828</v>
+        <v>2911</v>
       </c>
       <c r="E918" s="5" t="s">
-        <v>2270</v>
+        <v>2279</v>
       </c>
       <c r="F918" s="5" t="s">
-        <v>2409</v>
+        <v>2427</v>
       </c>
       <c r="G918" s="5" t="s">
-        <v>2447</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="919" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29568,19 +29577,22 @@
         <v>919</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="C919" s="8" t="s">
-        <v>1830</v>
+        <v>1827</v>
+      </c>
+      <c r="D919" s="8" t="s">
+        <v>1828</v>
       </c>
       <c r="E919" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F919" s="5" t="s">
-        <v>2444</v>
+        <v>2409</v>
       </c>
       <c r="G919" s="5" t="s">
-        <v>2469</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="920" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29588,22 +29600,19 @@
         <v>920</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="C920" s="8" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D920" s="8" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="E920" s="5" t="s">
-        <v>2294</v>
+        <v>2265</v>
       </c>
       <c r="F920" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G920" s="5" t="s">
-        <v>2443</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="921" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29611,19 +29620,22 @@
         <v>921</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>2912</v>
+        <v>1831</v>
       </c>
       <c r="C921" s="8" t="s">
-        <v>2913</v>
+        <v>1832</v>
+      </c>
+      <c r="D921" s="8" t="s">
+        <v>1833</v>
       </c>
       <c r="E921" s="5" t="s">
-        <v>2265</v>
+        <v>2294</v>
       </c>
       <c r="F921" s="5" t="s">
-        <v>2451</v>
+        <v>2427</v>
       </c>
       <c r="G921" s="5" t="s">
-        <v>2460</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="922" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29631,22 +29643,19 @@
         <v>922</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>1834</v>
+        <v>2912</v>
       </c>
       <c r="C922" s="8" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D922" s="8" t="s">
-        <v>2416</v>
+        <v>2913</v>
       </c>
       <c r="E922" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F922" s="5" t="s">
-        <v>2427</v>
+        <v>2451</v>
       </c>
       <c r="G922" s="5" t="s">
-        <v>2443</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="923" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29654,16 +29663,16 @@
         <v>923</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="C923" s="8" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="D923" s="8" t="s">
-        <v>1838</v>
+        <v>2416</v>
       </c>
       <c r="E923" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F923" s="5" t="s">
         <v>2427</v>
@@ -29677,22 +29686,22 @@
         <v>924</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>2686</v>
-      </c>
-      <c r="C924" s="4" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D924" s="1" t="s">
-        <v>2687</v>
+        <v>1836</v>
+      </c>
+      <c r="C924" s="8" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D924" s="8" t="s">
+        <v>1838</v>
       </c>
       <c r="E924" s="5" t="s">
-        <v>2308</v>
+        <v>2279</v>
       </c>
       <c r="F924" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G924" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="925" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29700,22 +29709,22 @@
         <v>925</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C925" s="8" t="s">
-        <v>1840</v>
-      </c>
-      <c r="D925" s="8" t="s">
-        <v>1841</v>
+        <v>2686</v>
+      </c>
+      <c r="C925" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>2687</v>
       </c>
       <c r="E925" s="5" t="s">
-        <v>2417</v>
+        <v>2308</v>
       </c>
       <c r="F925" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G925" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="926" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29723,16 +29732,16 @@
         <v>926</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="C926" s="8" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="D926" s="8" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="E926" s="5" t="s">
-        <v>2265</v>
+        <v>2417</v>
       </c>
       <c r="F926" s="5" t="s">
         <v>2427</v>
@@ -29746,22 +29755,22 @@
         <v>927</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>2180</v>
+        <v>1842</v>
       </c>
       <c r="C927" s="8" t="s">
-        <v>2181</v>
+        <v>1843</v>
       </c>
       <c r="D927" s="8" t="s">
-        <v>2182</v>
+        <v>1844</v>
       </c>
       <c r="E927" s="5" t="s">
-        <v>2311</v>
+        <v>2265</v>
       </c>
       <c r="F927" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G927" s="5" t="s">
-        <v>2466</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="928" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29769,22 +29778,22 @@
         <v>928</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>1845</v>
+        <v>2180</v>
       </c>
       <c r="C928" s="8" t="s">
-        <v>1846</v>
+        <v>2181</v>
       </c>
       <c r="D928" s="8" t="s">
-        <v>1847</v>
+        <v>2182</v>
       </c>
       <c r="E928" s="5" t="s">
-        <v>2274</v>
+        <v>2311</v>
       </c>
       <c r="F928" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G928" s="5" t="s">
-        <v>2443</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="929" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29792,22 +29801,22 @@
         <v>929</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="C929" s="8" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="D929" s="8" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="E929" s="5" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="F929" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G929" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="930" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29815,22 +29824,22 @@
         <v>930</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="C930" s="8" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="D930" s="8" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="E930" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F930" s="5" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
       <c r="G930" s="5" t="s">
-        <v>2305</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="931" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29838,19 +29847,22 @@
         <v>931</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="C931" s="8" t="s">
-        <v>1855</v>
+        <v>1852</v>
+      </c>
+      <c r="D931" s="8" t="s">
+        <v>1853</v>
       </c>
       <c r="E931" s="5" t="s">
-        <v>2308</v>
+        <v>2265</v>
       </c>
       <c r="F931" s="5" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
       <c r="G931" s="5" t="s">
-        <v>2470</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="932" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29858,22 +29870,19 @@
         <v>932</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C932" s="8" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D932" s="8" t="s">
-        <v>2418</v>
+        <v>1855</v>
       </c>
       <c r="E932" s="5" t="s">
-        <v>2327</v>
+        <v>2308</v>
       </c>
       <c r="F932" s="5" t="s">
-        <v>2440</v>
+        <v>2445</v>
       </c>
       <c r="G932" s="5" t="s">
-        <v>2305</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="933" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29881,22 +29890,22 @@
         <v>933</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="C933" s="8" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="D933" s="8" t="s">
-        <v>1860</v>
+        <v>2418</v>
       </c>
       <c r="E933" s="5" t="s">
-        <v>2265</v>
+        <v>2327</v>
       </c>
       <c r="F933" s="5" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="G933" s="5" t="s">
-        <v>2463</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="934" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29904,22 +29913,22 @@
         <v>934</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C934" s="4" t="s">
-        <v>2196</v>
+        <v>1858</v>
+      </c>
+      <c r="C934" s="8" t="s">
+        <v>1859</v>
       </c>
       <c r="D934" s="8" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="E934" s="5" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="F934" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G934" s="5" t="s">
-        <v>2443</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="935" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29927,16 +29936,16 @@
         <v>935</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C935" s="8" t="s">
-        <v>1864</v>
+        <v>1861</v>
+      </c>
+      <c r="C935" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D935" s="8" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="E935" s="5" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="F935" s="5" t="s">
         <v>2427</v>
@@ -29950,22 +29959,22 @@
         <v>936</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="C936" s="8" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="D936" s="8" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="E936" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F936" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G936" s="5" t="s">
-        <v>2465</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="937" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29973,13 +29982,13 @@
         <v>937</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C937" s="4" t="s">
-        <v>2196</v>
+        <v>1866</v>
+      </c>
+      <c r="C937" s="8" t="s">
+        <v>1867</v>
       </c>
       <c r="D937" s="8" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E937" s="5" t="s">
         <v>2265</v>
@@ -29988,7 +29997,7 @@
         <v>2444</v>
       </c>
       <c r="G937" s="5" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="938" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29996,22 +30005,22 @@
         <v>938</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C938" s="8" t="s">
-        <v>1872</v>
+        <v>1869</v>
+      </c>
+      <c r="C938" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D938" s="8" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="E938" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F938" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G938" s="5" t="s">
-        <v>2443</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="939" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30019,22 +30028,22 @@
         <v>939</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C939" s="19" t="s">
-        <v>1875</v>
+        <v>1871</v>
+      </c>
+      <c r="C939" s="8" t="s">
+        <v>1872</v>
       </c>
       <c r="D939" s="8" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="E939" s="5" t="s">
-        <v>2419</v>
+        <v>2265</v>
       </c>
       <c r="F939" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G939" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="940" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30042,22 +30051,22 @@
         <v>940</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C940" s="4" t="s">
-        <v>2196</v>
+        <v>1874</v>
+      </c>
+      <c r="C940" s="19" t="s">
+        <v>1875</v>
       </c>
       <c r="D940" s="8" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="E940" s="5" t="s">
-        <v>2276</v>
+        <v>2419</v>
       </c>
       <c r="F940" s="5" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="G940" s="5" t="s">
-        <v>2481</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="941" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30065,22 +30074,22 @@
         <v>941</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C941" s="8" t="s">
-        <v>1880</v>
+        <v>1877</v>
+      </c>
+      <c r="C941" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D941" s="8" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="E941" s="5" t="s">
-        <v>2265</v>
+        <v>2276</v>
       </c>
       <c r="F941" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G941" s="5" t="s">
-        <v>2443</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="942" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30088,13 +30097,13 @@
         <v>942</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="C942" s="8" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="D942" s="8" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="E942" s="5" t="s">
         <v>2265</v>
@@ -30111,16 +30120,16 @@
         <v>943</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="C943" s="8" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="D943" s="8" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="E943" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F943" s="5" t="s">
         <v>2427</v>
@@ -30134,19 +30143,22 @@
         <v>944</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>2858</v>
+        <v>1885</v>
       </c>
       <c r="C944" s="8" t="s">
-        <v>2859</v>
+        <v>1886</v>
+      </c>
+      <c r="D944" s="8" t="s">
+        <v>1887</v>
       </c>
       <c r="E944" s="5" t="s">
-        <v>2611</v>
+        <v>2274</v>
       </c>
       <c r="F944" s="5" t="s">
-        <v>2451</v>
+        <v>2427</v>
       </c>
       <c r="G944" s="5" t="s">
-        <v>2454</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="945" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30154,19 +30166,19 @@
         <v>945</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>2914</v>
+        <v>2858</v>
       </c>
       <c r="C945" s="8" t="s">
-        <v>2915</v>
+        <v>2859</v>
       </c>
       <c r="E945" s="5" t="s">
-        <v>2916</v>
+        <v>2611</v>
       </c>
       <c r="F945" s="5" t="s">
-        <v>2427</v>
+        <v>2451</v>
       </c>
       <c r="G945" s="5" t="s">
-        <v>2443</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="946" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30174,16 +30186,13 @@
         <v>946</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>1888</v>
+        <v>2914</v>
       </c>
       <c r="C946" s="8" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D946" s="8" t="s">
-        <v>1890</v>
+        <v>2915</v>
       </c>
       <c r="E946" s="5" t="s">
-        <v>2265</v>
+        <v>2916</v>
       </c>
       <c r="F946" s="5" t="s">
         <v>2427</v>
@@ -30197,13 +30206,13 @@
         <v>947</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="C947" s="8" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="D947" s="8" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="E947" s="5" t="s">
         <v>2265</v>
@@ -30220,13 +30229,13 @@
         <v>948</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="C948" s="8" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="D948" s="8" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="E948" s="5" t="s">
         <v>2265</v>
@@ -30243,22 +30252,22 @@
         <v>949</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>2197</v>
+        <v>1894</v>
       </c>
       <c r="C949" s="8" t="s">
-        <v>2198</v>
+        <v>1895</v>
       </c>
       <c r="D949" s="8" t="s">
-        <v>2199</v>
+        <v>1896</v>
       </c>
       <c r="E949" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F949" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G949" s="5" t="s">
-        <v>2481</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="950" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30266,19 +30275,22 @@
         <v>950</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>2170</v>
+        <v>2197</v>
       </c>
       <c r="C950" s="8" t="s">
-        <v>2171</v>
+        <v>2198</v>
+      </c>
+      <c r="D950" s="8" t="s">
+        <v>2199</v>
       </c>
       <c r="E950" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F950" s="5" t="s">
-        <v>2409</v>
+        <v>2444</v>
       </c>
       <c r="G950" s="5" t="s">
-        <v>2448</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="951" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30286,19 +30298,19 @@
         <v>951</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>1898</v>
+        <v>2170</v>
       </c>
       <c r="C951" s="8" t="s">
-        <v>1899</v>
+        <v>2171</v>
       </c>
       <c r="E951" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F951" s="5" t="s">
-        <v>2444</v>
+        <v>2409</v>
       </c>
       <c r="G951" s="5" t="s">
-        <v>2455</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="952" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30306,22 +30318,19 @@
         <v>952</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="C952" s="8" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D952" s="8" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="E952" s="5" t="s">
-        <v>2397</v>
+        <v>2270</v>
       </c>
       <c r="F952" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G952" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="953" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30329,22 +30338,22 @@
         <v>953</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>2232</v>
+        <v>1900</v>
       </c>
       <c r="C953" s="8" t="s">
-        <v>2233</v>
+        <v>1901</v>
       </c>
       <c r="D953" s="8" t="s">
-        <v>2234</v>
+        <v>1902</v>
       </c>
       <c r="E953" s="5" t="s">
-        <v>2268</v>
+        <v>2397</v>
       </c>
       <c r="F953" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G953" s="5" t="s">
-        <v>2481</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="954" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30352,22 +30361,22 @@
         <v>954</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>1903</v>
+        <v>2232</v>
       </c>
       <c r="C954" s="8" t="s">
-        <v>1904</v>
+        <v>2233</v>
       </c>
       <c r="D954" s="8" t="s">
-        <v>1905</v>
+        <v>2234</v>
       </c>
       <c r="E954" s="5" t="s">
-        <v>2323</v>
+        <v>2268</v>
       </c>
       <c r="F954" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G954" s="5" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="955" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30375,22 +30384,22 @@
         <v>955</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="C955" s="8" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="D955" s="8" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="E955" s="5" t="s">
-        <v>2274</v>
+        <v>2323</v>
       </c>
       <c r="F955" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G955" s="5" t="s">
-        <v>2443</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="956" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30398,22 +30407,22 @@
         <v>956</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>2630</v>
-      </c>
-      <c r="C956" s="4" t="s">
-        <v>2196</v>
+        <v>1906</v>
+      </c>
+      <c r="C956" s="8" t="s">
+        <v>1907</v>
       </c>
       <c r="D956" s="8" t="s">
-        <v>2631</v>
+        <v>1908</v>
       </c>
       <c r="E956" s="5" t="s">
-        <v>2336</v>
+        <v>2274</v>
       </c>
       <c r="F956" s="5" t="s">
-        <v>2441</v>
+        <v>2427</v>
       </c>
       <c r="G956" s="5" t="s">
-        <v>2632</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="957" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30421,19 +30430,22 @@
         <v>957</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>1909</v>
-      </c>
-      <c r="C957" s="8" t="s">
-        <v>1910</v>
+        <v>2630</v>
+      </c>
+      <c r="C957" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D957" s="8" t="s">
+        <v>2631</v>
       </c>
       <c r="E957" s="5" t="s">
-        <v>2265</v>
+        <v>2336</v>
       </c>
       <c r="F957" s="5" t="s">
-        <v>2310</v>
+        <v>2441</v>
       </c>
       <c r="G957" s="5" t="s">
-        <v>2305</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="958" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30441,22 +30453,19 @@
         <v>958</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="C958" s="8" t="s">
-        <v>2917</v>
-      </c>
-      <c r="D958" s="8" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="E958" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F958" s="5" t="s">
-        <v>2427</v>
+        <v>2310</v>
       </c>
       <c r="G958" s="5" t="s">
-        <v>2482</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="959" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30464,10 +30473,13 @@
         <v>959</v>
       </c>
       <c r="B959" s="2" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="C959" s="8" t="s">
-        <v>1914</v>
+        <v>2917</v>
+      </c>
+      <c r="D959" s="8" t="s">
+        <v>1912</v>
       </c>
       <c r="E959" s="5" t="s">
         <v>2265</v>
@@ -30476,7 +30488,7 @@
         <v>2427</v>
       </c>
       <c r="G959" s="5" t="s">
-        <v>2443</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="960" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30484,22 +30496,19 @@
         <v>960</v>
       </c>
       <c r="B960" s="2" t="s">
-        <v>2688</v>
-      </c>
-      <c r="C960" s="1" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D960" s="8" t="s">
-        <v>2690</v>
+        <v>1913</v>
+      </c>
+      <c r="C960" s="8" t="s">
+        <v>1914</v>
       </c>
       <c r="E960" s="5" t="s">
-        <v>2275</v>
+        <v>2265</v>
       </c>
       <c r="F960" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G960" s="5" t="s">
-        <v>2477</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="961" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30507,19 +30516,22 @@
         <v>961</v>
       </c>
       <c r="B961" s="2" t="s">
-        <v>1915</v>
-      </c>
-      <c r="C961" s="8" t="s">
-        <v>1916</v>
+        <v>2688</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>2689</v>
       </c>
       <c r="D961" s="8" t="s">
-        <v>1917</v>
+        <v>2690</v>
       </c>
       <c r="E961" s="5" t="s">
-        <v>2270</v>
+        <v>2275</v>
       </c>
       <c r="F961" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
+      </c>
+      <c r="G961" s="5" t="s">
+        <v>2477</v>
       </c>
     </row>
     <row r="962" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30527,22 +30539,19 @@
         <v>962</v>
       </c>
       <c r="B962" s="2" t="s">
-        <v>2597</v>
+        <v>1915</v>
       </c>
       <c r="C962" s="8" t="s">
-        <v>2598</v>
+        <v>1916</v>
       </c>
       <c r="D962" s="8" t="s">
-        <v>2599</v>
+        <v>1917</v>
       </c>
       <c r="E962" s="5" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="F962" s="5" t="s">
         <v>2427</v>
-      </c>
-      <c r="G962" s="5" t="s">
-        <v>2443</v>
       </c>
     </row>
     <row r="963" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30550,16 +30559,16 @@
         <v>963</v>
       </c>
       <c r="B963" s="2" t="s">
-        <v>1918</v>
+        <v>2597</v>
       </c>
       <c r="C963" s="8" t="s">
-        <v>2249</v>
+        <v>2598</v>
       </c>
       <c r="D963" s="8" t="s">
-        <v>1919</v>
+        <v>2599</v>
       </c>
       <c r="E963" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F963" s="5" t="s">
         <v>2427</v>
@@ -30573,16 +30582,16 @@
         <v>964</v>
       </c>
       <c r="B964" s="2" t="s">
-        <v>2252</v>
+        <v>1918</v>
       </c>
       <c r="C964" s="8" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
       <c r="D964" s="8" t="s">
-        <v>2254</v>
+        <v>1919</v>
       </c>
       <c r="E964" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="F964" s="5" t="s">
         <v>2427</v>
@@ -30596,16 +30605,16 @@
         <v>965</v>
       </c>
       <c r="B965" s="2" t="s">
-        <v>1920</v>
+        <v>2252</v>
       </c>
       <c r="C965" s="8" t="s">
-        <v>1921</v>
+        <v>2253</v>
       </c>
       <c r="D965" s="8" t="s">
-        <v>2420</v>
+        <v>2254</v>
       </c>
       <c r="E965" s="5" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="F965" s="5" t="s">
         <v>2427</v>
@@ -30619,13 +30628,13 @@
         <v>966</v>
       </c>
       <c r="B966" s="2" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="C966" s="8" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="D966" s="8" t="s">
-        <v>1924</v>
+        <v>2420</v>
       </c>
       <c r="E966" s="5" t="s">
         <v>2265</v>
@@ -30642,22 +30651,22 @@
         <v>967</v>
       </c>
       <c r="B967" s="2" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="C967" s="8" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="D967" s="8" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="E967" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F967" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G967" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="968" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30665,19 +30674,22 @@
         <v>968</v>
       </c>
       <c r="B968" s="2" t="s">
-        <v>2918</v>
+        <v>1925</v>
       </c>
       <c r="C968" s="8" t="s">
-        <v>2919</v>
+        <v>1926</v>
       </c>
       <c r="D968" s="8" t="s">
-        <v>2920</v>
+        <v>1927</v>
       </c>
       <c r="E968" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F968" s="5" t="s">
-        <v>2310</v>
+        <v>2427</v>
+      </c>
+      <c r="G968" s="5" t="s">
+        <v>2461</v>
       </c>
     </row>
     <row r="969" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30685,19 +30697,19 @@
         <v>969</v>
       </c>
       <c r="B969" s="2" t="s">
-        <v>1928</v>
+        <v>2918</v>
       </c>
       <c r="C969" s="8" t="s">
-        <v>1929</v>
+        <v>2919</v>
+      </c>
+      <c r="D969" s="8" t="s">
+        <v>2920</v>
       </c>
       <c r="E969" s="5" t="s">
-        <v>2308</v>
+        <v>2265</v>
       </c>
       <c r="F969" s="5" t="s">
-        <v>2440</v>
-      </c>
-      <c r="G969" s="5" t="s">
-        <v>2305</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="970" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30705,22 +30717,19 @@
         <v>970</v>
       </c>
       <c r="B970" s="2" t="s">
-        <v>2622</v>
-      </c>
-      <c r="C970" s="4" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D970" s="8" t="s">
-        <v>2623</v>
+        <v>1928</v>
+      </c>
+      <c r="C970" s="8" t="s">
+        <v>1929</v>
       </c>
       <c r="E970" s="5" t="s">
-        <v>2265</v>
+        <v>2308</v>
       </c>
       <c r="F970" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G970" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="971" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30728,22 +30737,22 @@
         <v>971</v>
       </c>
       <c r="B971" s="2" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C971" s="10" t="s">
-        <v>1931</v>
+        <v>2622</v>
+      </c>
+      <c r="C971" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D971" s="8" t="s">
-        <v>1932</v>
+        <v>2623</v>
       </c>
       <c r="E971" s="5" t="s">
-        <v>2281</v>
+        <v>2265</v>
       </c>
       <c r="F971" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G971" s="5" t="s">
-        <v>2463</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="972" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30751,22 +30760,22 @@
         <v>972</v>
       </c>
       <c r="B972" s="2" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C972" s="10" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="D972" s="8" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="E972" s="5" t="s">
-        <v>2265</v>
+        <v>2281</v>
       </c>
       <c r="F972" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G972" s="5" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="973" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30774,22 +30783,22 @@
         <v>973</v>
       </c>
       <c r="B973" s="2" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C973" s="10" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="D973" s="8" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="E973" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F973" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G973" s="5" t="s">
-        <v>2305</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="974" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30797,16 +30806,16 @@
         <v>974</v>
       </c>
       <c r="B974" s="2" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="C974" s="10" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="D974" s="8" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="E974" s="5" t="s">
-        <v>2281</v>
+        <v>2265</v>
       </c>
       <c r="F974" s="5" t="s">
         <v>2440</v>
@@ -30820,22 +30829,22 @@
         <v>975</v>
       </c>
       <c r="B975" s="2" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="C975" s="10" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="D975" s="8" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="E975" s="5" t="s">
-        <v>2265</v>
+        <v>2281</v>
       </c>
       <c r="F975" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G975" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="976" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30843,16 +30852,16 @@
         <v>976</v>
       </c>
       <c r="B976" s="2" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="C976" s="10" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="D976" s="8" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="E976" s="5" t="s">
-        <v>2275</v>
+        <v>2265</v>
       </c>
       <c r="F976" s="5" t="s">
         <v>2427</v>
@@ -30866,22 +30875,22 @@
         <v>977</v>
       </c>
       <c r="B977" s="2" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="C977" s="10" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="D977" s="8" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="E977" s="5" t="s">
-        <v>2265</v>
+        <v>2275</v>
       </c>
       <c r="F977" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G977" s="5" t="s">
-        <v>2468</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="978" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30889,19 +30898,22 @@
         <v>978</v>
       </c>
       <c r="B978" s="2" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="C978" s="10" t="s">
-        <v>1952</v>
+        <v>1949</v>
+      </c>
+      <c r="D978" s="8" t="s">
+        <v>1950</v>
       </c>
       <c r="E978" s="5" t="s">
-        <v>2298</v>
+        <v>2265</v>
       </c>
       <c r="F978" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G978" s="5" t="s">
-        <v>2461</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="979" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30909,22 +30921,19 @@
         <v>979</v>
       </c>
       <c r="B979" s="2" t="s">
-        <v>1953</v>
-      </c>
-      <c r="C979" s="14" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D979" s="8" t="s">
-        <v>1954</v>
+        <v>1951</v>
+      </c>
+      <c r="C979" s="10" t="s">
+        <v>1952</v>
       </c>
       <c r="E979" s="5" t="s">
-        <v>2265</v>
+        <v>2298</v>
       </c>
       <c r="F979" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G979" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="980" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30932,13 +30941,13 @@
         <v>980</v>
       </c>
       <c r="B980" s="2" t="s">
-        <v>2604</v>
-      </c>
-      <c r="C980" s="4" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C980" s="14" t="s">
         <v>2196</v>
       </c>
       <c r="D980" s="8" t="s">
-        <v>2605</v>
+        <v>1954</v>
       </c>
       <c r="E980" s="5" t="s">
         <v>2265</v>
@@ -30955,16 +30964,16 @@
         <v>981</v>
       </c>
       <c r="B981" s="2" t="s">
-        <v>1955</v>
-      </c>
-      <c r="C981" s="10" t="s">
-        <v>1956</v>
+        <v>2604</v>
+      </c>
+      <c r="C981" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D981" s="8" t="s">
-        <v>1957</v>
+        <v>2605</v>
       </c>
       <c r="E981" s="5" t="s">
-        <v>2421</v>
+        <v>2265</v>
       </c>
       <c r="F981" s="5" t="s">
         <v>2427</v>
@@ -30978,22 +30987,22 @@
         <v>982</v>
       </c>
       <c r="B982" s="2" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="C982" s="10" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="D982" s="8" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="E982" s="5" t="s">
-        <v>2265</v>
+        <v>2421</v>
       </c>
       <c r="F982" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G982" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="983" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31001,10 +31010,13 @@
         <v>983</v>
       </c>
       <c r="B983" s="2" t="s">
-        <v>2921</v>
+        <v>1958</v>
       </c>
       <c r="C983" s="10" t="s">
-        <v>2922</v>
+        <v>1959</v>
+      </c>
+      <c r="D983" s="8" t="s">
+        <v>1960</v>
       </c>
       <c r="E983" s="5" t="s">
         <v>2265</v>
@@ -31021,13 +31033,10 @@
         <v>984</v>
       </c>
       <c r="B984" s="2" t="s">
-        <v>1961</v>
+        <v>2921</v>
       </c>
       <c r="C984" s="10" t="s">
-        <v>1962</v>
-      </c>
-      <c r="D984" s="8" t="s">
-        <v>2422</v>
+        <v>2922</v>
       </c>
       <c r="E984" s="5" t="s">
         <v>2265</v>
@@ -31036,7 +31045,7 @@
         <v>2427</v>
       </c>
       <c r="G984" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="985" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31044,13 +31053,13 @@
         <v>985</v>
       </c>
       <c r="B985" s="2" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="C985" s="10" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="D985" s="8" t="s">
-        <v>1965</v>
+        <v>2422</v>
       </c>
       <c r="E985" s="5" t="s">
         <v>2265</v>
@@ -31059,7 +31068,7 @@
         <v>2427</v>
       </c>
       <c r="G985" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="986" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31067,13 +31076,13 @@
         <v>986</v>
       </c>
       <c r="B986" s="2" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="C986" s="10" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="D986" s="8" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="E986" s="5" t="s">
         <v>2265</v>
@@ -31082,7 +31091,7 @@
         <v>2427</v>
       </c>
       <c r="G986" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="987" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31090,13 +31099,13 @@
         <v>987</v>
       </c>
       <c r="B987" s="2" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="C987" s="10" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="D987" s="8" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="E987" s="5" t="s">
         <v>2265</v>
@@ -31113,22 +31122,22 @@
         <v>988</v>
       </c>
       <c r="B988" s="2" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="C988" s="10" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="D988" s="8" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="E988" s="5" t="s">
-        <v>2276</v>
+        <v>2265</v>
       </c>
       <c r="F988" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G988" s="5" t="s">
-        <v>2481</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="989" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31136,22 +31145,22 @@
         <v>989</v>
       </c>
       <c r="B989" s="2" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="C989" s="10" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="D989" s="8" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="E989" s="5" t="s">
-        <v>2265</v>
+        <v>2276</v>
       </c>
       <c r="F989" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G989" s="5" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="990" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31159,22 +31168,22 @@
         <v>990</v>
       </c>
       <c r="B990" s="2" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="C990" s="10" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="D990" s="8" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="E990" s="5" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="F990" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G990" s="5" t="s">
-        <v>2443</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="991" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31182,22 +31191,22 @@
         <v>991</v>
       </c>
       <c r="B991" s="2" t="s">
-        <v>1981</v>
-      </c>
-      <c r="C991" s="4" t="s">
-        <v>2196</v>
+        <v>1978</v>
+      </c>
+      <c r="C991" s="10" t="s">
+        <v>1979</v>
       </c>
       <c r="D991" s="8" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="E991" s="5" t="s">
-        <v>2279</v>
+        <v>2268</v>
       </c>
       <c r="F991" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G991" s="5" t="s">
-        <v>2477</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="992" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31205,19 +31214,22 @@
         <v>992</v>
       </c>
       <c r="B992" s="2" t="s">
-        <v>2923</v>
-      </c>
-      <c r="C992" s="8" t="s">
-        <v>2924</v>
+        <v>1981</v>
+      </c>
+      <c r="C992" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D992" s="8" t="s">
+        <v>1982</v>
       </c>
       <c r="E992" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F992" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G992" s="5" t="s">
-        <v>2443</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="993" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31225,13 +31237,10 @@
         <v>993</v>
       </c>
       <c r="B993" s="2" t="s">
-        <v>1983</v>
+        <v>2923</v>
       </c>
       <c r="C993" s="8" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D993" s="8" t="s">
-        <v>1985</v>
+        <v>2924</v>
       </c>
       <c r="E993" s="5" t="s">
         <v>2265</v>
@@ -31248,13 +31257,13 @@
         <v>994</v>
       </c>
       <c r="B994" s="2" t="s">
-        <v>1986</v>
-      </c>
-      <c r="C994" s="10" t="s">
-        <v>1987</v>
+        <v>1983</v>
+      </c>
+      <c r="C994" s="8" t="s">
+        <v>1984</v>
       </c>
       <c r="D994" s="8" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="E994" s="5" t="s">
         <v>2265</v>
@@ -31271,13 +31280,13 @@
         <v>995</v>
       </c>
       <c r="B995" s="2" t="s">
-        <v>1989</v>
-      </c>
-      <c r="C995" s="4" t="s">
-        <v>2196</v>
+        <v>1986</v>
+      </c>
+      <c r="C995" s="10" t="s">
+        <v>1987</v>
       </c>
       <c r="D995" s="8" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="E995" s="5" t="s">
         <v>2265</v>
@@ -31294,62 +31303,62 @@
         <v>996</v>
       </c>
       <c r="B996" s="2" t="s">
-        <v>1991</v>
-      </c>
-      <c r="C996" s="10" t="s">
-        <v>1992</v>
+        <v>1989</v>
+      </c>
+      <c r="C996" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D996" s="8" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="E996" s="5" t="s">
-        <v>2308</v>
+        <v>2265</v>
       </c>
       <c r="F996" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G996" s="5" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="997" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="2">
         <v>997</v>
       </c>
       <c r="B997" s="2" t="s">
-        <v>2925</v>
+        <v>1991</v>
       </c>
       <c r="C997" s="10" t="s">
-        <v>2926</v>
+        <v>1992</v>
       </c>
       <c r="D997" s="8" t="s">
-        <v>2927</v>
-      </c>
-      <c r="E997" s="18" t="s">
-        <v>2265</v>
+        <v>1993</v>
+      </c>
+      <c r="E997" s="5" t="s">
+        <v>2308</v>
       </c>
       <c r="F997" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G997" s="5" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="998" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="2">
         <v>998</v>
       </c>
       <c r="B998" s="2" t="s">
-        <v>1994</v>
-      </c>
-      <c r="C998" s="4" t="s">
-        <v>2196</v>
+        <v>2925</v>
+      </c>
+      <c r="C998" s="10" t="s">
+        <v>2926</v>
       </c>
       <c r="D998" s="8" t="s">
-        <v>1995</v>
-      </c>
-      <c r="E998" s="5" t="s">
-        <v>2283</v>
+        <v>2927</v>
+      </c>
+      <c r="E998" s="18" t="s">
+        <v>2265</v>
       </c>
       <c r="F998" s="5" t="s">
         <v>2427</v>
@@ -31363,16 +31372,16 @@
         <v>999</v>
       </c>
       <c r="B999" s="2" t="s">
-        <v>1996</v>
-      </c>
-      <c r="C999" s="8" t="s">
-        <v>1997</v>
+        <v>1994</v>
+      </c>
+      <c r="C999" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D999" s="8" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="E999" s="5" t="s">
-        <v>2272</v>
+        <v>2283</v>
       </c>
       <c r="F999" s="5" t="s">
         <v>2427</v>
@@ -31386,16 +31395,16 @@
         <v>1000</v>
       </c>
       <c r="B1000" s="2" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="C1000" s="8" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="D1000" s="8" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="E1000" s="5" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="F1000" s="5" t="s">
         <v>2427</v>
@@ -31409,13 +31418,16 @@
         <v>1001</v>
       </c>
       <c r="B1001" s="2" t="s">
-        <v>2928</v>
+        <v>1999</v>
       </c>
       <c r="C1001" s="8" t="s">
-        <v>2929</v>
+        <v>2000</v>
+      </c>
+      <c r="D1001" s="8" t="s">
+        <v>2001</v>
       </c>
       <c r="E1001" s="5" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="F1001" s="5" t="s">
         <v>2427</v>
@@ -31429,22 +31441,19 @@
         <v>1002</v>
       </c>
       <c r="B1002" s="2" t="s">
-        <v>2002</v>
+        <v>2928</v>
       </c>
       <c r="C1002" s="8" t="s">
-        <v>2003</v>
-      </c>
-      <c r="D1002" s="8" t="s">
-        <v>2004</v>
+        <v>2929</v>
       </c>
       <c r="E1002" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F1002" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1002" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1003" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31452,22 +31461,22 @@
         <v>1003</v>
       </c>
       <c r="B1003" s="2" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C1003" s="8" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D1003" s="8" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E1003" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F1003" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G1003" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1004" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31475,16 +31484,16 @@
         <v>1004</v>
       </c>
       <c r="B1004" s="2" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C1004" s="8" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D1004" s="8" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E1004" s="5" t="s">
-        <v>2274</v>
+        <v>2279</v>
       </c>
       <c r="F1004" s="5" t="s">
         <v>2427</v>
@@ -31498,16 +31507,16 @@
         <v>1005</v>
       </c>
       <c r="B1005" s="2" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C1005" s="8" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D1005" s="8" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E1005" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F1005" s="5" t="s">
         <v>2427</v>
@@ -31521,13 +31530,13 @@
         <v>1006</v>
       </c>
       <c r="B1006" s="2" t="s">
-        <v>2930</v>
+        <v>2011</v>
       </c>
       <c r="C1006" s="8" t="s">
-        <v>2931</v>
+        <v>2012</v>
       </c>
       <c r="D1006" s="8" t="s">
-        <v>2932</v>
+        <v>2013</v>
       </c>
       <c r="E1006" s="5" t="s">
         <v>2265</v>
@@ -31544,13 +31553,13 @@
         <v>1007</v>
       </c>
       <c r="B1007" s="2" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="C1007" s="8" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="D1007" s="8" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="E1007" s="5" t="s">
         <v>2265</v>
@@ -31567,22 +31576,22 @@
         <v>1008</v>
       </c>
       <c r="B1008" s="2" t="s">
-        <v>2014</v>
+        <v>2933</v>
       </c>
       <c r="C1008" s="8" t="s">
-        <v>2016</v>
+        <v>2934</v>
       </c>
       <c r="D1008" s="8" t="s">
-        <v>2015</v>
+        <v>2935</v>
       </c>
       <c r="E1008" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F1008" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1008" s="5" t="s">
-        <v>2477</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1009" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31590,22 +31599,22 @@
         <v>1009</v>
       </c>
       <c r="B1009" s="2" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C1009" s="8" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D1009" s="8" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E1009" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F1009" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G1009" s="5" t="s">
-        <v>2486</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1010" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31613,22 +31622,22 @@
         <v>1010</v>
       </c>
       <c r="B1010" s="2" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C1010" s="8" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D1010" s="8" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E1010" s="5" t="s">
-        <v>2267</v>
+        <v>2274</v>
       </c>
       <c r="F1010" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G1010" s="5" t="s">
-        <v>2466</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1011" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31636,19 +31645,22 @@
         <v>1011</v>
       </c>
       <c r="B1011" s="2" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C1011" s="8" t="s">
-        <v>2024</v>
+        <v>2021</v>
+      </c>
+      <c r="D1011" s="8" t="s">
+        <v>2022</v>
       </c>
       <c r="E1011" s="5" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="F1011" s="5" t="s">
-        <v>2451</v>
+        <v>2444</v>
       </c>
       <c r="G1011" s="5" t="s">
-        <v>2460</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1012" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31656,22 +31668,19 @@
         <v>1012</v>
       </c>
       <c r="B1012" s="2" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C1012" s="8" t="s">
-        <v>2026</v>
-      </c>
-      <c r="D1012" s="8" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="E1012" s="5" t="s">
-        <v>2276</v>
+        <v>2268</v>
       </c>
       <c r="F1012" s="5" t="s">
-        <v>2444</v>
+        <v>2451</v>
       </c>
       <c r="G1012" s="5" t="s">
-        <v>2455</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1013" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31679,19 +31688,22 @@
         <v>1013</v>
       </c>
       <c r="B1013" s="2" t="s">
-        <v>2936</v>
+        <v>2025</v>
       </c>
       <c r="C1013" s="8" t="s">
-        <v>2937</v>
+        <v>2026</v>
+      </c>
+      <c r="D1013" s="8" t="s">
+        <v>2027</v>
       </c>
       <c r="E1013" s="5" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="F1013" s="5" t="s">
-        <v>2451</v>
+        <v>2444</v>
       </c>
       <c r="G1013" s="5" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1014" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31699,22 +31711,19 @@
         <v>1014</v>
       </c>
       <c r="B1014" s="2" t="s">
-        <v>2028</v>
+        <v>2936</v>
       </c>
       <c r="C1014" s="8" t="s">
-        <v>2029</v>
-      </c>
-      <c r="D1014" s="8" t="s">
-        <v>2030</v>
+        <v>2937</v>
       </c>
       <c r="E1014" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F1014" s="5" t="s">
-        <v>2440</v>
+        <v>2451</v>
       </c>
       <c r="G1014" s="5" t="s">
-        <v>2305</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1015" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31722,13 +31731,13 @@
         <v>1015</v>
       </c>
       <c r="B1015" s="2" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="C1015" s="8" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="D1015" s="8" t="s">
-        <v>2367</v>
+        <v>2030</v>
       </c>
       <c r="E1015" s="5" t="s">
         <v>2265</v>
@@ -31745,22 +31754,22 @@
         <v>1016</v>
       </c>
       <c r="B1016" s="2" t="s">
-        <v>2938</v>
+        <v>2031</v>
       </c>
       <c r="C1016" s="8" t="s">
-        <v>2939</v>
+        <v>2032</v>
       </c>
       <c r="D1016" s="8" t="s">
-        <v>2940</v>
+        <v>2367</v>
       </c>
       <c r="E1016" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F1016" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G1016" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1017" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31768,22 +31777,22 @@
         <v>1017</v>
       </c>
       <c r="B1017" s="2" t="s">
-        <v>2033</v>
+        <v>2938</v>
       </c>
       <c r="C1017" s="8" t="s">
-        <v>2034</v>
+        <v>2939</v>
       </c>
       <c r="D1017" s="8" t="s">
-        <v>2035</v>
+        <v>2940</v>
       </c>
       <c r="E1017" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F1017" s="5" t="s">
-        <v>2409</v>
+        <v>2427</v>
       </c>
       <c r="G1017" s="5" t="s">
-        <v>2449</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1018" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31791,22 +31800,22 @@
         <v>1018</v>
       </c>
       <c r="B1018" s="2" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="C1018" s="8" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="D1018" s="8" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="E1018" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F1018" s="5" t="s">
-        <v>2427</v>
+        <v>2409</v>
       </c>
       <c r="G1018" s="5" t="s">
-        <v>2443</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1019" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31814,16 +31823,16 @@
         <v>1019</v>
       </c>
       <c r="B1019" s="2" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="C1019" s="8" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="D1019" s="8" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E1019" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F1019" s="5" t="s">
         <v>2427</v>
@@ -31840,7 +31849,7 @@
         <v>2039</v>
       </c>
       <c r="C1020" s="8" t="s">
-        <v>2941</v>
+        <v>2040</v>
       </c>
       <c r="D1020" s="8" t="s">
         <v>2041</v>
@@ -31860,22 +31869,22 @@
         <v>1021</v>
       </c>
       <c r="B1021" s="2" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="C1021" s="8" t="s">
-        <v>2043</v>
+        <v>2941</v>
       </c>
       <c r="D1021" s="8" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E1021" s="5" t="s">
-        <v>2296</v>
+        <v>2279</v>
       </c>
       <c r="F1021" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1021" s="5" t="s">
-        <v>2466</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1022" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31883,22 +31892,22 @@
         <v>1022</v>
       </c>
       <c r="B1022" s="2" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="C1022" s="8" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="D1022" s="8" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="E1022" s="5" t="s">
-        <v>2265</v>
+        <v>2296</v>
       </c>
       <c r="F1022" s="5" t="s">
-        <v>2305</v>
+        <v>2444</v>
       </c>
       <c r="G1022" s="5" t="s">
-        <v>2456</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1023" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31906,19 +31915,22 @@
         <v>1023</v>
       </c>
       <c r="B1023" s="2" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="C1023" s="8" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="D1023" s="8" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="E1023" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F1023" s="5" t="s">
-        <v>2440</v>
+        <v>2305</v>
+      </c>
+      <c r="G1023" s="5" t="s">
+        <v>2456</v>
       </c>
     </row>
     <row r="1024" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31926,22 +31938,19 @@
         <v>1024</v>
       </c>
       <c r="B1024" s="2" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="C1024" s="8" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="D1024" s="8" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="E1024" s="5" t="s">
         <v>2279</v>
       </c>
       <c r="F1024" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G1024" s="5" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1025" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31949,22 +31958,22 @@
         <v>1025</v>
       </c>
       <c r="B1025" s="2" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="C1025" s="8" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="D1025" s="8" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="E1025" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F1025" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1025" s="5" t="s">
-        <v>2486</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1026" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31972,16 +31981,22 @@
         <v>1026</v>
       </c>
       <c r="B1026" s="2" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="C1026" s="8" t="s">
-        <v>2058</v>
+        <v>2055</v>
+      </c>
+      <c r="D1026" s="8" t="s">
+        <v>2056</v>
       </c>
       <c r="E1026" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F1026" s="5" t="s">
-        <v>2305</v>
+        <v>2444</v>
+      </c>
+      <c r="G1026" s="5" t="s">
+        <v>2486</v>
       </c>
     </row>
     <row r="1027" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31989,22 +32004,16 @@
         <v>1027</v>
       </c>
       <c r="B1027" s="2" t="s">
-        <v>2942</v>
+        <v>2057</v>
       </c>
       <c r="C1027" s="8" t="s">
-        <v>2943</v>
-      </c>
-      <c r="D1027" s="8" t="s">
-        <v>2944</v>
+        <v>2058</v>
       </c>
       <c r="E1027" s="5" t="s">
-        <v>2313</v>
+        <v>2274</v>
       </c>
       <c r="F1027" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G1027" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1028" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32012,16 +32021,16 @@
         <v>1028</v>
       </c>
       <c r="B1028" s="2" t="s">
-        <v>2059</v>
+        <v>2942</v>
       </c>
       <c r="C1028" s="8" t="s">
-        <v>2060</v>
+        <v>2943</v>
       </c>
       <c r="D1028" s="8" t="s">
-        <v>2061</v>
+        <v>2944</v>
       </c>
       <c r="E1028" s="5" t="s">
-        <v>2265</v>
+        <v>2313</v>
       </c>
       <c r="F1028" s="5" t="s">
         <v>2427</v>
@@ -32035,22 +32044,22 @@
         <v>1029</v>
       </c>
       <c r="B1029" s="2" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="C1029" s="8" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="D1029" s="8" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="E1029" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="F1029" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G1029" s="5" t="s">
-        <v>2482</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1030" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32058,16 +32067,16 @@
         <v>1030</v>
       </c>
       <c r="B1030" s="2" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="C1030" s="8" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="D1030" s="8" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="E1030" s="5" t="s">
-        <v>2361</v>
+        <v>2267</v>
       </c>
       <c r="F1030" s="5" t="s">
         <v>2427</v>
@@ -32081,22 +32090,22 @@
         <v>1031</v>
       </c>
       <c r="B1031" s="2" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="C1031" s="8" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="D1031" s="8" t="s">
-        <v>2424</v>
+        <v>2067</v>
       </c>
       <c r="E1031" s="5" t="s">
-        <v>2423</v>
+        <v>2361</v>
       </c>
       <c r="F1031" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G1031" s="5" t="s">
-        <v>2464</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1032" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32104,22 +32113,22 @@
         <v>1032</v>
       </c>
       <c r="B1032" s="2" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="C1032" s="8" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D1032" s="8" t="s">
-        <v>2072</v>
+        <v>2424</v>
       </c>
       <c r="E1032" s="5" t="s">
-        <v>2274</v>
+        <v>2423</v>
       </c>
       <c r="F1032" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G1032" s="5" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1033" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32127,19 +32136,22 @@
         <v>1033</v>
       </c>
       <c r="B1033" s="2" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="C1033" s="8" t="s">
-        <v>2074</v>
+        <v>2071</v>
+      </c>
+      <c r="D1033" s="8" t="s">
+        <v>2072</v>
       </c>
       <c r="E1033" s="5" t="s">
-        <v>2313</v>
+        <v>2274</v>
       </c>
       <c r="F1033" s="5" t="s">
-        <v>2445</v>
+        <v>2427</v>
       </c>
       <c r="G1033" s="5" t="s">
-        <v>2473</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1034" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32147,22 +32159,19 @@
         <v>1034</v>
       </c>
       <c r="B1034" s="2" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="C1034" s="8" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D1034" s="8" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="E1034" s="5" t="s">
-        <v>2281</v>
+        <v>2313</v>
       </c>
       <c r="F1034" s="5" t="s">
-        <v>2427</v>
+        <v>2445</v>
       </c>
       <c r="G1034" s="5" t="s">
-        <v>2459</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1035" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32170,22 +32179,22 @@
         <v>1035</v>
       </c>
       <c r="B1035" s="2" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="C1035" s="8" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="D1035" s="8" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="E1035" s="5" t="s">
-        <v>2270</v>
+        <v>2281</v>
       </c>
       <c r="F1035" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G1035" s="5" t="s">
-        <v>2482</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="1036" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32193,19 +32202,22 @@
         <v>1036</v>
       </c>
       <c r="B1036" s="2" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="C1036" s="8" t="s">
-        <v>2082</v>
+        <v>2079</v>
+      </c>
+      <c r="D1036" s="8" t="s">
+        <v>2080</v>
       </c>
       <c r="E1036" s="5" t="s">
-        <v>2296</v>
+        <v>2270</v>
       </c>
       <c r="F1036" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G1036" s="5" t="s">
-        <v>2443</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1037" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32213,19 +32225,19 @@
         <v>1037</v>
       </c>
       <c r="B1037" s="2" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="C1037" s="8" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="E1037" s="5" t="s">
-        <v>2265</v>
+        <v>2296</v>
       </c>
       <c r="F1037" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G1037" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1038" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32233,16 +32245,19 @@
         <v>1038</v>
       </c>
       <c r="B1038" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="C1038" s="8" t="s">
-        <v>2086</v>
+        <v>2084</v>
+      </c>
+      <c r="E1038" s="5" t="s">
+        <v>2265</v>
       </c>
       <c r="F1038" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G1038" s="5" t="s">
-        <v>2305</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1039" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32250,22 +32265,16 @@
         <v>1039</v>
       </c>
       <c r="B1039" s="2" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="C1039" s="8" t="s">
-        <v>2088</v>
-      </c>
-      <c r="D1039" s="8" t="s">
-        <v>2089</v>
-      </c>
-      <c r="E1039" s="5" t="s">
-        <v>2270</v>
+        <v>2086</v>
       </c>
       <c r="F1039" s="5" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="G1039" s="5" t="s">
-        <v>2466</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1040" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32273,22 +32282,22 @@
         <v>1040</v>
       </c>
       <c r="B1040" s="2" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="C1040" s="8" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="D1040" s="8" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="E1040" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F1040" s="5" t="s">
-        <v>2310</v>
+        <v>2444</v>
       </c>
       <c r="G1040" s="5" t="s">
-        <v>2305</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1041" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32296,19 +32305,22 @@
         <v>1041</v>
       </c>
       <c r="B1041" s="2" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="C1041" s="8" t="s">
-        <v>2094</v>
+        <v>2091</v>
+      </c>
+      <c r="D1041" s="8" t="s">
+        <v>2092</v>
       </c>
       <c r="E1041" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F1041" s="5" t="s">
-        <v>2444</v>
+        <v>2310</v>
       </c>
       <c r="G1041" s="5" t="s">
-        <v>2467</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1042" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32316,22 +32328,19 @@
         <v>1042</v>
       </c>
       <c r="B1042" s="2" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="C1042" s="8" t="s">
-        <v>2096</v>
-      </c>
-      <c r="D1042" s="8" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="E1042" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F1042" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G1042" s="5" t="s">
-        <v>2484</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="1043" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32339,22 +32348,22 @@
         <v>1043</v>
       </c>
       <c r="B1043" s="2" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="C1043" s="8" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="D1043" s="8" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="E1043" s="5" t="s">
-        <v>2279</v>
+        <v>2270</v>
       </c>
       <c r="F1043" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G1043" s="5" t="s">
-        <v>2443</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1044" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32362,22 +32371,22 @@
         <v>1044</v>
       </c>
       <c r="B1044" s="2" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="C1044" s="8" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="D1044" s="8" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="E1044" s="5" t="s">
-        <v>2270</v>
+        <v>2279</v>
       </c>
       <c r="F1044" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1044" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1045" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32385,22 +32394,22 @@
         <v>1045</v>
       </c>
       <c r="B1045" s="2" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="C1045" s="8" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="D1045" s="8" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="E1045" s="5" t="s">
         <v>2270</v>
       </c>
       <c r="F1045" s="5" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="G1045" s="5" t="s">
-        <v>2493</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1046" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32408,22 +32417,22 @@
         <v>1046</v>
       </c>
       <c r="B1046" s="2" t="s">
-        <v>2945</v>
+        <v>2104</v>
       </c>
       <c r="C1046" s="8" t="s">
-        <v>2946</v>
+        <v>2105</v>
       </c>
       <c r="D1046" s="8" t="s">
-        <v>2947</v>
+        <v>2106</v>
       </c>
       <c r="E1046" s="5" t="s">
-        <v>2303</v>
+        <v>2270</v>
       </c>
       <c r="F1046" s="5" t="s">
-        <v>2427</v>
+        <v>2445</v>
       </c>
       <c r="G1046" s="5" t="s">
-        <v>2443</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1047" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32431,16 +32440,16 @@
         <v>1047</v>
       </c>
       <c r="B1047" s="2" t="s">
-        <v>2107</v>
+        <v>2945</v>
       </c>
       <c r="C1047" s="8" t="s">
-        <v>2108</v>
+        <v>2946</v>
       </c>
       <c r="D1047" s="8" t="s">
-        <v>2109</v>
+        <v>2947</v>
       </c>
       <c r="E1047" s="5" t="s">
-        <v>2274</v>
+        <v>2303</v>
       </c>
       <c r="F1047" s="5" t="s">
         <v>2427</v>
@@ -32454,13 +32463,13 @@
         <v>1048</v>
       </c>
       <c r="B1048" s="2" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="C1048" s="8" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="D1048" s="8" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="E1048" s="5" t="s">
         <v>2274</v>
@@ -32477,16 +32486,16 @@
         <v>1049</v>
       </c>
       <c r="B1049" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="C1049" s="8" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="D1049" s="8" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="E1049" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F1049" s="5" t="s">
         <v>2427</v>
@@ -32500,19 +32509,22 @@
         <v>1050</v>
       </c>
       <c r="B1050" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="C1050" s="8" t="s">
-        <v>2117</v>
+        <v>2114</v>
+      </c>
+      <c r="D1050" s="8" t="s">
+        <v>2115</v>
       </c>
       <c r="E1050" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F1050" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G1050" s="5" t="s">
-        <v>2482</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1051" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32520,22 +32532,19 @@
         <v>1051</v>
       </c>
       <c r="B1051" s="2" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C1051" s="4" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D1051" s="8" t="s">
-        <v>2864</v>
+        <v>2116</v>
+      </c>
+      <c r="C1051" s="8" t="s">
+        <v>2117</v>
       </c>
       <c r="E1051" s="5" t="s">
-        <v>2279</v>
+        <v>2270</v>
       </c>
       <c r="F1051" s="5" t="s">
-        <v>2451</v>
+        <v>2427</v>
       </c>
       <c r="G1051" s="5" t="s">
-        <v>2460</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1052" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32543,19 +32552,22 @@
         <v>1052</v>
       </c>
       <c r="B1052" s="2" t="s">
-        <v>2118</v>
-      </c>
-      <c r="C1052" s="8" t="s">
-        <v>2119</v>
+        <v>2863</v>
+      </c>
+      <c r="C1052" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D1052" s="8" t="s">
+        <v>2864</v>
       </c>
       <c r="E1052" s="5" t="s">
-        <v>2270</v>
+        <v>2279</v>
       </c>
       <c r="F1052" s="5" t="s">
-        <v>2444</v>
+        <v>2451</v>
       </c>
       <c r="G1052" s="5" t="s">
-        <v>2484</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1053" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32563,22 +32575,19 @@
         <v>1053</v>
       </c>
       <c r="B1053" s="2" t="s">
-        <v>2120</v>
-      </c>
-      <c r="C1053" s="4" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D1053" s="8" t="s">
-        <v>2121</v>
+        <v>2118</v>
+      </c>
+      <c r="C1053" s="8" t="s">
+        <v>2119</v>
       </c>
       <c r="E1053" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F1053" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G1053" s="5" t="s">
-        <v>2443</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1054" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32586,22 +32595,22 @@
         <v>1054</v>
       </c>
       <c r="B1054" s="2" t="s">
-        <v>2122</v>
-      </c>
-      <c r="C1054" s="8" t="s">
-        <v>2123</v>
+        <v>2120</v>
+      </c>
+      <c r="C1054" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D1054" s="8" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="E1054" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F1054" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1054" s="5" t="s">
-        <v>2481</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1055" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32609,21 +32618,44 @@
         <v>1055</v>
       </c>
       <c r="B1055" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C1055" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D1055" s="8" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E1055" s="5" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F1055" s="5" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G1055" s="5" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1056" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B1056" s="2" t="s">
         <v>2425</v>
       </c>
-      <c r="C1055" s="8" t="s">
+      <c r="C1056" s="8" t="s">
         <v>2125</v>
       </c>
-      <c r="D1055" s="8" t="s">
+      <c r="D1056" s="8" t="s">
         <v>2426</v>
       </c>
-      <c r="E1055" s="5" t="s">
+      <c r="E1056" s="5" t="s">
         <v>2267</v>
       </c>
-      <c r="F1055" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G1055" s="5" t="s">
+      <c r="F1056" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="G1056" s="5" t="s">
         <v>2443</v>
       </c>
     </row>
@@ -32632,268 +32664,268 @@
     <sortCondition ref="B932"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C1055" r:id="rId1"/>
-    <hyperlink ref="C1054" r:id="rId2" location="jobs"/>
-    <hyperlink ref="D1054" r:id="rId3"/>
-    <hyperlink ref="D1053" r:id="rId4"/>
-    <hyperlink ref="C1052" r:id="rId5"/>
-    <hyperlink ref="C1050" r:id="rId6"/>
-    <hyperlink ref="C1049" r:id="rId7"/>
-    <hyperlink ref="D1049" r:id="rId8"/>
-    <hyperlink ref="C1047" r:id="rId9"/>
-    <hyperlink ref="D1047" r:id="rId10"/>
-    <hyperlink ref="C1044" r:id="rId11"/>
-    <hyperlink ref="D1044" r:id="rId12"/>
-    <hyperlink ref="C1043" r:id="rId13"/>
-    <hyperlink ref="D1043" r:id="rId14"/>
-    <hyperlink ref="D1042" r:id="rId15"/>
-    <hyperlink ref="C1042" r:id="rId16"/>
-    <hyperlink ref="C1041" r:id="rId17"/>
-    <hyperlink ref="C1040" r:id="rId18"/>
-    <hyperlink ref="D1040" r:id="rId19"/>
-    <hyperlink ref="C1039" r:id="rId20"/>
-    <hyperlink ref="D1039" r:id="rId21"/>
-    <hyperlink ref="C1038" r:id="rId22"/>
-    <hyperlink ref="C1037" r:id="rId23" location="careers_about"/>
-    <hyperlink ref="C1036" r:id="rId24"/>
-    <hyperlink ref="C1035" r:id="rId25"/>
-    <hyperlink ref="D1035" r:id="rId26"/>
-    <hyperlink ref="C1034" r:id="rId27"/>
-    <hyperlink ref="D1034" r:id="rId28"/>
-    <hyperlink ref="C1033" r:id="rId29"/>
-    <hyperlink ref="C1032" r:id="rId30"/>
-    <hyperlink ref="D1032" r:id="rId31"/>
-    <hyperlink ref="C1031" r:id="rId32"/>
-    <hyperlink ref="C1030" r:id="rId33"/>
-    <hyperlink ref="D1030" r:id="rId34"/>
-    <hyperlink ref="C1029" r:id="rId35"/>
-    <hyperlink ref="D1029" r:id="rId36"/>
-    <hyperlink ref="C1028" r:id="rId37"/>
-    <hyperlink ref="D1028" r:id="rId38"/>
-    <hyperlink ref="C1026" r:id="rId39"/>
-    <hyperlink ref="C1025" r:id="rId40"/>
-    <hyperlink ref="D1025" r:id="rId41"/>
-    <hyperlink ref="C1024" r:id="rId42"/>
-    <hyperlink ref="D1024" r:id="rId43"/>
-    <hyperlink ref="D1023" r:id="rId44"/>
-    <hyperlink ref="C1021" r:id="rId45"/>
-    <hyperlink ref="D1021" r:id="rId46"/>
-    <hyperlink ref="C1019" r:id="rId47"/>
-    <hyperlink ref="D1019" r:id="rId48"/>
-    <hyperlink ref="C1018" r:id="rId49" location="career-position"/>
-    <hyperlink ref="D1018" r:id="rId50"/>
-    <hyperlink ref="C1017" r:id="rId51"/>
-    <hyperlink ref="D1017" r:id="rId52"/>
-    <hyperlink ref="D1022" r:id="rId53"/>
-    <hyperlink ref="C1015" r:id="rId54"/>
-    <hyperlink ref="C1014" r:id="rId55"/>
-    <hyperlink ref="D1014" r:id="rId56"/>
-    <hyperlink ref="C1012" r:id="rId57"/>
-    <hyperlink ref="D1012" r:id="rId58"/>
-    <hyperlink ref="C1010" r:id="rId59"/>
-    <hyperlink ref="D1010" r:id="rId60"/>
-    <hyperlink ref="C1009" r:id="rId61"/>
-    <hyperlink ref="D1009" r:id="rId62"/>
-    <hyperlink ref="C1008" r:id="rId63"/>
-    <hyperlink ref="C1005" r:id="rId64"/>
-    <hyperlink ref="D1005" r:id="rId65"/>
-    <hyperlink ref="C1004" r:id="rId66"/>
-    <hyperlink ref="D1004" r:id="rId67"/>
-    <hyperlink ref="C1003" r:id="rId68" location="positions"/>
-    <hyperlink ref="D1003" r:id="rId69"/>
-    <hyperlink ref="C1002" r:id="rId70"/>
-    <hyperlink ref="D1002" r:id="rId71"/>
-    <hyperlink ref="D1000" r:id="rId72"/>
-    <hyperlink ref="C1000" r:id="rId73"/>
-    <hyperlink ref="C999" r:id="rId74"/>
-    <hyperlink ref="D999" r:id="rId75"/>
-    <hyperlink ref="D998" r:id="rId76"/>
-    <hyperlink ref="C996" r:id="rId77"/>
-    <hyperlink ref="D996" r:id="rId78"/>
-    <hyperlink ref="D995" r:id="rId79"/>
-    <hyperlink ref="D994" r:id="rId80"/>
-    <hyperlink ref="C994" r:id="rId81"/>
-    <hyperlink ref="D993" r:id="rId82"/>
-    <hyperlink ref="C993" r:id="rId83" location="open-positions"/>
-    <hyperlink ref="D991" r:id="rId84"/>
-    <hyperlink ref="C990" r:id="rId85"/>
-    <hyperlink ref="D990" r:id="rId86"/>
-    <hyperlink ref="C989" r:id="rId87"/>
-    <hyperlink ref="D989" r:id="rId88"/>
-    <hyperlink ref="C987" r:id="rId89"/>
-    <hyperlink ref="D987" r:id="rId90"/>
-    <hyperlink ref="D986" r:id="rId91"/>
-    <hyperlink ref="C986" r:id="rId92"/>
-    <hyperlink ref="C985" r:id="rId93" location="careers-list"/>
-    <hyperlink ref="D985" r:id="rId94"/>
-    <hyperlink ref="C984" r:id="rId95"/>
-    <hyperlink ref="C982" r:id="rId96"/>
-    <hyperlink ref="D982" r:id="rId97"/>
-    <hyperlink ref="D981" r:id="rId98"/>
-    <hyperlink ref="C981" r:id="rId99"/>
-    <hyperlink ref="D979" r:id="rId100"/>
-    <hyperlink ref="C978" r:id="rId101"/>
-    <hyperlink ref="C977" r:id="rId102"/>
-    <hyperlink ref="D977" r:id="rId103"/>
-    <hyperlink ref="C976" r:id="rId104"/>
-    <hyperlink ref="D976" r:id="rId105"/>
-    <hyperlink ref="C975" r:id="rId106"/>
-    <hyperlink ref="D975" r:id="rId107"/>
-    <hyperlink ref="C974" r:id="rId108"/>
-    <hyperlink ref="D974" r:id="rId109"/>
-    <hyperlink ref="C973" r:id="rId110" location="open-positions"/>
-    <hyperlink ref="D973" r:id="rId111"/>
-    <hyperlink ref="C972" r:id="rId112"/>
-    <hyperlink ref="D972" r:id="rId113"/>
-    <hyperlink ref="C971" r:id="rId114"/>
-    <hyperlink ref="D971" r:id="rId115"/>
-    <hyperlink ref="C969" r:id="rId116"/>
-    <hyperlink ref="C967" r:id="rId117"/>
-    <hyperlink ref="D967" r:id="rId118"/>
-    <hyperlink ref="C966" r:id="rId119"/>
-    <hyperlink ref="D966" r:id="rId120"/>
-    <hyperlink ref="C965" r:id="rId121"/>
-    <hyperlink ref="D963" r:id="rId122"/>
-    <hyperlink ref="C961" r:id="rId123"/>
-    <hyperlink ref="D961" r:id="rId124"/>
-    <hyperlink ref="C959" r:id="rId125"/>
-    <hyperlink ref="D958" r:id="rId126"/>
-    <hyperlink ref="D955" r:id="rId127"/>
-    <hyperlink ref="D954" r:id="rId128"/>
-    <hyperlink ref="D952" r:id="rId129"/>
-    <hyperlink ref="C957" r:id="rId130"/>
-    <hyperlink ref="C955" r:id="rId131"/>
-    <hyperlink ref="C954" r:id="rId132"/>
-    <hyperlink ref="C952" r:id="rId133"/>
-    <hyperlink ref="C951" r:id="rId134"/>
-    <hyperlink ref="D948" r:id="rId135"/>
-    <hyperlink ref="C948" r:id="rId136"/>
-    <hyperlink ref="C947" r:id="rId137"/>
-    <hyperlink ref="D947" r:id="rId138"/>
-    <hyperlink ref="C946" r:id="rId139"/>
-    <hyperlink ref="D946" r:id="rId140"/>
-    <hyperlink ref="C943" r:id="rId141"/>
-    <hyperlink ref="D943" r:id="rId142"/>
-    <hyperlink ref="C942" r:id="rId143"/>
-    <hyperlink ref="D942" r:id="rId144"/>
-    <hyperlink ref="C941" r:id="rId145"/>
-    <hyperlink ref="D941" r:id="rId146"/>
-    <hyperlink ref="D940" r:id="rId147"/>
-    <hyperlink ref="C938" r:id="rId148" location="open-positions"/>
-    <hyperlink ref="D938" r:id="rId149"/>
-    <hyperlink ref="D937" r:id="rId150"/>
-    <hyperlink ref="C936" r:id="rId151" location="openings"/>
-    <hyperlink ref="D936" r:id="rId152"/>
-    <hyperlink ref="C935" r:id="rId153"/>
-    <hyperlink ref="D935" r:id="rId154"/>
-    <hyperlink ref="D934" r:id="rId155"/>
-    <hyperlink ref="C933" r:id="rId156"/>
-    <hyperlink ref="D933" r:id="rId157"/>
+    <hyperlink ref="C1056" r:id="rId1"/>
+    <hyperlink ref="C1055" r:id="rId2" location="jobs"/>
+    <hyperlink ref="D1055" r:id="rId3"/>
+    <hyperlink ref="D1054" r:id="rId4"/>
+    <hyperlink ref="C1053" r:id="rId5"/>
+    <hyperlink ref="C1051" r:id="rId6"/>
+    <hyperlink ref="C1050" r:id="rId7"/>
+    <hyperlink ref="D1050" r:id="rId8"/>
+    <hyperlink ref="C1048" r:id="rId9"/>
+    <hyperlink ref="D1048" r:id="rId10"/>
+    <hyperlink ref="C1045" r:id="rId11"/>
+    <hyperlink ref="D1045" r:id="rId12"/>
+    <hyperlink ref="C1044" r:id="rId13"/>
+    <hyperlink ref="D1044" r:id="rId14"/>
+    <hyperlink ref="D1043" r:id="rId15"/>
+    <hyperlink ref="C1043" r:id="rId16"/>
+    <hyperlink ref="C1042" r:id="rId17"/>
+    <hyperlink ref="C1041" r:id="rId18"/>
+    <hyperlink ref="D1041" r:id="rId19"/>
+    <hyperlink ref="C1040" r:id="rId20"/>
+    <hyperlink ref="D1040" r:id="rId21"/>
+    <hyperlink ref="C1039" r:id="rId22"/>
+    <hyperlink ref="C1038" r:id="rId23" location="careers_about"/>
+    <hyperlink ref="C1037" r:id="rId24"/>
+    <hyperlink ref="C1036" r:id="rId25"/>
+    <hyperlink ref="D1036" r:id="rId26"/>
+    <hyperlink ref="C1035" r:id="rId27"/>
+    <hyperlink ref="D1035" r:id="rId28"/>
+    <hyperlink ref="C1034" r:id="rId29"/>
+    <hyperlink ref="C1033" r:id="rId30"/>
+    <hyperlink ref="D1033" r:id="rId31"/>
+    <hyperlink ref="C1032" r:id="rId32"/>
+    <hyperlink ref="C1031" r:id="rId33"/>
+    <hyperlink ref="D1031" r:id="rId34"/>
+    <hyperlink ref="C1030" r:id="rId35"/>
+    <hyperlink ref="D1030" r:id="rId36"/>
+    <hyperlink ref="C1029" r:id="rId37"/>
+    <hyperlink ref="D1029" r:id="rId38"/>
+    <hyperlink ref="C1027" r:id="rId39"/>
+    <hyperlink ref="C1026" r:id="rId40"/>
+    <hyperlink ref="D1026" r:id="rId41"/>
+    <hyperlink ref="C1025" r:id="rId42"/>
+    <hyperlink ref="D1025" r:id="rId43"/>
+    <hyperlink ref="D1024" r:id="rId44"/>
+    <hyperlink ref="C1022" r:id="rId45"/>
+    <hyperlink ref="D1022" r:id="rId46"/>
+    <hyperlink ref="C1020" r:id="rId47"/>
+    <hyperlink ref="D1020" r:id="rId48"/>
+    <hyperlink ref="C1019" r:id="rId49" location="career-position"/>
+    <hyperlink ref="D1019" r:id="rId50"/>
+    <hyperlink ref="C1018" r:id="rId51"/>
+    <hyperlink ref="D1018" r:id="rId52"/>
+    <hyperlink ref="D1023" r:id="rId53"/>
+    <hyperlink ref="C1016" r:id="rId54"/>
+    <hyperlink ref="C1015" r:id="rId55"/>
+    <hyperlink ref="D1015" r:id="rId56"/>
+    <hyperlink ref="C1013" r:id="rId57"/>
+    <hyperlink ref="D1013" r:id="rId58"/>
+    <hyperlink ref="C1011" r:id="rId59"/>
+    <hyperlink ref="D1011" r:id="rId60"/>
+    <hyperlink ref="C1010" r:id="rId61"/>
+    <hyperlink ref="D1010" r:id="rId62"/>
+    <hyperlink ref="C1009" r:id="rId63"/>
+    <hyperlink ref="C1006" r:id="rId64"/>
+    <hyperlink ref="D1006" r:id="rId65"/>
+    <hyperlink ref="C1005" r:id="rId66"/>
+    <hyperlink ref="D1005" r:id="rId67"/>
+    <hyperlink ref="C1004" r:id="rId68" location="positions"/>
+    <hyperlink ref="D1004" r:id="rId69"/>
+    <hyperlink ref="C1003" r:id="rId70"/>
+    <hyperlink ref="D1003" r:id="rId71"/>
+    <hyperlink ref="D1001" r:id="rId72"/>
+    <hyperlink ref="C1001" r:id="rId73"/>
+    <hyperlink ref="C1000" r:id="rId74"/>
+    <hyperlink ref="D1000" r:id="rId75"/>
+    <hyperlink ref="D999" r:id="rId76"/>
+    <hyperlink ref="C997" r:id="rId77"/>
+    <hyperlink ref="D997" r:id="rId78"/>
+    <hyperlink ref="D996" r:id="rId79"/>
+    <hyperlink ref="D995" r:id="rId80"/>
+    <hyperlink ref="C995" r:id="rId81"/>
+    <hyperlink ref="D994" r:id="rId82"/>
+    <hyperlink ref="C994" r:id="rId83" location="open-positions"/>
+    <hyperlink ref="D992" r:id="rId84"/>
+    <hyperlink ref="C991" r:id="rId85"/>
+    <hyperlink ref="D991" r:id="rId86"/>
+    <hyperlink ref="C990" r:id="rId87"/>
+    <hyperlink ref="D990" r:id="rId88"/>
+    <hyperlink ref="C988" r:id="rId89"/>
+    <hyperlink ref="D988" r:id="rId90"/>
+    <hyperlink ref="D987" r:id="rId91"/>
+    <hyperlink ref="C987" r:id="rId92"/>
+    <hyperlink ref="C986" r:id="rId93" location="careers-list"/>
+    <hyperlink ref="D986" r:id="rId94"/>
+    <hyperlink ref="C985" r:id="rId95"/>
+    <hyperlink ref="C983" r:id="rId96"/>
+    <hyperlink ref="D983" r:id="rId97"/>
+    <hyperlink ref="D982" r:id="rId98"/>
+    <hyperlink ref="C982" r:id="rId99"/>
+    <hyperlink ref="D980" r:id="rId100"/>
+    <hyperlink ref="C979" r:id="rId101"/>
+    <hyperlink ref="C978" r:id="rId102"/>
+    <hyperlink ref="D978" r:id="rId103"/>
+    <hyperlink ref="C977" r:id="rId104"/>
+    <hyperlink ref="D977" r:id="rId105"/>
+    <hyperlink ref="C976" r:id="rId106"/>
+    <hyperlink ref="D976" r:id="rId107"/>
+    <hyperlink ref="C975" r:id="rId108"/>
+    <hyperlink ref="D975" r:id="rId109"/>
+    <hyperlink ref="C974" r:id="rId110" location="open-positions"/>
+    <hyperlink ref="D974" r:id="rId111"/>
+    <hyperlink ref="C973" r:id="rId112"/>
+    <hyperlink ref="D973" r:id="rId113"/>
+    <hyperlink ref="C972" r:id="rId114"/>
+    <hyperlink ref="D972" r:id="rId115"/>
+    <hyperlink ref="C970" r:id="rId116"/>
+    <hyperlink ref="C968" r:id="rId117"/>
+    <hyperlink ref="D968" r:id="rId118"/>
+    <hyperlink ref="C967" r:id="rId119"/>
+    <hyperlink ref="D967" r:id="rId120"/>
+    <hyperlink ref="C966" r:id="rId121"/>
+    <hyperlink ref="D964" r:id="rId122"/>
+    <hyperlink ref="C962" r:id="rId123"/>
+    <hyperlink ref="D962" r:id="rId124"/>
+    <hyperlink ref="C960" r:id="rId125"/>
+    <hyperlink ref="D959" r:id="rId126"/>
+    <hyperlink ref="D956" r:id="rId127"/>
+    <hyperlink ref="D955" r:id="rId128"/>
+    <hyperlink ref="D953" r:id="rId129"/>
+    <hyperlink ref="C958" r:id="rId130"/>
+    <hyperlink ref="C956" r:id="rId131"/>
+    <hyperlink ref="C955" r:id="rId132"/>
+    <hyperlink ref="C953" r:id="rId133"/>
+    <hyperlink ref="C952" r:id="rId134"/>
+    <hyperlink ref="D949" r:id="rId135"/>
+    <hyperlink ref="C949" r:id="rId136"/>
+    <hyperlink ref="C948" r:id="rId137"/>
+    <hyperlink ref="D948" r:id="rId138"/>
+    <hyperlink ref="C947" r:id="rId139"/>
+    <hyperlink ref="D947" r:id="rId140"/>
+    <hyperlink ref="C944" r:id="rId141"/>
+    <hyperlink ref="D944" r:id="rId142"/>
+    <hyperlink ref="C943" r:id="rId143"/>
+    <hyperlink ref="D943" r:id="rId144"/>
+    <hyperlink ref="C942" r:id="rId145"/>
+    <hyperlink ref="D942" r:id="rId146"/>
+    <hyperlink ref="D941" r:id="rId147"/>
+    <hyperlink ref="C939" r:id="rId148" location="open-positions"/>
+    <hyperlink ref="D939" r:id="rId149"/>
+    <hyperlink ref="D938" r:id="rId150"/>
+    <hyperlink ref="C937" r:id="rId151" location="openings"/>
+    <hyperlink ref="D937" r:id="rId152"/>
+    <hyperlink ref="C936" r:id="rId153"/>
+    <hyperlink ref="D936" r:id="rId154"/>
+    <hyperlink ref="D935" r:id="rId155"/>
+    <hyperlink ref="C934" r:id="rId156"/>
+    <hyperlink ref="D934" r:id="rId157"/>
     <hyperlink ref="C156" r:id="rId158"/>
     <hyperlink ref="D156" r:id="rId159"/>
-    <hyperlink ref="C931" r:id="rId160"/>
-    <hyperlink ref="C930" r:id="rId161"/>
-    <hyperlink ref="D930" r:id="rId162"/>
-    <hyperlink ref="C929" r:id="rId163"/>
-    <hyperlink ref="D929" r:id="rId164"/>
-    <hyperlink ref="C928" r:id="rId165"/>
-    <hyperlink ref="D928" r:id="rId166"/>
-    <hyperlink ref="C926" r:id="rId167"/>
-    <hyperlink ref="D926" r:id="rId168"/>
-    <hyperlink ref="C925" r:id="rId169"/>
-    <hyperlink ref="D925" r:id="rId170"/>
-    <hyperlink ref="C923" r:id="rId171" location="join"/>
-    <hyperlink ref="D923" r:id="rId172"/>
-    <hyperlink ref="C922" r:id="rId173"/>
-    <hyperlink ref="C920" r:id="rId174"/>
-    <hyperlink ref="D920" r:id="rId175"/>
-    <hyperlink ref="C919" r:id="rId176"/>
-    <hyperlink ref="C918" r:id="rId177"/>
-    <hyperlink ref="D918" r:id="rId178"/>
-    <hyperlink ref="C916" r:id="rId179"/>
-    <hyperlink ref="D916" r:id="rId180"/>
-    <hyperlink ref="C914" r:id="rId181"/>
-    <hyperlink ref="D914" r:id="rId182"/>
-    <hyperlink ref="C912" r:id="rId183"/>
-    <hyperlink ref="D912" r:id="rId184"/>
-    <hyperlink ref="C911" r:id="rId185"/>
-    <hyperlink ref="C909" r:id="rId186"/>
-    <hyperlink ref="D909" r:id="rId187"/>
-    <hyperlink ref="D908" r:id="rId188"/>
-    <hyperlink ref="C908" r:id="rId189"/>
-    <hyperlink ref="C907" r:id="rId190"/>
-    <hyperlink ref="D907" r:id="rId191"/>
-    <hyperlink ref="C906" r:id="rId192"/>
-    <hyperlink ref="C903" r:id="rId193" location="careers"/>
-    <hyperlink ref="D902" r:id="rId194"/>
-    <hyperlink ref="C902" r:id="rId195"/>
+    <hyperlink ref="C932" r:id="rId160"/>
+    <hyperlink ref="C931" r:id="rId161"/>
+    <hyperlink ref="D931" r:id="rId162"/>
+    <hyperlink ref="C930" r:id="rId163"/>
+    <hyperlink ref="D930" r:id="rId164"/>
+    <hyperlink ref="C929" r:id="rId165"/>
+    <hyperlink ref="D929" r:id="rId166"/>
+    <hyperlink ref="C927" r:id="rId167"/>
+    <hyperlink ref="D927" r:id="rId168"/>
+    <hyperlink ref="C926" r:id="rId169"/>
+    <hyperlink ref="D926" r:id="rId170"/>
+    <hyperlink ref="C924" r:id="rId171" location="join"/>
+    <hyperlink ref="D924" r:id="rId172"/>
+    <hyperlink ref="C923" r:id="rId173"/>
+    <hyperlink ref="C921" r:id="rId174"/>
+    <hyperlink ref="D921" r:id="rId175"/>
+    <hyperlink ref="C920" r:id="rId176"/>
+    <hyperlink ref="C919" r:id="rId177"/>
+    <hyperlink ref="D919" r:id="rId178"/>
+    <hyperlink ref="C917" r:id="rId179"/>
+    <hyperlink ref="D917" r:id="rId180"/>
+    <hyperlink ref="C915" r:id="rId181"/>
+    <hyperlink ref="D915" r:id="rId182"/>
+    <hyperlink ref="C913" r:id="rId183"/>
+    <hyperlink ref="D913" r:id="rId184"/>
+    <hyperlink ref="C912" r:id="rId185"/>
+    <hyperlink ref="C910" r:id="rId186"/>
+    <hyperlink ref="D910" r:id="rId187"/>
+    <hyperlink ref="D909" r:id="rId188"/>
+    <hyperlink ref="C909" r:id="rId189"/>
+    <hyperlink ref="C908" r:id="rId190"/>
+    <hyperlink ref="D908" r:id="rId191"/>
+    <hyperlink ref="C907" r:id="rId192"/>
+    <hyperlink ref="C904" r:id="rId193" location="careers"/>
+    <hyperlink ref="D903" r:id="rId194"/>
+    <hyperlink ref="C903" r:id="rId195"/>
     <hyperlink ref="C640" r:id="rId196"/>
-    <hyperlink ref="C898" r:id="rId197"/>
-    <hyperlink ref="D898" r:id="rId198"/>
-    <hyperlink ref="C897" r:id="rId199"/>
-    <hyperlink ref="D897" r:id="rId200"/>
-    <hyperlink ref="C895" r:id="rId201"/>
-    <hyperlink ref="C894" r:id="rId202"/>
-    <hyperlink ref="D894" r:id="rId203"/>
-    <hyperlink ref="C893" r:id="rId204"/>
-    <hyperlink ref="D893" r:id="rId205"/>
-    <hyperlink ref="C892" r:id="rId206"/>
-    <hyperlink ref="D892" r:id="rId207"/>
-    <hyperlink ref="C891" r:id="rId208"/>
-    <hyperlink ref="C890" r:id="rId209" location="career_opp_section"/>
-    <hyperlink ref="C888" r:id="rId210"/>
-    <hyperlink ref="D888" r:id="rId211"/>
-    <hyperlink ref="C886" r:id="rId212"/>
-    <hyperlink ref="D886" r:id="rId213"/>
-    <hyperlink ref="C885" r:id="rId214"/>
-    <hyperlink ref="C884" r:id="rId215"/>
-    <hyperlink ref="C883" r:id="rId216"/>
-    <hyperlink ref="D883" r:id="rId217"/>
-    <hyperlink ref="C881" r:id="rId218"/>
-    <hyperlink ref="D881" r:id="rId219"/>
-    <hyperlink ref="C878" r:id="rId220"/>
-    <hyperlink ref="C877" r:id="rId221"/>
-    <hyperlink ref="D877" r:id="rId222"/>
-    <hyperlink ref="C875" r:id="rId223"/>
-    <hyperlink ref="D875" r:id="rId224"/>
-    <hyperlink ref="C874" r:id="rId225"/>
-    <hyperlink ref="C873" r:id="rId226"/>
-    <hyperlink ref="C872" r:id="rId227"/>
-    <hyperlink ref="C871" r:id="rId228"/>
-    <hyperlink ref="D870" r:id="rId229"/>
-    <hyperlink ref="C869" r:id="rId230"/>
-    <hyperlink ref="D869" r:id="rId231"/>
-    <hyperlink ref="C866" r:id="rId232"/>
-    <hyperlink ref="D866" r:id="rId233"/>
-    <hyperlink ref="C864" r:id="rId234"/>
-    <hyperlink ref="D864" r:id="rId235"/>
-    <hyperlink ref="C863" r:id="rId236" location="job-positions-table"/>
-    <hyperlink ref="D863" r:id="rId237"/>
-    <hyperlink ref="D862" r:id="rId238"/>
-    <hyperlink ref="C861" r:id="rId239"/>
-    <hyperlink ref="D861" r:id="rId240"/>
-    <hyperlink ref="C860" r:id="rId241"/>
-    <hyperlink ref="D860" r:id="rId242"/>
-    <hyperlink ref="C856" r:id="rId243"/>
-    <hyperlink ref="D855" r:id="rId244"/>
-    <hyperlink ref="D854" r:id="rId245"/>
-    <hyperlink ref="C853" r:id="rId246"/>
-    <hyperlink ref="C852" r:id="rId247"/>
-    <hyperlink ref="D852" r:id="rId248"/>
-    <hyperlink ref="C851" r:id="rId249"/>
-    <hyperlink ref="D851" r:id="rId250"/>
-    <hyperlink ref="C850" r:id="rId251"/>
-    <hyperlink ref="D850" r:id="rId252"/>
-    <hyperlink ref="D848" r:id="rId253"/>
-    <hyperlink ref="C845" r:id="rId254"/>
-    <hyperlink ref="D844" r:id="rId255"/>
-    <hyperlink ref="C843" r:id="rId256"/>
-    <hyperlink ref="D843" r:id="rId257"/>
-    <hyperlink ref="C841" r:id="rId258" location="open_positions"/>
-    <hyperlink ref="C838" r:id="rId259" location="opening-title"/>
-    <hyperlink ref="D838" r:id="rId260"/>
-    <hyperlink ref="C837" r:id="rId261"/>
-    <hyperlink ref="D837" r:id="rId262"/>
+    <hyperlink ref="C899" r:id="rId197"/>
+    <hyperlink ref="D899" r:id="rId198"/>
+    <hyperlink ref="C898" r:id="rId199"/>
+    <hyperlink ref="D898" r:id="rId200"/>
+    <hyperlink ref="C896" r:id="rId201"/>
+    <hyperlink ref="C895" r:id="rId202"/>
+    <hyperlink ref="D895" r:id="rId203"/>
+    <hyperlink ref="C894" r:id="rId204"/>
+    <hyperlink ref="D894" r:id="rId205"/>
+    <hyperlink ref="C893" r:id="rId206"/>
+    <hyperlink ref="D893" r:id="rId207"/>
+    <hyperlink ref="C892" r:id="rId208"/>
+    <hyperlink ref="C891" r:id="rId209" location="career_opp_section"/>
+    <hyperlink ref="C889" r:id="rId210"/>
+    <hyperlink ref="D889" r:id="rId211"/>
+    <hyperlink ref="C887" r:id="rId212"/>
+    <hyperlink ref="D887" r:id="rId213"/>
+    <hyperlink ref="C886" r:id="rId214"/>
+    <hyperlink ref="C885" r:id="rId215"/>
+    <hyperlink ref="C884" r:id="rId216"/>
+    <hyperlink ref="D884" r:id="rId217"/>
+    <hyperlink ref="C882" r:id="rId218"/>
+    <hyperlink ref="D882" r:id="rId219"/>
+    <hyperlink ref="C879" r:id="rId220"/>
+    <hyperlink ref="C878" r:id="rId221"/>
+    <hyperlink ref="D878" r:id="rId222"/>
+    <hyperlink ref="C876" r:id="rId223"/>
+    <hyperlink ref="D876" r:id="rId224"/>
+    <hyperlink ref="C875" r:id="rId225"/>
+    <hyperlink ref="C874" r:id="rId226"/>
+    <hyperlink ref="C873" r:id="rId227"/>
+    <hyperlink ref="C872" r:id="rId228"/>
+    <hyperlink ref="D871" r:id="rId229"/>
+    <hyperlink ref="C870" r:id="rId230"/>
+    <hyperlink ref="D870" r:id="rId231"/>
+    <hyperlink ref="C867" r:id="rId232"/>
+    <hyperlink ref="D867" r:id="rId233"/>
+    <hyperlink ref="C865" r:id="rId234"/>
+    <hyperlink ref="D865" r:id="rId235"/>
+    <hyperlink ref="C864" r:id="rId236" location="job-positions-table"/>
+    <hyperlink ref="D864" r:id="rId237"/>
+    <hyperlink ref="D863" r:id="rId238"/>
+    <hyperlink ref="C862" r:id="rId239"/>
+    <hyperlink ref="D862" r:id="rId240"/>
+    <hyperlink ref="C861" r:id="rId241"/>
+    <hyperlink ref="D861" r:id="rId242"/>
+    <hyperlink ref="C857" r:id="rId243"/>
+    <hyperlink ref="D856" r:id="rId244"/>
+    <hyperlink ref="D855" r:id="rId245"/>
+    <hyperlink ref="C854" r:id="rId246"/>
+    <hyperlink ref="C853" r:id="rId247"/>
+    <hyperlink ref="D853" r:id="rId248"/>
+    <hyperlink ref="C852" r:id="rId249"/>
+    <hyperlink ref="D852" r:id="rId250"/>
+    <hyperlink ref="C851" r:id="rId251"/>
+    <hyperlink ref="D851" r:id="rId252"/>
+    <hyperlink ref="D849" r:id="rId253"/>
+    <hyperlink ref="C846" r:id="rId254"/>
+    <hyperlink ref="D845" r:id="rId255"/>
+    <hyperlink ref="C844" r:id="rId256"/>
+    <hyperlink ref="D844" r:id="rId257"/>
+    <hyperlink ref="C842" r:id="rId258" location="open_positions"/>
+    <hyperlink ref="C839" r:id="rId259" location="opening-title"/>
+    <hyperlink ref="D839" r:id="rId260"/>
+    <hyperlink ref="C838" r:id="rId261"/>
+    <hyperlink ref="D838" r:id="rId262"/>
     <hyperlink ref="C836" r:id="rId263"/>
     <hyperlink ref="C835" r:id="rId264" location="job-list"/>
     <hyperlink ref="D835" r:id="rId265"/>
@@ -33017,8 +33049,8 @@
     <hyperlink ref="C736" r:id="rId383"/>
     <hyperlink ref="C733" r:id="rId384"/>
     <hyperlink ref="D733" r:id="rId385"/>
-    <hyperlink ref="C889" r:id="rId386"/>
-    <hyperlink ref="D889" r:id="rId387"/>
+    <hyperlink ref="C890" r:id="rId386"/>
+    <hyperlink ref="D890" r:id="rId387"/>
     <hyperlink ref="C732" r:id="rId388" location="section-open-positions"/>
     <hyperlink ref="D732" r:id="rId389"/>
     <hyperlink ref="C731" r:id="rId390"/>
@@ -33079,8 +33111,8 @@
     <hyperlink ref="D692" r:id="rId445"/>
     <hyperlink ref="C691" r:id="rId446" location="c-position"/>
     <hyperlink ref="D691" r:id="rId447"/>
-    <hyperlink ref="D988" r:id="rId448"/>
-    <hyperlink ref="C988" r:id="rId449"/>
+    <hyperlink ref="D989" r:id="rId448"/>
+    <hyperlink ref="C989" r:id="rId449"/>
     <hyperlink ref="C690" r:id="rId450"/>
     <hyperlink ref="D690" r:id="rId451"/>
     <hyperlink ref="D689" r:id="rId452"/>
@@ -33493,8 +33525,8 @@
     <hyperlink ref="D349" r:id="rId859"/>
     <hyperlink ref="C348" r:id="rId860"/>
     <hyperlink ref="D348" r:id="rId861"/>
-    <hyperlink ref="C849" r:id="rId862"/>
-    <hyperlink ref="D849" r:id="rId863"/>
+    <hyperlink ref="C850" r:id="rId862"/>
+    <hyperlink ref="D850" r:id="rId863"/>
     <hyperlink ref="C345" r:id="rId864"/>
     <hyperlink ref="D345" r:id="rId865"/>
     <hyperlink ref="C343" r:id="rId866"/>
@@ -33628,8 +33660,8 @@
     <hyperlink ref="D227" r:id="rId994"/>
     <hyperlink ref="C226" r:id="rId995"/>
     <hyperlink ref="C225" r:id="rId996"/>
-    <hyperlink ref="C839" r:id="rId997"/>
-    <hyperlink ref="D839" r:id="rId998"/>
+    <hyperlink ref="C840" r:id="rId997"/>
+    <hyperlink ref="D840" r:id="rId998"/>
     <hyperlink ref="C223" r:id="rId999"/>
     <hyperlink ref="D223" r:id="rId1000"/>
     <hyperlink ref="C222" r:id="rId1001"/>
@@ -33763,8 +33795,8 @@
     <hyperlink ref="D110" r:id="rId1127"/>
     <hyperlink ref="C109" r:id="rId1128"/>
     <hyperlink ref="D109" r:id="rId1129"/>
-    <hyperlink ref="C939" r:id="rId1130"/>
-    <hyperlink ref="D939" r:id="rId1131"/>
+    <hyperlink ref="C940" r:id="rId1130"/>
+    <hyperlink ref="D940" r:id="rId1131"/>
     <hyperlink ref="C362" display="https://www.comeet.com/jobs/autoleadstar/54.002/?token=452159A159A8A4CF61E3E229019EC26E21148&amp;company-uid=54.002&amp;company-name=AutoLeadStar&amp;color=177acd&amp;font-size=13px&amp;css-cache=false&amp;css-url=https%3A%2F%2Fwww.autoleadstar.com%2Fwp-content%2Fthemes%2Fautole"/>
     <hyperlink ref="D362" r:id="rId1132"/>
     <hyperlink ref="C105" r:id="rId1133"/>
@@ -33875,13 +33907,13 @@
     <hyperlink ref="D8" r:id="rId1238"/>
     <hyperlink ref="D7" r:id="rId1239"/>
     <hyperlink ref="D6" r:id="rId1240"/>
-    <hyperlink ref="C1048" r:id="rId1241"/>
-    <hyperlink ref="D1048" r:id="rId1242"/>
-    <hyperlink ref="C1045" r:id="rId1243"/>
-    <hyperlink ref="D1045" r:id="rId1244"/>
-    <hyperlink ref="C1011" r:id="rId1245" location="new_job_s5"/>
-    <hyperlink ref="D932" r:id="rId1246"/>
-    <hyperlink ref="C932" r:id="rId1247"/>
+    <hyperlink ref="C1049" r:id="rId1241"/>
+    <hyperlink ref="D1049" r:id="rId1242"/>
+    <hyperlink ref="C1046" r:id="rId1243"/>
+    <hyperlink ref="D1046" r:id="rId1244"/>
+    <hyperlink ref="C1012" r:id="rId1245" location="new_job_s5"/>
+    <hyperlink ref="D933" r:id="rId1246"/>
+    <hyperlink ref="C933" r:id="rId1247"/>
     <hyperlink ref="C25" r:id="rId1248"/>
     <hyperlink ref="D25" r:id="rId1249"/>
     <hyperlink ref="C90" r:id="rId1250"/>
@@ -33937,38 +33969,38 @@
     <hyperlink ref="D704" r:id="rId1300"/>
     <hyperlink ref="C822" r:id="rId1301"/>
     <hyperlink ref="D822" r:id="rId1302"/>
-    <hyperlink ref="D865" r:id="rId1303"/>
-    <hyperlink ref="C882" r:id="rId1304"/>
-    <hyperlink ref="C900" r:id="rId1305"/>
-    <hyperlink ref="C901" r:id="rId1306"/>
-    <hyperlink ref="D901" r:id="rId1307"/>
-    <hyperlink ref="C904" r:id="rId1308"/>
-    <hyperlink ref="D904" r:id="rId1309"/>
-    <hyperlink ref="C950" r:id="rId1310"/>
+    <hyperlink ref="D866" r:id="rId1303"/>
+    <hyperlink ref="C883" r:id="rId1304"/>
+    <hyperlink ref="C901" r:id="rId1305"/>
+    <hyperlink ref="C902" r:id="rId1306"/>
+    <hyperlink ref="D902" r:id="rId1307"/>
+    <hyperlink ref="C905" r:id="rId1308"/>
+    <hyperlink ref="D905" r:id="rId1309"/>
+    <hyperlink ref="C951" r:id="rId1310"/>
     <hyperlink ref="C304" r:id="rId1311"/>
     <hyperlink ref="D190" r:id="rId1312"/>
     <hyperlink ref="C786" r:id="rId1313"/>
     <hyperlink ref="D786" r:id="rId1314"/>
-    <hyperlink ref="C927" r:id="rId1315"/>
-    <hyperlink ref="D927" r:id="rId1316"/>
+    <hyperlink ref="C928" r:id="rId1315"/>
+    <hyperlink ref="D928" r:id="rId1316"/>
     <hyperlink ref="C648" r:id="rId1317"/>
     <hyperlink ref="D648" r:id="rId1318"/>
     <hyperlink ref="C190" r:id="rId1319"/>
-    <hyperlink ref="C915" r:id="rId1320"/>
-    <hyperlink ref="D915" r:id="rId1321"/>
+    <hyperlink ref="C916" r:id="rId1320"/>
+    <hyperlink ref="D916" r:id="rId1321"/>
     <hyperlink ref="C600" r:id="rId1322"/>
     <hyperlink ref="D600" r:id="rId1323"/>
-    <hyperlink ref="D1008" r:id="rId1324"/>
+    <hyperlink ref="D1009" r:id="rId1324"/>
     <hyperlink ref="D593" r:id="rId1325"/>
     <hyperlink ref="D422" r:id="rId1326"/>
     <hyperlink ref="D139" r:id="rId1327"/>
     <hyperlink ref="D116" r:id="rId1328"/>
     <hyperlink ref="C495" r:id="rId1329"/>
     <hyperlink ref="D495" r:id="rId1330"/>
-    <hyperlink ref="C949" r:id="rId1331"/>
-    <hyperlink ref="D949" r:id="rId1332"/>
-    <hyperlink ref="C913" r:id="rId1333"/>
-    <hyperlink ref="D913" r:id="rId1334"/>
+    <hyperlink ref="C950" r:id="rId1331"/>
+    <hyperlink ref="D950" r:id="rId1332"/>
+    <hyperlink ref="C914" r:id="rId1333"/>
+    <hyperlink ref="D914" r:id="rId1334"/>
     <hyperlink ref="C524" r:id="rId1335"/>
     <hyperlink ref="D524" r:id="rId1336"/>
     <hyperlink ref="D67" r:id="rId1337"/>
@@ -33988,8 +34020,8 @@
     <hyperlink ref="D411" r:id="rId1351"/>
     <hyperlink ref="C612" r:id="rId1352" location="collapse11_collapse"/>
     <hyperlink ref="D612" r:id="rId1353"/>
-    <hyperlink ref="C953" r:id="rId1354"/>
-    <hyperlink ref="D953" r:id="rId1355"/>
+    <hyperlink ref="C954" r:id="rId1354"/>
+    <hyperlink ref="D954" r:id="rId1355"/>
     <hyperlink ref="C172" r:id="rId1356"/>
     <hyperlink ref="D172" r:id="rId1357"/>
     <hyperlink ref="C213" r:id="rId1358"/>
@@ -33997,31 +34029,31 @@
     <hyperlink ref="C734" r:id="rId1360"/>
     <hyperlink ref="D734" r:id="rId1361"/>
     <hyperlink ref="D189" r:id="rId1362"/>
-    <hyperlink ref="C846" r:id="rId1363"/>
-    <hyperlink ref="D846" r:id="rId1364"/>
-    <hyperlink ref="C963" r:id="rId1365"/>
+    <hyperlink ref="C847" r:id="rId1363"/>
+    <hyperlink ref="D847" r:id="rId1364"/>
+    <hyperlink ref="C964" r:id="rId1365"/>
     <hyperlink ref="C630" r:id="rId1366"/>
     <hyperlink ref="D630" r:id="rId1367"/>
-    <hyperlink ref="C964" r:id="rId1368"/>
-    <hyperlink ref="D964" r:id="rId1369"/>
+    <hyperlink ref="C965" r:id="rId1368"/>
+    <hyperlink ref="D965" r:id="rId1369"/>
     <hyperlink ref="D681" r:id="rId1370"/>
     <hyperlink ref="D700" r:id="rId1371"/>
-    <hyperlink ref="C905" r:id="rId1372"/>
-    <hyperlink ref="D905" r:id="rId1373"/>
-    <hyperlink ref="C868" r:id="rId1374"/>
-    <hyperlink ref="D868" r:id="rId1375"/>
+    <hyperlink ref="C906" r:id="rId1372"/>
+    <hyperlink ref="D906" r:id="rId1373"/>
+    <hyperlink ref="C869" r:id="rId1374"/>
+    <hyperlink ref="D869" r:id="rId1375"/>
     <hyperlink ref="C305" r:id="rId1376" location="open-positions"/>
     <hyperlink ref="C430" r:id="rId1377"/>
-    <hyperlink ref="B858" r:id="rId1378" display="https://www.linkedin.com/company/silverfort/life?lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3BjjZ4XIVfTD29DDJ9tZth9Q%3D%3D"/>
-    <hyperlink ref="C858" r:id="rId1379"/>
-    <hyperlink ref="D858" r:id="rId1380"/>
+    <hyperlink ref="B859" r:id="rId1378" display="https://www.linkedin.com/company/silverfort/life?lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3BjjZ4XIVfTD29DDJ9tZth9Q%3D%3D"/>
+    <hyperlink ref="C859" r:id="rId1379"/>
+    <hyperlink ref="D859" r:id="rId1380"/>
     <hyperlink ref="D515" r:id="rId1381"/>
     <hyperlink ref="D533" r:id="rId1382"/>
     <hyperlink ref="D556" r:id="rId1383"/>
     <hyperlink ref="C570" r:id="rId1384"/>
     <hyperlink ref="C585" r:id="rId1385"/>
     <hyperlink ref="C591" r:id="rId1386"/>
-    <hyperlink ref="D1015" r:id="rId1387"/>
+    <hyperlink ref="D1016" r:id="rId1387"/>
     <hyperlink ref="D661" r:id="rId1388"/>
     <hyperlink ref="C661" r:id="rId1389"/>
     <hyperlink ref="C66" r:id="rId1390"/>
@@ -34047,17 +34079,17 @@
     <hyperlink ref="C807" r:id="rId1410"/>
     <hyperlink ref="C808" r:id="rId1411"/>
     <hyperlink ref="D818" r:id="rId1412"/>
-    <hyperlink ref="D857" r:id="rId1413"/>
-    <hyperlink ref="C857" r:id="rId1414"/>
-    <hyperlink ref="D890" r:id="rId1415"/>
-    <hyperlink ref="D903" r:id="rId1416"/>
-    <hyperlink ref="D911" r:id="rId1417"/>
-    <hyperlink ref="D922" r:id="rId1418"/>
-    <hyperlink ref="D965" r:id="rId1419"/>
-    <hyperlink ref="D984" r:id="rId1420"/>
-    <hyperlink ref="C1022" r:id="rId1421"/>
-    <hyperlink ref="C1023" r:id="rId1422"/>
-    <hyperlink ref="D1031" r:id="rId1423"/>
+    <hyperlink ref="D858" r:id="rId1413"/>
+    <hyperlink ref="C858" r:id="rId1414"/>
+    <hyperlink ref="D891" r:id="rId1415"/>
+    <hyperlink ref="D904" r:id="rId1416"/>
+    <hyperlink ref="D912" r:id="rId1417"/>
+    <hyperlink ref="D923" r:id="rId1418"/>
+    <hyperlink ref="D966" r:id="rId1419"/>
+    <hyperlink ref="D985" r:id="rId1420"/>
+    <hyperlink ref="C1023" r:id="rId1421"/>
+    <hyperlink ref="C1024" r:id="rId1422"/>
+    <hyperlink ref="D1032" r:id="rId1423"/>
     <hyperlink ref="D235" r:id="rId1424"/>
     <hyperlink ref="C235" r:id="rId1425" location="results"/>
     <hyperlink ref="D450" r:id="rId1426"/>
@@ -34066,25 +34098,25 @@
     <hyperlink ref="D516" r:id="rId1429"/>
     <hyperlink ref="D428" r:id="rId1430"/>
     <hyperlink ref="D735" r:id="rId1431"/>
-    <hyperlink ref="C962" r:id="rId1432" location="open-positions"/>
-    <hyperlink ref="D962" r:id="rId1433"/>
+    <hyperlink ref="C963" r:id="rId1432" location="open-positions"/>
+    <hyperlink ref="D963" r:id="rId1433"/>
     <hyperlink ref="D354" r:id="rId1434"/>
     <hyperlink ref="C354" r:id="rId1435"/>
-    <hyperlink ref="D980" r:id="rId1436"/>
+    <hyperlink ref="D981" r:id="rId1436"/>
     <hyperlink ref="C287" r:id="rId1437"/>
     <hyperlink ref="D287" r:id="rId1438"/>
     <hyperlink ref="D324" r:id="rId1439"/>
-    <hyperlink ref="C880" r:id="rId1440"/>
-    <hyperlink ref="D880" r:id="rId1441"/>
+    <hyperlink ref="C881" r:id="rId1440"/>
+    <hyperlink ref="D881" r:id="rId1441"/>
     <hyperlink ref="C744" r:id="rId1442" location="career-buttons"/>
     <hyperlink ref="C668" r:id="rId1443"/>
     <hyperlink ref="D668" r:id="rId1444"/>
-    <hyperlink ref="D970" r:id="rId1445"/>
+    <hyperlink ref="D971" r:id="rId1445"/>
     <hyperlink ref="C823" r:id="rId1446"/>
     <hyperlink ref="D823" r:id="rId1447"/>
     <hyperlink ref="C144" r:id="rId1448"/>
     <hyperlink ref="D144" r:id="rId1449"/>
-    <hyperlink ref="D956" r:id="rId1450"/>
+    <hyperlink ref="D957" r:id="rId1450"/>
     <hyperlink ref="C107" r:id="rId1451"/>
     <hyperlink ref="D464" r:id="rId1452"/>
     <hyperlink ref="D136" r:id="rId1453"/>
@@ -34100,7 +34132,7 @@
     <hyperlink ref="D510" r:id="rId1463"/>
     <hyperlink ref="C145" r:id="rId1464"/>
     <hyperlink ref="D145" r:id="rId1465"/>
-    <hyperlink ref="C847" r:id="rId1466"/>
+    <hyperlink ref="C848" r:id="rId1466"/>
     <hyperlink ref="C522" r:id="rId1467" location="positions"/>
     <hyperlink ref="D522" r:id="rId1468"/>
     <hyperlink ref="C10" r:id="rId1469"/>
@@ -34110,8 +34142,8 @@
     <hyperlink ref="D485" r:id="rId1473"/>
     <hyperlink ref="D365" r:id="rId1474"/>
     <hyperlink ref="C651" r:id="rId1475"/>
-    <hyperlink ref="D924" r:id="rId1476"/>
-    <hyperlink ref="C960" r:id="rId1477" location="openPositionSection"/>
+    <hyperlink ref="D925" r:id="rId1476"/>
+    <hyperlink ref="C961" r:id="rId1477" location="openPositionSection"/>
     <hyperlink ref="C3" r:id="rId1478"/>
     <hyperlink ref="D3" r:id="rId1479"/>
     <hyperlink ref="C15" r:id="rId1480"/>
@@ -34152,8 +34184,8 @@
     <hyperlink ref="C453" r:id="rId1515"/>
     <hyperlink ref="C512" r:id="rId1516" location="careers"/>
     <hyperlink ref="C793" r:id="rId1517"/>
-    <hyperlink ref="C958" r:id="rId1518" location="jobs"/>
-    <hyperlink ref="C992" r:id="rId1519" location="career"/>
+    <hyperlink ref="C959" r:id="rId1518" location="jobs"/>
+    <hyperlink ref="C993" r:id="rId1519" location="career"/>
     <hyperlink ref="C61" r:id="rId1520"/>
     <hyperlink ref="C202" r:id="rId1521"/>
     <hyperlink ref="D506" r:id="rId1522"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5962" uniqueCount="2994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5990" uniqueCount="3006">
   <si>
     <t>200apps</t>
   </si>
@@ -8996,6 +8996,42 @@
   </si>
   <si>
     <t>https://www.linkedin.com/company/semperis/jobs/</t>
+  </si>
+  <si>
+    <t>Rubrik</t>
+  </si>
+  <si>
+    <t>https://www.rubrik.com/company/careers#positions</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/rubrik-inc/jobs/</t>
+  </si>
+  <si>
+    <t>Solitics</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/solitics/jobs/</t>
+  </si>
+  <si>
+    <t>https://treepodia.com/company/careers</t>
+  </si>
+  <si>
+    <t>Treepodia</t>
+  </si>
+  <si>
+    <t>Trendemon</t>
+  </si>
+  <si>
+    <t>https://trendemon.com/were-hiring/</t>
+  </si>
+  <si>
+    <t>https://youappi.com/careers/</t>
+  </si>
+  <si>
+    <t>YouAppi- Mobile App Retargeting</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/youappi/jobs/</t>
   </si>
 </sst>
 </file>
@@ -9454,9 +9490,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון1"/>
-  <dimension ref="A1:H1056"/>
+  <dimension ref="A1:H1061"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1019" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1029" workbookViewId="0">
       <selection activeCell="B1057" sqref="B1057"/>
     </sheetView>
   </sheetViews>
@@ -15805,22 +15841,22 @@
         <v>290</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>566</v>
+        <v>2955</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>567</v>
+        <v>2956</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>2586</v>
+        <v>2957</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="F290" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>2477</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15828,22 +15864,22 @@
         <v>291</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>2955</v>
+        <v>566</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>2956</v>
+        <v>567</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>2957</v>
+        <v>2586</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="F291" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>2455</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26627,7 +26663,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2">
         <v>785</v>
       </c>
@@ -26647,7 +26683,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2">
         <v>786</v>
       </c>
@@ -26670,7 +26706,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2">
         <v>787</v>
       </c>
@@ -26693,7 +26729,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="788" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2">
         <v>788</v>
       </c>
@@ -26713,7 +26749,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2">
         <v>789</v>
       </c>
@@ -26733,7 +26769,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2">
         <v>790</v>
       </c>
@@ -26756,7 +26792,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2">
         <v>791</v>
       </c>
@@ -26779,7 +26815,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="792" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2">
         <v>792</v>
       </c>
@@ -26802,7 +26838,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="793" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2">
         <v>793</v>
       </c>
@@ -26822,7 +26858,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2">
         <v>794</v>
       </c>
@@ -26842,7 +26878,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2">
         <v>795</v>
       </c>
@@ -26865,7 +26901,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2">
         <v>796</v>
       </c>
@@ -26888,7 +26924,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2">
         <v>797</v>
       </c>
@@ -26908,7 +26944,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2">
         <v>798</v>
       </c>
@@ -26930,8 +26966,9 @@
       <c r="G798" s="5" t="s">
         <v>2483</v>
       </c>
-    </row>
-    <row r="799" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H798" s="8"/>
+    </row>
+    <row r="799" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2">
         <v>799</v>
       </c>
@@ -26954,7 +26991,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2">
         <v>800</v>
       </c>
@@ -27151,16 +27188,16 @@
         <v>809</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>2983</v>
+        <v>2994</v>
       </c>
       <c r="C809" s="8" t="s">
-        <v>2984</v>
+        <v>2995</v>
       </c>
       <c r="D809" s="8" t="s">
-        <v>2985</v>
+        <v>2996</v>
       </c>
       <c r="E809" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F809" s="5" t="s">
         <v>2427</v>
@@ -27174,22 +27211,22 @@
         <v>810</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1632</v>
+        <v>2983</v>
       </c>
       <c r="C810" s="8" t="s">
-        <v>1633</v>
+        <v>2984</v>
       </c>
       <c r="D810" s="8" t="s">
-        <v>2499</v>
+        <v>2985</v>
       </c>
       <c r="E810" s="5" t="s">
-        <v>2267</v>
+        <v>2279</v>
       </c>
       <c r="F810" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G810" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="811" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27197,22 +27234,22 @@
         <v>811</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="C811" s="8" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D811" s="8" t="s">
-        <v>1636</v>
+        <v>2499</v>
       </c>
       <c r="E811" s="5" t="s">
-        <v>2274</v>
+        <v>2267</v>
       </c>
       <c r="F811" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G811" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="812" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27220,22 +27257,22 @@
         <v>812</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C812" s="4" t="s">
-        <v>2196</v>
+        <v>1634</v>
+      </c>
+      <c r="C812" s="8" t="s">
+        <v>1635</v>
       </c>
       <c r="D812" s="8" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="E812" s="5" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="F812" s="5" t="s">
-        <v>2441</v>
+        <v>2427</v>
       </c>
       <c r="G812" s="5" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="813" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27243,22 +27280,22 @@
         <v>813</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C813" s="8" t="s">
-        <v>1640</v>
+        <v>1637</v>
+      </c>
+      <c r="C813" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D813" s="8" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="E813" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F813" s="5" t="s">
-        <v>2427</v>
+        <v>2441</v>
       </c>
       <c r="G813" s="5" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="814" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27266,16 +27303,16 @@
         <v>814</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="C814" s="8" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="D814" s="8" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="E814" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F814" s="5" t="s">
         <v>2427</v>
@@ -27289,13 +27326,16 @@
         <v>815</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="C815" s="8" t="s">
-        <v>1646</v>
+        <v>1643</v>
+      </c>
+      <c r="D815" s="8" t="s">
+        <v>1644</v>
       </c>
       <c r="E815" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F815" s="5" t="s">
         <v>2427</v>
@@ -27309,19 +27349,19 @@
         <v>816</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="C816" s="8" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="E816" s="5" t="s">
-        <v>2282</v>
+        <v>2265</v>
       </c>
       <c r="F816" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G816" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="817" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27329,22 +27369,19 @@
         <v>817</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="C817" s="8" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D817" s="8" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="E817" s="5" t="s">
         <v>2282</v>
       </c>
       <c r="F817" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G817" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="818" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27352,22 +27389,22 @@
         <v>818</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="C818" s="8" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="D818" s="8" t="s">
-        <v>2406</v>
+        <v>1651</v>
       </c>
       <c r="E818" s="5" t="s">
-        <v>2265</v>
+        <v>2282</v>
       </c>
       <c r="F818" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G818" s="5" t="s">
-        <v>2481</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="819" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27375,22 +27412,22 @@
         <v>819</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="C819" s="8" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="D819" s="8" t="s">
-        <v>1656</v>
+        <v>2406</v>
       </c>
       <c r="E819" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F819" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G819" s="5" t="s">
-        <v>2464</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="820" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27398,19 +27435,22 @@
         <v>820</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="C820" s="8" t="s">
-        <v>1658</v>
+        <v>1655</v>
+      </c>
+      <c r="D820" s="8" t="s">
+        <v>1656</v>
       </c>
       <c r="E820" s="5" t="s">
-        <v>2407</v>
+        <v>2265</v>
       </c>
       <c r="F820" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G820" s="5" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="821" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27418,22 +27458,19 @@
         <v>821</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="C821" s="8" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D821" s="8" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="E821" s="5" t="s">
-        <v>2265</v>
+        <v>2407</v>
       </c>
       <c r="F821" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G821" s="5" t="s">
-        <v>2443</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="822" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27441,22 +27478,22 @@
         <v>822</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>2155</v>
+        <v>1659</v>
       </c>
       <c r="C822" s="8" t="s">
-        <v>2156</v>
+        <v>1660</v>
       </c>
       <c r="D822" s="8" t="s">
-        <v>2157</v>
+        <v>1661</v>
       </c>
       <c r="E822" s="5" t="s">
-        <v>2281</v>
+        <v>2265</v>
       </c>
       <c r="F822" s="5" t="s">
-        <v>2445</v>
+        <v>2427</v>
       </c>
       <c r="G822" s="5" t="s">
-        <v>2471</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="823" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27464,22 +27501,22 @@
         <v>823</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>2624</v>
+        <v>2155</v>
       </c>
       <c r="C823" s="8" t="s">
-        <v>2625</v>
+        <v>2156</v>
       </c>
       <c r="D823" s="8" t="s">
-        <v>2626</v>
+        <v>2157</v>
       </c>
       <c r="E823" s="5" t="s">
-        <v>2274</v>
+        <v>2281</v>
       </c>
       <c r="F823" s="5" t="s">
-        <v>2427</v>
+        <v>2445</v>
       </c>
       <c r="G823" s="5" t="s">
-        <v>2443</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="824" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27487,19 +27524,22 @@
         <v>824</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1662</v>
+        <v>2624</v>
       </c>
       <c r="C824" s="8" t="s">
-        <v>1663</v>
+        <v>2625</v>
+      </c>
+      <c r="D824" s="8" t="s">
+        <v>2626</v>
       </c>
       <c r="E824" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F824" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G824" s="5" t="s">
-        <v>2481</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="825" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27507,22 +27547,19 @@
         <v>825</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C825" s="8" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D825" s="8" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E825" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F825" s="5" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="G825" s="5" t="s">
-        <v>2446</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="826" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27530,19 +27567,22 @@
         <v>826</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>2884</v>
+        <v>1664</v>
       </c>
       <c r="C826" s="8" t="s">
-        <v>2885</v>
+        <v>1665</v>
+      </c>
+      <c r="D826" s="8" t="s">
+        <v>1666</v>
       </c>
       <c r="E826" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F826" s="5" t="s">
-        <v>2427</v>
+        <v>2445</v>
       </c>
       <c r="G826" s="5" t="s">
-        <v>2443</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="827" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27550,10 +27590,10 @@
         <v>827</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1667</v>
+        <v>2884</v>
       </c>
       <c r="C827" s="8" t="s">
-        <v>1668</v>
+        <v>2885</v>
       </c>
       <c r="E827" s="5" t="s">
         <v>2265</v>
@@ -27570,13 +27610,13 @@
         <v>828</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>2886</v>
+        <v>1667</v>
       </c>
       <c r="C828" s="8" t="s">
-        <v>2887</v>
+        <v>1668</v>
       </c>
       <c r="E828" s="5" t="s">
-        <v>2322</v>
+        <v>2265</v>
       </c>
       <c r="F828" s="5" t="s">
         <v>2427</v>
@@ -27590,22 +27630,19 @@
         <v>829</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1669</v>
+        <v>2886</v>
       </c>
       <c r="C829" s="8" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D829" s="8" t="s">
-        <v>1671</v>
+        <v>2887</v>
       </c>
       <c r="E829" s="5" t="s">
-        <v>2279</v>
+        <v>2322</v>
       </c>
       <c r="F829" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G829" s="5" t="s">
-        <v>2481</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="830" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27613,19 +27650,22 @@
         <v>830</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="C830" s="8" t="s">
-        <v>1673</v>
+        <v>1670</v>
+      </c>
+      <c r="D830" s="8" t="s">
+        <v>1671</v>
       </c>
       <c r="E830" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F830" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G830" s="5" t="s">
-        <v>2477</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="831" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27633,19 +27673,19 @@
         <v>831</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C831" s="8" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="E831" s="5" t="s">
-        <v>2292</v>
+        <v>2265</v>
       </c>
       <c r="F831" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G831" s="5" t="s">
-        <v>2443</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="832" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27653,16 +27693,13 @@
         <v>832</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C832" s="8" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D832" s="8" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="E832" s="5" t="s">
-        <v>2265</v>
+        <v>2292</v>
       </c>
       <c r="F832" s="5" t="s">
         <v>2427</v>
@@ -27676,13 +27713,16 @@
         <v>833</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>2986</v>
+        <v>1676</v>
       </c>
       <c r="C833" s="8" t="s">
-        <v>2987</v>
+        <v>1677</v>
+      </c>
+      <c r="D833" s="8" t="s">
+        <v>1678</v>
       </c>
       <c r="E833" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F833" s="5" t="s">
         <v>2427</v>
@@ -27696,13 +27736,13 @@
         <v>834</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>2888</v>
+        <v>2986</v>
       </c>
       <c r="C834" s="8" t="s">
-        <v>2889</v>
+        <v>2987</v>
       </c>
       <c r="E834" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F834" s="5" t="s">
         <v>2427</v>
@@ -27716,22 +27756,19 @@
         <v>835</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1679</v>
+        <v>2888</v>
       </c>
       <c r="C835" s="8" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D835" s="8" t="s">
-        <v>1681</v>
+        <v>2889</v>
       </c>
       <c r="E835" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F835" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G835" s="5" t="s">
-        <v>2453</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="836" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27739,19 +27776,22 @@
         <v>836</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="C836" s="8" t="s">
-        <v>1683</v>
+        <v>1680</v>
+      </c>
+      <c r="D836" s="8" t="s">
+        <v>1681</v>
       </c>
       <c r="E836" s="5" t="s">
-        <v>2279</v>
+        <v>2270</v>
       </c>
       <c r="F836" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G836" s="5" t="s">
-        <v>2443</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="837" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27759,16 +27799,13 @@
         <v>837</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>2991</v>
+        <v>1682</v>
       </c>
       <c r="C837" s="8" t="s">
-        <v>2992</v>
-      </c>
-      <c r="D837" s="8" t="s">
-        <v>2993</v>
+        <v>1683</v>
       </c>
       <c r="E837" s="5" t="s">
-        <v>2274</v>
+        <v>2279</v>
       </c>
       <c r="F837" s="5" t="s">
         <v>2427</v>
@@ -27782,13 +27819,13 @@
         <v>838</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1684</v>
+        <v>2991</v>
       </c>
       <c r="C838" s="8" t="s">
-        <v>1685</v>
+        <v>2992</v>
       </c>
       <c r="D838" s="8" t="s">
-        <v>1686</v>
+        <v>2993</v>
       </c>
       <c r="E838" s="5" t="s">
         <v>2274</v>
@@ -27805,13 +27842,13 @@
         <v>839</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="C839" s="8" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="D839" s="8" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="E839" s="5" t="s">
         <v>2274</v>
@@ -27828,16 +27865,16 @@
         <v>840</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="C840" s="8" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="D840" s="8" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="E840" s="5" t="s">
-        <v>2330</v>
+        <v>2274</v>
       </c>
       <c r="F840" s="5" t="s">
         <v>2427</v>
@@ -27851,22 +27888,22 @@
         <v>841</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>2988</v>
+        <v>1690</v>
       </c>
       <c r="C841" s="8" t="s">
-        <v>2989</v>
+        <v>1691</v>
       </c>
       <c r="D841" s="8" t="s">
-        <v>2990</v>
+        <v>1692</v>
       </c>
       <c r="E841" s="5" t="s">
-        <v>2279</v>
+        <v>2330</v>
       </c>
       <c r="F841" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G841" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="842" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27874,19 +27911,22 @@
         <v>842</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1693</v>
+        <v>2988</v>
       </c>
       <c r="C842" s="8" t="s">
-        <v>1694</v>
+        <v>2989</v>
+      </c>
+      <c r="D842" s="8" t="s">
+        <v>2990</v>
       </c>
       <c r="E842" s="5" t="s">
-        <v>2274</v>
+        <v>2279</v>
       </c>
       <c r="F842" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G842" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="843" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27894,13 +27934,13 @@
         <v>843</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>2890</v>
+        <v>1693</v>
       </c>
       <c r="C843" s="8" t="s">
-        <v>2891</v>
+        <v>1694</v>
       </c>
       <c r="E843" s="5" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="F843" s="5" t="s">
         <v>2427</v>
@@ -27914,22 +27954,19 @@
         <v>844</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1695</v>
+        <v>2890</v>
       </c>
       <c r="C844" s="8" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D844" s="8" t="s">
-        <v>1697</v>
+        <v>2891</v>
       </c>
       <c r="E844" s="5" t="s">
-        <v>2265</v>
+        <v>2272</v>
       </c>
       <c r="F844" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G844" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="845" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27937,16 +27974,16 @@
         <v>845</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C845" s="4" t="s">
-        <v>2196</v>
+        <v>1695</v>
+      </c>
+      <c r="C845" s="8" t="s">
+        <v>1696</v>
       </c>
       <c r="D845" s="8" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="E845" s="5" t="s">
-        <v>2379</v>
+        <v>2265</v>
       </c>
       <c r="F845" s="5" t="s">
         <v>2444</v>
@@ -27960,19 +27997,22 @@
         <v>846</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C846" s="8" t="s">
-        <v>1701</v>
+        <v>1698</v>
+      </c>
+      <c r="C846" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D846" s="8" t="s">
+        <v>1699</v>
       </c>
       <c r="E846" s="5" t="s">
-        <v>2265</v>
+        <v>2379</v>
       </c>
       <c r="F846" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G846" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="847" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27980,22 +28020,19 @@
         <v>847</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>2246</v>
+        <v>1700</v>
       </c>
       <c r="C847" s="8" t="s">
-        <v>2247</v>
-      </c>
-      <c r="D847" s="8" t="s">
-        <v>2248</v>
+        <v>1701</v>
       </c>
       <c r="E847" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="F847" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G847" s="5" t="s">
-        <v>2477</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="848" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28003,22 +28040,22 @@
         <v>848</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>2670</v>
-      </c>
-      <c r="C848" s="1" t="s">
-        <v>2669</v>
+        <v>2246</v>
+      </c>
+      <c r="C848" s="8" t="s">
+        <v>2247</v>
       </c>
       <c r="D848" s="8" t="s">
-        <v>2671</v>
+        <v>2248</v>
       </c>
       <c r="E848" s="5" t="s">
-        <v>2278</v>
+        <v>2267</v>
       </c>
       <c r="F848" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G848" s="5" t="s">
-        <v>2482</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="849" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28026,16 +28063,16 @@
         <v>849</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C849" s="4" t="s">
-        <v>2196</v>
+        <v>2670</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>2669</v>
       </c>
       <c r="D849" s="8" t="s">
-        <v>1703</v>
+        <v>2671</v>
       </c>
       <c r="E849" s="5" t="s">
-        <v>2267</v>
+        <v>2278</v>
       </c>
       <c r="F849" s="5" t="s">
         <v>2427</v>
@@ -28049,13 +28086,13 @@
         <v>850</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>2324</v>
-      </c>
-      <c r="C850" s="8" t="s">
-        <v>672</v>
+        <v>1702</v>
+      </c>
+      <c r="C850" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D850" s="8" t="s">
-        <v>673</v>
+        <v>1703</v>
       </c>
       <c r="E850" s="5" t="s">
         <v>2267</v>
@@ -28064,7 +28101,7 @@
         <v>2427</v>
       </c>
       <c r="G850" s="5" t="s">
-        <v>2461</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="851" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28072,22 +28109,22 @@
         <v>851</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1704</v>
+        <v>2324</v>
       </c>
       <c r="C851" s="8" t="s">
-        <v>1705</v>
+        <v>672</v>
       </c>
       <c r="D851" s="8" t="s">
-        <v>1706</v>
+        <v>673</v>
       </c>
       <c r="E851" s="5" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="F851" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G851" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="852" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28095,22 +28132,22 @@
         <v>852</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C852" s="8" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="D852" s="8" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="E852" s="5" t="s">
-        <v>2401</v>
+        <v>2265</v>
       </c>
       <c r="F852" s="5" t="s">
-        <v>2451</v>
+        <v>2427</v>
       </c>
       <c r="G852" s="5" t="s">
-        <v>2460</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="853" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28118,22 +28155,22 @@
         <v>853</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C853" s="8" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="D853" s="8" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="E853" s="5" t="s">
-        <v>2379</v>
+        <v>2401</v>
       </c>
       <c r="F853" s="5" t="s">
-        <v>2440</v>
+        <v>2451</v>
       </c>
       <c r="G853" s="5" t="s">
-        <v>2305</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="854" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28141,19 +28178,22 @@
         <v>854</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C854" s="8" t="s">
-        <v>1714</v>
+        <v>1711</v>
+      </c>
+      <c r="D854" s="8" t="s">
+        <v>1712</v>
       </c>
       <c r="E854" s="5" t="s">
-        <v>2265</v>
+        <v>2379</v>
       </c>
       <c r="F854" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G854" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="855" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28161,13 +28201,10 @@
         <v>855</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C855" s="4" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D855" s="8" t="s">
-        <v>1716</v>
+        <v>1713</v>
+      </c>
+      <c r="C855" s="8" t="s">
+        <v>1714</v>
       </c>
       <c r="E855" s="5" t="s">
         <v>2265</v>
@@ -28184,13 +28221,13 @@
         <v>856</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C856" s="4" t="s">
         <v>2196</v>
       </c>
       <c r="D856" s="8" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="E856" s="5" t="s">
         <v>2265</v>
@@ -28207,16 +28244,22 @@
         <v>857</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C857" s="8" t="s">
-        <v>1720</v>
+        <v>1717</v>
+      </c>
+      <c r="C857" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D857" s="8" t="s">
+        <v>1718</v>
       </c>
       <c r="E857" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F857" s="5" t="s">
-        <v>2305</v>
+        <v>2427</v>
+      </c>
+      <c r="G857" s="5" t="s">
+        <v>2443</v>
       </c>
     </row>
     <row r="858" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28224,22 +28267,16 @@
         <v>858</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>2213</v>
+        <v>1719</v>
       </c>
       <c r="C858" s="8" t="s">
-        <v>2214</v>
-      </c>
-      <c r="D858" s="8" t="s">
-        <v>2215</v>
+        <v>1720</v>
       </c>
       <c r="E858" s="5" t="s">
-        <v>2278</v>
+        <v>2270</v>
       </c>
       <c r="F858" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G858" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="859" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28247,16 +28284,16 @@
         <v>859</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>2341</v>
+        <v>2213</v>
       </c>
       <c r="C859" s="8" t="s">
-        <v>2342</v>
+        <v>2214</v>
       </c>
       <c r="D859" s="8" t="s">
-        <v>2343</v>
+        <v>2215</v>
       </c>
       <c r="E859" s="5" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
       <c r="F859" s="5" t="s">
         <v>2427</v>
@@ -28270,19 +28307,22 @@
         <v>860</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>2892</v>
+        <v>2341</v>
       </c>
       <c r="C860" s="8" t="s">
-        <v>2893</v>
+        <v>2342</v>
+      </c>
+      <c r="D860" s="8" t="s">
+        <v>2343</v>
       </c>
       <c r="E860" s="5" t="s">
-        <v>2303</v>
+        <v>2274</v>
       </c>
       <c r="F860" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G860" s="5" t="s">
-        <v>2466</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="861" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28290,22 +28330,19 @@
         <v>861</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>1721</v>
+        <v>2892</v>
       </c>
       <c r="C861" s="8" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D861" s="8" t="s">
-        <v>1723</v>
+        <v>2893</v>
       </c>
       <c r="E861" s="5" t="s">
-        <v>2408</v>
+        <v>2303</v>
       </c>
       <c r="F861" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G861" s="5" t="s">
-        <v>2443</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="862" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28313,22 +28350,22 @@
         <v>862</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="C862" s="8" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="D862" s="8" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="E862" s="5" t="s">
-        <v>2279</v>
+        <v>2408</v>
       </c>
       <c r="F862" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G862" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="863" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28336,22 +28373,22 @@
         <v>863</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="C863" s="8" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="D863" s="8" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="E863" s="5" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="F863" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G863" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="864" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28359,16 +28396,16 @@
         <v>864</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="C864" s="8" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D864" s="8" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="E864" s="5" t="s">
-        <v>2265</v>
+        <v>2283</v>
       </c>
       <c r="F864" s="5" t="s">
         <v>2427</v>
@@ -28382,22 +28419,22 @@
         <v>865</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C865" s="8" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="D865" s="8" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="E865" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F865" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G865" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="866" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28405,22 +28442,22 @@
         <v>866</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>2158</v>
-      </c>
-      <c r="C866" s="4" t="s">
-        <v>2196</v>
+        <v>1733</v>
+      </c>
+      <c r="C866" s="8" t="s">
+        <v>1734</v>
       </c>
       <c r="D866" s="8" t="s">
-        <v>2159</v>
+        <v>1735</v>
       </c>
       <c r="E866" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F866" s="5" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
       <c r="G866" s="5" t="s">
-        <v>2495</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="867" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28428,22 +28465,22 @@
         <v>867</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C867" s="8" t="s">
-        <v>1737</v>
+        <v>2158</v>
+      </c>
+      <c r="C867" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D867" s="8" t="s">
-        <v>1738</v>
+        <v>2159</v>
       </c>
       <c r="E867" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F867" s="5" t="s">
-        <v>2427</v>
+        <v>2445</v>
       </c>
       <c r="G867" s="5" t="s">
-        <v>2461</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="868" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28451,19 +28488,22 @@
         <v>868</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>2894</v>
+        <v>1736</v>
       </c>
       <c r="C868" s="8" t="s">
-        <v>2895</v>
+        <v>1737</v>
+      </c>
+      <c r="D868" s="8" t="s">
+        <v>1738</v>
       </c>
       <c r="E868" s="5" t="s">
-        <v>2410</v>
+        <v>2274</v>
       </c>
       <c r="F868" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G868" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="869" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28471,19 +28511,19 @@
         <v>869</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>2262</v>
+        <v>2894</v>
       </c>
       <c r="C869" s="8" t="s">
-        <v>2263</v>
-      </c>
-      <c r="D869" s="8" t="s">
-        <v>2264</v>
+        <v>2895</v>
       </c>
       <c r="E869" s="5" t="s">
-        <v>2265</v>
+        <v>2410</v>
       </c>
       <c r="F869" s="5" t="s">
-        <v>2305</v>
+        <v>2427</v>
+      </c>
+      <c r="G869" s="5" t="s">
+        <v>2443</v>
       </c>
     </row>
     <row r="870" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28491,22 +28531,19 @@
         <v>870</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1739</v>
+        <v>2262</v>
       </c>
       <c r="C870" s="8" t="s">
-        <v>1740</v>
+        <v>2263</v>
       </c>
       <c r="D870" s="8" t="s">
-        <v>1741</v>
+        <v>2264</v>
       </c>
       <c r="E870" s="5" t="s">
-        <v>2318</v>
+        <v>2265</v>
       </c>
       <c r="F870" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G870" s="5" t="s">
-        <v>2461</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="871" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28514,22 +28551,22 @@
         <v>871</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C871" s="4" t="s">
-        <v>2196</v>
+        <v>1739</v>
+      </c>
+      <c r="C871" s="8" t="s">
+        <v>1740</v>
       </c>
       <c r="D871" s="8" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="E871" s="5" t="s">
-        <v>2284</v>
+        <v>2318</v>
       </c>
       <c r="F871" s="5" t="s">
-        <v>2441</v>
+        <v>2427</v>
       </c>
       <c r="G871" s="5" t="s">
-        <v>2442</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="872" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28537,16 +28574,22 @@
         <v>872</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C872" s="8" t="s">
-        <v>1745</v>
+        <v>1742</v>
+      </c>
+      <c r="C872" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D872" s="8" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E872" s="5" t="s">
+        <v>2284</v>
       </c>
       <c r="F872" s="5" t="s">
-        <v>2427</v>
+        <v>2441</v>
       </c>
       <c r="G872" s="5" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="873" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28554,13 +28597,16 @@
         <v>873</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C873" s="8" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="F873" s="5" t="s">
-        <v>2409</v>
+        <v>2427</v>
+      </c>
+      <c r="G873" s="5" t="s">
+        <v>2443</v>
       </c>
     </row>
     <row r="874" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28568,19 +28614,13 @@
         <v>874</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C874" s="8" t="s">
-        <v>1749</v>
-      </c>
-      <c r="E874" s="5" t="s">
-        <v>2410</v>
+        <v>1747</v>
       </c>
       <c r="F874" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G874" s="5" t="s">
-        <v>2443</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="875" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28588,13 +28628,13 @@
         <v>875</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C875" s="8" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="E875" s="5" t="s">
-        <v>2274</v>
+        <v>2410</v>
       </c>
       <c r="F875" s="5" t="s">
         <v>2427</v>
@@ -28608,22 +28648,22 @@
         <v>876</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C876" s="8" t="s">
-        <v>1753</v>
+        <v>2997</v>
+      </c>
+      <c r="C876" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D876" s="8" t="s">
-        <v>1754</v>
+        <v>2998</v>
       </c>
       <c r="E876" s="5" t="s">
-        <v>2281</v>
+        <v>2265</v>
       </c>
       <c r="F876" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G876" s="5" t="s">
-        <v>2463</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="877" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28631,13 +28671,13 @@
         <v>877</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>2896</v>
+        <v>1750</v>
       </c>
       <c r="C877" s="8" t="s">
-        <v>2897</v>
+        <v>1751</v>
       </c>
       <c r="E877" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F877" s="5" t="s">
         <v>2427</v>
@@ -28651,22 +28691,22 @@
         <v>878</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C878" s="8" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="D878" s="8" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="E878" s="5" t="s">
-        <v>2265</v>
+        <v>2281</v>
       </c>
       <c r="F878" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G878" s="5" t="s">
-        <v>2477</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="879" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28674,10 +28714,10 @@
         <v>879</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>1758</v>
+        <v>2896</v>
       </c>
       <c r="C879" s="8" t="s">
-        <v>1759</v>
+        <v>2897</v>
       </c>
       <c r="E879" s="5" t="s">
         <v>2265</v>
@@ -28686,7 +28726,7 @@
         <v>2427</v>
       </c>
       <c r="G879" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="880" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28694,22 +28734,22 @@
         <v>880</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>2898</v>
+        <v>1755</v>
       </c>
       <c r="C880" s="8" t="s">
-        <v>2899</v>
+        <v>1756</v>
       </c>
       <c r="D880" s="8" t="s">
-        <v>2900</v>
+        <v>1757</v>
       </c>
       <c r="E880" s="5" t="s">
-        <v>2303</v>
+        <v>2265</v>
       </c>
       <c r="F880" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G880" s="5" t="s">
-        <v>2482</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="881" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28717,22 +28757,19 @@
         <v>881</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>2613</v>
+        <v>1758</v>
       </c>
       <c r="C881" s="8" t="s">
-        <v>2612</v>
-      </c>
-      <c r="D881" s="8" t="s">
-        <v>2614</v>
+        <v>1759</v>
       </c>
       <c r="E881" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F881" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G881" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="882" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28740,22 +28777,22 @@
         <v>882</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1760</v>
+        <v>2898</v>
       </c>
       <c r="C882" s="8" t="s">
-        <v>1761</v>
+        <v>2899</v>
       </c>
       <c r="D882" s="8" t="s">
-        <v>1762</v>
+        <v>2900</v>
       </c>
       <c r="E882" s="5" t="s">
-        <v>2265</v>
+        <v>2303</v>
       </c>
       <c r="F882" s="5" t="s">
-        <v>2305</v>
+        <v>2427</v>
       </c>
       <c r="G882" s="5" t="s">
-        <v>2305</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="883" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28763,19 +28800,22 @@
         <v>883</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>2160</v>
+        <v>2613</v>
       </c>
       <c r="C883" s="8" t="s">
-        <v>2161</v>
+        <v>2612</v>
+      </c>
+      <c r="D883" s="8" t="s">
+        <v>2614</v>
       </c>
       <c r="E883" s="5" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="F883" s="5" t="s">
-        <v>2445</v>
+        <v>2427</v>
       </c>
       <c r="G883" s="5" t="s">
-        <v>2471</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="884" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28783,22 +28823,22 @@
         <v>884</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="C884" s="8" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="D884" s="8" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="E884" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F884" s="5" t="s">
-        <v>2427</v>
+        <v>2305</v>
       </c>
       <c r="G884" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="885" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28806,22 +28846,19 @@
         <v>885</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1766</v>
+        <v>2160</v>
       </c>
       <c r="C885" s="8" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D885" s="8" t="s">
-        <v>2411</v>
+        <v>2161</v>
       </c>
       <c r="E885" s="5" t="s">
         <v>2279</v>
       </c>
       <c r="F885" s="5" t="s">
-        <v>2427</v>
+        <v>2445</v>
       </c>
       <c r="G885" s="5" t="s">
-        <v>2443</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="886" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28829,10 +28866,13 @@
         <v>886</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="C886" s="8" t="s">
-        <v>1769</v>
+        <v>1764</v>
+      </c>
+      <c r="D886" s="8" t="s">
+        <v>1765</v>
       </c>
       <c r="E886" s="5" t="s">
         <v>2265</v>
@@ -28849,22 +28889,22 @@
         <v>887</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="C887" s="8" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="D887" s="8" t="s">
-        <v>1772</v>
+        <v>2411</v>
       </c>
       <c r="E887" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F887" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G887" s="5" t="s">
-        <v>2482</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="888" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28872,10 +28912,10 @@
         <v>888</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>2901</v>
+        <v>1768</v>
       </c>
       <c r="C888" s="8" t="s">
-        <v>2902</v>
+        <v>1769</v>
       </c>
       <c r="E888" s="5" t="s">
         <v>2265</v>
@@ -28884,7 +28924,7 @@
         <v>2427</v>
       </c>
       <c r="G888" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="889" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28892,22 +28932,22 @@
         <v>889</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="C889" s="8" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="D889" s="8" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="E889" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F889" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G889" s="5" t="s">
-        <v>2477</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="890" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28915,22 +28955,19 @@
         <v>890</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1776</v>
+        <v>2901</v>
       </c>
       <c r="C890" s="8" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D890" s="8" t="s">
-        <v>1778</v>
+        <v>2902</v>
       </c>
       <c r="E890" s="5" t="s">
-        <v>2338</v>
+        <v>2265</v>
       </c>
       <c r="F890" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G890" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="891" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28938,22 +28975,22 @@
         <v>891</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="C891" s="8" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="D891" s="8" t="s">
-        <v>2412</v>
+        <v>1775</v>
       </c>
       <c r="E891" s="5" t="s">
-        <v>2413</v>
+        <v>2265</v>
       </c>
       <c r="F891" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G891" s="5" t="s">
-        <v>2443</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="892" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28961,13 +28998,16 @@
         <v>892</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="C892" s="8" t="s">
-        <v>1782</v>
+        <v>1777</v>
+      </c>
+      <c r="D892" s="8" t="s">
+        <v>1778</v>
       </c>
       <c r="E892" s="5" t="s">
-        <v>2265</v>
+        <v>2338</v>
       </c>
       <c r="F892" s="5" t="s">
         <v>2427</v>
@@ -28981,16 +29021,16 @@
         <v>893</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="C893" s="8" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="D893" s="8" t="s">
-        <v>1785</v>
+        <v>2412</v>
       </c>
       <c r="E893" s="5" t="s">
-        <v>2274</v>
+        <v>2413</v>
       </c>
       <c r="F893" s="5" t="s">
         <v>2427</v>
@@ -29004,16 +29044,13 @@
         <v>894</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="C894" s="8" t="s">
-        <v>1787</v>
-      </c>
-      <c r="D894" s="8" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="E894" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F894" s="5" t="s">
         <v>2427</v>
@@ -29021,41 +29058,42 @@
       <c r="G894" s="5" t="s">
         <v>2443</v>
       </c>
-      <c r="H894" s="5"/>
     </row>
     <row r="895" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2">
         <v>895</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="C895" s="8" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="D895" s="8" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="E895" s="5" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="F895" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G895" s="5" t="s">
-        <v>2455</v>
-      </c>
-      <c r="H895" s="5"/>
+        <v>2443</v>
+      </c>
     </row>
     <row r="896" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2">
         <v>896</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="C896" s="8" t="s">
-        <v>1793</v>
+        <v>1787</v>
+      </c>
+      <c r="D896" s="8" t="s">
+        <v>1788</v>
       </c>
       <c r="E896" s="5" t="s">
         <v>2279</v>
@@ -29064,7 +29102,7 @@
         <v>2427</v>
       </c>
       <c r="G896" s="5" t="s">
-        <v>2483</v>
+        <v>2443</v>
       </c>
       <c r="H896" s="5"/>
     </row>
@@ -29073,19 +29111,22 @@
         <v>897</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>2903</v>
+        <v>1789</v>
       </c>
       <c r="C897" s="8" t="s">
-        <v>2904</v>
+        <v>1790</v>
+      </c>
+      <c r="D897" s="8" t="s">
+        <v>1791</v>
       </c>
       <c r="E897" s="5" t="s">
-        <v>2279</v>
+        <v>2270</v>
       </c>
       <c r="F897" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G897" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
       <c r="H897" s="5"/>
     </row>
@@ -29094,22 +29135,19 @@
         <v>898</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="C898" s="8" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D898" s="8" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="E898" s="5" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="F898" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G898" s="5" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="H898" s="5"/>
     </row>
@@ -29118,22 +29156,19 @@
         <v>899</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1797</v>
+        <v>2903</v>
       </c>
       <c r="C899" s="8" t="s">
-        <v>1798</v>
-      </c>
-      <c r="D899" s="8" t="s">
-        <v>1799</v>
+        <v>2904</v>
       </c>
       <c r="E899" s="5" t="s">
-        <v>2405</v>
+        <v>2279</v>
       </c>
       <c r="F899" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G899" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
       <c r="H899" s="5"/>
     </row>
@@ -29142,19 +29177,22 @@
         <v>900</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>2905</v>
+        <v>1794</v>
       </c>
       <c r="C900" s="8" t="s">
-        <v>2906</v>
+        <v>1795</v>
+      </c>
+      <c r="D900" s="8" t="s">
+        <v>1796</v>
       </c>
       <c r="E900" s="5" t="s">
-        <v>2279</v>
+        <v>2284</v>
       </c>
       <c r="F900" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G900" s="5" t="s">
-        <v>2443</v>
+        <v>2485</v>
       </c>
       <c r="H900" s="5"/>
     </row>
@@ -29163,19 +29201,22 @@
         <v>901</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>2162</v>
+        <v>1797</v>
       </c>
       <c r="C901" s="8" t="s">
-        <v>2163</v>
+        <v>1798</v>
+      </c>
+      <c r="D901" s="8" t="s">
+        <v>1799</v>
       </c>
       <c r="E901" s="5" t="s">
-        <v>2270</v>
+        <v>2405</v>
       </c>
       <c r="F901" s="5" t="s">
-        <v>2441</v>
+        <v>2444</v>
       </c>
       <c r="G901" s="5" t="s">
-        <v>2442</v>
+        <v>2455</v>
       </c>
       <c r="H901" s="5"/>
     </row>
@@ -29184,16 +29225,13 @@
         <v>902</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>2164</v>
+        <v>2905</v>
       </c>
       <c r="C902" s="8" t="s">
-        <v>2165</v>
-      </c>
-      <c r="D902" s="8" t="s">
-        <v>2166</v>
+        <v>2906</v>
       </c>
       <c r="E902" s="5" t="s">
-        <v>2270</v>
+        <v>2279</v>
       </c>
       <c r="F902" s="5" t="s">
         <v>2427</v>
@@ -29208,22 +29246,19 @@
         <v>903</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1800</v>
+        <v>2162</v>
       </c>
       <c r="C903" s="8" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D903" s="8" t="s">
-        <v>1802</v>
+        <v>2163</v>
       </c>
       <c r="E903" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F903" s="5" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="G903" s="5" t="s">
-        <v>2496</v>
+        <v>2442</v>
       </c>
       <c r="H903" s="5"/>
     </row>
@@ -29232,22 +29267,22 @@
         <v>904</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1803</v>
+        <v>2164</v>
       </c>
       <c r="C904" s="8" t="s">
-        <v>1804</v>
+        <v>2165</v>
       </c>
       <c r="D904" s="8" t="s">
-        <v>2414</v>
+        <v>2166</v>
       </c>
       <c r="E904" s="5" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="F904" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G904" s="5" t="s">
-        <v>2482</v>
+        <v>2443</v>
       </c>
       <c r="H904" s="5"/>
     </row>
@@ -29256,22 +29291,22 @@
         <v>905</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>2167</v>
+        <v>1800</v>
       </c>
       <c r="C905" s="8" t="s">
-        <v>2168</v>
+        <v>1801</v>
       </c>
       <c r="D905" s="8" t="s">
-        <v>2169</v>
+        <v>1802</v>
       </c>
       <c r="E905" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F905" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G905" s="5" t="s">
-        <v>2443</v>
+        <v>2496</v>
       </c>
       <c r="H905" s="5"/>
     </row>
@@ -29280,13 +29315,13 @@
         <v>906</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>2259</v>
+        <v>1803</v>
       </c>
       <c r="C906" s="8" t="s">
-        <v>2260</v>
+        <v>1804</v>
       </c>
       <c r="D906" s="8" t="s">
-        <v>2261</v>
+        <v>2414</v>
       </c>
       <c r="E906" s="5" t="s">
         <v>2274</v>
@@ -29295,7 +29330,7 @@
         <v>2427</v>
       </c>
       <c r="G906" s="5" t="s">
-        <v>2443</v>
+        <v>2482</v>
       </c>
       <c r="H906" s="5"/>
     </row>
@@ -29304,19 +29339,22 @@
         <v>907</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1805</v>
+        <v>2167</v>
       </c>
       <c r="C907" s="8" t="s">
-        <v>1806</v>
+        <v>2168</v>
+      </c>
+      <c r="D907" s="8" t="s">
+        <v>2169</v>
       </c>
       <c r="E907" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F907" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G907" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
       <c r="H907" s="5"/>
     </row>
@@ -29325,22 +29363,22 @@
         <v>908</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1807</v>
+        <v>2259</v>
       </c>
       <c r="C908" s="8" t="s">
-        <v>1808</v>
+        <v>2260</v>
       </c>
       <c r="D908" s="8" t="s">
-        <v>1809</v>
+        <v>2261</v>
       </c>
       <c r="E908" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F908" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G908" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
       <c r="H908" s="5"/>
     </row>
@@ -29349,22 +29387,19 @@
         <v>909</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="C909" s="8" t="s">
-        <v>1811</v>
-      </c>
-      <c r="D909" s="8" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="E909" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F909" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G909" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
       <c r="H909" s="5"/>
     </row>
@@ -29373,13 +29408,13 @@
         <v>910</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="C910" s="8" t="s">
-        <v>2542</v>
+        <v>1808</v>
       </c>
       <c r="D910" s="8" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="E910" s="5" t="s">
         <v>2265</v>
@@ -29388,21 +29423,22 @@
         <v>2427</v>
       </c>
       <c r="G910" s="5" t="s">
-        <v>2443</v>
-      </c>
+        <v>2461</v>
+      </c>
+      <c r="H910" s="5"/>
     </row>
     <row r="911" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2">
         <v>911</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>2907</v>
+        <v>1810</v>
       </c>
       <c r="C911" s="8" t="s">
-        <v>2908</v>
+        <v>1811</v>
       </c>
       <c r="D911" s="8" t="s">
-        <v>2909</v>
+        <v>1812</v>
       </c>
       <c r="E911" s="5" t="s">
         <v>2265</v>
@@ -29413,19 +29449,20 @@
       <c r="G911" s="5" t="s">
         <v>2443</v>
       </c>
+      <c r="H911" s="5"/>
     </row>
     <row r="912" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2">
         <v>912</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="C912" s="8" t="s">
-        <v>1816</v>
+        <v>2542</v>
       </c>
       <c r="D912" s="8" t="s">
-        <v>2415</v>
+        <v>1814</v>
       </c>
       <c r="E912" s="5" t="s">
         <v>2265</v>
@@ -29442,22 +29479,22 @@
         <v>913</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1817</v>
+        <v>2907</v>
       </c>
       <c r="C913" s="8" t="s">
-        <v>1818</v>
+        <v>2908</v>
       </c>
       <c r="D913" s="8" t="s">
-        <v>1819</v>
+        <v>2909</v>
       </c>
       <c r="E913" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F913" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G913" s="5" t="s">
-        <v>2491</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="914" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29465,13 +29502,13 @@
         <v>914</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>2200</v>
+        <v>1815</v>
       </c>
       <c r="C914" s="8" t="s">
-        <v>2201</v>
+        <v>1816</v>
       </c>
       <c r="D914" s="8" t="s">
-        <v>2202</v>
+        <v>2415</v>
       </c>
       <c r="E914" s="5" t="s">
         <v>2265</v>
@@ -29488,22 +29525,22 @@
         <v>915</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="C915" s="8" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="D915" s="8" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="E915" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F915" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G915" s="5" t="s">
-        <v>2443</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="916" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29511,16 +29548,16 @@
         <v>916</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>2187</v>
+        <v>2200</v>
       </c>
       <c r="C916" s="8" t="s">
-        <v>2188</v>
+        <v>2201</v>
       </c>
       <c r="D916" s="8" t="s">
-        <v>2189</v>
+        <v>2202</v>
       </c>
       <c r="E916" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F916" s="5" t="s">
         <v>2427</v>
@@ -29534,16 +29571,16 @@
         <v>917</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="C917" s="8" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="D917" s="8" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="E917" s="5" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="F917" s="5" t="s">
         <v>2427</v>
@@ -29557,10 +29594,13 @@
         <v>918</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>2910</v>
+        <v>2187</v>
       </c>
       <c r="C918" s="8" t="s">
-        <v>2911</v>
+        <v>2188</v>
+      </c>
+      <c r="D918" s="8" t="s">
+        <v>2189</v>
       </c>
       <c r="E918" s="5" t="s">
         <v>2279</v>
@@ -29569,7 +29609,7 @@
         <v>2427</v>
       </c>
       <c r="G918" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="919" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29577,22 +29617,22 @@
         <v>919</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="C919" s="8" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="D919" s="8" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="E919" s="5" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="F919" s="5" t="s">
-        <v>2409</v>
+        <v>2427</v>
       </c>
       <c r="G919" s="5" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="920" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29600,19 +29640,19 @@
         <v>920</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1829</v>
+        <v>2910</v>
       </c>
       <c r="C920" s="8" t="s">
-        <v>1830</v>
+        <v>2911</v>
       </c>
       <c r="E920" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F920" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G920" s="5" t="s">
-        <v>2469</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="921" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29620,22 +29660,22 @@
         <v>921</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="C921" s="8" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="D921" s="8" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
       <c r="E921" s="5" t="s">
-        <v>2294</v>
+        <v>2270</v>
       </c>
       <c r="F921" s="5" t="s">
-        <v>2427</v>
+        <v>2409</v>
       </c>
       <c r="G921" s="5" t="s">
-        <v>2443</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="922" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29643,19 +29683,19 @@
         <v>922</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>2912</v>
+        <v>1829</v>
       </c>
       <c r="C922" s="8" t="s">
-        <v>2913</v>
+        <v>1830</v>
       </c>
       <c r="E922" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F922" s="5" t="s">
-        <v>2451</v>
+        <v>2444</v>
       </c>
       <c r="G922" s="5" t="s">
-        <v>2460</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="923" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29663,16 +29703,16 @@
         <v>923</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="C923" s="8" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="D923" s="8" t="s">
-        <v>2416</v>
+        <v>1833</v>
       </c>
       <c r="E923" s="5" t="s">
-        <v>2265</v>
+        <v>2294</v>
       </c>
       <c r="F923" s="5" t="s">
         <v>2427</v>
@@ -29686,22 +29726,19 @@
         <v>924</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>1836</v>
+        <v>2912</v>
       </c>
       <c r="C924" s="8" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D924" s="8" t="s">
-        <v>1838</v>
+        <v>2913</v>
       </c>
       <c r="E924" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F924" s="5" t="s">
-        <v>2427</v>
+        <v>2451</v>
       </c>
       <c r="G924" s="5" t="s">
-        <v>2443</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="925" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29709,22 +29746,22 @@
         <v>925</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>2686</v>
-      </c>
-      <c r="C925" s="4" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D925" s="1" t="s">
-        <v>2687</v>
+        <v>1834</v>
+      </c>
+      <c r="C925" s="8" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D925" s="8" t="s">
+        <v>2416</v>
       </c>
       <c r="E925" s="5" t="s">
-        <v>2308</v>
+        <v>2265</v>
       </c>
       <c r="F925" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G925" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="926" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29732,16 +29769,16 @@
         <v>926</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="C926" s="8" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="D926" s="8" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="E926" s="5" t="s">
-        <v>2417</v>
+        <v>2279</v>
       </c>
       <c r="F926" s="5" t="s">
         <v>2427</v>
@@ -29755,22 +29792,22 @@
         <v>927</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C927" s="8" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D927" s="8" t="s">
-        <v>1844</v>
+        <v>2686</v>
+      </c>
+      <c r="C927" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>2687</v>
       </c>
       <c r="E927" s="5" t="s">
-        <v>2265</v>
+        <v>2308</v>
       </c>
       <c r="F927" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G927" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="928" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29778,22 +29815,22 @@
         <v>928</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>2180</v>
+        <v>1839</v>
       </c>
       <c r="C928" s="8" t="s">
-        <v>2181</v>
+        <v>1840</v>
       </c>
       <c r="D928" s="8" t="s">
-        <v>2182</v>
+        <v>1841</v>
       </c>
       <c r="E928" s="5" t="s">
-        <v>2311</v>
+        <v>2417</v>
       </c>
       <c r="F928" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G928" s="5" t="s">
-        <v>2466</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="929" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29801,16 +29838,16 @@
         <v>929</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="C929" s="8" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="D929" s="8" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="E929" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F929" s="5" t="s">
         <v>2427</v>
@@ -29824,22 +29861,22 @@
         <v>930</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>1848</v>
+        <v>2180</v>
       </c>
       <c r="C930" s="8" t="s">
-        <v>1849</v>
+        <v>2181</v>
       </c>
       <c r="D930" s="8" t="s">
-        <v>1850</v>
+        <v>2182</v>
       </c>
       <c r="E930" s="5" t="s">
-        <v>2270</v>
+        <v>2311</v>
       </c>
       <c r="F930" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G930" s="5" t="s">
-        <v>2455</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="931" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29847,22 +29884,22 @@
         <v>931</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="C931" s="8" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="D931" s="8" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="E931" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F931" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G931" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="932" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29870,19 +29907,22 @@
         <v>932</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="C932" s="8" t="s">
-        <v>1855</v>
+        <v>1849</v>
+      </c>
+      <c r="D932" s="8" t="s">
+        <v>1850</v>
       </c>
       <c r="E932" s="5" t="s">
-        <v>2308</v>
+        <v>2270</v>
       </c>
       <c r="F932" s="5" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="G932" s="5" t="s">
-        <v>2470</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="933" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29890,16 +29930,16 @@
         <v>933</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1856</v>
+        <v>1851</v>
       </c>
       <c r="C933" s="8" t="s">
-        <v>1857</v>
+        <v>1852</v>
       </c>
       <c r="D933" s="8" t="s">
-        <v>2418</v>
+        <v>1853</v>
       </c>
       <c r="E933" s="5" t="s">
-        <v>2327</v>
+        <v>2265</v>
       </c>
       <c r="F933" s="5" t="s">
         <v>2440</v>
@@ -29913,22 +29953,19 @@
         <v>934</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="C934" s="8" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D934" s="8" t="s">
-        <v>1860</v>
+        <v>1855</v>
       </c>
       <c r="E934" s="5" t="s">
-        <v>2265</v>
+        <v>2308</v>
       </c>
       <c r="F934" s="5" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="G934" s="5" t="s">
-        <v>2463</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="935" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29936,22 +29973,22 @@
         <v>935</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C935" s="4" t="s">
-        <v>2196</v>
+        <v>1856</v>
+      </c>
+      <c r="C935" s="8" t="s">
+        <v>1857</v>
       </c>
       <c r="D935" s="8" t="s">
-        <v>1862</v>
+        <v>2418</v>
       </c>
       <c r="E935" s="5" t="s">
-        <v>2266</v>
+        <v>2327</v>
       </c>
       <c r="F935" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G935" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="936" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29959,22 +29996,22 @@
         <v>936</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>1863</v>
+        <v>1858</v>
       </c>
       <c r="C936" s="8" t="s">
-        <v>1864</v>
+        <v>1859</v>
       </c>
       <c r="D936" s="8" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="E936" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F936" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G936" s="5" t="s">
-        <v>2443</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="937" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29982,22 +30019,22 @@
         <v>937</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C937" s="8" t="s">
-        <v>1867</v>
+        <v>1861</v>
+      </c>
+      <c r="C937" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D937" s="8" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="E937" s="5" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="F937" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G937" s="5" t="s">
-        <v>2465</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="938" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30005,22 +30042,22 @@
         <v>938</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C938" s="4" t="s">
-        <v>2196</v>
+        <v>1863</v>
+      </c>
+      <c r="C938" s="8" t="s">
+        <v>1864</v>
       </c>
       <c r="D938" s="8" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
       <c r="E938" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F938" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G938" s="5" t="s">
-        <v>2463</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="939" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30028,22 +30065,22 @@
         <v>939</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="C939" s="8" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="D939" s="8" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="E939" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F939" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G939" s="5" t="s">
-        <v>2443</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="940" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30051,22 +30088,22 @@
         <v>940</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C940" s="19" t="s">
-        <v>1875</v>
+        <v>1869</v>
+      </c>
+      <c r="C940" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D940" s="8" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="E940" s="5" t="s">
-        <v>2419</v>
+        <v>2265</v>
       </c>
       <c r="F940" s="5" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
       <c r="G940" s="5" t="s">
-        <v>2305</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="941" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30074,22 +30111,22 @@
         <v>941</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C941" s="4" t="s">
-        <v>2196</v>
+        <v>1871</v>
+      </c>
+      <c r="C941" s="8" t="s">
+        <v>1872</v>
       </c>
       <c r="D941" s="8" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="E941" s="5" t="s">
-        <v>2276</v>
+        <v>2265</v>
       </c>
       <c r="F941" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G941" s="5" t="s">
-        <v>2481</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="942" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30097,22 +30134,22 @@
         <v>942</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C942" s="8" t="s">
-        <v>1880</v>
+        <v>1874</v>
+      </c>
+      <c r="C942" s="19" t="s">
+        <v>1875</v>
       </c>
       <c r="D942" s="8" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="E942" s="5" t="s">
-        <v>2265</v>
+        <v>2419</v>
       </c>
       <c r="F942" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G942" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="943" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30120,22 +30157,22 @@
         <v>943</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C943" s="8" t="s">
-        <v>1883</v>
+        <v>1877</v>
+      </c>
+      <c r="C943" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D943" s="8" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="E943" s="5" t="s">
-        <v>2265</v>
+        <v>2276</v>
       </c>
       <c r="F943" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G943" s="5" t="s">
-        <v>2443</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="944" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30143,16 +30180,16 @@
         <v>944</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="C944" s="8" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="D944" s="8" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="E944" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F944" s="5" t="s">
         <v>2427</v>
@@ -30166,19 +30203,22 @@
         <v>945</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>2858</v>
+        <v>1882</v>
       </c>
       <c r="C945" s="8" t="s">
-        <v>2859</v>
+        <v>1883</v>
+      </c>
+      <c r="D945" s="8" t="s">
+        <v>1884</v>
       </c>
       <c r="E945" s="5" t="s">
-        <v>2611</v>
+        <v>2265</v>
       </c>
       <c r="F945" s="5" t="s">
-        <v>2451</v>
+        <v>2427</v>
       </c>
       <c r="G945" s="5" t="s">
-        <v>2454</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="946" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30186,13 +30226,16 @@
         <v>946</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>2914</v>
+        <v>1885</v>
       </c>
       <c r="C946" s="8" t="s">
-        <v>2915</v>
+        <v>1886</v>
+      </c>
+      <c r="D946" s="8" t="s">
+        <v>1887</v>
       </c>
       <c r="E946" s="5" t="s">
-        <v>2916</v>
+        <v>2274</v>
       </c>
       <c r="F946" s="5" t="s">
         <v>2427</v>
@@ -30206,22 +30249,19 @@
         <v>947</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>1888</v>
+        <v>2858</v>
       </c>
       <c r="C947" s="8" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D947" s="8" t="s">
-        <v>1890</v>
+        <v>2859</v>
       </c>
       <c r="E947" s="5" t="s">
-        <v>2265</v>
+        <v>2611</v>
       </c>
       <c r="F947" s="5" t="s">
-        <v>2427</v>
+        <v>2451</v>
       </c>
       <c r="G947" s="5" t="s">
-        <v>2443</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="948" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30229,16 +30269,13 @@
         <v>948</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>1891</v>
+        <v>2914</v>
       </c>
       <c r="C948" s="8" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D948" s="8" t="s">
-        <v>1893</v>
+        <v>2915</v>
       </c>
       <c r="E948" s="5" t="s">
-        <v>2265</v>
+        <v>2916</v>
       </c>
       <c r="F948" s="5" t="s">
         <v>2427</v>
@@ -30252,13 +30289,13 @@
         <v>949</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="C949" s="8" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="D949" s="8" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="E949" s="5" t="s">
         <v>2265</v>
@@ -30275,22 +30312,19 @@
         <v>950</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>2197</v>
+        <v>3000</v>
       </c>
       <c r="C950" s="8" t="s">
-        <v>2198</v>
-      </c>
-      <c r="D950" s="8" t="s">
-        <v>2199</v>
+        <v>2999</v>
       </c>
       <c r="E950" s="5" t="s">
-        <v>2279</v>
+        <v>2361</v>
       </c>
       <c r="F950" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G950" s="5" t="s">
-        <v>2481</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="951" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30298,19 +30332,19 @@
         <v>951</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>2170</v>
+        <v>3001</v>
       </c>
       <c r="C951" s="8" t="s">
-        <v>2171</v>
+        <v>3002</v>
       </c>
       <c r="E951" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F951" s="5" t="s">
-        <v>2409</v>
+        <v>2444</v>
       </c>
       <c r="G951" s="5" t="s">
-        <v>2448</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="952" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30318,19 +30352,22 @@
         <v>952</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
       <c r="C952" s="8" t="s">
-        <v>1899</v>
+        <v>1892</v>
+      </c>
+      <c r="D952" s="8" t="s">
+        <v>1893</v>
       </c>
       <c r="E952" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F952" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G952" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="953" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30338,16 +30375,16 @@
         <v>953</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="C953" s="8" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="D953" s="8" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="E953" s="5" t="s">
-        <v>2397</v>
+        <v>2265</v>
       </c>
       <c r="F953" s="5" t="s">
         <v>2427</v>
@@ -30361,16 +30398,16 @@
         <v>954</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>2232</v>
+        <v>2197</v>
       </c>
       <c r="C954" s="8" t="s">
-        <v>2233</v>
+        <v>2198</v>
       </c>
       <c r="D954" s="8" t="s">
-        <v>2234</v>
+        <v>2199</v>
       </c>
       <c r="E954" s="5" t="s">
-        <v>2268</v>
+        <v>2279</v>
       </c>
       <c r="F954" s="5" t="s">
         <v>2444</v>
@@ -30384,22 +30421,19 @@
         <v>955</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>1903</v>
+        <v>2170</v>
       </c>
       <c r="C955" s="8" t="s">
-        <v>1904</v>
-      </c>
-      <c r="D955" s="8" t="s">
-        <v>1905</v>
+        <v>2171</v>
       </c>
       <c r="E955" s="5" t="s">
-        <v>2323</v>
+        <v>2265</v>
       </c>
       <c r="F955" s="5" t="s">
-        <v>2427</v>
+        <v>2409</v>
       </c>
       <c r="G955" s="5" t="s">
-        <v>2480</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="956" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30407,22 +30441,19 @@
         <v>956</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="C956" s="8" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D956" s="8" t="s">
-        <v>1908</v>
+        <v>1899</v>
       </c>
       <c r="E956" s="5" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="F956" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G956" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="957" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30430,22 +30461,22 @@
         <v>957</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>2630</v>
-      </c>
-      <c r="C957" s="4" t="s">
-        <v>2196</v>
+        <v>1900</v>
+      </c>
+      <c r="C957" s="8" t="s">
+        <v>1901</v>
       </c>
       <c r="D957" s="8" t="s">
-        <v>2631</v>
+        <v>1902</v>
       </c>
       <c r="E957" s="5" t="s">
-        <v>2336</v>
+        <v>2397</v>
       </c>
       <c r="F957" s="5" t="s">
-        <v>2441</v>
+        <v>2427</v>
       </c>
       <c r="G957" s="5" t="s">
-        <v>2632</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="958" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30453,19 +30484,22 @@
         <v>958</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1909</v>
+        <v>2232</v>
       </c>
       <c r="C958" s="8" t="s">
-        <v>1910</v>
+        <v>2233</v>
+      </c>
+      <c r="D958" s="8" t="s">
+        <v>2234</v>
       </c>
       <c r="E958" s="5" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="F958" s="5" t="s">
-        <v>2310</v>
+        <v>2444</v>
       </c>
       <c r="G958" s="5" t="s">
-        <v>2305</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="959" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30473,22 +30507,22 @@
         <v>959</v>
       </c>
       <c r="B959" s="2" t="s">
-        <v>1911</v>
+        <v>1903</v>
       </c>
       <c r="C959" s="8" t="s">
-        <v>2917</v>
+        <v>1904</v>
       </c>
       <c r="D959" s="8" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="E959" s="5" t="s">
-        <v>2265</v>
+        <v>2323</v>
       </c>
       <c r="F959" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G959" s="5" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="960" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30496,13 +30530,16 @@
         <v>960</v>
       </c>
       <c r="B960" s="2" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
       <c r="C960" s="8" t="s">
-        <v>1914</v>
+        <v>1907</v>
+      </c>
+      <c r="D960" s="8" t="s">
+        <v>1908</v>
       </c>
       <c r="E960" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F960" s="5" t="s">
         <v>2427</v>
@@ -30516,22 +30553,22 @@
         <v>961</v>
       </c>
       <c r="B961" s="2" t="s">
-        <v>2688</v>
-      </c>
-      <c r="C961" s="1" t="s">
-        <v>2689</v>
+        <v>2630</v>
+      </c>
+      <c r="C961" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D961" s="8" t="s">
-        <v>2690</v>
+        <v>2631</v>
       </c>
       <c r="E961" s="5" t="s">
-        <v>2275</v>
+        <v>2336</v>
       </c>
       <c r="F961" s="5" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="G961" s="5" t="s">
-        <v>2477</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="962" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30539,19 +30576,19 @@
         <v>962</v>
       </c>
       <c r="B962" s="2" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="C962" s="8" t="s">
-        <v>1916</v>
-      </c>
-      <c r="D962" s="8" t="s">
-        <v>1917</v>
+        <v>1910</v>
       </c>
       <c r="E962" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F962" s="5" t="s">
-        <v>2427</v>
+        <v>2310</v>
+      </c>
+      <c r="G962" s="5" t="s">
+        <v>2305</v>
       </c>
     </row>
     <row r="963" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30559,22 +30596,22 @@
         <v>963</v>
       </c>
       <c r="B963" s="2" t="s">
-        <v>2597</v>
+        <v>1911</v>
       </c>
       <c r="C963" s="8" t="s">
-        <v>2598</v>
+        <v>2917</v>
       </c>
       <c r="D963" s="8" t="s">
-        <v>2599</v>
+        <v>1912</v>
       </c>
       <c r="E963" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F963" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G963" s="5" t="s">
-        <v>2443</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="964" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30582,13 +30619,10 @@
         <v>964</v>
       </c>
       <c r="B964" s="2" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="C964" s="8" t="s">
-        <v>2249</v>
-      </c>
-      <c r="D964" s="8" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="E964" s="5" t="s">
         <v>2265</v>
@@ -30605,22 +30639,22 @@
         <v>965</v>
       </c>
       <c r="B965" s="2" t="s">
-        <v>2252</v>
-      </c>
-      <c r="C965" s="8" t="s">
-        <v>2253</v>
+        <v>2688</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>2689</v>
       </c>
       <c r="D965" s="8" t="s">
-        <v>2254</v>
+        <v>2690</v>
       </c>
       <c r="E965" s="5" t="s">
-        <v>2267</v>
+        <v>2275</v>
       </c>
       <c r="F965" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G965" s="5" t="s">
-        <v>2443</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="966" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30628,22 +30662,19 @@
         <v>966</v>
       </c>
       <c r="B966" s="2" t="s">
-        <v>1920</v>
+        <v>1915</v>
       </c>
       <c r="C966" s="8" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="D966" s="8" t="s">
-        <v>2420</v>
+        <v>1917</v>
       </c>
       <c r="E966" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F966" s="5" t="s">
         <v>2427</v>
-      </c>
-      <c r="G966" s="5" t="s">
-        <v>2443</v>
       </c>
     </row>
     <row r="967" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30651,16 +30682,16 @@
         <v>967</v>
       </c>
       <c r="B967" s="2" t="s">
-        <v>1922</v>
+        <v>2597</v>
       </c>
       <c r="C967" s="8" t="s">
-        <v>1923</v>
+        <v>2598</v>
       </c>
       <c r="D967" s="8" t="s">
-        <v>1924</v>
+        <v>2599</v>
       </c>
       <c r="E967" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F967" s="5" t="s">
         <v>2427</v>
@@ -30674,22 +30705,22 @@
         <v>968</v>
       </c>
       <c r="B968" s="2" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="C968" s="8" t="s">
-        <v>1926</v>
+        <v>2249</v>
       </c>
       <c r="D968" s="8" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
       <c r="E968" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F968" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G968" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="969" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30697,19 +30728,22 @@
         <v>969</v>
       </c>
       <c r="B969" s="2" t="s">
-        <v>2918</v>
+        <v>2252</v>
       </c>
       <c r="C969" s="8" t="s">
-        <v>2919</v>
+        <v>2253</v>
       </c>
       <c r="D969" s="8" t="s">
-        <v>2920</v>
+        <v>2254</v>
       </c>
       <c r="E969" s="5" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="F969" s="5" t="s">
-        <v>2310</v>
+        <v>2427</v>
+      </c>
+      <c r="G969" s="5" t="s">
+        <v>2443</v>
       </c>
     </row>
     <row r="970" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30717,19 +30751,22 @@
         <v>970</v>
       </c>
       <c r="B970" s="2" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
       <c r="C970" s="8" t="s">
-        <v>1929</v>
+        <v>1921</v>
+      </c>
+      <c r="D970" s="8" t="s">
+        <v>2420</v>
       </c>
       <c r="E970" s="5" t="s">
-        <v>2308</v>
+        <v>2265</v>
       </c>
       <c r="F970" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G970" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="971" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30737,13 +30774,13 @@
         <v>971</v>
       </c>
       <c r="B971" s="2" t="s">
-        <v>2622</v>
-      </c>
-      <c r="C971" s="4" t="s">
-        <v>2196</v>
+        <v>1922</v>
+      </c>
+      <c r="C971" s="8" t="s">
+        <v>1923</v>
       </c>
       <c r="D971" s="8" t="s">
-        <v>2623</v>
+        <v>1924</v>
       </c>
       <c r="E971" s="5" t="s">
         <v>2265</v>
@@ -30760,22 +30797,22 @@
         <v>972</v>
       </c>
       <c r="B972" s="2" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C972" s="10" t="s">
-        <v>1931</v>
+        <v>1925</v>
+      </c>
+      <c r="C972" s="8" t="s">
+        <v>1926</v>
       </c>
       <c r="D972" s="8" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="E972" s="5" t="s">
-        <v>2281</v>
+        <v>2274</v>
       </c>
       <c r="F972" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G972" s="5" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="973" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30783,22 +30820,19 @@
         <v>973</v>
       </c>
       <c r="B973" s="2" t="s">
-        <v>1933</v>
-      </c>
-      <c r="C973" s="10" t="s">
-        <v>1934</v>
+        <v>2918</v>
+      </c>
+      <c r="C973" s="8" t="s">
+        <v>2919</v>
       </c>
       <c r="D973" s="8" t="s">
-        <v>1935</v>
+        <v>2920</v>
       </c>
       <c r="E973" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F973" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G973" s="5" t="s">
-        <v>2461</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="974" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30806,16 +30840,13 @@
         <v>974</v>
       </c>
       <c r="B974" s="2" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C974" s="10" t="s">
-        <v>1937</v>
-      </c>
-      <c r="D974" s="8" t="s">
-        <v>1938</v>
+        <v>1928</v>
+      </c>
+      <c r="C974" s="8" t="s">
+        <v>1929</v>
       </c>
       <c r="E974" s="5" t="s">
-        <v>2265</v>
+        <v>2308</v>
       </c>
       <c r="F974" s="5" t="s">
         <v>2440</v>
@@ -30829,22 +30860,22 @@
         <v>975</v>
       </c>
       <c r="B975" s="2" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C975" s="10" t="s">
-        <v>1940</v>
+        <v>2622</v>
+      </c>
+      <c r="C975" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D975" s="8" t="s">
-        <v>1941</v>
+        <v>2623</v>
       </c>
       <c r="E975" s="5" t="s">
-        <v>2281</v>
+        <v>2265</v>
       </c>
       <c r="F975" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G975" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="976" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30852,22 +30883,22 @@
         <v>976</v>
       </c>
       <c r="B976" s="2" t="s">
-        <v>1942</v>
+        <v>1930</v>
       </c>
       <c r="C976" s="10" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="D976" s="8" t="s">
-        <v>1944</v>
+        <v>1932</v>
       </c>
       <c r="E976" s="5" t="s">
-        <v>2265</v>
+        <v>2281</v>
       </c>
       <c r="F976" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G976" s="5" t="s">
-        <v>2443</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="977" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30875,22 +30906,22 @@
         <v>977</v>
       </c>
       <c r="B977" s="2" t="s">
-        <v>1945</v>
+        <v>1933</v>
       </c>
       <c r="C977" s="10" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="D977" s="8" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
       <c r="E977" s="5" t="s">
-        <v>2275</v>
+        <v>2265</v>
       </c>
       <c r="F977" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G977" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="978" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30898,22 +30929,22 @@
         <v>978</v>
       </c>
       <c r="B978" s="2" t="s">
-        <v>1948</v>
+        <v>1936</v>
       </c>
       <c r="C978" s="10" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="D978" s="8" t="s">
-        <v>1950</v>
+        <v>1938</v>
       </c>
       <c r="E978" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F978" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G978" s="5" t="s">
-        <v>2468</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="979" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30921,19 +30952,22 @@
         <v>979</v>
       </c>
       <c r="B979" s="2" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
       <c r="C979" s="10" t="s">
-        <v>1952</v>
+        <v>1940</v>
+      </c>
+      <c r="D979" s="8" t="s">
+        <v>1941</v>
       </c>
       <c r="E979" s="5" t="s">
-        <v>2298</v>
+        <v>2281</v>
       </c>
       <c r="F979" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G979" s="5" t="s">
-        <v>2461</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="980" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30941,13 +30975,13 @@
         <v>980</v>
       </c>
       <c r="B980" s="2" t="s">
-        <v>1953</v>
-      </c>
-      <c r="C980" s="14" t="s">
-        <v>2196</v>
+        <v>1942</v>
+      </c>
+      <c r="C980" s="10" t="s">
+        <v>1943</v>
       </c>
       <c r="D980" s="8" t="s">
-        <v>1954</v>
+        <v>1944</v>
       </c>
       <c r="E980" s="5" t="s">
         <v>2265</v>
@@ -30964,16 +30998,16 @@
         <v>981</v>
       </c>
       <c r="B981" s="2" t="s">
-        <v>2604</v>
-      </c>
-      <c r="C981" s="4" t="s">
-        <v>2196</v>
+        <v>1945</v>
+      </c>
+      <c r="C981" s="10" t="s">
+        <v>1946</v>
       </c>
       <c r="D981" s="8" t="s">
-        <v>2605</v>
+        <v>1947</v>
       </c>
       <c r="E981" s="5" t="s">
-        <v>2265</v>
+        <v>2275</v>
       </c>
       <c r="F981" s="5" t="s">
         <v>2427</v>
@@ -30987,22 +31021,22 @@
         <v>982</v>
       </c>
       <c r="B982" s="2" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
       <c r="C982" s="10" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="D982" s="8" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="E982" s="5" t="s">
-        <v>2421</v>
+        <v>2265</v>
       </c>
       <c r="F982" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G982" s="5" t="s">
-        <v>2443</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="983" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31010,16 +31044,13 @@
         <v>983</v>
       </c>
       <c r="B983" s="2" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
       <c r="C983" s="10" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D983" s="8" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
       <c r="E983" s="5" t="s">
-        <v>2265</v>
+        <v>2298</v>
       </c>
       <c r="F983" s="5" t="s">
         <v>2427</v>
@@ -31033,10 +31064,13 @@
         <v>984</v>
       </c>
       <c r="B984" s="2" t="s">
-        <v>2921</v>
-      </c>
-      <c r="C984" s="10" t="s">
-        <v>2922</v>
+        <v>1953</v>
+      </c>
+      <c r="C984" s="14" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D984" s="8" t="s">
+        <v>1954</v>
       </c>
       <c r="E984" s="5" t="s">
         <v>2265</v>
@@ -31045,7 +31079,7 @@
         <v>2427</v>
       </c>
       <c r="G984" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="985" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31053,13 +31087,13 @@
         <v>985</v>
       </c>
       <c r="B985" s="2" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C985" s="10" t="s">
-        <v>1962</v>
+        <v>2604</v>
+      </c>
+      <c r="C985" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D985" s="8" t="s">
-        <v>2422</v>
+        <v>2605</v>
       </c>
       <c r="E985" s="5" t="s">
         <v>2265</v>
@@ -31076,22 +31110,22 @@
         <v>986</v>
       </c>
       <c r="B986" s="2" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="C986" s="10" t="s">
-        <v>1964</v>
+        <v>1956</v>
       </c>
       <c r="D986" s="8" t="s">
-        <v>1965</v>
+        <v>1957</v>
       </c>
       <c r="E986" s="5" t="s">
-        <v>2265</v>
+        <v>2421</v>
       </c>
       <c r="F986" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G986" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="987" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31099,13 +31133,13 @@
         <v>987</v>
       </c>
       <c r="B987" s="2" t="s">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="C987" s="10" t="s">
-        <v>1967</v>
+        <v>1959</v>
       </c>
       <c r="D987" s="8" t="s">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="E987" s="5" t="s">
         <v>2265</v>
@@ -31114,7 +31148,7 @@
         <v>2427</v>
       </c>
       <c r="G987" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="988" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31122,13 +31156,10 @@
         <v>988</v>
       </c>
       <c r="B988" s="2" t="s">
-        <v>1969</v>
+        <v>2921</v>
       </c>
       <c r="C988" s="10" t="s">
-        <v>1970</v>
-      </c>
-      <c r="D988" s="8" t="s">
-        <v>1971</v>
+        <v>2922</v>
       </c>
       <c r="E988" s="5" t="s">
         <v>2265</v>
@@ -31137,7 +31168,7 @@
         <v>2427</v>
       </c>
       <c r="G988" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="989" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31145,22 +31176,22 @@
         <v>989</v>
       </c>
       <c r="B989" s="2" t="s">
-        <v>1972</v>
+        <v>1961</v>
       </c>
       <c r="C989" s="10" t="s">
-        <v>1973</v>
+        <v>1962</v>
       </c>
       <c r="D989" s="8" t="s">
-        <v>1974</v>
+        <v>2422</v>
       </c>
       <c r="E989" s="5" t="s">
-        <v>2276</v>
+        <v>2265</v>
       </c>
       <c r="F989" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G989" s="5" t="s">
-        <v>2481</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="990" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31168,13 +31199,13 @@
         <v>990</v>
       </c>
       <c r="B990" s="2" t="s">
-        <v>1975</v>
+        <v>1963</v>
       </c>
       <c r="C990" s="10" t="s">
-        <v>1976</v>
+        <v>1964</v>
       </c>
       <c r="D990" s="8" t="s">
-        <v>1977</v>
+        <v>1965</v>
       </c>
       <c r="E990" s="5" t="s">
         <v>2265</v>
@@ -31183,7 +31214,7 @@
         <v>2427</v>
       </c>
       <c r="G990" s="5" t="s">
-        <v>2482</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="991" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31191,16 +31222,16 @@
         <v>991</v>
       </c>
       <c r="B991" s="2" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="C991" s="10" t="s">
-        <v>1979</v>
+        <v>1967</v>
       </c>
       <c r="D991" s="8" t="s">
-        <v>1980</v>
+        <v>1968</v>
       </c>
       <c r="E991" s="5" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="F991" s="5" t="s">
         <v>2427</v>
@@ -31214,22 +31245,22 @@
         <v>992</v>
       </c>
       <c r="B992" s="2" t="s">
-        <v>1981</v>
-      </c>
-      <c r="C992" s="4" t="s">
-        <v>2196</v>
+        <v>1969</v>
+      </c>
+      <c r="C992" s="10" t="s">
+        <v>1970</v>
       </c>
       <c r="D992" s="8" t="s">
-        <v>1982</v>
+        <v>1971</v>
       </c>
       <c r="E992" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F992" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G992" s="5" t="s">
-        <v>2477</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="993" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31237,19 +31268,22 @@
         <v>993</v>
       </c>
       <c r="B993" s="2" t="s">
-        <v>2923</v>
-      </c>
-      <c r="C993" s="8" t="s">
-        <v>2924</v>
+        <v>1972</v>
+      </c>
+      <c r="C993" s="10" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D993" s="8" t="s">
+        <v>1974</v>
       </c>
       <c r="E993" s="5" t="s">
-        <v>2265</v>
+        <v>2276</v>
       </c>
       <c r="F993" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G993" s="5" t="s">
-        <v>2443</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="994" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31257,13 +31291,13 @@
         <v>994</v>
       </c>
       <c r="B994" s="2" t="s">
-        <v>1983</v>
-      </c>
-      <c r="C994" s="8" t="s">
-        <v>1984</v>
+        <v>1975</v>
+      </c>
+      <c r="C994" s="10" t="s">
+        <v>1976</v>
       </c>
       <c r="D994" s="8" t="s">
-        <v>1985</v>
+        <v>1977</v>
       </c>
       <c r="E994" s="5" t="s">
         <v>2265</v>
@@ -31272,7 +31306,7 @@
         <v>2427</v>
       </c>
       <c r="G994" s="5" t="s">
-        <v>2443</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="995" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31280,16 +31314,16 @@
         <v>995</v>
       </c>
       <c r="B995" s="2" t="s">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="C995" s="10" t="s">
-        <v>1987</v>
+        <v>1979</v>
       </c>
       <c r="D995" s="8" t="s">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="E995" s="5" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="F995" s="5" t="s">
         <v>2427</v>
@@ -31303,22 +31337,22 @@
         <v>996</v>
       </c>
       <c r="B996" s="2" t="s">
-        <v>1989</v>
+        <v>1981</v>
       </c>
       <c r="C996" s="4" t="s">
         <v>2196</v>
       </c>
       <c r="D996" s="8" t="s">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="E996" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F996" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G996" s="5" t="s">
-        <v>2443</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="997" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31326,38 +31360,35 @@
         <v>997</v>
       </c>
       <c r="B997" s="2" t="s">
-        <v>1991</v>
-      </c>
-      <c r="C997" s="10" t="s">
-        <v>1992</v>
-      </c>
-      <c r="D997" s="8" t="s">
-        <v>1993</v>
+        <v>2923</v>
+      </c>
+      <c r="C997" s="8" t="s">
+        <v>2924</v>
       </c>
       <c r="E997" s="5" t="s">
-        <v>2308</v>
+        <v>2265</v>
       </c>
       <c r="F997" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G997" s="5" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="998" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="2">
         <v>998</v>
       </c>
       <c r="B998" s="2" t="s">
-        <v>2925</v>
-      </c>
-      <c r="C998" s="10" t="s">
-        <v>2926</v>
+        <v>1983</v>
+      </c>
+      <c r="C998" s="8" t="s">
+        <v>1984</v>
       </c>
       <c r="D998" s="8" t="s">
-        <v>2927</v>
-      </c>
-      <c r="E998" s="18" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E998" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F998" s="5" t="s">
@@ -31372,16 +31403,16 @@
         <v>999</v>
       </c>
       <c r="B999" s="2" t="s">
-        <v>1994</v>
-      </c>
-      <c r="C999" s="4" t="s">
-        <v>2196</v>
+        <v>1986</v>
+      </c>
+      <c r="C999" s="10" t="s">
+        <v>1987</v>
       </c>
       <c r="D999" s="8" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="E999" s="5" t="s">
-        <v>2283</v>
+        <v>2265</v>
       </c>
       <c r="F999" s="5" t="s">
         <v>2427</v>
@@ -31395,16 +31426,16 @@
         <v>1000</v>
       </c>
       <c r="B1000" s="2" t="s">
-        <v>1996</v>
-      </c>
-      <c r="C1000" s="8" t="s">
-        <v>1997</v>
+        <v>1989</v>
+      </c>
+      <c r="C1000" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D1000" s="8" t="s">
-        <v>1998</v>
+        <v>1990</v>
       </c>
       <c r="E1000" s="5" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="F1000" s="5" t="s">
         <v>2427</v>
@@ -31418,36 +31449,39 @@
         <v>1001</v>
       </c>
       <c r="B1001" s="2" t="s">
-        <v>1999</v>
-      </c>
-      <c r="C1001" s="8" t="s">
-        <v>2000</v>
+        <v>1991</v>
+      </c>
+      <c r="C1001" s="10" t="s">
+        <v>1992</v>
       </c>
       <c r="D1001" s="8" t="s">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E1001" s="5" t="s">
-        <v>2270</v>
+        <v>2308</v>
       </c>
       <c r="F1001" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G1001" s="5" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="2">
         <v>1002</v>
       </c>
       <c r="B1002" s="2" t="s">
-        <v>2928</v>
-      </c>
-      <c r="C1002" s="8" t="s">
-        <v>2929</v>
-      </c>
-      <c r="E1002" s="5" t="s">
-        <v>2274</v>
+        <v>2925</v>
+      </c>
+      <c r="C1002" s="10" t="s">
+        <v>2926</v>
+      </c>
+      <c r="D1002" s="8" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E1002" s="18" t="s">
+        <v>2265</v>
       </c>
       <c r="F1002" s="5" t="s">
         <v>2427</v>
@@ -31461,22 +31495,22 @@
         <v>1003</v>
       </c>
       <c r="B1003" s="2" t="s">
-        <v>2002</v>
-      </c>
-      <c r="C1003" s="8" t="s">
-        <v>2003</v>
+        <v>1994</v>
+      </c>
+      <c r="C1003" s="4" t="s">
+        <v>2196</v>
       </c>
       <c r="D1003" s="8" t="s">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="E1003" s="5" t="s">
-        <v>2265</v>
+        <v>2283</v>
       </c>
       <c r="F1003" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1003" s="5" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1004" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31484,16 +31518,16 @@
         <v>1004</v>
       </c>
       <c r="B1004" s="2" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="C1004" s="8" t="s">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="D1004" s="8" t="s">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="E1004" s="5" t="s">
-        <v>2279</v>
+        <v>2272</v>
       </c>
       <c r="F1004" s="5" t="s">
         <v>2427</v>
@@ -31507,16 +31541,16 @@
         <v>1005</v>
       </c>
       <c r="B1005" s="2" t="s">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="C1005" s="8" t="s">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="D1005" s="8" t="s">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="E1005" s="5" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="F1005" s="5" t="s">
         <v>2427</v>
@@ -31530,16 +31564,13 @@
         <v>1006</v>
       </c>
       <c r="B1006" s="2" t="s">
-        <v>2011</v>
+        <v>2928</v>
       </c>
       <c r="C1006" s="8" t="s">
-        <v>2012</v>
-      </c>
-      <c r="D1006" s="8" t="s">
-        <v>2013</v>
+        <v>2929</v>
       </c>
       <c r="E1006" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F1006" s="5" t="s">
         <v>2427</v>
@@ -31553,22 +31584,22 @@
         <v>1007</v>
       </c>
       <c r="B1007" s="2" t="s">
-        <v>2930</v>
+        <v>2002</v>
       </c>
       <c r="C1007" s="8" t="s">
-        <v>2931</v>
+        <v>2003</v>
       </c>
       <c r="D1007" s="8" t="s">
-        <v>2932</v>
+        <v>2004</v>
       </c>
       <c r="E1007" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F1007" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G1007" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1008" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31576,16 +31607,16 @@
         <v>1008</v>
       </c>
       <c r="B1008" s="2" t="s">
-        <v>2933</v>
+        <v>2005</v>
       </c>
       <c r="C1008" s="8" t="s">
-        <v>2934</v>
+        <v>2006</v>
       </c>
       <c r="D1008" s="8" t="s">
-        <v>2935</v>
+        <v>2007</v>
       </c>
       <c r="E1008" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F1008" s="5" t="s">
         <v>2427</v>
@@ -31599,22 +31630,22 @@
         <v>1009</v>
       </c>
       <c r="B1009" s="2" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C1009" s="8" t="s">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="D1009" s="8" t="s">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E1009" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F1009" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1009" s="5" t="s">
-        <v>2477</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1010" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31622,22 +31653,22 @@
         <v>1010</v>
       </c>
       <c r="B1010" s="2" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C1010" s="8" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D1010" s="8" t="s">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="E1010" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F1010" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1010" s="5" t="s">
-        <v>2486</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1011" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31645,22 +31676,22 @@
         <v>1011</v>
       </c>
       <c r="B1011" s="2" t="s">
-        <v>2020</v>
+        <v>2930</v>
       </c>
       <c r="C1011" s="8" t="s">
-        <v>2021</v>
+        <v>2931</v>
       </c>
       <c r="D1011" s="8" t="s">
-        <v>2022</v>
+        <v>2932</v>
       </c>
       <c r="E1011" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="F1011" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1011" s="5" t="s">
-        <v>2466</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1012" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31668,19 +31699,22 @@
         <v>1012</v>
       </c>
       <c r="B1012" s="2" t="s">
-        <v>2023</v>
+        <v>2933</v>
       </c>
       <c r="C1012" s="8" t="s">
-        <v>2024</v>
+        <v>2934</v>
+      </c>
+      <c r="D1012" s="8" t="s">
+        <v>2935</v>
       </c>
       <c r="E1012" s="5" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="F1012" s="5" t="s">
-        <v>2451</v>
+        <v>2427</v>
       </c>
       <c r="G1012" s="5" t="s">
-        <v>2460</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1013" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31688,22 +31722,22 @@
         <v>1013</v>
       </c>
       <c r="B1013" s="2" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C1013" s="8" t="s">
-        <v>2026</v>
+        <v>2016</v>
       </c>
       <c r="D1013" s="8" t="s">
-        <v>2027</v>
+        <v>2015</v>
       </c>
       <c r="E1013" s="5" t="s">
-        <v>2276</v>
+        <v>2265</v>
       </c>
       <c r="F1013" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G1013" s="5" t="s">
-        <v>2455</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1014" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31711,19 +31745,22 @@
         <v>1014</v>
       </c>
       <c r="B1014" s="2" t="s">
-        <v>2936</v>
+        <v>2017</v>
       </c>
       <c r="C1014" s="8" t="s">
-        <v>2937</v>
+        <v>2018</v>
+      </c>
+      <c r="D1014" s="8" t="s">
+        <v>2019</v>
       </c>
       <c r="E1014" s="5" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="F1014" s="5" t="s">
-        <v>2451</v>
+        <v>2444</v>
       </c>
       <c r="G1014" s="5" t="s">
-        <v>2454</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1015" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31731,22 +31768,22 @@
         <v>1015</v>
       </c>
       <c r="B1015" s="2" t="s">
-        <v>2028</v>
+        <v>2020</v>
       </c>
       <c r="C1015" s="8" t="s">
-        <v>2029</v>
+        <v>2021</v>
       </c>
       <c r="D1015" s="8" t="s">
-        <v>2030</v>
+        <v>2022</v>
       </c>
       <c r="E1015" s="5" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="F1015" s="5" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
       <c r="G1015" s="5" t="s">
-        <v>2305</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1016" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31754,22 +31791,19 @@
         <v>1016</v>
       </c>
       <c r="B1016" s="2" t="s">
-        <v>2031</v>
+        <v>2023</v>
       </c>
       <c r="C1016" s="8" t="s">
-        <v>2032</v>
-      </c>
-      <c r="D1016" s="8" t="s">
-        <v>2367</v>
+        <v>2024</v>
       </c>
       <c r="E1016" s="5" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="F1016" s="5" t="s">
-        <v>2440</v>
+        <v>2451</v>
       </c>
       <c r="G1016" s="5" t="s">
-        <v>2305</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1017" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31777,22 +31811,22 @@
         <v>1017</v>
       </c>
       <c r="B1017" s="2" t="s">
-        <v>2938</v>
+        <v>2025</v>
       </c>
       <c r="C1017" s="8" t="s">
-        <v>2939</v>
+        <v>2026</v>
       </c>
       <c r="D1017" s="8" t="s">
-        <v>2940</v>
+        <v>2027</v>
       </c>
       <c r="E1017" s="5" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="F1017" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G1017" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1018" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31800,22 +31834,19 @@
         <v>1018</v>
       </c>
       <c r="B1018" s="2" t="s">
-        <v>2033</v>
+        <v>2936</v>
       </c>
       <c r="C1018" s="8" t="s">
-        <v>2034</v>
-      </c>
-      <c r="D1018" s="8" t="s">
-        <v>2035</v>
+        <v>2937</v>
       </c>
       <c r="E1018" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F1018" s="5" t="s">
-        <v>2409</v>
+        <v>2451</v>
       </c>
       <c r="G1018" s="5" t="s">
-        <v>2449</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1019" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31823,22 +31854,22 @@
         <v>1019</v>
       </c>
       <c r="B1019" s="2" t="s">
-        <v>2036</v>
+        <v>2028</v>
       </c>
       <c r="C1019" s="8" t="s">
-        <v>2037</v>
+        <v>2029</v>
       </c>
       <c r="D1019" s="8" t="s">
-        <v>2038</v>
+        <v>2030</v>
       </c>
       <c r="E1019" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F1019" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G1019" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1020" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31846,22 +31877,22 @@
         <v>1020</v>
       </c>
       <c r="B1020" s="2" t="s">
-        <v>2039</v>
+        <v>2031</v>
       </c>
       <c r="C1020" s="8" t="s">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="D1020" s="8" t="s">
-        <v>2041</v>
+        <v>2367</v>
       </c>
       <c r="E1020" s="5" t="s">
-        <v>2279</v>
+        <v>2265</v>
       </c>
       <c r="F1020" s="5" t="s">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="G1020" s="5" t="s">
-        <v>2443</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1021" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31869,13 +31900,13 @@
         <v>1021</v>
       </c>
       <c r="B1021" s="2" t="s">
-        <v>2039</v>
+        <v>2938</v>
       </c>
       <c r="C1021" s="8" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="D1021" s="8" t="s">
-        <v>2041</v>
+        <v>2940</v>
       </c>
       <c r="E1021" s="5" t="s">
         <v>2279</v>
@@ -31892,22 +31923,22 @@
         <v>1022</v>
       </c>
       <c r="B1022" s="2" t="s">
-        <v>2042</v>
+        <v>2033</v>
       </c>
       <c r="C1022" s="8" t="s">
-        <v>2043</v>
+        <v>2034</v>
       </c>
       <c r="D1022" s="8" t="s">
-        <v>2044</v>
+        <v>2035</v>
       </c>
       <c r="E1022" s="5" t="s">
-        <v>2296</v>
+        <v>2265</v>
       </c>
       <c r="F1022" s="5" t="s">
-        <v>2444</v>
+        <v>2409</v>
       </c>
       <c r="G1022" s="5" t="s">
-        <v>2466</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1023" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31915,22 +31946,22 @@
         <v>1023</v>
       </c>
       <c r="B1023" s="2" t="s">
-        <v>2045</v>
+        <v>2036</v>
       </c>
       <c r="C1023" s="8" t="s">
-        <v>2046</v>
+        <v>2037</v>
       </c>
       <c r="D1023" s="8" t="s">
-        <v>2047</v>
+        <v>2038</v>
       </c>
       <c r="E1023" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F1023" s="5" t="s">
-        <v>2305</v>
+        <v>2427</v>
       </c>
       <c r="G1023" s="5" t="s">
-        <v>2456</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1024" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31938,19 +31969,22 @@
         <v>1024</v>
       </c>
       <c r="B1024" s="2" t="s">
-        <v>2048</v>
+        <v>2039</v>
       </c>
       <c r="C1024" s="8" t="s">
-        <v>2049</v>
+        <v>2040</v>
       </c>
       <c r="D1024" s="8" t="s">
-        <v>2050</v>
+        <v>2041</v>
       </c>
       <c r="E1024" s="5" t="s">
         <v>2279</v>
       </c>
       <c r="F1024" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
+      </c>
+      <c r="G1024" s="5" t="s">
+        <v>2443</v>
       </c>
     </row>
     <row r="1025" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31958,13 +31992,13 @@
         <v>1025</v>
       </c>
       <c r="B1025" s="2" t="s">
-        <v>2051</v>
+        <v>2039</v>
       </c>
       <c r="C1025" s="8" t="s">
-        <v>2052</v>
+        <v>2941</v>
       </c>
       <c r="D1025" s="8" t="s">
-        <v>2053</v>
+        <v>2041</v>
       </c>
       <c r="E1025" s="5" t="s">
         <v>2279</v>
@@ -31981,22 +32015,22 @@
         <v>1026</v>
       </c>
       <c r="B1026" s="2" t="s">
-        <v>2054</v>
+        <v>2042</v>
       </c>
       <c r="C1026" s="8" t="s">
-        <v>2055</v>
+        <v>2043</v>
       </c>
       <c r="D1026" s="8" t="s">
-        <v>2056</v>
+        <v>2044</v>
       </c>
       <c r="E1026" s="5" t="s">
-        <v>2265</v>
+        <v>2296</v>
       </c>
       <c r="F1026" s="5" t="s">
         <v>2444</v>
       </c>
       <c r="G1026" s="5" t="s">
-        <v>2486</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1027" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32004,16 +32038,22 @@
         <v>1027</v>
       </c>
       <c r="B1027" s="2" t="s">
-        <v>2057</v>
+        <v>2045</v>
       </c>
       <c r="C1027" s="8" t="s">
-        <v>2058</v>
+        <v>2046</v>
+      </c>
+      <c r="D1027" s="8" t="s">
+        <v>2047</v>
       </c>
       <c r="E1027" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F1027" s="5" t="s">
         <v>2305</v>
+      </c>
+      <c r="G1027" s="5" t="s">
+        <v>2456</v>
       </c>
     </row>
     <row r="1028" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32021,22 +32061,19 @@
         <v>1028</v>
       </c>
       <c r="B1028" s="2" t="s">
-        <v>2942</v>
+        <v>2048</v>
       </c>
       <c r="C1028" s="8" t="s">
-        <v>2943</v>
+        <v>2049</v>
       </c>
       <c r="D1028" s="8" t="s">
-        <v>2944</v>
+        <v>2050</v>
       </c>
       <c r="E1028" s="5" t="s">
-        <v>2313</v>
+        <v>2279</v>
       </c>
       <c r="F1028" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G1028" s="5" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1029" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32044,16 +32081,16 @@
         <v>1029</v>
       </c>
       <c r="B1029" s="2" t="s">
-        <v>2059</v>
+        <v>2051</v>
       </c>
       <c r="C1029" s="8" t="s">
-        <v>2060</v>
+        <v>2052</v>
       </c>
       <c r="D1029" s="8" t="s">
-        <v>2061</v>
+        <v>2053</v>
       </c>
       <c r="E1029" s="5" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="F1029" s="5" t="s">
         <v>2427</v>
@@ -32067,22 +32104,22 @@
         <v>1030</v>
       </c>
       <c r="B1030" s="2" t="s">
-        <v>2062</v>
+        <v>2054</v>
       </c>
       <c r="C1030" s="8" t="s">
-        <v>2063</v>
+        <v>2055</v>
       </c>
       <c r="D1030" s="8" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
       <c r="E1030" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="F1030" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G1030" s="5" t="s">
-        <v>2482</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1031" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32090,22 +32127,16 @@
         <v>1031</v>
       </c>
       <c r="B1031" s="2" t="s">
-        <v>2065</v>
+        <v>2057</v>
       </c>
       <c r="C1031" s="8" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D1031" s="8" t="s">
-        <v>2067</v>
+        <v>2058</v>
       </c>
       <c r="E1031" s="5" t="s">
-        <v>2361</v>
+        <v>2274</v>
       </c>
       <c r="F1031" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G1031" s="5" t="s">
-        <v>2482</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1032" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32113,22 +32144,22 @@
         <v>1032</v>
       </c>
       <c r="B1032" s="2" t="s">
-        <v>2068</v>
+        <v>2942</v>
       </c>
       <c r="C1032" s="8" t="s">
-        <v>2069</v>
+        <v>2943</v>
       </c>
       <c r="D1032" s="8" t="s">
-        <v>2424</v>
+        <v>2944</v>
       </c>
       <c r="E1032" s="5" t="s">
-        <v>2423</v>
+        <v>2313</v>
       </c>
       <c r="F1032" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G1032" s="5" t="s">
-        <v>2464</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1033" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32136,22 +32167,22 @@
         <v>1033</v>
       </c>
       <c r="B1033" s="2" t="s">
-        <v>2070</v>
+        <v>2059</v>
       </c>
       <c r="C1033" s="8" t="s">
-        <v>2071</v>
+        <v>2060</v>
       </c>
       <c r="D1033" s="8" t="s">
-        <v>2072</v>
+        <v>2061</v>
       </c>
       <c r="E1033" s="5" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="F1033" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G1033" s="5" t="s">
-        <v>2461</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1034" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32159,19 +32190,22 @@
         <v>1034</v>
       </c>
       <c r="B1034" s="2" t="s">
-        <v>2073</v>
+        <v>2062</v>
       </c>
       <c r="C1034" s="8" t="s">
-        <v>2074</v>
+        <v>2063</v>
+      </c>
+      <c r="D1034" s="8" t="s">
+        <v>2064</v>
       </c>
       <c r="E1034" s="5" t="s">
-        <v>2313</v>
+        <v>2267</v>
       </c>
       <c r="F1034" s="5" t="s">
-        <v>2445</v>
+        <v>2427</v>
       </c>
       <c r="G1034" s="5" t="s">
-        <v>2473</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1035" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32179,22 +32213,22 @@
         <v>1035</v>
       </c>
       <c r="B1035" s="2" t="s">
-        <v>2075</v>
+        <v>2065</v>
       </c>
       <c r="C1035" s="8" t="s">
-        <v>2076</v>
+        <v>2066</v>
       </c>
       <c r="D1035" s="8" t="s">
-        <v>2077</v>
+        <v>2067</v>
       </c>
       <c r="E1035" s="5" t="s">
-        <v>2281</v>
+        <v>2361</v>
       </c>
       <c r="F1035" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G1035" s="5" t="s">
-        <v>2459</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1036" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32202,22 +32236,22 @@
         <v>1036</v>
       </c>
       <c r="B1036" s="2" t="s">
-        <v>2078</v>
+        <v>2068</v>
       </c>
       <c r="C1036" s="8" t="s">
-        <v>2079</v>
+        <v>2069</v>
       </c>
       <c r="D1036" s="8" t="s">
-        <v>2080</v>
+        <v>2424</v>
       </c>
       <c r="E1036" s="5" t="s">
-        <v>2270</v>
+        <v>2423</v>
       </c>
       <c r="F1036" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G1036" s="5" t="s">
-        <v>2482</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1037" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32225,19 +32259,22 @@
         <v>1037</v>
       </c>
       <c r="B1037" s="2" t="s">
-        <v>2081</v>
+        <v>2070</v>
       </c>
       <c r="C1037" s="8" t="s">
-        <v>2082</v>
+        <v>2071</v>
+      </c>
+      <c r="D1037" s="8" t="s">
+        <v>2072</v>
       </c>
       <c r="E1037" s="5" t="s">
-        <v>2296</v>
+        <v>2274</v>
       </c>
       <c r="F1037" s="5" t="s">
         <v>2427</v>
       </c>
       <c r="G1037" s="5" t="s">
-        <v>2443</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1038" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32245,19 +32282,19 @@
         <v>1038</v>
       </c>
       <c r="B1038" s="2" t="s">
-        <v>2083</v>
+        <v>2073</v>
       </c>
       <c r="C1038" s="8" t="s">
-        <v>2084</v>
+        <v>2074</v>
       </c>
       <c r="E1038" s="5" t="s">
-        <v>2265</v>
+        <v>2313</v>
       </c>
       <c r="F1038" s="5" t="s">
-        <v>2427</v>
+        <v>2445</v>
       </c>
       <c r="G1038" s="5" t="s">
-        <v>2461</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1039" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32265,16 +32302,22 @@
         <v>1039</v>
       </c>
       <c r="B1039" s="2" t="s">
-        <v>2085</v>
+        <v>2075</v>
       </c>
       <c r="C1039" s="8" t="s">
-        <v>2086</v>
+        <v>2076</v>
+      </c>
+      <c r="D1039" s="8" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E1039" s="5" t="s">
+        <v>2281</v>
       </c>
       <c r="F1039" s="5" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="G1039" s="5" t="s">
-        <v>2305</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="1040" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32282,22 +32325,22 @@
         <v>1040</v>
       </c>
       <c r="B1040" s="2" t="s">
-        <v>2087</v>
+        <v>2078</v>
       </c>
       <c r="C1040" s="8" t="s">
-        <v>2088</v>
+        <v>2079</v>
       </c>
       <c r="D1040" s="8" t="s">
-        <v>2089</v>
+        <v>2080</v>
       </c>
       <c r="E1040" s="5" t="s">
         <v>2270</v>
       </c>
       <c r="F1040" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1040" s="5" t="s">
-        <v>2466</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1041" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32305,22 +32348,19 @@
         <v>1041</v>
       </c>
       <c r="B1041" s="2" t="s">
-        <v>2090</v>
+        <v>2081</v>
       </c>
       <c r="C1041" s="8" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D1041" s="8" t="s">
-        <v>2092</v>
+        <v>2082</v>
       </c>
       <c r="E1041" s="5" t="s">
-        <v>2265</v>
+        <v>2296</v>
       </c>
       <c r="F1041" s="5" t="s">
-        <v>2310</v>
+        <v>2427</v>
       </c>
       <c r="G1041" s="5" t="s">
-        <v>2305</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1042" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32328,19 +32368,19 @@
         <v>1042</v>
       </c>
       <c r="B1042" s="2" t="s">
-        <v>2093</v>
+        <v>2083</v>
       </c>
       <c r="C1042" s="8" t="s">
-        <v>2094</v>
+        <v>2084</v>
       </c>
       <c r="E1042" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F1042" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1042" s="5" t="s">
-        <v>2467</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1043" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32348,22 +32388,16 @@
         <v>1043</v>
       </c>
       <c r="B1043" s="2" t="s">
-        <v>2095</v>
+        <v>2085</v>
       </c>
       <c r="C1043" s="8" t="s">
-        <v>2096</v>
-      </c>
-      <c r="D1043" s="8" t="s">
-        <v>2097</v>
-      </c>
-      <c r="E1043" s="5" t="s">
-        <v>2270</v>
+        <v>2086</v>
       </c>
       <c r="F1043" s="5" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="G1043" s="5" t="s">
-        <v>2484</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1044" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32371,22 +32405,22 @@
         <v>1044</v>
       </c>
       <c r="B1044" s="2" t="s">
-        <v>2098</v>
+        <v>2087</v>
       </c>
       <c r="C1044" s="8" t="s">
-        <v>2099</v>
+        <v>2088</v>
       </c>
       <c r="D1044" s="8" t="s">
-        <v>2100</v>
+        <v>2089</v>
       </c>
       <c r="E1044" s="5" t="s">
-        <v>2279</v>
+        <v>2270</v>
       </c>
       <c r="F1044" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G1044" s="5" t="s">
-        <v>2443</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1045" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32394,22 +32428,22 @@
         <v>1045</v>
       </c>
       <c r="B1045" s="2" t="s">
-        <v>2101</v>
+        <v>2090</v>
       </c>
       <c r="C1045" s="8" t="s">
-        <v>2102</v>
+        <v>2091</v>
       </c>
       <c r="D1045" s="8" t="s">
-        <v>2103</v>
+        <v>2092</v>
       </c>
       <c r="E1045" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F1045" s="5" t="s">
-        <v>2444</v>
+        <v>2310</v>
       </c>
       <c r="G1045" s="5" t="s">
-        <v>2455</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1046" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32417,22 +32451,19 @@
         <v>1046</v>
       </c>
       <c r="B1046" s="2" t="s">
-        <v>2104</v>
+        <v>2093</v>
       </c>
       <c r="C1046" s="8" t="s">
-        <v>2105</v>
-      </c>
-      <c r="D1046" s="8" t="s">
-        <v>2106</v>
+        <v>2094</v>
       </c>
       <c r="E1046" s="5" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="F1046" s="5" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="G1046" s="5" t="s">
-        <v>2493</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="1047" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32440,22 +32471,22 @@
         <v>1047</v>
       </c>
       <c r="B1047" s="2" t="s">
-        <v>2945</v>
+        <v>2095</v>
       </c>
       <c r="C1047" s="8" t="s">
-        <v>2946</v>
+        <v>2096</v>
       </c>
       <c r="D1047" s="8" t="s">
-        <v>2947</v>
+        <v>2097</v>
       </c>
       <c r="E1047" s="5" t="s">
-        <v>2303</v>
+        <v>2270</v>
       </c>
       <c r="F1047" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G1047" s="5" t="s">
-        <v>2443</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1048" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32463,16 +32494,16 @@
         <v>1048</v>
       </c>
       <c r="B1048" s="2" t="s">
-        <v>2107</v>
+        <v>2098</v>
       </c>
       <c r="C1048" s="8" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="D1048" s="8" t="s">
-        <v>2109</v>
+        <v>2100</v>
       </c>
       <c r="E1048" s="5" t="s">
-        <v>2274</v>
+        <v>2279</v>
       </c>
       <c r="F1048" s="5" t="s">
         <v>2427</v>
@@ -32486,22 +32517,22 @@
         <v>1049</v>
       </c>
       <c r="B1049" s="2" t="s">
-        <v>2110</v>
+        <v>3004</v>
       </c>
       <c r="C1049" s="8" t="s">
-        <v>2111</v>
+        <v>3003</v>
       </c>
       <c r="D1049" s="8" t="s">
-        <v>2112</v>
+        <v>3005</v>
       </c>
       <c r="E1049" s="5" t="s">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="F1049" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G1049" s="5" t="s">
-        <v>2443</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1050" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32509,22 +32540,22 @@
         <v>1050</v>
       </c>
       <c r="B1050" s="2" t="s">
-        <v>2113</v>
+        <v>2101</v>
       </c>
       <c r="C1050" s="8" t="s">
-        <v>2114</v>
+        <v>2102</v>
       </c>
       <c r="D1050" s="8" t="s">
-        <v>2115</v>
+        <v>2103</v>
       </c>
       <c r="E1050" s="5" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="F1050" s="5" t="s">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="G1050" s="5" t="s">
-        <v>2443</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1051" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32532,19 +32563,22 @@
         <v>1051</v>
       </c>
       <c r="B1051" s="2" t="s">
-        <v>2116</v>
+        <v>2104</v>
       </c>
       <c r="C1051" s="8" t="s">
-        <v>2117</v>
+        <v>2105</v>
+      </c>
+      <c r="D1051" s="8" t="s">
+        <v>2106</v>
       </c>
       <c r="E1051" s="5" t="s">
         <v>2270</v>
       </c>
       <c r="F1051" s="5" t="s">
-        <v>2427</v>
+        <v>2445</v>
       </c>
       <c r="G1051" s="5" t="s">
-        <v>2482</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1052" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32552,22 +32586,22 @@
         <v>1052</v>
       </c>
       <c r="B1052" s="2" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C1052" s="4" t="s">
-        <v>2196</v>
+        <v>2945</v>
+      </c>
+      <c r="C1052" s="8" t="s">
+        <v>2946</v>
       </c>
       <c r="D1052" s="8" t="s">
-        <v>2864</v>
+        <v>2947</v>
       </c>
       <c r="E1052" s="5" t="s">
-        <v>2279</v>
+        <v>2303</v>
       </c>
       <c r="F1052" s="5" t="s">
-        <v>2451</v>
+        <v>2427</v>
       </c>
       <c r="G1052" s="5" t="s">
-        <v>2460</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1053" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32575,19 +32609,22 @@
         <v>1053</v>
       </c>
       <c r="B1053" s="2" t="s">
-        <v>2118</v>
+        <v>2107</v>
       </c>
       <c r="C1053" s="8" t="s">
-        <v>2119</v>
+        <v>2108</v>
+      </c>
+      <c r="D1053" s="8" t="s">
+        <v>2109</v>
       </c>
       <c r="E1053" s="5" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="F1053" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1053" s="5" t="s">
-        <v>2484</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1054" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32595,16 +32632,16 @@
         <v>1054</v>
       </c>
       <c r="B1054" s="2" t="s">
-        <v>2120</v>
-      </c>
-      <c r="C1054" s="4" t="s">
-        <v>2196</v>
+        <v>2110</v>
+      </c>
+      <c r="C1054" s="8" t="s">
+        <v>2111</v>
       </c>
       <c r="D1054" s="8" t="s">
-        <v>2121</v>
+        <v>2112</v>
       </c>
       <c r="E1054" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="F1054" s="5" t="s">
         <v>2427</v>
@@ -32618,22 +32655,22 @@
         <v>1055</v>
       </c>
       <c r="B1055" s="2" t="s">
-        <v>2122</v>
+        <v>2113</v>
       </c>
       <c r="C1055" s="8" t="s">
-        <v>2123</v>
+        <v>2114</v>
       </c>
       <c r="D1055" s="8" t="s">
-        <v>2124</v>
+        <v>2115</v>
       </c>
       <c r="E1055" s="5" t="s">
         <v>2265</v>
       </c>
       <c r="F1055" s="5" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="G1055" s="5" t="s">
-        <v>2481</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1056" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32641,321 +32678,430 @@
         <v>1056</v>
       </c>
       <c r="B1056" s="2" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C1056" s="8" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E1056" s="5" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F1056" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="G1056" s="5" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1057" s="2">
+        <v>1057</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C1057" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D1057" s="8" t="s">
+        <v>2864</v>
+      </c>
+      <c r="E1057" s="5" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F1057" s="5" t="s">
+        <v>2451</v>
+      </c>
+      <c r="G1057" s="5" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1058" s="2">
+        <v>1058</v>
+      </c>
+      <c r="B1058" s="2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C1058" s="8" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E1058" s="5" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F1058" s="5" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G1058" s="5" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1059" s="2">
+        <v>1059</v>
+      </c>
+      <c r="B1059" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C1059" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D1059" s="8" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E1059" s="5" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F1059" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="G1059" s="5" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1060" s="2">
+        <v>1060</v>
+      </c>
+      <c r="B1060" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C1060" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D1060" s="8" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E1060" s="5" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F1060" s="5" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G1060" s="5" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1061" s="2">
+        <v>1061</v>
+      </c>
+      <c r="B1061" s="2" t="s">
         <v>2425</v>
       </c>
-      <c r="C1056" s="8" t="s">
+      <c r="C1061" s="8" t="s">
         <v>2125</v>
       </c>
-      <c r="D1056" s="8" t="s">
+      <c r="D1061" s="8" t="s">
         <v>2426</v>
       </c>
-      <c r="E1056" s="5" t="s">
+      <c r="E1061" s="5" t="s">
         <v>2267</v>
       </c>
-      <c r="F1056" s="5" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G1056" s="5" t="s">
+      <c r="F1061" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="G1061" s="5" t="s">
         <v>2443</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:H1037">
-    <sortCondition ref="B932"/>
+  <sortState ref="A3:H1061">
+    <sortCondition ref="B1029"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C1056" r:id="rId1"/>
-    <hyperlink ref="C1055" r:id="rId2" location="jobs"/>
-    <hyperlink ref="D1055" r:id="rId3"/>
-    <hyperlink ref="D1054" r:id="rId4"/>
-    <hyperlink ref="C1053" r:id="rId5"/>
-    <hyperlink ref="C1051" r:id="rId6"/>
-    <hyperlink ref="C1050" r:id="rId7"/>
-    <hyperlink ref="D1050" r:id="rId8"/>
-    <hyperlink ref="C1048" r:id="rId9"/>
-    <hyperlink ref="D1048" r:id="rId10"/>
-    <hyperlink ref="C1045" r:id="rId11"/>
-    <hyperlink ref="D1045" r:id="rId12"/>
-    <hyperlink ref="C1044" r:id="rId13"/>
-    <hyperlink ref="D1044" r:id="rId14"/>
-    <hyperlink ref="D1043" r:id="rId15"/>
-    <hyperlink ref="C1043" r:id="rId16"/>
-    <hyperlink ref="C1042" r:id="rId17"/>
-    <hyperlink ref="C1041" r:id="rId18"/>
-    <hyperlink ref="D1041" r:id="rId19"/>
-    <hyperlink ref="C1040" r:id="rId20"/>
-    <hyperlink ref="D1040" r:id="rId21"/>
-    <hyperlink ref="C1039" r:id="rId22"/>
-    <hyperlink ref="C1038" r:id="rId23" location="careers_about"/>
-    <hyperlink ref="C1037" r:id="rId24"/>
-    <hyperlink ref="C1036" r:id="rId25"/>
-    <hyperlink ref="D1036" r:id="rId26"/>
-    <hyperlink ref="C1035" r:id="rId27"/>
-    <hyperlink ref="D1035" r:id="rId28"/>
-    <hyperlink ref="C1034" r:id="rId29"/>
-    <hyperlink ref="C1033" r:id="rId30"/>
-    <hyperlink ref="D1033" r:id="rId31"/>
-    <hyperlink ref="C1032" r:id="rId32"/>
-    <hyperlink ref="C1031" r:id="rId33"/>
-    <hyperlink ref="D1031" r:id="rId34"/>
-    <hyperlink ref="C1030" r:id="rId35"/>
-    <hyperlink ref="D1030" r:id="rId36"/>
-    <hyperlink ref="C1029" r:id="rId37"/>
-    <hyperlink ref="D1029" r:id="rId38"/>
-    <hyperlink ref="C1027" r:id="rId39"/>
-    <hyperlink ref="C1026" r:id="rId40"/>
-    <hyperlink ref="D1026" r:id="rId41"/>
-    <hyperlink ref="C1025" r:id="rId42"/>
-    <hyperlink ref="D1025" r:id="rId43"/>
-    <hyperlink ref="D1024" r:id="rId44"/>
-    <hyperlink ref="C1022" r:id="rId45"/>
-    <hyperlink ref="D1022" r:id="rId46"/>
-    <hyperlink ref="C1020" r:id="rId47"/>
-    <hyperlink ref="D1020" r:id="rId48"/>
-    <hyperlink ref="C1019" r:id="rId49" location="career-position"/>
-    <hyperlink ref="D1019" r:id="rId50"/>
-    <hyperlink ref="C1018" r:id="rId51"/>
-    <hyperlink ref="D1018" r:id="rId52"/>
-    <hyperlink ref="D1023" r:id="rId53"/>
-    <hyperlink ref="C1016" r:id="rId54"/>
-    <hyperlink ref="C1015" r:id="rId55"/>
-    <hyperlink ref="D1015" r:id="rId56"/>
-    <hyperlink ref="C1013" r:id="rId57"/>
-    <hyperlink ref="D1013" r:id="rId58"/>
-    <hyperlink ref="C1011" r:id="rId59"/>
-    <hyperlink ref="D1011" r:id="rId60"/>
-    <hyperlink ref="C1010" r:id="rId61"/>
-    <hyperlink ref="D1010" r:id="rId62"/>
-    <hyperlink ref="C1009" r:id="rId63"/>
-    <hyperlink ref="C1006" r:id="rId64"/>
-    <hyperlink ref="D1006" r:id="rId65"/>
-    <hyperlink ref="C1005" r:id="rId66"/>
-    <hyperlink ref="D1005" r:id="rId67"/>
-    <hyperlink ref="C1004" r:id="rId68" location="positions"/>
-    <hyperlink ref="D1004" r:id="rId69"/>
-    <hyperlink ref="C1003" r:id="rId70"/>
-    <hyperlink ref="D1003" r:id="rId71"/>
-    <hyperlink ref="D1001" r:id="rId72"/>
-    <hyperlink ref="C1001" r:id="rId73"/>
-    <hyperlink ref="C1000" r:id="rId74"/>
-    <hyperlink ref="D1000" r:id="rId75"/>
-    <hyperlink ref="D999" r:id="rId76"/>
-    <hyperlink ref="C997" r:id="rId77"/>
-    <hyperlink ref="D997" r:id="rId78"/>
-    <hyperlink ref="D996" r:id="rId79"/>
-    <hyperlink ref="D995" r:id="rId80"/>
-    <hyperlink ref="C995" r:id="rId81"/>
-    <hyperlink ref="D994" r:id="rId82"/>
-    <hyperlink ref="C994" r:id="rId83" location="open-positions"/>
-    <hyperlink ref="D992" r:id="rId84"/>
-    <hyperlink ref="C991" r:id="rId85"/>
-    <hyperlink ref="D991" r:id="rId86"/>
-    <hyperlink ref="C990" r:id="rId87"/>
-    <hyperlink ref="D990" r:id="rId88"/>
-    <hyperlink ref="C988" r:id="rId89"/>
-    <hyperlink ref="D988" r:id="rId90"/>
-    <hyperlink ref="D987" r:id="rId91"/>
-    <hyperlink ref="C987" r:id="rId92"/>
-    <hyperlink ref="C986" r:id="rId93" location="careers-list"/>
-    <hyperlink ref="D986" r:id="rId94"/>
-    <hyperlink ref="C985" r:id="rId95"/>
-    <hyperlink ref="C983" r:id="rId96"/>
-    <hyperlink ref="D983" r:id="rId97"/>
-    <hyperlink ref="D982" r:id="rId98"/>
-    <hyperlink ref="C982" r:id="rId99"/>
-    <hyperlink ref="D980" r:id="rId100"/>
-    <hyperlink ref="C979" r:id="rId101"/>
-    <hyperlink ref="C978" r:id="rId102"/>
-    <hyperlink ref="D978" r:id="rId103"/>
-    <hyperlink ref="C977" r:id="rId104"/>
-    <hyperlink ref="D977" r:id="rId105"/>
-    <hyperlink ref="C976" r:id="rId106"/>
-    <hyperlink ref="D976" r:id="rId107"/>
-    <hyperlink ref="C975" r:id="rId108"/>
-    <hyperlink ref="D975" r:id="rId109"/>
-    <hyperlink ref="C974" r:id="rId110" location="open-positions"/>
-    <hyperlink ref="D974" r:id="rId111"/>
-    <hyperlink ref="C973" r:id="rId112"/>
-    <hyperlink ref="D973" r:id="rId113"/>
-    <hyperlink ref="C972" r:id="rId114"/>
-    <hyperlink ref="D972" r:id="rId115"/>
-    <hyperlink ref="C970" r:id="rId116"/>
-    <hyperlink ref="C968" r:id="rId117"/>
-    <hyperlink ref="D968" r:id="rId118"/>
-    <hyperlink ref="C967" r:id="rId119"/>
-    <hyperlink ref="D967" r:id="rId120"/>
-    <hyperlink ref="C966" r:id="rId121"/>
-    <hyperlink ref="D964" r:id="rId122"/>
-    <hyperlink ref="C962" r:id="rId123"/>
-    <hyperlink ref="D962" r:id="rId124"/>
-    <hyperlink ref="C960" r:id="rId125"/>
-    <hyperlink ref="D959" r:id="rId126"/>
-    <hyperlink ref="D956" r:id="rId127"/>
-    <hyperlink ref="D955" r:id="rId128"/>
-    <hyperlink ref="D953" r:id="rId129"/>
-    <hyperlink ref="C958" r:id="rId130"/>
-    <hyperlink ref="C956" r:id="rId131"/>
-    <hyperlink ref="C955" r:id="rId132"/>
-    <hyperlink ref="C953" r:id="rId133"/>
-    <hyperlink ref="C952" r:id="rId134"/>
-    <hyperlink ref="D949" r:id="rId135"/>
-    <hyperlink ref="C949" r:id="rId136"/>
-    <hyperlink ref="C948" r:id="rId137"/>
-    <hyperlink ref="D948" r:id="rId138"/>
-    <hyperlink ref="C947" r:id="rId139"/>
-    <hyperlink ref="D947" r:id="rId140"/>
-    <hyperlink ref="C944" r:id="rId141"/>
-    <hyperlink ref="D944" r:id="rId142"/>
-    <hyperlink ref="C943" r:id="rId143"/>
-    <hyperlink ref="D943" r:id="rId144"/>
-    <hyperlink ref="C942" r:id="rId145"/>
-    <hyperlink ref="D942" r:id="rId146"/>
-    <hyperlink ref="D941" r:id="rId147"/>
-    <hyperlink ref="C939" r:id="rId148" location="open-positions"/>
-    <hyperlink ref="D939" r:id="rId149"/>
-    <hyperlink ref="D938" r:id="rId150"/>
-    <hyperlink ref="C937" r:id="rId151" location="openings"/>
-    <hyperlink ref="D937" r:id="rId152"/>
-    <hyperlink ref="C936" r:id="rId153"/>
-    <hyperlink ref="D936" r:id="rId154"/>
-    <hyperlink ref="D935" r:id="rId155"/>
-    <hyperlink ref="C934" r:id="rId156"/>
-    <hyperlink ref="D934" r:id="rId157"/>
+    <hyperlink ref="C1061" r:id="rId1"/>
+    <hyperlink ref="C1060" r:id="rId2" location="jobs"/>
+    <hyperlink ref="D1060" r:id="rId3"/>
+    <hyperlink ref="D1059" r:id="rId4"/>
+    <hyperlink ref="C1058" r:id="rId5"/>
+    <hyperlink ref="C1056" r:id="rId6"/>
+    <hyperlink ref="C1055" r:id="rId7"/>
+    <hyperlink ref="D1055" r:id="rId8"/>
+    <hyperlink ref="C1053" r:id="rId9"/>
+    <hyperlink ref="D1053" r:id="rId10"/>
+    <hyperlink ref="C1050" r:id="rId11"/>
+    <hyperlink ref="D1050" r:id="rId12"/>
+    <hyperlink ref="C1048" r:id="rId13"/>
+    <hyperlink ref="D1048" r:id="rId14"/>
+    <hyperlink ref="D1047" r:id="rId15"/>
+    <hyperlink ref="C1047" r:id="rId16"/>
+    <hyperlink ref="C1046" r:id="rId17"/>
+    <hyperlink ref="C1045" r:id="rId18"/>
+    <hyperlink ref="D1045" r:id="rId19"/>
+    <hyperlink ref="C1044" r:id="rId20"/>
+    <hyperlink ref="D1044" r:id="rId21"/>
+    <hyperlink ref="C1043" r:id="rId22"/>
+    <hyperlink ref="C1042" r:id="rId23" location="careers_about"/>
+    <hyperlink ref="C1041" r:id="rId24"/>
+    <hyperlink ref="C1040" r:id="rId25"/>
+    <hyperlink ref="D1040" r:id="rId26"/>
+    <hyperlink ref="C1039" r:id="rId27"/>
+    <hyperlink ref="D1039" r:id="rId28"/>
+    <hyperlink ref="C1038" r:id="rId29"/>
+    <hyperlink ref="C1037" r:id="rId30"/>
+    <hyperlink ref="D1037" r:id="rId31"/>
+    <hyperlink ref="C1036" r:id="rId32"/>
+    <hyperlink ref="C1035" r:id="rId33"/>
+    <hyperlink ref="D1035" r:id="rId34"/>
+    <hyperlink ref="C1034" r:id="rId35"/>
+    <hyperlink ref="D1034" r:id="rId36"/>
+    <hyperlink ref="C1033" r:id="rId37"/>
+    <hyperlink ref="D1033" r:id="rId38"/>
+    <hyperlink ref="C1031" r:id="rId39"/>
+    <hyperlink ref="C1030" r:id="rId40"/>
+    <hyperlink ref="D1030" r:id="rId41"/>
+    <hyperlink ref="C1029" r:id="rId42"/>
+    <hyperlink ref="D1029" r:id="rId43"/>
+    <hyperlink ref="D1028" r:id="rId44"/>
+    <hyperlink ref="C1026" r:id="rId45"/>
+    <hyperlink ref="D1026" r:id="rId46"/>
+    <hyperlink ref="C1024" r:id="rId47"/>
+    <hyperlink ref="D1024" r:id="rId48"/>
+    <hyperlink ref="C1023" r:id="rId49" location="career-position"/>
+    <hyperlink ref="D1023" r:id="rId50"/>
+    <hyperlink ref="C1022" r:id="rId51"/>
+    <hyperlink ref="D1022" r:id="rId52"/>
+    <hyperlink ref="D1027" r:id="rId53"/>
+    <hyperlink ref="C1020" r:id="rId54"/>
+    <hyperlink ref="C1019" r:id="rId55"/>
+    <hyperlink ref="D1019" r:id="rId56"/>
+    <hyperlink ref="C1017" r:id="rId57"/>
+    <hyperlink ref="D1017" r:id="rId58"/>
+    <hyperlink ref="C1015" r:id="rId59"/>
+    <hyperlink ref="D1015" r:id="rId60"/>
+    <hyperlink ref="C1014" r:id="rId61"/>
+    <hyperlink ref="D1014" r:id="rId62"/>
+    <hyperlink ref="C1013" r:id="rId63"/>
+    <hyperlink ref="C1010" r:id="rId64"/>
+    <hyperlink ref="D1010" r:id="rId65"/>
+    <hyperlink ref="C1009" r:id="rId66"/>
+    <hyperlink ref="D1009" r:id="rId67"/>
+    <hyperlink ref="C1008" r:id="rId68" location="positions"/>
+    <hyperlink ref="D1008" r:id="rId69"/>
+    <hyperlink ref="C1007" r:id="rId70"/>
+    <hyperlink ref="D1007" r:id="rId71"/>
+    <hyperlink ref="D1005" r:id="rId72"/>
+    <hyperlink ref="C1005" r:id="rId73"/>
+    <hyperlink ref="C1004" r:id="rId74"/>
+    <hyperlink ref="D1004" r:id="rId75"/>
+    <hyperlink ref="D1003" r:id="rId76"/>
+    <hyperlink ref="C1001" r:id="rId77"/>
+    <hyperlink ref="D1001" r:id="rId78"/>
+    <hyperlink ref="D1000" r:id="rId79"/>
+    <hyperlink ref="D999" r:id="rId80"/>
+    <hyperlink ref="C999" r:id="rId81"/>
+    <hyperlink ref="D998" r:id="rId82"/>
+    <hyperlink ref="C998" r:id="rId83" location="open-positions"/>
+    <hyperlink ref="D996" r:id="rId84"/>
+    <hyperlink ref="C995" r:id="rId85"/>
+    <hyperlink ref="D995" r:id="rId86"/>
+    <hyperlink ref="C994" r:id="rId87"/>
+    <hyperlink ref="D994" r:id="rId88"/>
+    <hyperlink ref="C992" r:id="rId89"/>
+    <hyperlink ref="D992" r:id="rId90"/>
+    <hyperlink ref="D991" r:id="rId91"/>
+    <hyperlink ref="C991" r:id="rId92"/>
+    <hyperlink ref="C990" r:id="rId93" location="careers-list"/>
+    <hyperlink ref="D990" r:id="rId94"/>
+    <hyperlink ref="C989" r:id="rId95"/>
+    <hyperlink ref="C987" r:id="rId96"/>
+    <hyperlink ref="D987" r:id="rId97"/>
+    <hyperlink ref="D986" r:id="rId98"/>
+    <hyperlink ref="C986" r:id="rId99"/>
+    <hyperlink ref="D984" r:id="rId100"/>
+    <hyperlink ref="C983" r:id="rId101"/>
+    <hyperlink ref="C982" r:id="rId102"/>
+    <hyperlink ref="D982" r:id="rId103"/>
+    <hyperlink ref="C981" r:id="rId104"/>
+    <hyperlink ref="D981" r:id="rId105"/>
+    <hyperlink ref="C980" r:id="rId106"/>
+    <hyperlink ref="D980" r:id="rId107"/>
+    <hyperlink ref="C979" r:id="rId108"/>
+    <hyperlink ref="D979" r:id="rId109"/>
+    <hyperlink ref="C978" r:id="rId110" location="open-positions"/>
+    <hyperlink ref="D978" r:id="rId111"/>
+    <hyperlink ref="C977" r:id="rId112"/>
+    <hyperlink ref="D977" r:id="rId113"/>
+    <hyperlink ref="C976" r:id="rId114"/>
+    <hyperlink ref="D976" r:id="rId115"/>
+    <hyperlink ref="C974" r:id="rId116"/>
+    <hyperlink ref="C972" r:id="rId117"/>
+    <hyperlink ref="D972" r:id="rId118"/>
+    <hyperlink ref="C971" r:id="rId119"/>
+    <hyperlink ref="D971" r:id="rId120"/>
+    <hyperlink ref="C970" r:id="rId121"/>
+    <hyperlink ref="D968" r:id="rId122"/>
+    <hyperlink ref="C966" r:id="rId123"/>
+    <hyperlink ref="D966" r:id="rId124"/>
+    <hyperlink ref="C964" r:id="rId125"/>
+    <hyperlink ref="D963" r:id="rId126"/>
+    <hyperlink ref="D960" r:id="rId127"/>
+    <hyperlink ref="D959" r:id="rId128"/>
+    <hyperlink ref="D957" r:id="rId129"/>
+    <hyperlink ref="C962" r:id="rId130"/>
+    <hyperlink ref="C960" r:id="rId131"/>
+    <hyperlink ref="C959" r:id="rId132"/>
+    <hyperlink ref="C957" r:id="rId133"/>
+    <hyperlink ref="C956" r:id="rId134"/>
+    <hyperlink ref="D953" r:id="rId135"/>
+    <hyperlink ref="C953" r:id="rId136"/>
+    <hyperlink ref="C952" r:id="rId137"/>
+    <hyperlink ref="D952" r:id="rId138"/>
+    <hyperlink ref="C949" r:id="rId139"/>
+    <hyperlink ref="D949" r:id="rId140"/>
+    <hyperlink ref="C946" r:id="rId141"/>
+    <hyperlink ref="D946" r:id="rId142"/>
+    <hyperlink ref="C945" r:id="rId143"/>
+    <hyperlink ref="D945" r:id="rId144"/>
+    <hyperlink ref="C944" r:id="rId145"/>
+    <hyperlink ref="D944" r:id="rId146"/>
+    <hyperlink ref="D943" r:id="rId147"/>
+    <hyperlink ref="C941" r:id="rId148" location="open-positions"/>
+    <hyperlink ref="D941" r:id="rId149"/>
+    <hyperlink ref="D940" r:id="rId150"/>
+    <hyperlink ref="C939" r:id="rId151" location="openings"/>
+    <hyperlink ref="D939" r:id="rId152"/>
+    <hyperlink ref="C938" r:id="rId153"/>
+    <hyperlink ref="D938" r:id="rId154"/>
+    <hyperlink ref="D937" r:id="rId155"/>
+    <hyperlink ref="C936" r:id="rId156"/>
+    <hyperlink ref="D936" r:id="rId157"/>
     <hyperlink ref="C156" r:id="rId158"/>
     <hyperlink ref="D156" r:id="rId159"/>
-    <hyperlink ref="C932" r:id="rId160"/>
-    <hyperlink ref="C931" r:id="rId161"/>
-    <hyperlink ref="D931" r:id="rId162"/>
-    <hyperlink ref="C930" r:id="rId163"/>
-    <hyperlink ref="D930" r:id="rId164"/>
-    <hyperlink ref="C929" r:id="rId165"/>
-    <hyperlink ref="D929" r:id="rId166"/>
-    <hyperlink ref="C927" r:id="rId167"/>
-    <hyperlink ref="D927" r:id="rId168"/>
-    <hyperlink ref="C926" r:id="rId169"/>
-    <hyperlink ref="D926" r:id="rId170"/>
-    <hyperlink ref="C924" r:id="rId171" location="join"/>
-    <hyperlink ref="D924" r:id="rId172"/>
-    <hyperlink ref="C923" r:id="rId173"/>
-    <hyperlink ref="C921" r:id="rId174"/>
-    <hyperlink ref="D921" r:id="rId175"/>
-    <hyperlink ref="C920" r:id="rId176"/>
-    <hyperlink ref="C919" r:id="rId177"/>
-    <hyperlink ref="D919" r:id="rId178"/>
-    <hyperlink ref="C917" r:id="rId179"/>
-    <hyperlink ref="D917" r:id="rId180"/>
-    <hyperlink ref="C915" r:id="rId181"/>
-    <hyperlink ref="D915" r:id="rId182"/>
-    <hyperlink ref="C913" r:id="rId183"/>
-    <hyperlink ref="D913" r:id="rId184"/>
-    <hyperlink ref="C912" r:id="rId185"/>
-    <hyperlink ref="C910" r:id="rId186"/>
-    <hyperlink ref="D910" r:id="rId187"/>
-    <hyperlink ref="D909" r:id="rId188"/>
-    <hyperlink ref="C909" r:id="rId189"/>
-    <hyperlink ref="C908" r:id="rId190"/>
-    <hyperlink ref="D908" r:id="rId191"/>
-    <hyperlink ref="C907" r:id="rId192"/>
-    <hyperlink ref="C904" r:id="rId193" location="careers"/>
-    <hyperlink ref="D903" r:id="rId194"/>
-    <hyperlink ref="C903" r:id="rId195"/>
+    <hyperlink ref="C934" r:id="rId160"/>
+    <hyperlink ref="C933" r:id="rId161"/>
+    <hyperlink ref="D933" r:id="rId162"/>
+    <hyperlink ref="C932" r:id="rId163"/>
+    <hyperlink ref="D932" r:id="rId164"/>
+    <hyperlink ref="C931" r:id="rId165"/>
+    <hyperlink ref="D931" r:id="rId166"/>
+    <hyperlink ref="C929" r:id="rId167"/>
+    <hyperlink ref="D929" r:id="rId168"/>
+    <hyperlink ref="C928" r:id="rId169"/>
+    <hyperlink ref="D928" r:id="rId170"/>
+    <hyperlink ref="C926" r:id="rId171" location="join"/>
+    <hyperlink ref="D926" r:id="rId172"/>
+    <hyperlink ref="C925" r:id="rId173"/>
+    <hyperlink ref="C923" r:id="rId174"/>
+    <hyperlink ref="D923" r:id="rId175"/>
+    <hyperlink ref="C922" r:id="rId176"/>
+    <hyperlink ref="C921" r:id="rId177"/>
+    <hyperlink ref="D921" r:id="rId178"/>
+    <hyperlink ref="C919" r:id="rId179"/>
+    <hyperlink ref="D919" r:id="rId180"/>
+    <hyperlink ref="C917" r:id="rId181"/>
+    <hyperlink ref="D917" r:id="rId182"/>
+    <hyperlink ref="C915" r:id="rId183"/>
+    <hyperlink ref="D915" r:id="rId184"/>
+    <hyperlink ref="C914" r:id="rId185"/>
+    <hyperlink ref="C912" r:id="rId186"/>
+    <hyperlink ref="D912" r:id="rId187"/>
+    <hyperlink ref="D911" r:id="rId188"/>
+    <hyperlink ref="C911" r:id="rId189"/>
+    <hyperlink ref="C910" r:id="rId190"/>
+    <hyperlink ref="D910" r:id="rId191"/>
+    <hyperlink ref="C909" r:id="rId192"/>
+    <hyperlink ref="C906" r:id="rId193" location="careers"/>
+    <hyperlink ref="D905" r:id="rId194"/>
+    <hyperlink ref="C905" r:id="rId195"/>
     <hyperlink ref="C640" r:id="rId196"/>
-    <hyperlink ref="C899" r:id="rId197"/>
-    <hyperlink ref="D899" r:id="rId198"/>
-    <hyperlink ref="C898" r:id="rId199"/>
-    <hyperlink ref="D898" r:id="rId200"/>
-    <hyperlink ref="C896" r:id="rId201"/>
-    <hyperlink ref="C895" r:id="rId202"/>
-    <hyperlink ref="D895" r:id="rId203"/>
-    <hyperlink ref="C894" r:id="rId204"/>
-    <hyperlink ref="D894" r:id="rId205"/>
-    <hyperlink ref="C893" r:id="rId206"/>
-    <hyperlink ref="D893" r:id="rId207"/>
-    <hyperlink ref="C892" r:id="rId208"/>
-    <hyperlink ref="C891" r:id="rId209" location="career_opp_section"/>
-    <hyperlink ref="C889" r:id="rId210"/>
-    <hyperlink ref="D889" r:id="rId211"/>
-    <hyperlink ref="C887" r:id="rId212"/>
-    <hyperlink ref="D887" r:id="rId213"/>
-    <hyperlink ref="C886" r:id="rId214"/>
-    <hyperlink ref="C885" r:id="rId215"/>
-    <hyperlink ref="C884" r:id="rId216"/>
-    <hyperlink ref="D884" r:id="rId217"/>
-    <hyperlink ref="C882" r:id="rId218"/>
-    <hyperlink ref="D882" r:id="rId219"/>
-    <hyperlink ref="C879" r:id="rId220"/>
-    <hyperlink ref="C878" r:id="rId221"/>
-    <hyperlink ref="D878" r:id="rId222"/>
-    <hyperlink ref="C876" r:id="rId223"/>
-    <hyperlink ref="D876" r:id="rId224"/>
-    <hyperlink ref="C875" r:id="rId225"/>
-    <hyperlink ref="C874" r:id="rId226"/>
-    <hyperlink ref="C873" r:id="rId227"/>
-    <hyperlink ref="C872" r:id="rId228"/>
-    <hyperlink ref="D871" r:id="rId229"/>
-    <hyperlink ref="C870" r:id="rId230"/>
-    <hyperlink ref="D870" r:id="rId231"/>
-    <hyperlink ref="C867" r:id="rId232"/>
-    <hyperlink ref="D867" r:id="rId233"/>
-    <hyperlink ref="C865" r:id="rId234"/>
-    <hyperlink ref="D865" r:id="rId235"/>
-    <hyperlink ref="C864" r:id="rId236" location="job-positions-table"/>
-    <hyperlink ref="D864" r:id="rId237"/>
-    <hyperlink ref="D863" r:id="rId238"/>
-    <hyperlink ref="C862" r:id="rId239"/>
-    <hyperlink ref="D862" r:id="rId240"/>
-    <hyperlink ref="C861" r:id="rId241"/>
-    <hyperlink ref="D861" r:id="rId242"/>
-    <hyperlink ref="C857" r:id="rId243"/>
-    <hyperlink ref="D856" r:id="rId244"/>
-    <hyperlink ref="D855" r:id="rId245"/>
-    <hyperlink ref="C854" r:id="rId246"/>
-    <hyperlink ref="C853" r:id="rId247"/>
-    <hyperlink ref="D853" r:id="rId248"/>
-    <hyperlink ref="C852" r:id="rId249"/>
-    <hyperlink ref="D852" r:id="rId250"/>
-    <hyperlink ref="C851" r:id="rId251"/>
-    <hyperlink ref="D851" r:id="rId252"/>
-    <hyperlink ref="D849" r:id="rId253"/>
-    <hyperlink ref="C846" r:id="rId254"/>
-    <hyperlink ref="D845" r:id="rId255"/>
-    <hyperlink ref="C844" r:id="rId256"/>
-    <hyperlink ref="D844" r:id="rId257"/>
-    <hyperlink ref="C842" r:id="rId258" location="open_positions"/>
-    <hyperlink ref="C839" r:id="rId259" location="opening-title"/>
-    <hyperlink ref="D839" r:id="rId260"/>
-    <hyperlink ref="C838" r:id="rId261"/>
-    <hyperlink ref="D838" r:id="rId262"/>
-    <hyperlink ref="C836" r:id="rId263"/>
-    <hyperlink ref="C835" r:id="rId264" location="job-list"/>
-    <hyperlink ref="D835" r:id="rId265"/>
-    <hyperlink ref="D832" r:id="rId266"/>
-    <hyperlink ref="C832" r:id="rId267"/>
-    <hyperlink ref="C831" r:id="rId268"/>
-    <hyperlink ref="C830" r:id="rId269" location="s-careers"/>
-    <hyperlink ref="C829" r:id="rId270"/>
-    <hyperlink ref="D829" r:id="rId271"/>
-    <hyperlink ref="C827" r:id="rId272"/>
-    <hyperlink ref="C825" r:id="rId273"/>
-    <hyperlink ref="D825" r:id="rId274"/>
-    <hyperlink ref="C824" r:id="rId275"/>
-    <hyperlink ref="C821" r:id="rId276"/>
-    <hyperlink ref="D821" r:id="rId277"/>
-    <hyperlink ref="C820" r:id="rId278"/>
-    <hyperlink ref="C819" r:id="rId279"/>
-    <hyperlink ref="D819" r:id="rId280"/>
-    <hyperlink ref="C818" r:id="rId281"/>
-    <hyperlink ref="C817" r:id="rId282"/>
-    <hyperlink ref="D817" r:id="rId283"/>
-    <hyperlink ref="C816" r:id="rId284"/>
-    <hyperlink ref="C815" r:id="rId285"/>
-    <hyperlink ref="C814" r:id="rId286"/>
-    <hyperlink ref="D814" r:id="rId287"/>
-    <hyperlink ref="C813" r:id="rId288"/>
-    <hyperlink ref="D813" r:id="rId289"/>
-    <hyperlink ref="D812" r:id="rId290"/>
-    <hyperlink ref="D811" r:id="rId291"/>
-    <hyperlink ref="C811" r:id="rId292"/>
+    <hyperlink ref="C901" r:id="rId197"/>
+    <hyperlink ref="D901" r:id="rId198"/>
+    <hyperlink ref="C900" r:id="rId199"/>
+    <hyperlink ref="D900" r:id="rId200"/>
+    <hyperlink ref="C898" r:id="rId201"/>
+    <hyperlink ref="C897" r:id="rId202"/>
+    <hyperlink ref="D897" r:id="rId203"/>
+    <hyperlink ref="C896" r:id="rId204"/>
+    <hyperlink ref="D896" r:id="rId205"/>
+    <hyperlink ref="C895" r:id="rId206"/>
+    <hyperlink ref="D895" r:id="rId207"/>
+    <hyperlink ref="C894" r:id="rId208"/>
+    <hyperlink ref="C893" r:id="rId209" location="career_opp_section"/>
+    <hyperlink ref="C891" r:id="rId210"/>
+    <hyperlink ref="D891" r:id="rId211"/>
+    <hyperlink ref="C889" r:id="rId212"/>
+    <hyperlink ref="D889" r:id="rId213"/>
+    <hyperlink ref="C888" r:id="rId214"/>
+    <hyperlink ref="C887" r:id="rId215"/>
+    <hyperlink ref="C886" r:id="rId216"/>
+    <hyperlink ref="D886" r:id="rId217"/>
+    <hyperlink ref="C884" r:id="rId218"/>
+    <hyperlink ref="D884" r:id="rId219"/>
+    <hyperlink ref="C881" r:id="rId220"/>
+    <hyperlink ref="C880" r:id="rId221"/>
+    <hyperlink ref="D880" r:id="rId222"/>
+    <hyperlink ref="C878" r:id="rId223"/>
+    <hyperlink ref="D878" r:id="rId224"/>
+    <hyperlink ref="C877" r:id="rId225"/>
+    <hyperlink ref="C875" r:id="rId226"/>
+    <hyperlink ref="C874" r:id="rId227"/>
+    <hyperlink ref="C873" r:id="rId228"/>
+    <hyperlink ref="D872" r:id="rId229"/>
+    <hyperlink ref="C871" r:id="rId230"/>
+    <hyperlink ref="D871" r:id="rId231"/>
+    <hyperlink ref="C868" r:id="rId232"/>
+    <hyperlink ref="D868" r:id="rId233"/>
+    <hyperlink ref="C866" r:id="rId234"/>
+    <hyperlink ref="D866" r:id="rId235"/>
+    <hyperlink ref="C865" r:id="rId236" location="job-positions-table"/>
+    <hyperlink ref="D865" r:id="rId237"/>
+    <hyperlink ref="D864" r:id="rId238"/>
+    <hyperlink ref="C863" r:id="rId239"/>
+    <hyperlink ref="D863" r:id="rId240"/>
+    <hyperlink ref="C862" r:id="rId241"/>
+    <hyperlink ref="D862" r:id="rId242"/>
+    <hyperlink ref="C858" r:id="rId243"/>
+    <hyperlink ref="D857" r:id="rId244"/>
+    <hyperlink ref="D856" r:id="rId245"/>
+    <hyperlink ref="C855" r:id="rId246"/>
+    <hyperlink ref="C854" r:id="rId247"/>
+    <hyperlink ref="D854" r:id="rId248"/>
+    <hyperlink ref="C853" r:id="rId249"/>
+    <hyperlink ref="D853" r:id="rId250"/>
+    <hyperlink ref="C852" r:id="rId251"/>
+    <hyperlink ref="D852" r:id="rId252"/>
+    <hyperlink ref="D850" r:id="rId253"/>
+    <hyperlink ref="C847" r:id="rId254"/>
+    <hyperlink ref="D846" r:id="rId255"/>
+    <hyperlink ref="C845" r:id="rId256"/>
+    <hyperlink ref="D845" r:id="rId257"/>
+    <hyperlink ref="C843" r:id="rId258" location="open_positions"/>
+    <hyperlink ref="C840" r:id="rId259" location="opening-title"/>
+    <hyperlink ref="D840" r:id="rId260"/>
+    <hyperlink ref="C839" r:id="rId261"/>
+    <hyperlink ref="D839" r:id="rId262"/>
+    <hyperlink ref="C837" r:id="rId263"/>
+    <hyperlink ref="C836" r:id="rId264" location="job-list"/>
+    <hyperlink ref="D836" r:id="rId265"/>
+    <hyperlink ref="D833" r:id="rId266"/>
+    <hyperlink ref="C833" r:id="rId267"/>
+    <hyperlink ref="C832" r:id="rId268"/>
+    <hyperlink ref="C831" r:id="rId269" location="s-careers"/>
+    <hyperlink ref="C830" r:id="rId270"/>
+    <hyperlink ref="D830" r:id="rId271"/>
+    <hyperlink ref="C828" r:id="rId272"/>
+    <hyperlink ref="C826" r:id="rId273"/>
+    <hyperlink ref="D826" r:id="rId274"/>
+    <hyperlink ref="C825" r:id="rId275"/>
+    <hyperlink ref="C822" r:id="rId276"/>
+    <hyperlink ref="D822" r:id="rId277"/>
+    <hyperlink ref="C821" r:id="rId278"/>
+    <hyperlink ref="C820" r:id="rId279"/>
+    <hyperlink ref="D820" r:id="rId280"/>
+    <hyperlink ref="C819" r:id="rId281"/>
+    <hyperlink ref="C818" r:id="rId282"/>
+    <hyperlink ref="D818" r:id="rId283"/>
+    <hyperlink ref="C817" r:id="rId284"/>
+    <hyperlink ref="C816" r:id="rId285"/>
+    <hyperlink ref="C815" r:id="rId286"/>
+    <hyperlink ref="D815" r:id="rId287"/>
+    <hyperlink ref="C814" r:id="rId288"/>
+    <hyperlink ref="D814" r:id="rId289"/>
+    <hyperlink ref="D813" r:id="rId290"/>
+    <hyperlink ref="D812" r:id="rId291"/>
+    <hyperlink ref="C812" r:id="rId292"/>
     <hyperlink ref="C806" r:id="rId293"/>
     <hyperlink ref="C805" r:id="rId294"/>
     <hyperlink ref="D805" r:id="rId295"/>
@@ -33049,8 +33195,8 @@
     <hyperlink ref="C736" r:id="rId383"/>
     <hyperlink ref="C733" r:id="rId384"/>
     <hyperlink ref="D733" r:id="rId385"/>
-    <hyperlink ref="C890" r:id="rId386"/>
-    <hyperlink ref="D890" r:id="rId387"/>
+    <hyperlink ref="C892" r:id="rId386"/>
+    <hyperlink ref="D892" r:id="rId387"/>
     <hyperlink ref="C732" r:id="rId388" location="section-open-positions"/>
     <hyperlink ref="D732" r:id="rId389"/>
     <hyperlink ref="C731" r:id="rId390"/>
@@ -33111,8 +33257,8 @@
     <hyperlink ref="D692" r:id="rId445"/>
     <hyperlink ref="C691" r:id="rId446" location="c-position"/>
     <hyperlink ref="D691" r:id="rId447"/>
-    <hyperlink ref="D989" r:id="rId448"/>
-    <hyperlink ref="C989" r:id="rId449"/>
+    <hyperlink ref="D993" r:id="rId448"/>
+    <hyperlink ref="C993" r:id="rId449"/>
     <hyperlink ref="C690" r:id="rId450"/>
     <hyperlink ref="D690" r:id="rId451"/>
     <hyperlink ref="D689" r:id="rId452"/>
@@ -33525,8 +33671,8 @@
     <hyperlink ref="D349" r:id="rId859"/>
     <hyperlink ref="C348" r:id="rId860"/>
     <hyperlink ref="D348" r:id="rId861"/>
-    <hyperlink ref="C850" r:id="rId862"/>
-    <hyperlink ref="D850" r:id="rId863"/>
+    <hyperlink ref="C851" r:id="rId862"/>
+    <hyperlink ref="D851" r:id="rId863"/>
     <hyperlink ref="C345" r:id="rId864"/>
     <hyperlink ref="D345" r:id="rId865"/>
     <hyperlink ref="C343" r:id="rId866"/>
@@ -33580,7 +33726,7 @@
     <hyperlink ref="D294" r:id="rId914"/>
     <hyperlink ref="C293" r:id="rId915"/>
     <hyperlink ref="C292" r:id="rId916"/>
-    <hyperlink ref="C290" r:id="rId917"/>
+    <hyperlink ref="C291" r:id="rId917"/>
     <hyperlink ref="C289" r:id="rId918"/>
     <hyperlink ref="D289" r:id="rId919"/>
     <hyperlink ref="C288" r:id="rId920"/>
@@ -33660,8 +33806,8 @@
     <hyperlink ref="D227" r:id="rId994"/>
     <hyperlink ref="C226" r:id="rId995"/>
     <hyperlink ref="C225" r:id="rId996"/>
-    <hyperlink ref="C840" r:id="rId997"/>
-    <hyperlink ref="D840" r:id="rId998"/>
+    <hyperlink ref="C841" r:id="rId997"/>
+    <hyperlink ref="D841" r:id="rId998"/>
     <hyperlink ref="C223" r:id="rId999"/>
     <hyperlink ref="D223" r:id="rId1000"/>
     <hyperlink ref="C222" r:id="rId1001"/>
@@ -33725,7 +33871,7 @@
     <hyperlink ref="C179" r:id="rId1058"/>
     <hyperlink ref="C385" r:id="rId1059"/>
     <hyperlink ref="D385" r:id="rId1060"/>
-    <hyperlink ref="C810" r:id="rId1061"/>
+    <hyperlink ref="C811" r:id="rId1061"/>
     <hyperlink ref="C177" r:id="rId1062" location="job-openings"/>
     <hyperlink ref="D177" r:id="rId1063"/>
     <hyperlink ref="C175" r:id="rId1064"/>
@@ -33795,8 +33941,8 @@
     <hyperlink ref="D110" r:id="rId1127"/>
     <hyperlink ref="C109" r:id="rId1128"/>
     <hyperlink ref="D109" r:id="rId1129"/>
-    <hyperlink ref="C940" r:id="rId1130"/>
-    <hyperlink ref="D940" r:id="rId1131"/>
+    <hyperlink ref="C942" r:id="rId1130"/>
+    <hyperlink ref="D942" r:id="rId1131"/>
     <hyperlink ref="C362" display="https://www.comeet.com/jobs/autoleadstar/54.002/?token=452159A159A8A4CF61E3E229019EC26E21148&amp;company-uid=54.002&amp;company-name=AutoLeadStar&amp;color=177acd&amp;font-size=13px&amp;css-cache=false&amp;css-url=https%3A%2F%2Fwww.autoleadstar.com%2Fwp-content%2Fthemes%2Fautole"/>
     <hyperlink ref="D362" r:id="rId1132"/>
     <hyperlink ref="C105" r:id="rId1133"/>
@@ -33907,13 +34053,13 @@
     <hyperlink ref="D8" r:id="rId1238"/>
     <hyperlink ref="D7" r:id="rId1239"/>
     <hyperlink ref="D6" r:id="rId1240"/>
-    <hyperlink ref="C1049" r:id="rId1241"/>
-    <hyperlink ref="D1049" r:id="rId1242"/>
-    <hyperlink ref="C1046" r:id="rId1243"/>
-    <hyperlink ref="D1046" r:id="rId1244"/>
-    <hyperlink ref="C1012" r:id="rId1245" location="new_job_s5"/>
-    <hyperlink ref="D933" r:id="rId1246"/>
-    <hyperlink ref="C933" r:id="rId1247"/>
+    <hyperlink ref="C1054" r:id="rId1241"/>
+    <hyperlink ref="D1054" r:id="rId1242"/>
+    <hyperlink ref="C1051" r:id="rId1243"/>
+    <hyperlink ref="D1051" r:id="rId1244"/>
+    <hyperlink ref="C1016" r:id="rId1245" location="new_job_s5"/>
+    <hyperlink ref="D935" r:id="rId1246"/>
+    <hyperlink ref="C935" r:id="rId1247"/>
     <hyperlink ref="C25" r:id="rId1248"/>
     <hyperlink ref="D25" r:id="rId1249"/>
     <hyperlink ref="C90" r:id="rId1250"/>
@@ -33967,40 +34113,40 @@
     <hyperlink ref="C674" r:id="rId1298"/>
     <hyperlink ref="D674" r:id="rId1299"/>
     <hyperlink ref="D704" r:id="rId1300"/>
-    <hyperlink ref="C822" r:id="rId1301"/>
-    <hyperlink ref="D822" r:id="rId1302"/>
-    <hyperlink ref="D866" r:id="rId1303"/>
-    <hyperlink ref="C883" r:id="rId1304"/>
-    <hyperlink ref="C901" r:id="rId1305"/>
-    <hyperlink ref="C902" r:id="rId1306"/>
-    <hyperlink ref="D902" r:id="rId1307"/>
-    <hyperlink ref="C905" r:id="rId1308"/>
-    <hyperlink ref="D905" r:id="rId1309"/>
-    <hyperlink ref="C951" r:id="rId1310"/>
+    <hyperlink ref="C823" r:id="rId1301"/>
+    <hyperlink ref="D823" r:id="rId1302"/>
+    <hyperlink ref="D867" r:id="rId1303"/>
+    <hyperlink ref="C885" r:id="rId1304"/>
+    <hyperlink ref="C903" r:id="rId1305"/>
+    <hyperlink ref="C904" r:id="rId1306"/>
+    <hyperlink ref="D904" r:id="rId1307"/>
+    <hyperlink ref="C907" r:id="rId1308"/>
+    <hyperlink ref="D907" r:id="rId1309"/>
+    <hyperlink ref="C955" r:id="rId1310"/>
     <hyperlink ref="C304" r:id="rId1311"/>
     <hyperlink ref="D190" r:id="rId1312"/>
     <hyperlink ref="C786" r:id="rId1313"/>
     <hyperlink ref="D786" r:id="rId1314"/>
-    <hyperlink ref="C928" r:id="rId1315"/>
-    <hyperlink ref="D928" r:id="rId1316"/>
+    <hyperlink ref="C930" r:id="rId1315"/>
+    <hyperlink ref="D930" r:id="rId1316"/>
     <hyperlink ref="C648" r:id="rId1317"/>
     <hyperlink ref="D648" r:id="rId1318"/>
     <hyperlink ref="C190" r:id="rId1319"/>
-    <hyperlink ref="C916" r:id="rId1320"/>
-    <hyperlink ref="D916" r:id="rId1321"/>
+    <hyperlink ref="C918" r:id="rId1320"/>
+    <hyperlink ref="D918" r:id="rId1321"/>
     <hyperlink ref="C600" r:id="rId1322"/>
     <hyperlink ref="D600" r:id="rId1323"/>
-    <hyperlink ref="D1009" r:id="rId1324"/>
+    <hyperlink ref="D1013" r:id="rId1324"/>
     <hyperlink ref="D593" r:id="rId1325"/>
     <hyperlink ref="D422" r:id="rId1326"/>
     <hyperlink ref="D139" r:id="rId1327"/>
     <hyperlink ref="D116" r:id="rId1328"/>
     <hyperlink ref="C495" r:id="rId1329"/>
     <hyperlink ref="D495" r:id="rId1330"/>
-    <hyperlink ref="C950" r:id="rId1331"/>
-    <hyperlink ref="D950" r:id="rId1332"/>
-    <hyperlink ref="C914" r:id="rId1333"/>
-    <hyperlink ref="D914" r:id="rId1334"/>
+    <hyperlink ref="C954" r:id="rId1331"/>
+    <hyperlink ref="D954" r:id="rId1332"/>
+    <hyperlink ref="C916" r:id="rId1333"/>
+    <hyperlink ref="D916" r:id="rId1334"/>
     <hyperlink ref="C524" r:id="rId1335"/>
     <hyperlink ref="D524" r:id="rId1336"/>
     <hyperlink ref="D67" r:id="rId1337"/>
@@ -34020,8 +34166,8 @@
     <hyperlink ref="D411" r:id="rId1351"/>
     <hyperlink ref="C612" r:id="rId1352" location="collapse11_collapse"/>
     <hyperlink ref="D612" r:id="rId1353"/>
-    <hyperlink ref="C954" r:id="rId1354"/>
-    <hyperlink ref="D954" r:id="rId1355"/>
+    <hyperlink ref="C958" r:id="rId1354"/>
+    <hyperlink ref="D958" r:id="rId1355"/>
     <hyperlink ref="C172" r:id="rId1356"/>
     <hyperlink ref="D172" r:id="rId1357"/>
     <hyperlink ref="C213" r:id="rId1358"/>
@@ -34029,31 +34175,31 @@
     <hyperlink ref="C734" r:id="rId1360"/>
     <hyperlink ref="D734" r:id="rId1361"/>
     <hyperlink ref="D189" r:id="rId1362"/>
-    <hyperlink ref="C847" r:id="rId1363"/>
-    <hyperlink ref="D847" r:id="rId1364"/>
-    <hyperlink ref="C964" r:id="rId1365"/>
+    <hyperlink ref="C848" r:id="rId1363"/>
+    <hyperlink ref="D848" r:id="rId1364"/>
+    <hyperlink ref="C968" r:id="rId1365"/>
     <hyperlink ref="C630" r:id="rId1366"/>
     <hyperlink ref="D630" r:id="rId1367"/>
-    <hyperlink ref="C965" r:id="rId1368"/>
-    <hyperlink ref="D965" r:id="rId1369"/>
+    <hyperlink ref="C969" r:id="rId1368"/>
+    <hyperlink ref="D969" r:id="rId1369"/>
     <hyperlink ref="D681" r:id="rId1370"/>
     <hyperlink ref="D700" r:id="rId1371"/>
-    <hyperlink ref="C906" r:id="rId1372"/>
-    <hyperlink ref="D906" r:id="rId1373"/>
-    <hyperlink ref="C869" r:id="rId1374"/>
-    <hyperlink ref="D869" r:id="rId1375"/>
+    <hyperlink ref="C908" r:id="rId1372"/>
+    <hyperlink ref="D908" r:id="rId1373"/>
+    <hyperlink ref="C870" r:id="rId1374"/>
+    <hyperlink ref="D870" r:id="rId1375"/>
     <hyperlink ref="C305" r:id="rId1376" location="open-positions"/>
     <hyperlink ref="C430" r:id="rId1377"/>
-    <hyperlink ref="B859" r:id="rId1378" display="https://www.linkedin.com/company/silverfort/life?lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3BjjZ4XIVfTD29DDJ9tZth9Q%3D%3D"/>
-    <hyperlink ref="C859" r:id="rId1379"/>
-    <hyperlink ref="D859" r:id="rId1380"/>
+    <hyperlink ref="B860" r:id="rId1378" display="https://www.linkedin.com/company/silverfort/life?lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_jobs%3BjjZ4XIVfTD29DDJ9tZth9Q%3D%3D"/>
+    <hyperlink ref="C860" r:id="rId1379"/>
+    <hyperlink ref="D860" r:id="rId1380"/>
     <hyperlink ref="D515" r:id="rId1381"/>
     <hyperlink ref="D533" r:id="rId1382"/>
     <hyperlink ref="D556" r:id="rId1383"/>
     <hyperlink ref="C570" r:id="rId1384"/>
     <hyperlink ref="C585" r:id="rId1385"/>
     <hyperlink ref="C591" r:id="rId1386"/>
-    <hyperlink ref="D1016" r:id="rId1387"/>
+    <hyperlink ref="D1020" r:id="rId1387"/>
     <hyperlink ref="D661" r:id="rId1388"/>
     <hyperlink ref="C661" r:id="rId1389"/>
     <hyperlink ref="C66" r:id="rId1390"/>
@@ -34078,18 +34224,18 @@
     <hyperlink ref="D788" r:id="rId1409"/>
     <hyperlink ref="C807" r:id="rId1410"/>
     <hyperlink ref="C808" r:id="rId1411"/>
-    <hyperlink ref="D818" r:id="rId1412"/>
-    <hyperlink ref="D858" r:id="rId1413"/>
-    <hyperlink ref="C858" r:id="rId1414"/>
-    <hyperlink ref="D891" r:id="rId1415"/>
-    <hyperlink ref="D904" r:id="rId1416"/>
-    <hyperlink ref="D912" r:id="rId1417"/>
-    <hyperlink ref="D923" r:id="rId1418"/>
-    <hyperlink ref="D966" r:id="rId1419"/>
-    <hyperlink ref="D985" r:id="rId1420"/>
-    <hyperlink ref="C1023" r:id="rId1421"/>
-    <hyperlink ref="C1024" r:id="rId1422"/>
-    <hyperlink ref="D1032" r:id="rId1423"/>
+    <hyperlink ref="D819" r:id="rId1412"/>
+    <hyperlink ref="D859" r:id="rId1413"/>
+    <hyperlink ref="C859" r:id="rId1414"/>
+    <hyperlink ref="D893" r:id="rId1415"/>
+    <hyperlink ref="D906" r:id="rId1416"/>
+    <hyperlink ref="D914" r:id="rId1417"/>
+    <hyperlink ref="D925" r:id="rId1418"/>
+    <hyperlink ref="D970" r:id="rId1419"/>
+    <hyperlink ref="D989" r:id="rId1420"/>
+    <hyperlink ref="C1027" r:id="rId1421"/>
+    <hyperlink ref="C1028" r:id="rId1422"/>
+    <hyperlink ref="D1036" r:id="rId1423"/>
     <hyperlink ref="D235" r:id="rId1424"/>
     <hyperlink ref="C235" r:id="rId1425" location="results"/>
     <hyperlink ref="D450" r:id="rId1426"/>
@@ -34098,25 +34244,25 @@
     <hyperlink ref="D516" r:id="rId1429"/>
     <hyperlink ref="D428" r:id="rId1430"/>
     <hyperlink ref="D735" r:id="rId1431"/>
-    <hyperlink ref="C963" r:id="rId1432" location="open-positions"/>
-    <hyperlink ref="D963" r:id="rId1433"/>
+    <hyperlink ref="C967" r:id="rId1432" location="open-positions"/>
+    <hyperlink ref="D967" r:id="rId1433"/>
     <hyperlink ref="D354" r:id="rId1434"/>
     <hyperlink ref="C354" r:id="rId1435"/>
-    <hyperlink ref="D981" r:id="rId1436"/>
+    <hyperlink ref="D985" r:id="rId1436"/>
     <hyperlink ref="C287" r:id="rId1437"/>
     <hyperlink ref="D287" r:id="rId1438"/>
     <hyperlink ref="D324" r:id="rId1439"/>
-    <hyperlink ref="C881" r:id="rId1440"/>
-    <hyperlink ref="D881" r:id="rId1441"/>
+    <hyperlink ref="C883" r:id="rId1440"/>
+    <hyperlink ref="D883" r:id="rId1441"/>
     <hyperlink ref="C744" r:id="rId1442" location="career-buttons"/>
     <hyperlink ref="C668" r:id="rId1443"/>
     <hyperlink ref="D668" r:id="rId1444"/>
-    <hyperlink ref="D971" r:id="rId1445"/>
-    <hyperlink ref="C823" r:id="rId1446"/>
-    <hyperlink ref="D823" r:id="rId1447"/>
+    <hyperlink ref="D975" r:id="rId1445"/>
+    <hyperlink ref="C824" r:id="rId1446"/>
+    <hyperlink ref="D824" r:id="rId1447"/>
     <hyperlink ref="C144" r:id="rId1448"/>
     <hyperlink ref="D144" r:id="rId1449"/>
-    <hyperlink ref="D957" r:id="rId1450"/>
+    <hyperlink ref="D961" r:id="rId1450"/>
     <hyperlink ref="C107" r:id="rId1451"/>
     <hyperlink ref="D464" r:id="rId1452"/>
     <hyperlink ref="D136" r:id="rId1453"/>
@@ -34132,7 +34278,7 @@
     <hyperlink ref="D510" r:id="rId1463"/>
     <hyperlink ref="C145" r:id="rId1464"/>
     <hyperlink ref="D145" r:id="rId1465"/>
-    <hyperlink ref="C848" r:id="rId1466"/>
+    <hyperlink ref="C849" r:id="rId1466"/>
     <hyperlink ref="C522" r:id="rId1467" location="positions"/>
     <hyperlink ref="D522" r:id="rId1468"/>
     <hyperlink ref="C10" r:id="rId1469"/>
@@ -34142,8 +34288,8 @@
     <hyperlink ref="D485" r:id="rId1473"/>
     <hyperlink ref="D365" r:id="rId1474"/>
     <hyperlink ref="C651" r:id="rId1475"/>
-    <hyperlink ref="D925" r:id="rId1476"/>
-    <hyperlink ref="C961" r:id="rId1477" location="openPositionSection"/>
+    <hyperlink ref="D927" r:id="rId1476"/>
+    <hyperlink ref="C965" r:id="rId1477" location="openPositionSection"/>
     <hyperlink ref="C3" r:id="rId1478"/>
     <hyperlink ref="D3" r:id="rId1479"/>
     <hyperlink ref="C15" r:id="rId1480"/>
@@ -34184,8 +34330,8 @@
     <hyperlink ref="C453" r:id="rId1515"/>
     <hyperlink ref="C512" r:id="rId1516" location="careers"/>
     <hyperlink ref="C793" r:id="rId1517"/>
-    <hyperlink ref="C959" r:id="rId1518" location="jobs"/>
-    <hyperlink ref="C993" r:id="rId1519" location="career"/>
+    <hyperlink ref="C963" r:id="rId1518" location="jobs"/>
+    <hyperlink ref="C997" r:id="rId1519" location="career"/>
     <hyperlink ref="C61" r:id="rId1520"/>
     <hyperlink ref="C202" r:id="rId1521"/>
     <hyperlink ref="D506" r:id="rId1522"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7170" uniqueCount="3555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7170" uniqueCount="3553">
   <si>
     <t>200apps</t>
   </si>
@@ -9421,9 +9421,6 @@
     <t>https://www.centraleyes.com/careers/</t>
   </si>
   <si>
-    <t>modiin-Maccabim-Reut</t>
-  </si>
-  <si>
     <t>Cervello</t>
   </si>
   <si>
@@ -9521,9 +9518,6 @@
   </si>
   <si>
     <t>https://www.linkedin.com/company/cynomi/jobs/</t>
-  </si>
-  <si>
-    <t>herzilya</t>
   </si>
   <si>
     <t>Cyolo</t>
@@ -11143,8 +11137,8 @@
   <sheetPr codeName="גיליון1"/>
   <dimension ref="A1:I1272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="E161" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11230,10 +11224,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3370</v>
+        <v>3368</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3371</v>
+        <v>3369</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="5" t="s">
@@ -11251,13 +11245,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3302</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3303</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3304</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>2266</v>
@@ -11363,13 +11357,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>3509</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>3511</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2337</v>
@@ -11406,13 +11400,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>3506</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>3507</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>3508</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2271</v>
@@ -11576,7 +11570,7 @@
         <v>2444</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11665,7 +11659,7 @@
         <v>2444</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11708,7 +11702,7 @@
         <v>2444</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12778,10 +12772,10 @@
         <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>3372</v>
+        <v>3370</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>3373</v>
+        <v>3371</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>2316</v>
@@ -12821,13 +12815,13 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>3548</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>3549</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>3550</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>2269</v>
@@ -12836,7 +12830,7 @@
         <v>2426</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>3169</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12899,7 +12893,7 @@
         <v>2444</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13079,13 +13073,13 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>3502</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>3503</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>3504</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>3505</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>2264</v>
@@ -13625,7 +13619,7 @@
         <v>2444</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13854,10 +13848,10 @@
         <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>2287</v>
@@ -14429,13 +14423,13 @@
         <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D149" s="7" t="s">
         <v>3551</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>3552</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>3553</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>2264</v>
@@ -14572,13 +14566,13 @@
         <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>3373</v>
+      </c>
+      <c r="D156" s="7" t="s">
         <v>3374</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>3375</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>3376</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>2264</v>
@@ -15683,10 +15677,10 @@
         <v>207</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>3308</v>
+        <v>3306</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>2293</v>
@@ -15715,7 +15709,7 @@
         <v>2443</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>3135</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15809,10 +15803,10 @@
         <v>213</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C213" s="7" t="s">
         <v>3136</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>3137</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>2273</v>
@@ -15872,13 +15866,13 @@
         <v>216</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C216" s="7" t="s">
         <v>3138</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="D216" s="7" t="s">
         <v>3139</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>3140</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>2264</v>
@@ -15918,13 +15912,13 @@
         <v>218</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>3375</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>3376</v>
+      </c>
+      <c r="D218" s="7" t="s">
         <v>3377</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>3378</v>
-      </c>
-      <c r="D218" s="7" t="s">
-        <v>3379</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>2266</v>
@@ -15987,13 +15981,13 @@
         <v>221</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C221" s="7" t="s">
         <v>3141</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="D221" s="7" t="s">
         <v>3142</v>
-      </c>
-      <c r="D221" s="7" t="s">
-        <v>3143</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>2273</v>
@@ -16168,13 +16162,13 @@
         <v>229</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>2264</v>
@@ -16572,13 +16566,13 @@
         <v>248</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>3144</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D248" s="7" t="s">
         <v>3145</v>
-      </c>
-      <c r="D248" s="7" t="s">
-        <v>3146</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>2336</v>
@@ -16681,13 +16675,13 @@
         <v>253</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C253" s="7" t="s">
         <v>3147</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="D253" s="7" t="s">
         <v>3148</v>
-      </c>
-      <c r="D253" s="7" t="s">
-        <v>3149</v>
       </c>
       <c r="E253" s="5" t="s">
         <v>2279</v>
@@ -16761,10 +16755,10 @@
         <v>257</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C257" s="7" t="s">
         <v>3150</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>3151</v>
       </c>
       <c r="E257" s="5" t="s">
         <v>2273</v>
@@ -16801,13 +16795,13 @@
         <v>259</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C259" s="7" t="s">
         <v>3152</v>
       </c>
-      <c r="C259" s="7" t="s">
+      <c r="D259" s="7" t="s">
         <v>3153</v>
-      </c>
-      <c r="D259" s="7" t="s">
-        <v>3154</v>
       </c>
       <c r="E259" s="5" t="s">
         <v>2279</v>
@@ -16890,16 +16884,16 @@
         <v>263</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>3513</v>
+      </c>
+      <c r="D263" s="7" t="s">
         <v>3514</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="E263" s="5" t="s">
         <v>3515</v>
-      </c>
-      <c r="D263" s="7" t="s">
-        <v>3516</v>
-      </c>
-      <c r="E263" s="5" t="s">
-        <v>3517</v>
       </c>
       <c r="F263" s="5" t="s">
         <v>2443</v>
@@ -17005,10 +16999,10 @@
         <v>268</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
       <c r="E268" s="12" t="s">
         <v>2310</v>
@@ -17048,10 +17042,10 @@
         <v>270</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>3380</v>
+        <v>3378</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>3381</v>
+        <v>3379</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>2264</v>
@@ -17174,13 +17168,13 @@
         <v>276</v>
       </c>
       <c r="B276" s="2" t="s">
+        <v>3457</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>3458</v>
+      </c>
+      <c r="D276" s="7" t="s">
         <v>3459</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>3460</v>
-      </c>
-      <c r="D276" s="7" t="s">
-        <v>3461</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>2316</v>
@@ -17352,10 +17346,10 @@
         <v>284</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>2400</v>
@@ -17395,13 +17389,13 @@
         <v>286</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C286" s="7" t="s">
         <v>3155</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="D286" s="7" t="s">
         <v>3156</v>
-      </c>
-      <c r="D286" s="7" t="s">
-        <v>3157</v>
       </c>
       <c r="E286" s="5" t="s">
         <v>2273</v>
@@ -17533,13 +17527,13 @@
         <v>292</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C292" s="7" t="s">
         <v>3158</v>
       </c>
-      <c r="C292" s="7" t="s">
+      <c r="D292" s="7" t="s">
         <v>3159</v>
-      </c>
-      <c r="D292" s="7" t="s">
-        <v>3160</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>2273</v>
@@ -17556,10 +17550,10 @@
         <v>293</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C293" s="7" t="s">
         <v>3161</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>3162</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>2273</v>
@@ -17737,13 +17731,13 @@
         <v>301</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C301" s="7" t="s">
         <v>3163</v>
       </c>
-      <c r="C301" s="7" t="s">
+      <c r="D301" s="7" t="s">
         <v>3164</v>
-      </c>
-      <c r="D301" s="7" t="s">
-        <v>3165</v>
       </c>
       <c r="E301" s="5" t="s">
         <v>2273</v>
@@ -17964,13 +17958,13 @@
         <v>311</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C311" s="7" t="s">
         <v>3166</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="D311" s="7" t="s">
         <v>3167</v>
-      </c>
-      <c r="D311" s="7" t="s">
-        <v>3168</v>
       </c>
       <c r="E311" s="5" t="s">
         <v>2273</v>
@@ -17979,7 +17973,7 @@
         <v>2426</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>3169</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17987,13 +17981,13 @@
         <v>312</v>
       </c>
       <c r="B312" s="2" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D312" s="7" t="s">
         <v>3170</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>3171</v>
-      </c>
-      <c r="D312" s="7" t="s">
-        <v>3172</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>2273</v>
@@ -18010,13 +18004,13 @@
         <v>313</v>
       </c>
       <c r="B313" s="2" t="s">
+        <v>3171</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>3172</v>
+      </c>
+      <c r="D313" s="7" t="s">
         <v>3173</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>3174</v>
-      </c>
-      <c r="D313" s="7" t="s">
-        <v>3175</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>2273</v>
@@ -18291,10 +18285,10 @@
         <v>326</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="E326" s="12" t="s">
         <v>2316</v>
@@ -18334,10 +18328,10 @@
         <v>328</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>2264</v>
@@ -18437,13 +18431,13 @@
         <v>333</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D333" s="7" t="s">
         <v>3309</v>
-      </c>
-      <c r="C333" s="7" t="s">
-        <v>3310</v>
-      </c>
-      <c r="D333" s="7" t="s">
-        <v>3311</v>
       </c>
       <c r="E333" s="5" t="s">
         <v>2337</v>
@@ -18506,13 +18500,13 @@
         <v>336</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="C336" s="16" t="s">
         <v>2195</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="E336" s="5" t="s">
         <v>2273</v>
@@ -18767,10 +18761,10 @@
         <v>348</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
       <c r="E348" s="5" t="s">
         <v>2264</v>
@@ -18787,10 +18781,10 @@
         <v>349</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="E349" s="5" t="s">
         <v>2384</v>
@@ -18807,13 +18801,13 @@
         <v>350</v>
       </c>
       <c r="B350" s="2" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D350" s="7" t="s">
         <v>3180</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>3181</v>
-      </c>
-      <c r="D350" s="7" t="s">
-        <v>3182</v>
       </c>
       <c r="E350" s="5" t="s">
         <v>2273</v>
@@ -18982,13 +18976,13 @@
         <v>358</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="C358" s="16" t="s">
         <v>2195</v>
       </c>
       <c r="D358" s="7" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="E358" s="5" t="s">
         <v>2273</v>
@@ -19550,10 +19544,10 @@
         <v>384</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="E384" s="5" t="s">
         <v>2273</v>
@@ -19716,10 +19710,10 @@
         <v>392</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="E392" s="5" t="s">
         <v>2279</v>
@@ -19925,13 +19919,13 @@
         <v>402</v>
       </c>
       <c r="B402" s="2" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>3311</v>
+      </c>
+      <c r="D402" s="7" t="s">
         <v>3312</v>
-      </c>
-      <c r="C402" s="7" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D402" s="7" t="s">
-        <v>3314</v>
       </c>
       <c r="E402" s="5" t="s">
         <v>2312</v>
@@ -20014,13 +20008,13 @@
         <v>406</v>
       </c>
       <c r="B406" s="2" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>3381</v>
+      </c>
+      <c r="D406" s="7" t="s">
         <v>3382</v>
-      </c>
-      <c r="C406" s="7" t="s">
-        <v>3383</v>
-      </c>
-      <c r="D406" s="7" t="s">
-        <v>3384</v>
       </c>
       <c r="E406" s="12" t="s">
         <v>2285</v>
@@ -20100,13 +20094,13 @@
         <v>410</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>3314</v>
+      </c>
+      <c r="D410" s="7" t="s">
         <v>3315</v>
-      </c>
-      <c r="C410" s="7" t="s">
-        <v>3316</v>
-      </c>
-      <c r="D410" s="7" t="s">
-        <v>3317</v>
       </c>
       <c r="E410" s="5" t="s">
         <v>2264</v>
@@ -20143,10 +20137,10 @@
         <v>412</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="E412" s="5" t="s">
         <v>2336</v>
@@ -20249,13 +20243,13 @@
         <v>417</v>
       </c>
       <c r="B417" s="2" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D417" s="7" t="s">
         <v>3320</v>
-      </c>
-      <c r="C417" s="7" t="s">
-        <v>3321</v>
-      </c>
-      <c r="D417" s="7" t="s">
-        <v>3322</v>
       </c>
       <c r="E417" s="5" t="s">
         <v>2264</v>
@@ -20318,13 +20312,13 @@
         <v>420</v>
       </c>
       <c r="B420" s="2" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D420" s="7" t="s">
         <v>3385</v>
-      </c>
-      <c r="C420" s="7" t="s">
-        <v>3386</v>
-      </c>
-      <c r="D420" s="7" t="s">
-        <v>3387</v>
       </c>
       <c r="E420" s="5" t="s">
         <v>2264</v>
@@ -20341,10 +20335,10 @@
         <v>421</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>3388</v>
+        <v>3386</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>3389</v>
+        <v>3387</v>
       </c>
       <c r="E421" s="5" t="s">
         <v>2264</v>
@@ -20361,10 +20355,10 @@
         <v>422</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>3390</v>
+        <v>3388</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>3391</v>
+        <v>3389</v>
       </c>
       <c r="E422" s="5" t="s">
         <v>2266</v>
@@ -20427,10 +20421,10 @@
         <v>425</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
       <c r="E425" s="5" t="s">
         <v>2273</v>
@@ -20622,13 +20616,13 @@
         <v>434</v>
       </c>
       <c r="B434" s="2" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D434" s="7" t="s">
         <v>3189</v>
-      </c>
-      <c r="C434" s="7" t="s">
-        <v>3190</v>
-      </c>
-      <c r="D434" s="7" t="s">
-        <v>3191</v>
       </c>
       <c r="E434" s="5" t="s">
         <v>2264</v>
@@ -20691,10 +20685,10 @@
         <v>437</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="E437" s="5" t="s">
         <v>2333</v>
@@ -20703,7 +20697,7 @@
         <v>2444</v>
       </c>
       <c r="G437" s="5" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="438" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20780,10 +20774,10 @@
         <v>441</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>3392</v>
+        <v>3390</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>3393</v>
+        <v>3391</v>
       </c>
       <c r="E441" s="5" t="s">
         <v>2284</v>
@@ -20889,13 +20883,13 @@
         <v>446</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D446" s="7" t="s">
         <v>3394</v>
-      </c>
-      <c r="C446" s="7" t="s">
-        <v>3395</v>
-      </c>
-      <c r="D446" s="7" t="s">
-        <v>3396</v>
       </c>
       <c r="E446" s="5" t="s">
         <v>2266</v>
@@ -21118,10 +21112,10 @@
         <v>457</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="E457" s="5" t="s">
         <v>2312</v>
@@ -21207,13 +21201,13 @@
         <v>461</v>
       </c>
       <c r="B461" s="2" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D461" s="7" t="s">
         <v>3328</v>
-      </c>
-      <c r="C461" s="7" t="s">
-        <v>3329</v>
-      </c>
-      <c r="D461" s="7" t="s">
-        <v>3330</v>
       </c>
       <c r="E461" s="5" t="s">
         <v>2278</v>
@@ -21602,10 +21596,10 @@
         <v>480</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="F480" s="5" t="s">
         <v>2426</v>
@@ -21754,13 +21748,13 @@
         <v>487</v>
       </c>
       <c r="B487" s="2" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C487" s="7" t="s">
+        <v>3463</v>
+      </c>
+      <c r="D487" s="7" t="s">
         <v>3464</v>
-      </c>
-      <c r="C487" s="7" t="s">
-        <v>3465</v>
-      </c>
-      <c r="D487" s="7" t="s">
-        <v>3466</v>
       </c>
       <c r="E487" s="5" t="s">
         <v>2264</v>
@@ -21797,13 +21791,13 @@
         <v>489</v>
       </c>
       <c r="B489" s="2" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C489" s="7" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D489" s="7" t="s">
         <v>3192</v>
-      </c>
-      <c r="C489" s="7" t="s">
-        <v>3193</v>
-      </c>
-      <c r="D489" s="7" t="s">
-        <v>3194</v>
       </c>
       <c r="E489" s="5" t="s">
         <v>2273</v>
@@ -21820,13 +21814,13 @@
         <v>490</v>
       </c>
       <c r="B490" s="2" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C490" s="7" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D490" s="7" t="s">
         <v>3195</v>
-      </c>
-      <c r="C490" s="7" t="s">
-        <v>3196</v>
-      </c>
-      <c r="D490" s="7" t="s">
-        <v>3197</v>
       </c>
       <c r="E490" s="5" t="s">
         <v>2273</v>
@@ -21972,13 +21966,13 @@
         <v>497</v>
       </c>
       <c r="B497" s="2" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C497" s="7" t="s">
+        <v>3293</v>
+      </c>
+      <c r="D497" s="7" t="s">
         <v>3294</v>
-      </c>
-      <c r="C497" s="7" t="s">
-        <v>3295</v>
-      </c>
-      <c r="D497" s="7" t="s">
-        <v>3296</v>
       </c>
       <c r="E497" s="5" t="s">
         <v>2275</v>
@@ -22081,13 +22075,13 @@
         <v>502</v>
       </c>
       <c r="B502" s="2" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C502" s="7" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D502" s="7" t="s">
         <v>3198</v>
-      </c>
-      <c r="C502" s="7" t="s">
-        <v>3199</v>
-      </c>
-      <c r="D502" s="7" t="s">
-        <v>3200</v>
       </c>
       <c r="E502" s="5" t="s">
         <v>2264</v>
@@ -22173,10 +22167,10 @@
         <v>506</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="E506" s="5" t="s">
         <v>2286</v>
@@ -22368,10 +22362,10 @@
         <v>515</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>3331</v>
+        <v>3329</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="E515" s="5" t="s">
         <v>2294</v>
@@ -22523,13 +22517,13 @@
         <v>522</v>
       </c>
       <c r="B522" s="2" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C522" s="7" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D522" s="7" t="s">
         <v>3203</v>
-      </c>
-      <c r="C522" s="7" t="s">
-        <v>3204</v>
-      </c>
-      <c r="D522" s="7" t="s">
-        <v>3205</v>
       </c>
       <c r="E522" s="5" t="s">
         <v>2273</v>
@@ -22698,13 +22692,13 @@
         <v>530</v>
       </c>
       <c r="B530" s="2" t="s">
+        <v>3452</v>
+      </c>
+      <c r="C530" s="7" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D530" s="7" t="s">
         <v>3454</v>
-      </c>
-      <c r="C530" s="7" t="s">
-        <v>3455</v>
-      </c>
-      <c r="D530" s="7" t="s">
-        <v>3456</v>
       </c>
       <c r="E530" s="5" t="s">
         <v>2264</v>
@@ -22810,13 +22804,13 @@
         <v>535</v>
       </c>
       <c r="B535" s="2" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C535" s="7" t="s">
+        <v>3466</v>
+      </c>
+      <c r="D535" s="7" t="s">
         <v>3467</v>
-      </c>
-      <c r="C535" s="7" t="s">
-        <v>3468</v>
-      </c>
-      <c r="D535" s="7" t="s">
-        <v>3469</v>
       </c>
       <c r="E535" s="5" t="s">
         <v>2287</v>
@@ -22899,10 +22893,10 @@
         <v>539</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="E539" s="5" t="s">
         <v>2273</v>
@@ -23174,13 +23168,13 @@
         <v>552</v>
       </c>
       <c r="B552" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C552" s="7" t="s">
+        <v>3207</v>
+      </c>
+      <c r="D552" s="7" t="s">
         <v>3208</v>
-      </c>
-      <c r="C552" s="7" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D552" s="7" t="s">
-        <v>3210</v>
       </c>
       <c r="E552" s="5" t="s">
         <v>2273</v>
@@ -23283,10 +23277,10 @@
         <v>557</v>
       </c>
       <c r="B557" s="19" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>3398</v>
+        <v>3396</v>
       </c>
       <c r="E557" s="5" t="s">
         <v>2285</v>
@@ -23303,10 +23297,10 @@
         <v>558</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="E558" s="5" t="s">
         <v>2285</v>
@@ -23558,13 +23552,13 @@
         <v>570</v>
       </c>
       <c r="B570" s="2" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C570" s="7" t="s">
+        <v>3400</v>
+      </c>
+      <c r="D570" s="7" t="s">
         <v>3401</v>
-      </c>
-      <c r="C570" s="7" t="s">
-        <v>3402</v>
-      </c>
-      <c r="D570" s="7" t="s">
-        <v>3403</v>
       </c>
       <c r="E570" s="5" t="s">
         <v>2264</v>
@@ -23762,13 +23756,13 @@
         <v>579</v>
       </c>
       <c r="B579" s="2" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C579" s="7" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D579" s="7" t="s">
         <v>3404</v>
-      </c>
-      <c r="C579" s="7" t="s">
-        <v>3405</v>
-      </c>
-      <c r="D579" s="7" t="s">
-        <v>3406</v>
       </c>
       <c r="E579" s="5" t="s">
         <v>2266</v>
@@ -23931,13 +23925,13 @@
         <v>587</v>
       </c>
       <c r="B587" s="2" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C587" s="7" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D587" s="7" t="s">
         <v>3333</v>
-      </c>
-      <c r="C587" s="7" t="s">
-        <v>3334</v>
-      </c>
-      <c r="D587" s="7" t="s">
-        <v>3335</v>
       </c>
       <c r="E587" s="5" t="s">
         <v>2266</v>
@@ -23954,16 +23948,16 @@
         <v>588</v>
       </c>
       <c r="B588" s="2" t="s">
+        <v>3334</v>
+      </c>
+      <c r="C588" s="7" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D588" s="7" t="s">
         <v>3336</v>
       </c>
-      <c r="C588" s="7" t="s">
+      <c r="E588" s="5" t="s">
         <v>3337</v>
-      </c>
-      <c r="D588" s="7" t="s">
-        <v>3338</v>
-      </c>
-      <c r="E588" s="5" t="s">
-        <v>3339</v>
       </c>
       <c r="F588" s="5" t="s">
         <v>2426</v>
@@ -23977,10 +23971,10 @@
         <v>589</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="C589" s="7" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="E589" s="5" t="s">
         <v>2273</v>
@@ -24247,7 +24241,7 @@
         <v>2444</v>
       </c>
       <c r="G601" s="5" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="602" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24625,10 +24619,10 @@
         <v>619</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="C619" s="7" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="E619" s="5" t="s">
         <v>2278</v>
@@ -24938,10 +24932,10 @@
         <v>633</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>3215</v>
+        <v>3213</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="E633" s="5" t="s">
         <v>2264</v>
@@ -25093,13 +25087,13 @@
         <v>640</v>
       </c>
       <c r="B640" s="20" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C640" s="7" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D640" s="7" t="s">
         <v>3407</v>
-      </c>
-      <c r="C640" s="7" t="s">
-        <v>3408</v>
-      </c>
-      <c r="D640" s="7" t="s">
-        <v>3409</v>
       </c>
       <c r="E640" s="5" t="s">
         <v>2360</v>
@@ -25231,13 +25225,13 @@
         <v>646</v>
       </c>
       <c r="B646" s="20" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C646" s="7" t="s">
+        <v>3409</v>
+      </c>
+      <c r="D646" s="7" t="s">
         <v>3410</v>
-      </c>
-      <c r="C646" s="7" t="s">
-        <v>3411</v>
-      </c>
-      <c r="D646" s="7" t="s">
-        <v>3412</v>
       </c>
       <c r="E646" s="5" t="s">
         <v>2266</v>
@@ -25363,13 +25357,13 @@
         <v>652</v>
       </c>
       <c r="B652" s="2" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C652" s="7" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D652" s="7" t="s">
         <v>3528</v>
-      </c>
-      <c r="C652" s="7" t="s">
-        <v>3529</v>
-      </c>
-      <c r="D652" s="7" t="s">
-        <v>3530</v>
       </c>
       <c r="E652" s="5" t="s">
         <v>2264</v>
@@ -25870,10 +25864,10 @@
         <v>676</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="E676" s="5" t="s">
         <v>2264</v>
@@ -26002,16 +25996,16 @@
         <v>682</v>
       </c>
       <c r="B682" s="2" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C682" s="7" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D682" s="7" t="s">
         <v>3470</v>
       </c>
-      <c r="C682" s="7" t="s">
+      <c r="E682" s="5" t="s">
         <v>3471</v>
-      </c>
-      <c r="D682" s="7" t="s">
-        <v>3472</v>
-      </c>
-      <c r="E682" s="5" t="s">
-        <v>3473</v>
       </c>
       <c r="F682" s="5" t="s">
         <v>2426</v>
@@ -26370,7 +26364,7 @@
         <v>2444</v>
       </c>
       <c r="G698" s="5" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="699" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26378,10 +26372,10 @@
         <v>699</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
       <c r="C699" s="7" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="E699" s="5" t="s">
         <v>2287</v>
@@ -26860,13 +26854,13 @@
         <v>721</v>
       </c>
       <c r="B721" s="2" t="s">
+        <v>3411</v>
+      </c>
+      <c r="C721" s="7" t="s">
+        <v>3412</v>
+      </c>
+      <c r="D721" s="7" t="s">
         <v>3413</v>
-      </c>
-      <c r="C721" s="7" t="s">
-        <v>3414</v>
-      </c>
-      <c r="D721" s="7" t="s">
-        <v>3415</v>
       </c>
       <c r="E721" s="5" t="s">
         <v>2264</v>
@@ -27313,13 +27307,13 @@
         <v>742</v>
       </c>
       <c r="B742" s="2" t="s">
+        <v>3215</v>
+      </c>
+      <c r="C742" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="D742" s="7" t="s">
         <v>3217</v>
-      </c>
-      <c r="C742" s="7" t="s">
-        <v>3218</v>
-      </c>
-      <c r="D742" s="7" t="s">
-        <v>3219</v>
       </c>
       <c r="E742" s="5" t="s">
         <v>2273</v>
@@ -27861,13 +27855,13 @@
         <v>767</v>
       </c>
       <c r="B767" s="2" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C767" s="7" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D767" s="7" t="s">
         <v>3342</v>
-      </c>
-      <c r="C767" s="7" t="s">
-        <v>3343</v>
-      </c>
-      <c r="D767" s="7" t="s">
-        <v>3344</v>
       </c>
       <c r="E767" s="5" t="s">
         <v>2278</v>
@@ -27991,7 +27985,7 @@
         <v>2444</v>
       </c>
       <c r="G772" s="5" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="773" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28073,13 +28067,13 @@
         <v>777</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="C777" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D777" s="7" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="E777" s="5" t="s">
         <v>2273</v>
@@ -28400,13 +28394,13 @@
         <v>792</v>
       </c>
       <c r="B792" s="2" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C792" s="7" t="s">
+        <v>3221</v>
+      </c>
+      <c r="D792" s="7" t="s">
         <v>3222</v>
-      </c>
-      <c r="C792" s="7" t="s">
-        <v>3223</v>
-      </c>
-      <c r="D792" s="7" t="s">
-        <v>3224</v>
       </c>
       <c r="E792" s="5" t="s">
         <v>2273</v>
@@ -29040,13 +29034,13 @@
         <v>821</v>
       </c>
       <c r="B821" s="2" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C821" s="7" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D821" s="7" t="s">
         <v>3225</v>
-      </c>
-      <c r="C821" s="7" t="s">
-        <v>3226</v>
-      </c>
-      <c r="D821" s="7" t="s">
-        <v>3227</v>
       </c>
       <c r="E821" s="5" t="s">
         <v>2273</v>
@@ -29109,13 +29103,13 @@
         <v>824</v>
       </c>
       <c r="B824" s="2" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C824" s="7" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D824" s="7" t="s">
         <v>3479</v>
-      </c>
-      <c r="C824" s="7" t="s">
-        <v>3480</v>
-      </c>
-      <c r="D824" s="7" t="s">
-        <v>3481</v>
       </c>
       <c r="E824" s="5" t="s">
         <v>2287</v>
@@ -29224,10 +29218,10 @@
         <v>829</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="C829" s="7" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="E829" s="5" t="s">
         <v>2266</v>
@@ -29448,13 +29442,13 @@
         <v>839</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
       <c r="C839" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D839" s="7" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
       <c r="E839" s="5" t="s">
         <v>2285</v>
@@ -29471,13 +29465,13 @@
         <v>840</v>
       </c>
       <c r="B840" s="2" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C840" s="7" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D840" s="7" t="s">
         <v>3420</v>
-      </c>
-      <c r="C840" s="7" t="s">
-        <v>3421</v>
-      </c>
-      <c r="D840" s="7" t="s">
-        <v>3422</v>
       </c>
       <c r="E840" s="5" t="s">
         <v>2294</v>
@@ -29580,13 +29574,13 @@
         <v>845</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
       <c r="C845" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D845" s="7" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="E845" s="5" t="s">
         <v>2266</v>
@@ -29626,13 +29620,13 @@
         <v>847</v>
       </c>
       <c r="B847" s="2" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C847" s="7" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D847" s="7" t="s">
         <v>3425</v>
-      </c>
-      <c r="C847" s="7" t="s">
-        <v>3426</v>
-      </c>
-      <c r="D847" s="7" t="s">
-        <v>3427</v>
       </c>
       <c r="E847" s="5" t="s">
         <v>2264</v>
@@ -29649,13 +29643,13 @@
         <v>848</v>
       </c>
       <c r="B848" s="2" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C848" s="7" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D848" s="7" t="s">
         <v>3482</v>
-      </c>
-      <c r="C848" s="7" t="s">
-        <v>3483</v>
-      </c>
-      <c r="D848" s="7" t="s">
-        <v>3484</v>
       </c>
       <c r="E848" s="5" t="s">
         <v>2316</v>
@@ -29664,7 +29658,7 @@
         <v>2444</v>
       </c>
       <c r="G848" s="5" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="849" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29715,13 +29709,13 @@
         <v>851</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
       <c r="C851" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D851" s="7" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="E851" s="5" t="s">
         <v>2264</v>
@@ -30017,7 +30011,7 @@
         <v>2444</v>
       </c>
       <c r="G864" s="5" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="865" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30117,13 +30111,13 @@
         <v>869</v>
       </c>
       <c r="B869" s="2" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C869" s="7" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D869" s="7" t="s">
         <v>3485</v>
-      </c>
-      <c r="C869" s="7" t="s">
-        <v>3486</v>
-      </c>
-      <c r="D869" s="7" t="s">
-        <v>3487</v>
       </c>
       <c r="E869" s="5" t="s">
         <v>2287</v>
@@ -30157,13 +30151,13 @@
         <v>871</v>
       </c>
       <c r="B871" s="2" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C871" s="7" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D871" s="7" t="s">
         <v>3476</v>
-      </c>
-      <c r="C871" s="7" t="s">
-        <v>3477</v>
-      </c>
-      <c r="D871" s="7" t="s">
-        <v>3478</v>
       </c>
       <c r="E871" s="5" t="s">
         <v>2264</v>
@@ -30177,10 +30171,10 @@
         <v>872</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="C872" s="7" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="E872" s="5" t="s">
         <v>2912</v>
@@ -30197,13 +30191,13 @@
         <v>873</v>
       </c>
       <c r="B873" s="2" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C873" s="7" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D873" s="7" t="s">
         <v>3490</v>
-      </c>
-      <c r="C873" s="7" t="s">
-        <v>3491</v>
-      </c>
-      <c r="D873" s="7" t="s">
-        <v>3492</v>
       </c>
       <c r="E873" s="5" t="s">
         <v>2287</v>
@@ -30266,13 +30260,13 @@
         <v>876</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="C876" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D876" s="7" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
       <c r="E876" s="5" t="s">
         <v>2269</v>
@@ -30335,10 +30329,10 @@
         <v>879</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="C879" s="7" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
       <c r="E879" s="5" t="s">
         <v>2378</v>
@@ -30579,13 +30573,13 @@
         <v>890</v>
       </c>
       <c r="B890" s="2" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C890" s="7" t="s">
+        <v>3227</v>
+      </c>
+      <c r="D890" s="7" t="s">
         <v>3228</v>
-      </c>
-      <c r="C890" s="7" t="s">
-        <v>3229</v>
-      </c>
-      <c r="D890" s="7" t="s">
-        <v>3230</v>
       </c>
       <c r="E890" s="5" t="s">
         <v>2273</v>
@@ -31191,10 +31185,10 @@
         <v>917</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>3231</v>
+        <v>3229</v>
       </c>
       <c r="C917" s="7" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
       <c r="E917" s="5" t="s">
         <v>2273</v>
@@ -31315,7 +31309,7 @@
         <v>2444</v>
       </c>
       <c r="G922" s="5" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="923" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31633,13 +31627,13 @@
         <v>937</v>
       </c>
       <c r="B937" s="2" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C937" s="7" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D937" s="7" t="s">
         <v>3235</v>
-      </c>
-      <c r="C937" s="7" t="s">
-        <v>3236</v>
-      </c>
-      <c r="D937" s="7" t="s">
-        <v>3237</v>
       </c>
       <c r="E937" s="5" t="s">
         <v>2273</v>
@@ -31679,13 +31673,13 @@
         <v>939</v>
       </c>
       <c r="B939" s="2" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C939" s="7" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D939" s="7" t="s">
         <v>3430</v>
-      </c>
-      <c r="C939" s="7" t="s">
-        <v>3431</v>
-      </c>
-      <c r="D939" s="7" t="s">
-        <v>3432</v>
       </c>
       <c r="E939" s="5" t="s">
         <v>2266</v>
@@ -31742,10 +31736,10 @@
         <v>942</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="C942" s="7" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="E942" s="5" t="s">
         <v>2273</v>
@@ -31762,16 +31756,16 @@
         <v>943</v>
       </c>
       <c r="B943" s="2" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C943" s="7" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D943" s="7" t="s">
         <v>3345</v>
       </c>
-      <c r="C943" s="7" t="s">
+      <c r="E943" s="5" t="s">
         <v>3346</v>
-      </c>
-      <c r="D943" s="7" t="s">
-        <v>3347</v>
-      </c>
-      <c r="E943" s="5" t="s">
-        <v>3348</v>
       </c>
       <c r="F943" s="5" t="s">
         <v>2426</v>
@@ -31828,13 +31822,13 @@
         <v>946</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="C946" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D946" s="7" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
       <c r="E946" s="5" t="s">
         <v>2278</v>
@@ -31961,10 +31955,10 @@
         <v>952</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="C952" s="7" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="E952" s="5" t="s">
         <v>2404</v>
@@ -32153,13 +32147,13 @@
         <v>961</v>
       </c>
       <c r="B961" s="2" t="s">
+        <v>3349</v>
+      </c>
+      <c r="C961" s="7" t="s">
+        <v>3350</v>
+      </c>
+      <c r="D961" s="7" t="s">
         <v>3351</v>
-      </c>
-      <c r="C961" s="7" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D961" s="7" t="s">
-        <v>3353</v>
       </c>
       <c r="E961" s="5" t="s">
         <v>2278</v>
@@ -32199,13 +32193,13 @@
         <v>963</v>
       </c>
       <c r="B963" s="2" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C963" s="7" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D963" s="7" t="s">
         <v>3238</v>
-      </c>
-      <c r="C963" s="7" t="s">
-        <v>3239</v>
-      </c>
-      <c r="D963" s="7" t="s">
-        <v>3240</v>
       </c>
       <c r="E963" s="5" t="s">
         <v>2273</v>
@@ -32314,10 +32308,10 @@
         <v>968</v>
       </c>
       <c r="B968" s="2" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
       <c r="C968" s="7" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
       <c r="E968" s="5" t="s">
         <v>2273</v>
@@ -32599,10 +32593,10 @@
         <v>981</v>
       </c>
       <c r="B981" s="2" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="C981" s="7" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="E981" s="5" t="s">
         <v>2266</v>
@@ -32642,13 +32636,13 @@
         <v>983</v>
       </c>
       <c r="B983" s="2" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C983" s="7" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D983" s="7" t="s">
         <v>3493</v>
-      </c>
-      <c r="C983" s="7" t="s">
-        <v>3494</v>
-      </c>
-      <c r="D983" s="7" t="s">
-        <v>3495</v>
       </c>
       <c r="E983" s="5" t="s">
         <v>2287</v>
@@ -32662,10 +32656,10 @@
         <v>984</v>
       </c>
       <c r="B984" s="2" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
       <c r="C984" s="7" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
       <c r="E984" s="5" t="s">
         <v>2273</v>
@@ -32682,10 +32676,10 @@
         <v>985</v>
       </c>
       <c r="B985" s="2" t="s">
-        <v>3245</v>
+        <v>3243</v>
       </c>
       <c r="C985" s="7" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
       <c r="E985" s="5" t="s">
         <v>2278</v>
@@ -32748,7 +32742,7 @@
         <v>1664</v>
       </c>
       <c r="C988" s="7" t="s">
-        <v>3554</v>
+        <v>3552</v>
       </c>
       <c r="D988" s="7" t="s">
         <v>1665</v>
@@ -32788,10 +32782,10 @@
         <v>990</v>
       </c>
       <c r="B990" s="2" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
       <c r="C990" s="7" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
       <c r="E990" s="5" t="s">
         <v>2273</v>
@@ -32808,10 +32802,10 @@
         <v>991</v>
       </c>
       <c r="B991" s="2" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="C991" s="7" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
       <c r="E991" s="5" t="s">
         <v>2279</v>
@@ -32828,13 +32822,13 @@
         <v>992</v>
       </c>
       <c r="B992" s="2" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C992" s="7" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D992" s="7" t="s">
         <v>3251</v>
-      </c>
-      <c r="C992" s="7" t="s">
-        <v>3252</v>
-      </c>
-      <c r="D992" s="7" t="s">
-        <v>3253</v>
       </c>
       <c r="E992" s="5" t="s">
         <v>2273</v>
@@ -32914,13 +32908,13 @@
         <v>996</v>
       </c>
       <c r="B996" s="2" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C996" s="7" t="s">
+        <v>3253</v>
+      </c>
+      <c r="D996" s="7" t="s">
         <v>3254</v>
-      </c>
-      <c r="C996" s="7" t="s">
-        <v>3255</v>
-      </c>
-      <c r="D996" s="7" t="s">
-        <v>3256</v>
       </c>
       <c r="E996" s="5" t="s">
         <v>2273</v>
@@ -33106,10 +33100,10 @@
         <v>1005</v>
       </c>
       <c r="B1005" s="2" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="C1005" s="7" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="E1005" s="5" t="s">
         <v>2266</v>
@@ -33746,13 +33740,13 @@
         <v>1034</v>
       </c>
       <c r="B1034" s="2" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C1034" s="7" t="s">
+        <v>3353</v>
+      </c>
+      <c r="D1034" s="7" t="s">
         <v>3354</v>
-      </c>
-      <c r="C1034" s="7" t="s">
-        <v>3355</v>
-      </c>
-      <c r="D1034" s="7" t="s">
-        <v>3356</v>
       </c>
       <c r="E1034" s="5" t="s">
         <v>2278</v>
@@ -33830,7 +33824,7 @@
         <v>2444</v>
       </c>
       <c r="G1037" s="5" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1038" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -34345,13 +34339,13 @@
         <v>1062</v>
       </c>
       <c r="B1062" s="2" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C1062" s="7" t="s">
+        <v>3436</v>
+      </c>
+      <c r="D1062" s="7" t="s">
         <v>3437</v>
-      </c>
-      <c r="C1062" s="7" t="s">
-        <v>3438</v>
-      </c>
-      <c r="D1062" s="7" t="s">
-        <v>3439</v>
       </c>
       <c r="E1062" s="5" t="s">
         <v>2264</v>
@@ -34368,13 +34362,13 @@
         <v>1063</v>
       </c>
       <c r="B1063" s="2" t="s">
+        <v>3355</v>
+      </c>
+      <c r="C1063" s="7" t="s">
+        <v>3356</v>
+      </c>
+      <c r="D1063" s="7" t="s">
         <v>3357</v>
-      </c>
-      <c r="C1063" s="7" t="s">
-        <v>3358</v>
-      </c>
-      <c r="D1063" s="7" t="s">
-        <v>3359</v>
       </c>
       <c r="E1063" s="5" t="s">
         <v>2264</v>
@@ -34683,13 +34677,13 @@
         <v>1077</v>
       </c>
       <c r="B1077" s="2" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C1077" s="7" t="s">
+        <v>3439</v>
+      </c>
+      <c r="D1077" s="7" t="s">
         <v>3440</v>
-      </c>
-      <c r="C1077" s="7" t="s">
-        <v>3441</v>
-      </c>
-      <c r="D1077" s="7" t="s">
-        <v>3442</v>
       </c>
       <c r="E1077" s="5" t="s">
         <v>2266</v>
@@ -34704,13 +34698,13 @@
         <v>1078</v>
       </c>
       <c r="B1078" s="2" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="C1078" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D1078" s="7" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="E1078" s="5" t="s">
         <v>2264</v>
@@ -34752,13 +34746,13 @@
         <v>1080</v>
       </c>
       <c r="B1080" s="2" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C1080" s="7" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D1080" s="7" t="s">
         <v>3496</v>
-      </c>
-      <c r="C1080" s="7" t="s">
-        <v>3497</v>
-      </c>
-      <c r="D1080" s="7" t="s">
-        <v>3498</v>
       </c>
       <c r="E1080" s="5" t="s">
         <v>2316</v>
@@ -34776,13 +34770,13 @@
         <v>1081</v>
       </c>
       <c r="B1081" s="2" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C1081" s="7" t="s">
+        <v>3442</v>
+      </c>
+      <c r="D1081" s="7" t="s">
         <v>3443</v>
-      </c>
-      <c r="C1081" s="7" t="s">
-        <v>3444</v>
-      </c>
-      <c r="D1081" s="7" t="s">
-        <v>3445</v>
       </c>
       <c r="E1081" s="5" t="s">
         <v>2264</v>
@@ -35301,13 +35295,13 @@
         <v>1104</v>
       </c>
       <c r="B1104" s="2" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C1104" s="7" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D1104" s="7" t="s">
         <v>3446</v>
-      </c>
-      <c r="C1104" s="7" t="s">
-        <v>3447</v>
-      </c>
-      <c r="D1104" s="7" t="s">
-        <v>3448</v>
       </c>
       <c r="E1104" s="5" t="s">
         <v>2266</v>
@@ -35462,13 +35456,13 @@
         <v>1111</v>
       </c>
       <c r="B1111" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C1111" s="7" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D1111" s="7" t="s">
         <v>3257</v>
-      </c>
-      <c r="C1111" s="7" t="s">
-        <v>3258</v>
-      </c>
-      <c r="D1111" s="7" t="s">
-        <v>3259</v>
       </c>
       <c r="E1111" s="5" t="s">
         <v>2273</v>
@@ -35597,13 +35591,13 @@
         <v>1117</v>
       </c>
       <c r="B1117" s="2" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C1117" s="7" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D1117" s="7" t="s">
         <v>3260</v>
-      </c>
-      <c r="C1117" s="7" t="s">
-        <v>3261</v>
-      </c>
-      <c r="D1117" s="7" t="s">
-        <v>3262</v>
       </c>
       <c r="E1117" s="5" t="s">
         <v>2278</v>
@@ -35620,13 +35614,13 @@
         <v>1118</v>
       </c>
       <c r="B1118" s="2" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C1118" s="7" t="s">
+        <v>3359</v>
+      </c>
+      <c r="D1118" s="7" t="s">
         <v>3360</v>
-      </c>
-      <c r="C1118" s="7" t="s">
-        <v>3361</v>
-      </c>
-      <c r="D1118" s="7" t="s">
-        <v>3362</v>
       </c>
       <c r="E1118" s="5" t="s">
         <v>2269</v>
@@ -35758,13 +35752,13 @@
         <v>1124</v>
       </c>
       <c r="B1124" s="2" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
       <c r="C1124" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D1124" s="7" t="s">
-        <v>3264</v>
+        <v>3262</v>
       </c>
       <c r="E1124" s="5" t="s">
         <v>2273</v>
@@ -35850,13 +35844,13 @@
         <v>1128</v>
       </c>
       <c r="B1128" s="2" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C1128" s="7" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D1128" s="7" t="s">
         <v>3299</v>
-      </c>
-      <c r="C1128" s="7" t="s">
-        <v>3300</v>
-      </c>
-      <c r="D1128" s="7" t="s">
-        <v>3301</v>
       </c>
       <c r="E1128" s="5" t="s">
         <v>2278</v>
@@ -36002,13 +35996,13 @@
         <v>1135</v>
       </c>
       <c r="B1135" s="2" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C1135" s="7" t="s">
+        <v>3264</v>
+      </c>
+      <c r="D1135" s="18" t="s">
         <v>3265</v>
-      </c>
-      <c r="C1135" s="7" t="s">
-        <v>3266</v>
-      </c>
-      <c r="D1135" s="18" t="s">
-        <v>3267</v>
       </c>
       <c r="E1135" s="5" t="s">
         <v>2273</v>
@@ -36197,10 +36191,10 @@
         <v>1144</v>
       </c>
       <c r="B1144" s="2" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
       <c r="C1144" s="7" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
       <c r="E1144" s="5" t="s">
         <v>2294</v>
@@ -36286,13 +36280,13 @@
         <v>1148</v>
       </c>
       <c r="B1148" s="2" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
       <c r="C1148" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D1148" s="7" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="E1148" s="5" t="s">
         <v>2293</v>
@@ -36332,13 +36326,13 @@
         <v>1150</v>
       </c>
       <c r="B1150" s="2" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
       <c r="C1150" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D1150" s="7" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="E1150" s="5" t="s">
         <v>2264</v>
@@ -36461,10 +36455,10 @@
         <v>1156</v>
       </c>
       <c r="B1156" s="2" t="s">
-        <v>3365</v>
+        <v>3363</v>
       </c>
       <c r="C1156" s="7" t="s">
-        <v>3366</v>
+        <v>3364</v>
       </c>
       <c r="E1156" s="5" t="s">
         <v>2264</v>
@@ -36550,13 +36544,13 @@
         <v>1160</v>
       </c>
       <c r="B1160" s="2" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C1160" s="7" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D1160" s="7" t="s">
         <v>3449</v>
-      </c>
-      <c r="C1160" s="7" t="s">
-        <v>3450</v>
-      </c>
-      <c r="D1160" s="7" t="s">
-        <v>3451</v>
       </c>
       <c r="E1160" s="5" t="s">
         <v>2266</v>
@@ -36642,13 +36636,13 @@
         <v>1164</v>
       </c>
       <c r="B1164" s="2" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C1164" s="7" t="s">
+        <v>3271</v>
+      </c>
+      <c r="D1164" s="7" t="s">
         <v>3272</v>
-      </c>
-      <c r="C1164" s="7" t="s">
-        <v>3273</v>
-      </c>
-      <c r="D1164" s="7" t="s">
-        <v>3274</v>
       </c>
       <c r="E1164" s="5" t="s">
         <v>2273</v>
@@ -36751,13 +36745,13 @@
         <v>1169</v>
       </c>
       <c r="B1169" s="2" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C1169" s="7" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D1169" s="7" t="s">
         <v>3275</v>
-      </c>
-      <c r="C1169" s="7" t="s">
-        <v>3276</v>
-      </c>
-      <c r="D1169" s="7" t="s">
-        <v>3277</v>
       </c>
       <c r="E1169" s="5" t="s">
         <v>2273</v>
@@ -36797,13 +36791,13 @@
         <v>1171</v>
       </c>
       <c r="B1171" s="2" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C1171" s="8" t="s">
+        <v>3536</v>
+      </c>
+      <c r="D1171" s="7" t="s">
         <v>3537</v>
-      </c>
-      <c r="C1171" s="8" t="s">
-        <v>3538</v>
-      </c>
-      <c r="D1171" s="7" t="s">
-        <v>3539</v>
       </c>
       <c r="E1171" s="5" t="s">
         <v>2269</v>
@@ -37024,13 +37018,13 @@
         <v>1181</v>
       </c>
       <c r="B1181" s="2" t="s">
+        <v>3365</v>
+      </c>
+      <c r="C1181" s="8" t="s">
+        <v>3366</v>
+      </c>
+      <c r="D1181" s="7" t="s">
         <v>3367</v>
-      </c>
-      <c r="C1181" s="8" t="s">
-        <v>3368</v>
-      </c>
-      <c r="D1181" s="7" t="s">
-        <v>3369</v>
       </c>
       <c r="E1181" s="5" t="s">
         <v>2264</v>
@@ -37093,10 +37087,10 @@
         <v>1184</v>
       </c>
       <c r="B1184" s="2" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
       <c r="C1184" s="8" t="s">
-        <v>3279</v>
+        <v>3277</v>
       </c>
       <c r="E1184" s="5" t="s">
         <v>2273</v>
@@ -37271,13 +37265,13 @@
         <v>1192</v>
       </c>
       <c r="B1192" s="2" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C1192" s="8" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D1192" s="7" t="s">
         <v>3280</v>
-      </c>
-      <c r="C1192" s="8" t="s">
-        <v>3281</v>
-      </c>
-      <c r="D1192" s="7" t="s">
-        <v>3282</v>
       </c>
       <c r="E1192" s="5" t="s">
         <v>2273</v>
@@ -37785,7 +37779,7 @@
         <v>1215</v>
       </c>
       <c r="B1215" s="2" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="C1215" s="7" t="s">
         <v>891</v>
@@ -37851,13 +37845,13 @@
         <v>1218</v>
       </c>
       <c r="B1218" s="2" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="C1218" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D1218" s="7" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="E1218" s="5" t="s">
         <v>2266</v>
@@ -38121,10 +38115,10 @@
         <v>1230</v>
       </c>
       <c r="B1230" s="2" t="s">
-        <v>3283</v>
+        <v>3281</v>
       </c>
       <c r="C1230" s="7" t="s">
-        <v>3284</v>
+        <v>3282</v>
       </c>
       <c r="E1230" s="5" t="s">
         <v>2273</v>
@@ -38141,10 +38135,10 @@
         <v>1231</v>
       </c>
       <c r="B1231" s="2" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
       <c r="C1231" s="7" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="E1231" s="5" t="s">
         <v>2281</v>
@@ -38204,13 +38198,13 @@
         <v>1234</v>
       </c>
       <c r="B1234" s="2" t="s">
+        <v>3283</v>
+      </c>
+      <c r="C1234" s="7" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D1234" s="7" t="s">
         <v>3285</v>
-      </c>
-      <c r="C1234" s="7" t="s">
-        <v>3286</v>
-      </c>
-      <c r="D1234" s="7" t="s">
-        <v>3287</v>
       </c>
       <c r="E1234" s="5" t="s">
         <v>2273</v>
@@ -38313,13 +38307,13 @@
         <v>1239</v>
       </c>
       <c r="B1239" s="2" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C1239" s="7" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D1239" s="7" t="s">
         <v>3288</v>
-      </c>
-      <c r="C1239" s="7" t="s">
-        <v>3289</v>
-      </c>
-      <c r="D1239" s="7" t="s">
-        <v>3290</v>
       </c>
       <c r="E1239" s="5" t="s">
         <v>2273</v>
@@ -38471,10 +38465,10 @@
         <v>1246</v>
       </c>
       <c r="B1246" s="2" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C1246" s="7" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="E1246" s="5" t="s">
         <v>2287</v>
@@ -38729,10 +38723,10 @@
         <v>1258</v>
       </c>
       <c r="B1258" s="2" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
       <c r="C1258" s="7" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="E1258" s="5" t="s">
         <v>2264</v>
@@ -38764,7 +38758,7 @@
         <v>2444</v>
       </c>
       <c r="G1259" s="5" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1260" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -38795,13 +38789,13 @@
         <v>1261</v>
       </c>
       <c r="B1261" s="2" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="C1261" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D1261" s="7" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="E1261" s="5" t="s">
         <v>2287</v>
@@ -38887,13 +38881,13 @@
         <v>1265</v>
       </c>
       <c r="B1265" s="2" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
       <c r="C1265" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="D1265" s="7" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
       <c r="E1265" s="5" t="s">
         <v>2416</v>
@@ -39042,13 +39036,13 @@
         <v>1272</v>
       </c>
       <c r="B1272" s="2" t="s">
+        <v>3289</v>
+      </c>
+      <c r="C1272" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D1272" s="7" t="s">
         <v>3291</v>
-      </c>
-      <c r="C1272" s="1" t="s">
-        <v>3292</v>
-      </c>
-      <c r="D1272" s="7" t="s">
-        <v>3293</v>
       </c>
       <c r="E1272" s="5" t="s">
         <v>2273</v>
